--- a/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（S200）社員画面.xlsx
+++ b/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（S200）社員画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arc100.sharepoint.com/sites/msteams_059e6f/Shared Documents/20_基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_yoshiara\Desktop\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="508" documentId="13_ncr:1_{E342BE51-B75E-4DC2-92AA-31E84F457ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC72E05A-76AE-4069-9AA6-49648057D37A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E811AB4-01DF-4CBF-B60D-A49C39471B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{FFFAB72E-45D2-41BB-8725-BDB5F683A970}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFFAB72E-45D2-41BB-8725-BDB5F683A970}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト" sheetId="7" r:id="rId1"/>
@@ -662,9 +662,6 @@
     <t>セッションの利用者ID</t>
   </si>
   <si>
-    <t>セッションスコープから取得された利用者IDを追加</t>
-  </si>
-  <si>
     <t>日付</t>
   </si>
   <si>
@@ -681,13 +678,6 @@
   </si>
   <si>
     <t>現在時刻を補正した時刻</t>
-  </si>
-  <si>
-    <t>8:59以前の場合は9:00に補正
-9:00以降の場合は15分刻みで補正する（9:05→9:15）</t>
-  </si>
-  <si>
-    <t>No2.UPDATE[退勤]</t>
   </si>
   <si>
     <t>退勤時刻</t>
@@ -722,6 +712,41 @@
   </si>
   <si>
     <t>改訂内容</t>
+  </si>
+  <si>
+    <t>15分刻みで補正する（9:05→9:15）</t>
+  </si>
+  <si>
+    <t>No2.UPDATE[退勤] &lt;条件&gt; 現在の日付 = [打刻.日付] AND セッションの利用者ID = [打刻.利用者ID]</t>
+    <rPh sb="16" eb="18">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セッションスコープから取得された利用者IDを追加</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1122,7 +1147,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1411,6 +1436,15 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1435,18 +1469,36 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1456,9 +1508,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1468,20 +1517,80 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1492,102 +1601,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1606,45 +1666,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2571,9 +2605,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2611,7 +2645,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2717,7 +2751,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2859,7 +2893,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2869,13 +2903,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02347AC-2E94-4033-865C-C4152A82F2C5}">
   <dimension ref="A1:BY31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:77" ht="22.15">
+    <row r="1" spans="1:77" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +2988,7 @@
       <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
     </row>
-    <row r="2" spans="1:77" ht="22.15">
+    <row r="2" spans="1:77" ht="24">
       <c r="A2" s="80" t="s">
         <v>1</v>
       </c>
@@ -3215,7 +3247,7 @@
       <c r="BX4" s="2"/>
       <c r="BY4" s="2"/>
     </row>
-    <row r="5" spans="1:77" ht="22.15">
+    <row r="5" spans="1:77" ht="24">
       <c r="A5" s="84"/>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
@@ -3226,42 +3258,42 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="164" t="s">
+      <c r="I5" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="165"/>
-      <c r="K5" s="165"/>
-      <c r="L5" s="165"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="165"/>
-      <c r="O5" s="165"/>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="165"/>
-      <c r="R5" s="165"/>
-      <c r="S5" s="165"/>
-      <c r="T5" s="165"/>
-      <c r="U5" s="165"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="165"/>
-      <c r="AP5" s="166"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="98"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
@@ -3346,7 +3378,7 @@
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
     </row>
-    <row r="7" spans="1:77" ht="22.15">
+    <row r="7" spans="1:77" ht="24">
       <c r="A7" s="24"/>
       <c r="T7" s="42"/>
       <c r="U7" s="43"/>
@@ -3427,18 +3459,18 @@
       <c r="A9" s="24"/>
       <c r="C9" s="46"/>
       <c r="P9" s="47"/>
-      <c r="Q9" s="96" t="s">
+      <c r="Q9" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
       <c r="AN9" s="40"/>
       <c r="AP9" s="25"/>
       <c r="AW9" s="1"/>
@@ -3460,16 +3492,16 @@
     <row r="10" spans="1:77" ht="18.75" customHeight="1">
       <c r="A10" s="24"/>
       <c r="C10" s="46"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="99"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="99"/>
       <c r="AN10" s="40"/>
       <c r="AP10" s="40"/>
       <c r="AX10" s="2"/>
@@ -3492,16 +3524,16 @@
       <c r="A11" s="24"/>
       <c r="C11" s="46"/>
       <c r="Q11" s="48"/>
-      <c r="R11" s="97" t="s">
+      <c r="R11" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="100"/>
       <c r="AN11" s="40"/>
       <c r="AP11" s="25"/>
     </row>
@@ -3509,14 +3541,14 @@
       <c r="A12" s="24"/>
       <c r="C12" s="46"/>
       <c r="Q12" s="49"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="100"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="100"/>
       <c r="AN12" s="40"/>
       <c r="AP12" s="25"/>
     </row>
@@ -3529,32 +3561,32 @@
     <row r="14" spans="1:77" ht="18.75" customHeight="1">
       <c r="A14" s="24"/>
       <c r="C14" s="46"/>
-      <c r="Q14" s="98" t="s">
+      <c r="Q14" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="100"/>
-      <c r="W14" s="98" t="s">
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="103"/>
+      <c r="W14" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="100"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="103"/>
       <c r="AN14" s="40"/>
       <c r="AP14" s="25"/>
     </row>
     <row r="15" spans="1:77" ht="18.75" customHeight="1">
       <c r="A15" s="24"/>
       <c r="C15" s="46"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="103"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="103"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="106"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="106"/>
       <c r="AN15" s="40"/>
       <c r="AP15" s="25"/>
     </row>
@@ -3778,10 +3810,10 @@
   <dimension ref="A1:BY12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="16384" width="2.75" style="7"/>
   </cols>
@@ -3868,94 +3900,94 @@
       <c r="BY1" s="1"/>
     </row>
     <row r="2" spans="1:77" s="3" customFormat="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="112" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="112" t="s">
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="112" t="s">
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="113"/>
-      <c r="W2" s="112" t="s">
+      <c r="V2" s="121"/>
+      <c r="W2" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="112" t="s">
+      <c r="X2" s="121"/>
+      <c r="Y2" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="112" t="s">
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="114" t="s">
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="114"/>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="114"/>
-      <c r="AL2" s="114"/>
-      <c r="AM2" s="114"/>
-      <c r="AN2" s="114"/>
-      <c r="AO2" s="114"/>
-      <c r="AP2" s="114"/>
-      <c r="AQ2" s="114"/>
-      <c r="AR2" s="114"/>
-      <c r="AS2" s="114"/>
-      <c r="AT2" s="114"/>
-      <c r="AU2" s="114"/>
-      <c r="AV2" s="114"/>
-      <c r="AW2" s="114"/>
-      <c r="AX2" s="114"/>
-      <c r="AY2" s="114"/>
-      <c r="AZ2" s="114"/>
-      <c r="BA2" s="114"/>
-      <c r="BB2" s="113"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
+      <c r="AR2" s="122"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="122"/>
+      <c r="AU2" s="122"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="122"/>
+      <c r="AY2" s="122"/>
+      <c r="AZ2" s="122"/>
+      <c r="BA2" s="122"/>
+      <c r="BB2" s="121"/>
     </row>
     <row r="3" spans="1:77" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="115">
+      <c r="A3" s="109">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="119"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="113"/>
       <c r="M3" s="69"/>
       <c r="N3" s="69"/>
       <c r="O3" s="69"/>
@@ -4000,52 +4032,52 @@
       <c r="BB3" s="68"/>
     </row>
     <row r="4" spans="1:77">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="108" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="109" t="s">
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="104" t="s">
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="105"/>
-      <c r="W4" s="104" t="s">
+      <c r="V4" s="116"/>
+      <c r="W4" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="104" t="s">
+      <c r="X4" s="116"/>
+      <c r="Y4" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="111"/>
-      <c r="AB4" s="111"/>
-      <c r="AC4" s="111"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="104">
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="115"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="114">
         <v>10</v>
       </c>
-      <c r="AF4" s="105"/>
+      <c r="AF4" s="116"/>
       <c r="AG4" s="4" t="s">
         <v>35</v>
       </c>
@@ -4072,52 +4104,52 @@
       <c r="BB4" s="6"/>
     </row>
     <row r="5" spans="1:77">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="109" t="s">
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="104" t="s">
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="105"/>
-      <c r="W5" s="104" t="s">
+      <c r="V5" s="116"/>
+      <c r="W5" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="104" t="s">
+      <c r="X5" s="116"/>
+      <c r="Y5" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="111"/>
-      <c r="AB5" s="111"/>
-      <c r="AC5" s="111"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="104">
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="114">
         <v>10</v>
       </c>
-      <c r="AF5" s="105"/>
+      <c r="AF5" s="116"/>
       <c r="AG5" s="4" t="s">
         <v>40</v>
       </c>
@@ -4144,22 +4176,22 @@
       <c r="BB5" s="6"/>
     </row>
     <row r="6" spans="1:77" ht="12.75" customHeight="1">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="117" t="s">
+      <c r="B6" s="108"/>
+      <c r="C6" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="119"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="113"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -4204,52 +4236,52 @@
       <c r="BB6" s="6"/>
     </row>
     <row r="7" spans="1:77">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="108" t="s">
+      <c r="B7" s="108"/>
+      <c r="C7" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="108" t="s">
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="104" t="s">
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="105"/>
-      <c r="W7" s="104" t="s">
+      <c r="V7" s="116"/>
+      <c r="W7" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="104" t="s">
+      <c r="X7" s="116"/>
+      <c r="Y7" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="104" t="s">
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="AF7" s="105"/>
+      <c r="AF7" s="116"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
@@ -4274,52 +4306,52 @@
       <c r="BB7" s="6"/>
     </row>
     <row r="8" spans="1:77">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="108" t="s">
+      <c r="B8" s="108"/>
+      <c r="C8" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="108" t="s">
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="104" t="s">
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="105"/>
-      <c r="W8" s="104" t="s">
+      <c r="V8" s="116"/>
+      <c r="W8" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="104" t="s">
+      <c r="X8" s="116"/>
+      <c r="Y8" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="104" t="s">
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="AF8" s="105"/>
+      <c r="AF8" s="116"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
@@ -4344,22 +4376,22 @@
       <c r="BB8" s="6"/>
     </row>
     <row r="9" spans="1:77" ht="12.75" customHeight="1">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="119"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="113"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -4404,52 +4436,52 @@
       <c r="BB9" s="6"/>
     </row>
     <row r="10" spans="1:77">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="108" t="s">
+      <c r="B10" s="108"/>
+      <c r="C10" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="108" t="s">
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="104" t="s">
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="105"/>
-      <c r="W10" s="104" t="s">
+      <c r="V10" s="116"/>
+      <c r="W10" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="105"/>
-      <c r="Y10" s="104" t="s">
+      <c r="X10" s="116"/>
+      <c r="Y10" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="111"/>
-      <c r="AB10" s="111"/>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="104" t="s">
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="AF10" s="105"/>
+      <c r="AF10" s="116"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
@@ -4474,52 +4506,52 @@
       <c r="BB10" s="6"/>
     </row>
     <row r="11" spans="1:77">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108" t="s">
+      <c r="B11" s="108"/>
+      <c r="C11" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="108" t="s">
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="104" t="s">
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="105"/>
-      <c r="W11" s="104" t="s">
+      <c r="V11" s="116"/>
+      <c r="W11" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="X11" s="105"/>
-      <c r="Y11" s="104" t="s">
+      <c r="X11" s="116"/>
+      <c r="Y11" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="111"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="105"/>
-      <c r="AE11" s="104" t="s">
+      <c r="Z11" s="115"/>
+      <c r="AA11" s="115"/>
+      <c r="AB11" s="115"/>
+      <c r="AC11" s="115"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="AF11" s="105"/>
+      <c r="AF11" s="116"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
@@ -4544,38 +4576,38 @@
       <c r="BB11" s="6"/>
     </row>
     <row r="12" spans="1:77">
-      <c r="A12" s="106"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="105"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="111"/>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="111"/>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="105"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="105"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="115"/>
+      <c r="AA12" s="115"/>
+      <c r="AB12" s="115"/>
+      <c r="AC12" s="115"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="114"/>
+      <c r="AF12" s="116"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
@@ -4601,47 +4633,13 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="Y12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AD5"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:BB2"/>
     <mergeCell ref="A4:B4"/>
@@ -4657,13 +4655,47 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C9:L9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AI2:AI3">
@@ -4678,11 +4710,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866C40FC-8D04-46C4-8E1C-8FF9B98D5FE5}">
   <dimension ref="A1:CK19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR13" sqref="AR13:BB13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="19" width="2.75" style="3"/>
     <col min="20" max="20" width="2.75" style="3" customWidth="1"/>
@@ -4785,97 +4817,97 @@
       <c r="CK1" s="8"/>
     </row>
     <row r="2" spans="1:89">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112" t="s">
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112" t="s">
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="112"/>
-      <c r="AL2" s="112"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
-      <c r="AQ2" s="112"/>
-      <c r="AR2" s="112" t="s">
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="120"/>
+      <c r="AJ2" s="120"/>
+      <c r="AK2" s="120"/>
+      <c r="AL2" s="120"/>
+      <c r="AM2" s="120"/>
+      <c r="AN2" s="120"/>
+      <c r="AO2" s="120"/>
+      <c r="AP2" s="120"/>
+      <c r="AQ2" s="120"/>
+      <c r="AR2" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="AS2" s="114"/>
-      <c r="AT2" s="114"/>
-      <c r="AU2" s="114"/>
-      <c r="AV2" s="114"/>
-      <c r="AW2" s="114"/>
-      <c r="AX2" s="114"/>
-      <c r="AY2" s="114"/>
-      <c r="AZ2" s="114"/>
-      <c r="BA2" s="114"/>
-      <c r="BB2" s="113"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="122"/>
+      <c r="AU2" s="122"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="122"/>
+      <c r="AY2" s="122"/>
+      <c r="AZ2" s="122"/>
+      <c r="BA2" s="122"/>
+      <c r="BB2" s="121"/>
     </row>
     <row r="3" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="104" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
       <c r="T3" s="55" t="s">
         <v>57</v>
       </c>
@@ -4893,25 +4925,25 @@
       <c r="BB3" s="11"/>
     </row>
     <row r="4" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="127"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="139"/>
       <c r="T4" s="55" t="s">
         <v>58</v>
       </c>
@@ -4978,32 +5010,32 @@
       <c r="C7" s="55"/>
       <c r="M7" s="55"/>
       <c r="S7" s="54"/>
-      <c r="T7" s="141" t="s">
+      <c r="T7" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="142"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="142"/>
-      <c r="Y7" s="142"/>
-      <c r="Z7" s="142"/>
-      <c r="AA7" s="142"/>
-      <c r="AB7" s="142"/>
-      <c r="AC7" s="142"/>
-      <c r="AD7" s="142"/>
-      <c r="AE7" s="142"/>
-      <c r="AF7" s="142"/>
-      <c r="AG7" s="142"/>
-      <c r="AH7" s="142"/>
-      <c r="AI7" s="142"/>
-      <c r="AJ7" s="142"/>
-      <c r="AK7" s="142"/>
-      <c r="AL7" s="142"/>
-      <c r="AM7" s="142"/>
-      <c r="AN7" s="142"/>
-      <c r="AO7" s="142"/>
-      <c r="AP7" s="142"/>
-      <c r="AQ7" s="143"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="134"/>
+      <c r="W7" s="134"/>
+      <c r="X7" s="134"/>
+      <c r="Y7" s="134"/>
+      <c r="Z7" s="134"/>
+      <c r="AA7" s="134"/>
+      <c r="AB7" s="134"/>
+      <c r="AC7" s="134"/>
+      <c r="AD7" s="134"/>
+      <c r="AE7" s="134"/>
+      <c r="AF7" s="134"/>
+      <c r="AG7" s="134"/>
+      <c r="AH7" s="134"/>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="134"/>
+      <c r="AK7" s="134"/>
+      <c r="AL7" s="134"/>
+      <c r="AM7" s="134"/>
+      <c r="AN7" s="134"/>
+      <c r="AO7" s="134"/>
+      <c r="AP7" s="134"/>
+      <c r="AQ7" s="135"/>
       <c r="AR7" s="13"/>
       <c r="AS7" s="13"/>
       <c r="AT7" s="13"/>
@@ -5022,32 +5054,32 @@
       <c r="C8" s="55"/>
       <c r="M8" s="55"/>
       <c r="S8" s="54"/>
-      <c r="T8" s="167" t="s">
+      <c r="T8" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="U8" s="168"/>
-      <c r="V8" s="168"/>
-      <c r="W8" s="168"/>
-      <c r="X8" s="168"/>
-      <c r="Y8" s="168"/>
-      <c r="Z8" s="168"/>
-      <c r="AA8" s="168"/>
-      <c r="AB8" s="168"/>
-      <c r="AC8" s="168"/>
-      <c r="AD8" s="168"/>
-      <c r="AE8" s="168"/>
-      <c r="AF8" s="168"/>
-      <c r="AG8" s="168"/>
-      <c r="AH8" s="168"/>
-      <c r="AI8" s="168"/>
-      <c r="AJ8" s="168"/>
-      <c r="AK8" s="168"/>
-      <c r="AL8" s="168"/>
-      <c r="AM8" s="168"/>
-      <c r="AN8" s="168"/>
-      <c r="AO8" s="168"/>
-      <c r="AP8" s="168"/>
-      <c r="AQ8" s="169"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="124"/>
+      <c r="Z8" s="124"/>
+      <c r="AA8" s="124"/>
+      <c r="AB8" s="124"/>
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="124"/>
+      <c r="AE8" s="124"/>
+      <c r="AF8" s="124"/>
+      <c r="AG8" s="124"/>
+      <c r="AH8" s="124"/>
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="124"/>
+      <c r="AN8" s="124"/>
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="124"/>
+      <c r="AQ8" s="125"/>
       <c r="AR8" s="13"/>
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
@@ -5061,31 +5093,31 @@
       <c r="BB8" s="14"/>
     </row>
     <row r="9" spans="1:89" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="130" t="s">
+      <c r="B9" s="143"/>
+      <c r="C9" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="130" t="s">
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="132"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="142"/>
+      <c r="S9" s="144"/>
       <c r="T9" s="56" t="s">
         <v>65</v>
       </c>
@@ -5125,31 +5157,31 @@
       <c r="BB9" s="59"/>
     </row>
     <row r="10" spans="1:89" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129" t="s">
+      <c r="B10" s="140"/>
+      <c r="C10" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="130" t="s">
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="142"/>
       <c r="T10" s="72" t="s">
         <v>67</v>
       </c>
@@ -5158,119 +5190,119 @@
       <c r="BB10" s="73"/>
     </row>
     <row r="11" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="108" t="s">
+      <c r="B11" s="146"/>
+      <c r="C11" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108" t="s">
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="139" t="s">
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="U11" s="140"/>
-      <c r="V11" s="140"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="140"/>
-      <c r="Y11" s="140"/>
-      <c r="Z11" s="140"/>
-      <c r="AA11" s="140"/>
-      <c r="AB11" s="140"/>
-      <c r="AC11" s="140"/>
-      <c r="AD11" s="140"/>
-      <c r="AE11" s="140"/>
-      <c r="AF11" s="140"/>
-      <c r="AG11" s="140"/>
-      <c r="AH11" s="140"/>
-      <c r="AI11" s="140"/>
-      <c r="AJ11" s="140"/>
-      <c r="AK11" s="140"/>
-      <c r="AL11" s="140"/>
-      <c r="AM11" s="140"/>
-      <c r="AN11" s="140"/>
-      <c r="AO11" s="140"/>
-      <c r="AP11" s="140"/>
-      <c r="AQ11" s="140"/>
-      <c r="AR11" s="134" t="s">
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="132"/>
+      <c r="AE11" s="132"/>
+      <c r="AF11" s="132"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="132"/>
+      <c r="AJ11" s="132"/>
+      <c r="AK11" s="132"/>
+      <c r="AL11" s="132"/>
+      <c r="AM11" s="132"/>
+      <c r="AN11" s="132"/>
+      <c r="AO11" s="132"/>
+      <c r="AP11" s="132"/>
+      <c r="AQ11" s="132"/>
+      <c r="AR11" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="AS11" s="135"/>
-      <c r="AT11" s="135"/>
-      <c r="AU11" s="135"/>
-      <c r="AV11" s="135"/>
-      <c r="AW11" s="135"/>
-      <c r="AX11" s="135"/>
-      <c r="AY11" s="135"/>
-      <c r="AZ11" s="135"/>
-      <c r="BA11" s="135"/>
-      <c r="BB11" s="136"/>
+      <c r="AS11" s="127"/>
+      <c r="AT11" s="127"/>
+      <c r="AU11" s="127"/>
+      <c r="AV11" s="127"/>
+      <c r="AW11" s="127"/>
+      <c r="AX11" s="127"/>
+      <c r="AY11" s="127"/>
+      <c r="AZ11" s="127"/>
+      <c r="BA11" s="127"/>
+      <c r="BB11" s="128"/>
     </row>
     <row r="12" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108" t="s">
+      <c r="A12" s="146"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="139" t="s">
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="117"/>
+      <c r="T12" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="U12" s="140"/>
-      <c r="V12" s="140"/>
-      <c r="W12" s="140"/>
-      <c r="X12" s="140"/>
-      <c r="Y12" s="140"/>
-      <c r="Z12" s="140"/>
-      <c r="AA12" s="140"/>
-      <c r="AB12" s="140"/>
-      <c r="AC12" s="140"/>
-      <c r="AD12" s="140"/>
-      <c r="AE12" s="140"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="140"/>
-      <c r="AH12" s="140"/>
-      <c r="AI12" s="140"/>
-      <c r="AJ12" s="140"/>
-      <c r="AK12" s="140"/>
-      <c r="AL12" s="140"/>
-      <c r="AM12" s="140"/>
-      <c r="AN12" s="140"/>
-      <c r="AO12" s="140"/>
-      <c r="AP12" s="140"/>
-      <c r="AQ12" s="144"/>
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="132"/>
+      <c r="AD12" s="132"/>
+      <c r="AE12" s="132"/>
+      <c r="AF12" s="132"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="132"/>
+      <c r="AJ12" s="132"/>
+      <c r="AK12" s="132"/>
+      <c r="AL12" s="132"/>
+      <c r="AM12" s="132"/>
+      <c r="AN12" s="132"/>
+      <c r="AO12" s="132"/>
+      <c r="AP12" s="132"/>
+      <c r="AQ12" s="136"/>
       <c r="AR12" s="13"/>
       <c r="AS12" s="13"/>
       <c r="AT12" s="13"/>
@@ -5284,157 +5316,157 @@
       <c r="BB12" s="14"/>
     </row>
     <row r="13" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="108" t="s">
+      <c r="B13" s="146"/>
+      <c r="C13" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108" t="s">
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="134" t="s">
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="135"/>
-      <c r="AF13" s="135"/>
-      <c r="AG13" s="135"/>
-      <c r="AH13" s="135"/>
-      <c r="AI13" s="135"/>
-      <c r="AJ13" s="135"/>
-      <c r="AK13" s="135"/>
-      <c r="AL13" s="135"/>
-      <c r="AM13" s="135"/>
-      <c r="AN13" s="135"/>
-      <c r="AO13" s="135"/>
-      <c r="AP13" s="135"/>
-      <c r="AQ13" s="136"/>
-      <c r="AR13" s="137" t="s">
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="127"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="127"/>
+      <c r="AA13" s="127"/>
+      <c r="AB13" s="127"/>
+      <c r="AC13" s="127"/>
+      <c r="AD13" s="127"/>
+      <c r="AE13" s="127"/>
+      <c r="AF13" s="127"/>
+      <c r="AG13" s="127"/>
+      <c r="AH13" s="127"/>
+      <c r="AI13" s="127"/>
+      <c r="AJ13" s="127"/>
+      <c r="AK13" s="127"/>
+      <c r="AL13" s="127"/>
+      <c r="AM13" s="127"/>
+      <c r="AN13" s="127"/>
+      <c r="AO13" s="127"/>
+      <c r="AP13" s="127"/>
+      <c r="AQ13" s="128"/>
+      <c r="AR13" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="AS13" s="137"/>
-      <c r="AT13" s="137"/>
-      <c r="AU13" s="137"/>
-      <c r="AV13" s="137"/>
-      <c r="AW13" s="137"/>
-      <c r="AX13" s="137"/>
-      <c r="AY13" s="137"/>
-      <c r="AZ13" s="137"/>
-      <c r="BA13" s="137"/>
-      <c r="BB13" s="138"/>
+      <c r="AS13" s="129"/>
+      <c r="AT13" s="129"/>
+      <c r="AU13" s="129"/>
+      <c r="AV13" s="129"/>
+      <c r="AW13" s="129"/>
+      <c r="AX13" s="129"/>
+      <c r="AY13" s="129"/>
+      <c r="AZ13" s="129"/>
+      <c r="BA13" s="129"/>
+      <c r="BB13" s="130"/>
     </row>
     <row r="14" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A14" s="123"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108" t="s">
+      <c r="A14" s="146"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="120" t="s">
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="U14" s="121"/>
-      <c r="V14" s="121"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="121"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="121"/>
-      <c r="AD14" s="121"/>
-      <c r="AE14" s="121"/>
-      <c r="AF14" s="121"/>
-      <c r="AG14" s="121"/>
-      <c r="AH14" s="121"/>
-      <c r="AI14" s="121"/>
-      <c r="AJ14" s="121"/>
-      <c r="AK14" s="121"/>
-      <c r="AL14" s="121"/>
-      <c r="AM14" s="121"/>
-      <c r="AN14" s="121"/>
-      <c r="AO14" s="121"/>
-      <c r="AP14" s="121"/>
-      <c r="AQ14" s="122"/>
-      <c r="AR14" s="104"/>
-      <c r="AS14" s="111"/>
-      <c r="AT14" s="111"/>
-      <c r="AU14" s="111"/>
-      <c r="AV14" s="111"/>
-      <c r="AW14" s="111"/>
-      <c r="AX14" s="111"/>
-      <c r="AY14" s="111"/>
-      <c r="AZ14" s="111"/>
-      <c r="BA14" s="111"/>
-      <c r="BB14" s="105"/>
-    </row>
-    <row r="15" spans="1:89" ht="12.75">
-      <c r="A15" s="123" t="s">
+      <c r="U14" s="149"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="149"/>
+      <c r="Z14" s="149"/>
+      <c r="AA14" s="149"/>
+      <c r="AB14" s="149"/>
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="149"/>
+      <c r="AE14" s="149"/>
+      <c r="AF14" s="149"/>
+      <c r="AG14" s="149"/>
+      <c r="AH14" s="149"/>
+      <c r="AI14" s="149"/>
+      <c r="AJ14" s="149"/>
+      <c r="AK14" s="149"/>
+      <c r="AL14" s="149"/>
+      <c r="AM14" s="149"/>
+      <c r="AN14" s="149"/>
+      <c r="AO14" s="149"/>
+      <c r="AP14" s="149"/>
+      <c r="AQ14" s="150"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="115"/>
+      <c r="AT14" s="115"/>
+      <c r="AU14" s="115"/>
+      <c r="AV14" s="115"/>
+      <c r="AW14" s="115"/>
+      <c r="AX14" s="115"/>
+      <c r="AY14" s="115"/>
+      <c r="AZ14" s="115"/>
+      <c r="BA14" s="115"/>
+      <c r="BB14" s="116"/>
+    </row>
+    <row r="15" spans="1:89">
+      <c r="A15" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="108" t="s">
+      <c r="B15" s="146"/>
+      <c r="C15" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108" t="s">
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="108"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
       <c r="T15" s="12" t="s">
         <v>80</v>
       </c>
@@ -5474,31 +5506,31 @@
       <c r="BB15" s="14"/>
     </row>
     <row r="16" spans="1:89">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="108" t="s">
+      <c r="B16" s="146"/>
+      <c r="C16" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108" t="s">
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="108"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
       <c r="T16" s="12" t="s">
         <v>82</v>
       </c>
@@ -5538,25 +5570,25 @@
       <c r="BB16" s="14"/>
     </row>
     <row r="17" spans="1:54">
-      <c r="A17" s="123"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="108"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
       <c r="T17" s="12"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
@@ -5594,25 +5626,25 @@
       <c r="BB17" s="14"/>
     </row>
     <row r="18" spans="1:54">
-      <c r="A18" s="123"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="108"/>
+      <c r="A18" s="146"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="117"/>
       <c r="T18" s="12"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
@@ -5650,25 +5682,25 @@
       <c r="BB18" s="14"/>
     </row>
     <row r="19" spans="1:54">
-      <c r="A19" s="123"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-      <c r="S19" s="108"/>
+      <c r="A19" s="146"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
       <c r="T19" s="12"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
@@ -5707,30 +5739,19 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="T8:AQ8"/>
-    <mergeCell ref="AR11:BB11"/>
-    <mergeCell ref="AR13:BB13"/>
-    <mergeCell ref="T11:AQ11"/>
-    <mergeCell ref="T2:AQ2"/>
-    <mergeCell ref="AR2:BB2"/>
-    <mergeCell ref="T7:AQ7"/>
-    <mergeCell ref="T12:AQ12"/>
-    <mergeCell ref="T13:AQ13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:S2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="T14:AQ14"/>
+    <mergeCell ref="AR14:BB14"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="M14:S14"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:L11"/>
     <mergeCell ref="M11:S11"/>
@@ -5747,19 +5768,30 @@
     <mergeCell ref="C12:L12"/>
     <mergeCell ref="M12:S12"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="T14:AQ14"/>
-    <mergeCell ref="AR14:BB14"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="T8:AQ8"/>
+    <mergeCell ref="AR11:BB11"/>
+    <mergeCell ref="AR13:BB13"/>
+    <mergeCell ref="T11:AQ11"/>
+    <mergeCell ref="T2:AQ2"/>
+    <mergeCell ref="AR2:BB2"/>
+    <mergeCell ref="T7:AQ7"/>
+    <mergeCell ref="T12:AQ12"/>
+    <mergeCell ref="T13:AQ13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AT1:AT2">
@@ -5772,13 +5804,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63029EA3-83F6-4D40-BBC5-9474A2FBF5DA}">
-  <dimension ref="A1:CC20"/>
+  <dimension ref="A1:CC18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN9" sqref="AN9:BB9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="16384" width="2.75" style="7"/>
   </cols>
@@ -5868,108 +5898,108 @@
       <c r="CC1" s="1"/>
     </row>
     <row r="2" spans="1:81" s="3" customFormat="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="114" t="s">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="149" t="s">
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="150"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="150"/>
-      <c r="AM2" s="150"/>
-      <c r="AN2" s="149" t="s">
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="152"/>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="152"/>
+      <c r="AM2" s="152"/>
+      <c r="AN2" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="AO2" s="150"/>
-      <c r="AP2" s="150"/>
-      <c r="AQ2" s="150"/>
-      <c r="AR2" s="150"/>
-      <c r="AS2" s="150"/>
-      <c r="AT2" s="150"/>
-      <c r="AU2" s="150"/>
-      <c r="AV2" s="150"/>
-      <c r="AW2" s="150"/>
-      <c r="AX2" s="150"/>
-      <c r="AY2" s="150"/>
-      <c r="AZ2" s="150"/>
-      <c r="BA2" s="150"/>
-      <c r="BB2" s="151"/>
-    </row>
-    <row r="3" spans="1:81" s="3" customFormat="1" ht="12.75">
-      <c r="A3" s="112" t="s">
+      <c r="AO2" s="152"/>
+      <c r="AP2" s="152"/>
+      <c r="AQ2" s="152"/>
+      <c r="AR2" s="152"/>
+      <c r="AS2" s="152"/>
+      <c r="AT2" s="152"/>
+      <c r="AU2" s="152"/>
+      <c r="AV2" s="152"/>
+      <c r="AW2" s="152"/>
+      <c r="AX2" s="152"/>
+      <c r="AY2" s="152"/>
+      <c r="AZ2" s="152"/>
+      <c r="BA2" s="152"/>
+      <c r="BB2" s="153"/>
+    </row>
+    <row r="3" spans="1:81" s="3" customFormat="1">
+      <c r="A3" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="112" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="114" t="s">
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="113"/>
-      <c r="U3" s="152" t="s">
+      <c r="T3" s="121"/>
+      <c r="U3" s="154" t="s">
         <v>89</v>
       </c>
-      <c r="V3" s="153"/>
-      <c r="W3" s="153"/>
-      <c r="X3" s="153"/>
-      <c r="Y3" s="153"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="153"/>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="154"/>
+      <c r="V3" s="155"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="155"/>
+      <c r="Y3" s="155"/>
+      <c r="Z3" s="155"/>
+      <c r="AA3" s="155"/>
+      <c r="AB3" s="155"/>
+      <c r="AC3" s="155"/>
+      <c r="AD3" s="156"/>
       <c r="AE3" s="15"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
@@ -5995,7 +6025,7 @@
       <c r="BA3" s="16"/>
       <c r="BB3" s="17"/>
     </row>
-    <row r="4" spans="1:81" s="3" customFormat="1" ht="12.75">
+    <row r="4" spans="1:81" s="3" customFormat="1">
       <c r="A4" s="36" t="s">
         <v>90</v>
       </c>
@@ -6076,48 +6106,48 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="145" t="s">
+      <c r="S5" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="T5" s="107"/>
-      <c r="U5" s="170" t="s">
+      <c r="T5" s="108"/>
+      <c r="U5" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="171"/>
-      <c r="AC5" s="171"/>
-      <c r="AD5" s="172"/>
-      <c r="AE5" s="108"/>
-      <c r="AF5" s="109"/>
-      <c r="AG5" s="109"/>
-      <c r="AH5" s="109"/>
-      <c r="AI5" s="109"/>
-      <c r="AJ5" s="109"/>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="109"/>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="108"/>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="109"/>
-      <c r="AQ5" s="109"/>
-      <c r="AR5" s="109"/>
-      <c r="AS5" s="109"/>
-      <c r="AT5" s="109"/>
-      <c r="AU5" s="109"/>
-      <c r="AV5" s="109"/>
-      <c r="AW5" s="109"/>
-      <c r="AX5" s="109"/>
-      <c r="AY5" s="109"/>
-      <c r="AZ5" s="109"/>
-      <c r="BA5" s="109"/>
-      <c r="BB5" s="110"/>
-    </row>
-    <row r="6" spans="1:81" ht="15.75">
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
+      <c r="X5" s="159"/>
+      <c r="Y5" s="159"/>
+      <c r="Z5" s="159"/>
+      <c r="AA5" s="159"/>
+      <c r="AB5" s="159"/>
+      <c r="AC5" s="159"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="118"/>
+      <c r="AG5" s="118"/>
+      <c r="AH5" s="118"/>
+      <c r="AI5" s="118"/>
+      <c r="AJ5" s="118"/>
+      <c r="AK5" s="118"/>
+      <c r="AL5" s="118"/>
+      <c r="AM5" s="119"/>
+      <c r="AN5" s="117"/>
+      <c r="AO5" s="118"/>
+      <c r="AP5" s="118"/>
+      <c r="AQ5" s="118"/>
+      <c r="AR5" s="118"/>
+      <c r="AS5" s="118"/>
+      <c r="AT5" s="118"/>
+      <c r="AU5" s="118"/>
+      <c r="AV5" s="118"/>
+      <c r="AW5" s="118"/>
+      <c r="AX5" s="118"/>
+      <c r="AY5" s="118"/>
+      <c r="AZ5" s="118"/>
+      <c r="BA5" s="118"/>
+      <c r="BB5" s="119"/>
+    </row>
+    <row r="6" spans="1:81">
       <c r="A6" s="4" t="s">
         <v>91</v>
       </c>
@@ -6140,48 +6170,48 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="145" t="s">
+      <c r="S6" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="T6" s="107"/>
-      <c r="U6" s="170" t="s">
+      <c r="T6" s="108"/>
+      <c r="U6" s="158" t="s">
         <v>96</v>
       </c>
-      <c r="V6" s="171"/>
-      <c r="W6" s="171"/>
-      <c r="X6" s="171"/>
-      <c r="Y6" s="171"/>
-      <c r="Z6" s="171"/>
-      <c r="AA6" s="171"/>
-      <c r="AB6" s="171"/>
-      <c r="AC6" s="171"/>
-      <c r="AD6" s="172"/>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="109"/>
-      <c r="AG6" s="109"/>
-      <c r="AH6" s="109"/>
-      <c r="AI6" s="109"/>
-      <c r="AJ6" s="109"/>
-      <c r="AK6" s="109"/>
-      <c r="AL6" s="109"/>
-      <c r="AM6" s="110"/>
-      <c r="AN6" s="108" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO6" s="109"/>
-      <c r="AP6" s="109"/>
-      <c r="AQ6" s="109"/>
-      <c r="AR6" s="109"/>
-      <c r="AS6" s="109"/>
-      <c r="AT6" s="109"/>
-      <c r="AU6" s="109"/>
-      <c r="AV6" s="109"/>
-      <c r="AW6" s="109"/>
-      <c r="AX6" s="109"/>
-      <c r="AY6" s="109"/>
-      <c r="AZ6" s="109"/>
-      <c r="BA6" s="109"/>
-      <c r="BB6" s="110"/>
+      <c r="V6" s="159"/>
+      <c r="W6" s="159"/>
+      <c r="X6" s="159"/>
+      <c r="Y6" s="159"/>
+      <c r="Z6" s="159"/>
+      <c r="AA6" s="159"/>
+      <c r="AB6" s="159"/>
+      <c r="AC6" s="159"/>
+      <c r="AD6" s="160"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="118"/>
+      <c r="AG6" s="118"/>
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="118"/>
+      <c r="AJ6" s="118"/>
+      <c r="AK6" s="118"/>
+      <c r="AL6" s="118"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO6" s="118"/>
+      <c r="AP6" s="118"/>
+      <c r="AQ6" s="118"/>
+      <c r="AR6" s="118"/>
+      <c r="AS6" s="118"/>
+      <c r="AT6" s="118"/>
+      <c r="AU6" s="118"/>
+      <c r="AV6" s="118"/>
+      <c r="AW6" s="118"/>
+      <c r="AX6" s="118"/>
+      <c r="AY6" s="118"/>
+      <c r="AZ6" s="118"/>
+      <c r="BA6" s="118"/>
+      <c r="BB6" s="119"/>
     </row>
     <row r="7" spans="1:81" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
@@ -6196,7 +6226,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
       <c r="J7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -6206,46 +6236,46 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="145" t="s">
+      <c r="S7" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="T7" s="107"/>
-      <c r="U7" s="170" t="s">
-        <v>99</v>
-      </c>
-      <c r="V7" s="171"/>
-      <c r="W7" s="171"/>
-      <c r="X7" s="171"/>
-      <c r="Y7" s="171"/>
-      <c r="Z7" s="171"/>
-      <c r="AA7" s="171"/>
-      <c r="AB7" s="171"/>
-      <c r="AC7" s="171"/>
-      <c r="AD7" s="172"/>
-      <c r="AE7" s="108"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="109"/>
-      <c r="AI7" s="109"/>
-      <c r="AJ7" s="109"/>
-      <c r="AK7" s="109"/>
-      <c r="AL7" s="109"/>
-      <c r="AM7" s="110"/>
-      <c r="AN7" s="108"/>
-      <c r="AO7" s="109"/>
-      <c r="AP7" s="109"/>
-      <c r="AQ7" s="109"/>
-      <c r="AR7" s="109"/>
-      <c r="AS7" s="109"/>
-      <c r="AT7" s="109"/>
-      <c r="AU7" s="109"/>
-      <c r="AV7" s="109"/>
-      <c r="AW7" s="109"/>
-      <c r="AX7" s="109"/>
-      <c r="AY7" s="109"/>
-      <c r="AZ7" s="109"/>
-      <c r="BA7" s="109"/>
-      <c r="BB7" s="110"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="158" t="s">
+        <v>98</v>
+      </c>
+      <c r="V7" s="159"/>
+      <c r="W7" s="159"/>
+      <c r="X7" s="159"/>
+      <c r="Y7" s="159"/>
+      <c r="Z7" s="159"/>
+      <c r="AA7" s="159"/>
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="159"/>
+      <c r="AD7" s="160"/>
+      <c r="AE7" s="117"/>
+      <c r="AF7" s="118"/>
+      <c r="AG7" s="118"/>
+      <c r="AH7" s="118"/>
+      <c r="AI7" s="118"/>
+      <c r="AJ7" s="118"/>
+      <c r="AK7" s="118"/>
+      <c r="AL7" s="118"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="117"/>
+      <c r="AO7" s="118"/>
+      <c r="AP7" s="118"/>
+      <c r="AQ7" s="118"/>
+      <c r="AR7" s="118"/>
+      <c r="AS7" s="118"/>
+      <c r="AT7" s="118"/>
+      <c r="AU7" s="118"/>
+      <c r="AV7" s="118"/>
+      <c r="AW7" s="118"/>
+      <c r="AX7" s="118"/>
+      <c r="AY7" s="118"/>
+      <c r="AZ7" s="118"/>
+      <c r="BA7" s="118"/>
+      <c r="BB7" s="119"/>
     </row>
     <row r="8" spans="1:81" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -6260,7 +6290,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -6270,48 +6300,48 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="145" t="s">
+      <c r="S8" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="T8" s="107"/>
-      <c r="U8" s="170" t="s">
-        <v>101</v>
-      </c>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="171"/>
-      <c r="AD8" s="172"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="109"/>
-      <c r="AG8" s="109"/>
-      <c r="AH8" s="109"/>
-      <c r="AI8" s="109"/>
-      <c r="AJ8" s="109"/>
-      <c r="AK8" s="109"/>
-      <c r="AL8" s="109"/>
-      <c r="AM8" s="110"/>
-      <c r="AN8" s="108"/>
-      <c r="AO8" s="109"/>
-      <c r="AP8" s="109"/>
-      <c r="AQ8" s="109"/>
-      <c r="AR8" s="109"/>
-      <c r="AS8" s="109"/>
-      <c r="AT8" s="109"/>
-      <c r="AU8" s="109"/>
-      <c r="AV8" s="109"/>
-      <c r="AW8" s="109"/>
-      <c r="AX8" s="109"/>
-      <c r="AY8" s="109"/>
-      <c r="AZ8" s="109"/>
-      <c r="BA8" s="109"/>
-      <c r="BB8" s="110"/>
-    </row>
-    <row r="9" spans="1:81" ht="30" customHeight="1">
+      <c r="T8" s="108"/>
+      <c r="U8" s="158" t="s">
+        <v>100</v>
+      </c>
+      <c r="V8" s="159"/>
+      <c r="W8" s="159"/>
+      <c r="X8" s="159"/>
+      <c r="Y8" s="159"/>
+      <c r="Z8" s="159"/>
+      <c r="AA8" s="159"/>
+      <c r="AB8" s="159"/>
+      <c r="AC8" s="159"/>
+      <c r="AD8" s="160"/>
+      <c r="AE8" s="117"/>
+      <c r="AF8" s="118"/>
+      <c r="AG8" s="118"/>
+      <c r="AH8" s="118"/>
+      <c r="AI8" s="118"/>
+      <c r="AJ8" s="118"/>
+      <c r="AK8" s="118"/>
+      <c r="AL8" s="118"/>
+      <c r="AM8" s="119"/>
+      <c r="AN8" s="117"/>
+      <c r="AO8" s="118"/>
+      <c r="AP8" s="118"/>
+      <c r="AQ8" s="118"/>
+      <c r="AR8" s="118"/>
+      <c r="AS8" s="118"/>
+      <c r="AT8" s="118"/>
+      <c r="AU8" s="118"/>
+      <c r="AV8" s="118"/>
+      <c r="AW8" s="118"/>
+      <c r="AX8" s="118"/>
+      <c r="AY8" s="118"/>
+      <c r="AZ8" s="118"/>
+      <c r="BA8" s="118"/>
+      <c r="BB8" s="119"/>
+    </row>
+    <row r="9" spans="1:81" ht="15" customHeight="1">
       <c r="A9" s="76" t="s">
         <v>91</v>
       </c>
@@ -6324,7 +6354,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -6334,52 +6364,52 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="146" t="s">
+      <c r="S9" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="T9" s="147"/>
-      <c r="U9" s="170" t="s">
-        <v>103</v>
-      </c>
-      <c r="V9" s="171"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="171"/>
-      <c r="Y9" s="171"/>
-      <c r="Z9" s="171"/>
-      <c r="AA9" s="171"/>
-      <c r="AB9" s="171"/>
-      <c r="AC9" s="171"/>
-      <c r="AD9" s="172"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="109"/>
-      <c r="AG9" s="109"/>
-      <c r="AH9" s="109"/>
-      <c r="AI9" s="109"/>
-      <c r="AJ9" s="109"/>
-      <c r="AK9" s="109"/>
-      <c r="AL9" s="109"/>
-      <c r="AM9" s="110"/>
-      <c r="AN9" s="148" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO9" s="171"/>
-      <c r="AP9" s="171"/>
-      <c r="AQ9" s="171"/>
-      <c r="AR9" s="171"/>
-      <c r="AS9" s="171"/>
-      <c r="AT9" s="171"/>
-      <c r="AU9" s="171"/>
-      <c r="AV9" s="171"/>
-      <c r="AW9" s="171"/>
-      <c r="AX9" s="171"/>
-      <c r="AY9" s="171"/>
-      <c r="AZ9" s="171"/>
-      <c r="BA9" s="171"/>
-      <c r="BB9" s="172"/>
-    </row>
-    <row r="10" spans="1:81" ht="12.75">
+      <c r="T9" s="162"/>
+      <c r="U9" s="158" t="s">
+        <v>102</v>
+      </c>
+      <c r="V9" s="159"/>
+      <c r="W9" s="159"/>
+      <c r="X9" s="159"/>
+      <c r="Y9" s="159"/>
+      <c r="Z9" s="159"/>
+      <c r="AA9" s="159"/>
+      <c r="AB9" s="159"/>
+      <c r="AC9" s="159"/>
+      <c r="AD9" s="160"/>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="118"/>
+      <c r="AG9" s="118"/>
+      <c r="AH9" s="118"/>
+      <c r="AI9" s="118"/>
+      <c r="AJ9" s="118"/>
+      <c r="AK9" s="118"/>
+      <c r="AL9" s="118"/>
+      <c r="AM9" s="119"/>
+      <c r="AN9" s="176" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO9" s="177"/>
+      <c r="AP9" s="177"/>
+      <c r="AQ9" s="177"/>
+      <c r="AR9" s="177"/>
+      <c r="AS9" s="177"/>
+      <c r="AT9" s="177"/>
+      <c r="AU9" s="177"/>
+      <c r="AV9" s="177"/>
+      <c r="AW9" s="177"/>
+      <c r="AX9" s="177"/>
+      <c r="AY9" s="177"/>
+      <c r="AZ9" s="177"/>
+      <c r="BA9" s="177"/>
+      <c r="BB9" s="178"/>
+    </row>
+    <row r="10" spans="1:81">
       <c r="A10" s="36" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -6462,7 +6492,7 @@
       <c r="CB10" s="3"/>
       <c r="CC10" s="3"/>
     </row>
-    <row r="11" spans="1:81" ht="12.75">
+    <row r="11" spans="1:81">
       <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
@@ -6475,7 +6505,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -6485,48 +6515,48 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="106" t="s">
-        <v>107</v>
-      </c>
-      <c r="T11" s="107"/>
-      <c r="U11" s="170" t="s">
-        <v>101</v>
-      </c>
-      <c r="V11" s="171"/>
-      <c r="W11" s="171"/>
-      <c r="X11" s="171"/>
-      <c r="Y11" s="171"/>
-      <c r="Z11" s="171"/>
-      <c r="AA11" s="171"/>
-      <c r="AB11" s="171"/>
-      <c r="AC11" s="171"/>
-      <c r="AD11" s="172"/>
-      <c r="AE11" s="108"/>
-      <c r="AF11" s="109"/>
-      <c r="AG11" s="109"/>
-      <c r="AH11" s="109"/>
-      <c r="AI11" s="109"/>
-      <c r="AJ11" s="109"/>
-      <c r="AK11" s="109"/>
-      <c r="AL11" s="109"/>
-      <c r="AM11" s="110"/>
-      <c r="AN11" s="108"/>
-      <c r="AO11" s="109"/>
-      <c r="AP11" s="109"/>
-      <c r="AQ11" s="109"/>
-      <c r="AR11" s="109"/>
-      <c r="AS11" s="109"/>
-      <c r="AT11" s="109"/>
-      <c r="AU11" s="109"/>
-      <c r="AV11" s="109"/>
-      <c r="AW11" s="109"/>
-      <c r="AX11" s="109"/>
-      <c r="AY11" s="109"/>
-      <c r="AZ11" s="109"/>
-      <c r="BA11" s="109"/>
-      <c r="BB11" s="110"/>
-    </row>
-    <row r="12" spans="1:81" ht="12.75">
+      <c r="S11" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="T11" s="108"/>
+      <c r="U11" s="158" t="s">
+        <v>100</v>
+      </c>
+      <c r="V11" s="159"/>
+      <c r="W11" s="159"/>
+      <c r="X11" s="159"/>
+      <c r="Y11" s="159"/>
+      <c r="Z11" s="159"/>
+      <c r="AA11" s="159"/>
+      <c r="AB11" s="159"/>
+      <c r="AC11" s="159"/>
+      <c r="AD11" s="160"/>
+      <c r="AE11" s="117"/>
+      <c r="AF11" s="118"/>
+      <c r="AG11" s="118"/>
+      <c r="AH11" s="118"/>
+      <c r="AI11" s="118"/>
+      <c r="AJ11" s="118"/>
+      <c r="AK11" s="118"/>
+      <c r="AL11" s="118"/>
+      <c r="AM11" s="119"/>
+      <c r="AN11" s="117"/>
+      <c r="AO11" s="118"/>
+      <c r="AP11" s="118"/>
+      <c r="AQ11" s="118"/>
+      <c r="AR11" s="118"/>
+      <c r="AS11" s="118"/>
+      <c r="AT11" s="118"/>
+      <c r="AU11" s="118"/>
+      <c r="AV11" s="118"/>
+      <c r="AW11" s="118"/>
+      <c r="AX11" s="118"/>
+      <c r="AY11" s="118"/>
+      <c r="AZ11" s="118"/>
+      <c r="BA11" s="118"/>
+      <c r="BB11" s="119"/>
+    </row>
+    <row r="12" spans="1:81">
       <c r="A12" s="4" t="s">
         <v>91</v>
       </c>
@@ -6539,7 +6569,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -6549,50 +6579,50 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="106" t="s">
-        <v>107</v>
-      </c>
-      <c r="T12" s="107"/>
-      <c r="U12" s="170" t="s">
-        <v>103</v>
-      </c>
-      <c r="V12" s="171"/>
-      <c r="W12" s="171"/>
-      <c r="X12" s="171"/>
-      <c r="Y12" s="171"/>
-      <c r="Z12" s="171"/>
-      <c r="AA12" s="171"/>
-      <c r="AB12" s="171"/>
-      <c r="AC12" s="171"/>
-      <c r="AD12" s="172"/>
-      <c r="AE12" s="108"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="109"/>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="109"/>
-      <c r="AJ12" s="109"/>
-      <c r="AK12" s="109"/>
-      <c r="AL12" s="109"/>
-      <c r="AM12" s="110"/>
-      <c r="AN12" s="170" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO12" s="171"/>
-      <c r="AP12" s="171"/>
-      <c r="AQ12" s="171"/>
-      <c r="AR12" s="171"/>
-      <c r="AS12" s="171"/>
-      <c r="AT12" s="171"/>
-      <c r="AU12" s="171"/>
-      <c r="AV12" s="171"/>
-      <c r="AW12" s="171"/>
-      <c r="AX12" s="171"/>
-      <c r="AY12" s="171"/>
-      <c r="AZ12" s="171"/>
-      <c r="BA12" s="171"/>
-      <c r="BB12" s="172"/>
-    </row>
-    <row r="13" spans="1:81" ht="12.75">
+      <c r="S12" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="T12" s="108"/>
+      <c r="U12" s="158" t="s">
+        <v>102</v>
+      </c>
+      <c r="V12" s="159"/>
+      <c r="W12" s="159"/>
+      <c r="X12" s="159"/>
+      <c r="Y12" s="159"/>
+      <c r="Z12" s="159"/>
+      <c r="AA12" s="159"/>
+      <c r="AB12" s="159"/>
+      <c r="AC12" s="159"/>
+      <c r="AD12" s="160"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="118"/>
+      <c r="AG12" s="118"/>
+      <c r="AH12" s="118"/>
+      <c r="AI12" s="118"/>
+      <c r="AJ12" s="118"/>
+      <c r="AK12" s="118"/>
+      <c r="AL12" s="118"/>
+      <c r="AM12" s="119"/>
+      <c r="AN12" s="158" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO12" s="159"/>
+      <c r="AP12" s="159"/>
+      <c r="AQ12" s="159"/>
+      <c r="AR12" s="159"/>
+      <c r="AS12" s="159"/>
+      <c r="AT12" s="159"/>
+      <c r="AU12" s="159"/>
+      <c r="AV12" s="159"/>
+      <c r="AW12" s="159"/>
+      <c r="AX12" s="159"/>
+      <c r="AY12" s="159"/>
+      <c r="AZ12" s="159"/>
+      <c r="BA12" s="159"/>
+      <c r="BB12" s="160"/>
+    </row>
+    <row r="13" spans="1:81">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6611,44 +6641,44 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="170"/>
-      <c r="V13" s="171"/>
-      <c r="W13" s="171"/>
-      <c r="X13" s="171"/>
-      <c r="Y13" s="171"/>
-      <c r="Z13" s="171"/>
-      <c r="AA13" s="171"/>
-      <c r="AB13" s="171"/>
-      <c r="AC13" s="171"/>
-      <c r="AD13" s="172"/>
-      <c r="AE13" s="108"/>
-      <c r="AF13" s="109"/>
-      <c r="AG13" s="109"/>
-      <c r="AH13" s="109"/>
-      <c r="AI13" s="109"/>
-      <c r="AJ13" s="109"/>
-      <c r="AK13" s="109"/>
-      <c r="AL13" s="109"/>
-      <c r="AM13" s="110"/>
-      <c r="AN13" s="108"/>
-      <c r="AO13" s="109"/>
-      <c r="AP13" s="109"/>
-      <c r="AQ13" s="109"/>
-      <c r="AR13" s="109"/>
-      <c r="AS13" s="109"/>
-      <c r="AT13" s="109"/>
-      <c r="AU13" s="109"/>
-      <c r="AV13" s="109"/>
-      <c r="AW13" s="109"/>
-      <c r="AX13" s="109"/>
-      <c r="AY13" s="109"/>
-      <c r="AZ13" s="109"/>
-      <c r="BA13" s="109"/>
-      <c r="BB13" s="110"/>
-    </row>
-    <row r="14" spans="1:81" ht="12.75">
+      <c r="S13" s="107"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="158"/>
+      <c r="V13" s="159"/>
+      <c r="W13" s="159"/>
+      <c r="X13" s="159"/>
+      <c r="Y13" s="159"/>
+      <c r="Z13" s="159"/>
+      <c r="AA13" s="159"/>
+      <c r="AB13" s="159"/>
+      <c r="AC13" s="159"/>
+      <c r="AD13" s="160"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="118"/>
+      <c r="AG13" s="118"/>
+      <c r="AH13" s="118"/>
+      <c r="AI13" s="118"/>
+      <c r="AJ13" s="118"/>
+      <c r="AK13" s="118"/>
+      <c r="AL13" s="118"/>
+      <c r="AM13" s="119"/>
+      <c r="AN13" s="117"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="118"/>
+      <c r="AQ13" s="118"/>
+      <c r="AR13" s="118"/>
+      <c r="AS13" s="118"/>
+      <c r="AT13" s="118"/>
+      <c r="AU13" s="118"/>
+      <c r="AV13" s="118"/>
+      <c r="AW13" s="118"/>
+      <c r="AX13" s="118"/>
+      <c r="AY13" s="118"/>
+      <c r="AZ13" s="118"/>
+      <c r="BA13" s="118"/>
+      <c r="BB13" s="119"/>
+    </row>
+    <row r="14" spans="1:81">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -6667,44 +6697,44 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="170"/>
-      <c r="V14" s="171"/>
-      <c r="W14" s="171"/>
-      <c r="X14" s="171"/>
-      <c r="Y14" s="171"/>
-      <c r="Z14" s="171"/>
-      <c r="AA14" s="171"/>
-      <c r="AB14" s="171"/>
-      <c r="AC14" s="171"/>
-      <c r="AD14" s="172"/>
-      <c r="AE14" s="108"/>
-      <c r="AF14" s="109"/>
-      <c r="AG14" s="109"/>
-      <c r="AH14" s="109"/>
-      <c r="AI14" s="109"/>
-      <c r="AJ14" s="109"/>
-      <c r="AK14" s="109"/>
-      <c r="AL14" s="109"/>
-      <c r="AM14" s="110"/>
-      <c r="AN14" s="108"/>
-      <c r="AO14" s="109"/>
-      <c r="AP14" s="109"/>
-      <c r="AQ14" s="109"/>
-      <c r="AR14" s="109"/>
-      <c r="AS14" s="109"/>
-      <c r="AT14" s="109"/>
-      <c r="AU14" s="109"/>
-      <c r="AV14" s="109"/>
-      <c r="AW14" s="109"/>
-      <c r="AX14" s="109"/>
-      <c r="AY14" s="109"/>
-      <c r="AZ14" s="109"/>
-      <c r="BA14" s="109"/>
-      <c r="BB14" s="110"/>
-    </row>
-    <row r="15" spans="1:81" ht="12.75">
+      <c r="S14" s="107"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="158"/>
+      <c r="V14" s="159"/>
+      <c r="W14" s="159"/>
+      <c r="X14" s="159"/>
+      <c r="Y14" s="159"/>
+      <c r="Z14" s="159"/>
+      <c r="AA14" s="159"/>
+      <c r="AB14" s="159"/>
+      <c r="AC14" s="159"/>
+      <c r="AD14" s="160"/>
+      <c r="AE14" s="117"/>
+      <c r="AF14" s="118"/>
+      <c r="AG14" s="118"/>
+      <c r="AH14" s="118"/>
+      <c r="AI14" s="118"/>
+      <c r="AJ14" s="118"/>
+      <c r="AK14" s="118"/>
+      <c r="AL14" s="118"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="117"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="118"/>
+      <c r="AQ14" s="118"/>
+      <c r="AR14" s="118"/>
+      <c r="AS14" s="118"/>
+      <c r="AT14" s="118"/>
+      <c r="AU14" s="118"/>
+      <c r="AV14" s="118"/>
+      <c r="AW14" s="118"/>
+      <c r="AX14" s="118"/>
+      <c r="AY14" s="118"/>
+      <c r="AZ14" s="118"/>
+      <c r="BA14" s="118"/>
+      <c r="BB14" s="119"/>
+    </row>
+    <row r="15" spans="1:81">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -6723,44 +6753,44 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="145"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="170"/>
-      <c r="V15" s="171"/>
-      <c r="W15" s="171"/>
-      <c r="X15" s="171"/>
-      <c r="Y15" s="171"/>
-      <c r="Z15" s="171"/>
-      <c r="AA15" s="171"/>
-      <c r="AB15" s="171"/>
-      <c r="AC15" s="171"/>
-      <c r="AD15" s="172"/>
-      <c r="AE15" s="108"/>
-      <c r="AF15" s="109"/>
-      <c r="AG15" s="109"/>
-      <c r="AH15" s="109"/>
-      <c r="AI15" s="109"/>
-      <c r="AJ15" s="109"/>
-      <c r="AK15" s="109"/>
-      <c r="AL15" s="109"/>
-      <c r="AM15" s="110"/>
-      <c r="AN15" s="108"/>
-      <c r="AO15" s="109"/>
-      <c r="AP15" s="109"/>
-      <c r="AQ15" s="109"/>
-      <c r="AR15" s="109"/>
-      <c r="AS15" s="109"/>
-      <c r="AT15" s="109"/>
-      <c r="AU15" s="109"/>
-      <c r="AV15" s="109"/>
-      <c r="AW15" s="109"/>
-      <c r="AX15" s="109"/>
-      <c r="AY15" s="109"/>
-      <c r="AZ15" s="109"/>
-      <c r="BA15" s="109"/>
-      <c r="BB15" s="110"/>
-    </row>
-    <row r="16" spans="1:81" ht="12.75">
+      <c r="S15" s="157"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="158"/>
+      <c r="V15" s="159"/>
+      <c r="W15" s="159"/>
+      <c r="X15" s="159"/>
+      <c r="Y15" s="159"/>
+      <c r="Z15" s="159"/>
+      <c r="AA15" s="159"/>
+      <c r="AB15" s="159"/>
+      <c r="AC15" s="159"/>
+      <c r="AD15" s="160"/>
+      <c r="AE15" s="117"/>
+      <c r="AF15" s="118"/>
+      <c r="AG15" s="118"/>
+      <c r="AH15" s="118"/>
+      <c r="AI15" s="118"/>
+      <c r="AJ15" s="118"/>
+      <c r="AK15" s="118"/>
+      <c r="AL15" s="118"/>
+      <c r="AM15" s="119"/>
+      <c r="AN15" s="117"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="118"/>
+      <c r="AQ15" s="118"/>
+      <c r="AR15" s="118"/>
+      <c r="AS15" s="118"/>
+      <c r="AT15" s="118"/>
+      <c r="AU15" s="118"/>
+      <c r="AV15" s="118"/>
+      <c r="AW15" s="118"/>
+      <c r="AX15" s="118"/>
+      <c r="AY15" s="118"/>
+      <c r="AZ15" s="118"/>
+      <c r="BA15" s="118"/>
+      <c r="BB15" s="119"/>
+    </row>
+    <row r="16" spans="1:81">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6779,44 +6809,44 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="145"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="170"/>
-      <c r="V16" s="171"/>
-      <c r="W16" s="171"/>
-      <c r="X16" s="171"/>
-      <c r="Y16" s="171"/>
-      <c r="Z16" s="171"/>
-      <c r="AA16" s="171"/>
-      <c r="AB16" s="171"/>
-      <c r="AC16" s="171"/>
-      <c r="AD16" s="172"/>
-      <c r="AE16" s="108"/>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="109"/>
-      <c r="AH16" s="109"/>
-      <c r="AI16" s="109"/>
-      <c r="AJ16" s="109"/>
-      <c r="AK16" s="109"/>
-      <c r="AL16" s="109"/>
-      <c r="AM16" s="110"/>
-      <c r="AN16" s="108"/>
-      <c r="AO16" s="109"/>
-      <c r="AP16" s="109"/>
-      <c r="AQ16" s="109"/>
-      <c r="AR16" s="109"/>
-      <c r="AS16" s="109"/>
-      <c r="AT16" s="109"/>
-      <c r="AU16" s="109"/>
-      <c r="AV16" s="109"/>
-      <c r="AW16" s="109"/>
-      <c r="AX16" s="109"/>
-      <c r="AY16" s="109"/>
-      <c r="AZ16" s="109"/>
-      <c r="BA16" s="109"/>
-      <c r="BB16" s="110"/>
-    </row>
-    <row r="17" spans="1:54" ht="12.75">
+      <c r="S16" s="157"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="158"/>
+      <c r="V16" s="159"/>
+      <c r="W16" s="159"/>
+      <c r="X16" s="159"/>
+      <c r="Y16" s="159"/>
+      <c r="Z16" s="159"/>
+      <c r="AA16" s="159"/>
+      <c r="AB16" s="159"/>
+      <c r="AC16" s="159"/>
+      <c r="AD16" s="160"/>
+      <c r="AE16" s="117"/>
+      <c r="AF16" s="118"/>
+      <c r="AG16" s="118"/>
+      <c r="AH16" s="118"/>
+      <c r="AI16" s="118"/>
+      <c r="AJ16" s="118"/>
+      <c r="AK16" s="118"/>
+      <c r="AL16" s="118"/>
+      <c r="AM16" s="119"/>
+      <c r="AN16" s="117"/>
+      <c r="AO16" s="118"/>
+      <c r="AP16" s="118"/>
+      <c r="AQ16" s="118"/>
+      <c r="AR16" s="118"/>
+      <c r="AS16" s="118"/>
+      <c r="AT16" s="118"/>
+      <c r="AU16" s="118"/>
+      <c r="AV16" s="118"/>
+      <c r="AW16" s="118"/>
+      <c r="AX16" s="118"/>
+      <c r="AY16" s="118"/>
+      <c r="AZ16" s="118"/>
+      <c r="BA16" s="118"/>
+      <c r="BB16" s="119"/>
+    </row>
+    <row r="17" spans="1:54">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6835,44 +6865,44 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="145"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="170"/>
-      <c r="V17" s="171"/>
-      <c r="W17" s="171"/>
-      <c r="X17" s="171"/>
-      <c r="Y17" s="171"/>
-      <c r="Z17" s="171"/>
-      <c r="AA17" s="171"/>
-      <c r="AB17" s="171"/>
-      <c r="AC17" s="171"/>
-      <c r="AD17" s="172"/>
-      <c r="AE17" s="108"/>
-      <c r="AF17" s="109"/>
-      <c r="AG17" s="109"/>
-      <c r="AH17" s="109"/>
-      <c r="AI17" s="109"/>
-      <c r="AJ17" s="109"/>
-      <c r="AK17" s="109"/>
-      <c r="AL17" s="109"/>
-      <c r="AM17" s="110"/>
-      <c r="AN17" s="108"/>
-      <c r="AO17" s="109"/>
-      <c r="AP17" s="109"/>
-      <c r="AQ17" s="109"/>
-      <c r="AR17" s="109"/>
-      <c r="AS17" s="109"/>
-      <c r="AT17" s="109"/>
-      <c r="AU17" s="109"/>
-      <c r="AV17" s="109"/>
-      <c r="AW17" s="109"/>
-      <c r="AX17" s="109"/>
-      <c r="AY17" s="109"/>
-      <c r="AZ17" s="109"/>
-      <c r="BA17" s="109"/>
-      <c r="BB17" s="110"/>
-    </row>
-    <row r="18" spans="1:54" ht="12.75">
+      <c r="S17" s="157"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="158"/>
+      <c r="V17" s="159"/>
+      <c r="W17" s="159"/>
+      <c r="X17" s="159"/>
+      <c r="Y17" s="159"/>
+      <c r="Z17" s="159"/>
+      <c r="AA17" s="159"/>
+      <c r="AB17" s="159"/>
+      <c r="AC17" s="159"/>
+      <c r="AD17" s="160"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="118"/>
+      <c r="AG17" s="118"/>
+      <c r="AH17" s="118"/>
+      <c r="AI17" s="118"/>
+      <c r="AJ17" s="118"/>
+      <c r="AK17" s="118"/>
+      <c r="AL17" s="118"/>
+      <c r="AM17" s="119"/>
+      <c r="AN17" s="117"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="118"/>
+      <c r="AQ17" s="118"/>
+      <c r="AR17" s="118"/>
+      <c r="AS17" s="118"/>
+      <c r="AT17" s="118"/>
+      <c r="AU17" s="118"/>
+      <c r="AV17" s="118"/>
+      <c r="AW17" s="118"/>
+      <c r="AX17" s="118"/>
+      <c r="AY17" s="118"/>
+      <c r="AZ17" s="118"/>
+      <c r="BA17" s="118"/>
+      <c r="BB17" s="119"/>
+    </row>
+    <row r="18" spans="1:54">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6891,90 +6921,45 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="145"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="170"/>
-      <c r="V18" s="171"/>
-      <c r="W18" s="171"/>
-      <c r="X18" s="171"/>
-      <c r="Y18" s="171"/>
-      <c r="Z18" s="171"/>
-      <c r="AA18" s="171"/>
-      <c r="AB18" s="171"/>
-      <c r="AC18" s="171"/>
-      <c r="AD18" s="172"/>
-      <c r="AE18" s="108"/>
-      <c r="AF18" s="109"/>
-      <c r="AG18" s="109"/>
-      <c r="AH18" s="109"/>
-      <c r="AI18" s="109"/>
-      <c r="AJ18" s="109"/>
-      <c r="AK18" s="109"/>
-      <c r="AL18" s="109"/>
-      <c r="AM18" s="110"/>
-      <c r="AN18" s="108"/>
-      <c r="AO18" s="109"/>
-      <c r="AP18" s="109"/>
-      <c r="AQ18" s="109"/>
-      <c r="AR18" s="109"/>
-      <c r="AS18" s="109"/>
-      <c r="AT18" s="109"/>
-      <c r="AU18" s="109"/>
-      <c r="AV18" s="109"/>
-      <c r="AW18" s="109"/>
-      <c r="AX18" s="109"/>
-      <c r="AY18" s="109"/>
-      <c r="AZ18" s="109"/>
-      <c r="BA18" s="109"/>
-      <c r="BB18" s="110"/>
-    </row>
-    <row r="20" spans="1:54" ht="15.75"/>
+      <c r="S18" s="157"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="159"/>
+      <c r="W18" s="159"/>
+      <c r="X18" s="159"/>
+      <c r="Y18" s="159"/>
+      <c r="Z18" s="159"/>
+      <c r="AA18" s="159"/>
+      <c r="AB18" s="159"/>
+      <c r="AC18" s="159"/>
+      <c r="AD18" s="160"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="118"/>
+      <c r="AG18" s="118"/>
+      <c r="AH18" s="118"/>
+      <c r="AI18" s="118"/>
+      <c r="AJ18" s="118"/>
+      <c r="AK18" s="118"/>
+      <c r="AL18" s="118"/>
+      <c r="AM18" s="119"/>
+      <c r="AN18" s="117"/>
+      <c r="AO18" s="118"/>
+      <c r="AP18" s="118"/>
+      <c r="AQ18" s="118"/>
+      <c r="AR18" s="118"/>
+      <c r="AS18" s="118"/>
+      <c r="AT18" s="118"/>
+      <c r="AU18" s="118"/>
+      <c r="AV18" s="118"/>
+      <c r="AW18" s="118"/>
+      <c r="AX18" s="118"/>
+      <c r="AY18" s="118"/>
+      <c r="AZ18" s="118"/>
+      <c r="BA18" s="118"/>
+      <c r="BB18" s="119"/>
+    </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="AN2:BB2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:AD5"/>
-    <mergeCell ref="AE5:AM5"/>
-    <mergeCell ref="AN5:BB5"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:AD6"/>
-    <mergeCell ref="AE6:AM6"/>
-    <mergeCell ref="AN6:BB6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="AE7:AM7"/>
-    <mergeCell ref="AN7:BB7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AM8"/>
-    <mergeCell ref="AN8:BB8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AM9"/>
-    <mergeCell ref="AN9:BB9"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AN11:BB11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BB12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="AN13:BB13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BB14"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="U15:AD15"/>
     <mergeCell ref="AE15:AM15"/>
@@ -6991,6 +6976,50 @@
     <mergeCell ref="U17:AD17"/>
     <mergeCell ref="AE17:AM17"/>
     <mergeCell ref="AN17:BB17"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="AN13:BB13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BB14"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AN11:BB11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BB12"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="AN8:BB8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AM9"/>
+    <mergeCell ref="AN9:BB9"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:AD6"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="AN6:BB6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AN7:BB7"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:AD5"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="AN5:BB5"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="AN2:BB2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7006,14 +7035,14 @@
       <selection activeCell="AA7" sqref="AA7:BB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="16384" width="2.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="22.15">
+    <row r="1" spans="1:54" ht="24">
       <c r="A1" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -7070,1343 +7099,1253 @@
       <c r="BB1" s="31"/>
     </row>
     <row r="2" spans="1:54">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="163" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="164"/>
+      <c r="C2" s="163" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="163" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="163" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="161" t="s">
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="163" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="161" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="161" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="161" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="163"/>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="163"/>
-      <c r="AJ2" s="163"/>
-      <c r="AK2" s="163"/>
-      <c r="AL2" s="163"/>
-      <c r="AM2" s="163"/>
-      <c r="AN2" s="163"/>
-      <c r="AO2" s="163"/>
-      <c r="AP2" s="163"/>
-      <c r="AQ2" s="163"/>
-      <c r="AR2" s="163"/>
-      <c r="AS2" s="163"/>
-      <c r="AT2" s="163"/>
-      <c r="AU2" s="163"/>
-      <c r="AV2" s="163"/>
-      <c r="AW2" s="163"/>
-      <c r="AX2" s="163"/>
-      <c r="AY2" s="163"/>
-      <c r="AZ2" s="163"/>
-      <c r="BA2" s="163"/>
-      <c r="BB2" s="162"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
+      <c r="AK2" s="165"/>
+      <c r="AL2" s="165"/>
+      <c r="AM2" s="165"/>
+      <c r="AN2" s="165"/>
+      <c r="AO2" s="165"/>
+      <c r="AP2" s="165"/>
+      <c r="AQ2" s="165"/>
+      <c r="AR2" s="165"/>
+      <c r="AS2" s="165"/>
+      <c r="AT2" s="165"/>
+      <c r="AU2" s="165"/>
+      <c r="AV2" s="165"/>
+      <c r="AW2" s="165"/>
+      <c r="AX2" s="165"/>
+      <c r="AY2" s="165"/>
+      <c r="AZ2" s="165"/>
+      <c r="BA2" s="165"/>
+      <c r="BB2" s="164"/>
     </row>
     <row r="3" spans="1:54">
-      <c r="A3" s="173">
+      <c r="A3" s="166">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="174"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="175"/>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="175"/>
-      <c r="AK3" s="175"/>
-      <c r="AL3" s="175"/>
-      <c r="AM3" s="175"/>
-      <c r="AN3" s="175"/>
-      <c r="AO3" s="175"/>
-      <c r="AP3" s="175"/>
-      <c r="AQ3" s="175"/>
-      <c r="AR3" s="175"/>
-      <c r="AS3" s="175"/>
-      <c r="AT3" s="175"/>
-      <c r="AU3" s="175"/>
-      <c r="AV3" s="175"/>
-      <c r="AW3" s="175"/>
-      <c r="AX3" s="175"/>
-      <c r="AY3" s="175"/>
-      <c r="AZ3" s="175"/>
-      <c r="BA3" s="175"/>
-      <c r="BB3" s="174"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="174"/>
+      <c r="AM3" s="174"/>
+      <c r="AN3" s="174"/>
+      <c r="AO3" s="174"/>
+      <c r="AP3" s="174"/>
+      <c r="AQ3" s="174"/>
+      <c r="AR3" s="174"/>
+      <c r="AS3" s="174"/>
+      <c r="AT3" s="174"/>
+      <c r="AU3" s="174"/>
+      <c r="AV3" s="174"/>
+      <c r="AW3" s="174"/>
+      <c r="AX3" s="174"/>
+      <c r="AY3" s="174"/>
+      <c r="AZ3" s="174"/>
+      <c r="BA3" s="174"/>
+      <c r="BB3" s="167"/>
     </row>
     <row r="4" spans="1:54">
-      <c r="A4" s="173">
+      <c r="A4" s="166">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="174"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
-      <c r="S4" s="175"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="175"/>
-      <c r="V4" s="175"/>
-      <c r="W4" s="175"/>
-      <c r="X4" s="175"/>
-      <c r="Y4" s="175"/>
-      <c r="Z4" s="174"/>
-      <c r="AA4" s="173"/>
-      <c r="AB4" s="175"/>
-      <c r="AC4" s="175"/>
-      <c r="AD4" s="175"/>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="175"/>
-      <c r="AG4" s="175"/>
-      <c r="AH4" s="175"/>
-      <c r="AI4" s="175"/>
-      <c r="AJ4" s="175"/>
-      <c r="AK4" s="175"/>
-      <c r="AL4" s="175"/>
-      <c r="AM4" s="175"/>
-      <c r="AN4" s="175"/>
-      <c r="AO4" s="175"/>
-      <c r="AP4" s="175"/>
-      <c r="AQ4" s="175"/>
-      <c r="AR4" s="175"/>
-      <c r="AS4" s="175"/>
-      <c r="AT4" s="175"/>
-      <c r="AU4" s="175"/>
-      <c r="AV4" s="175"/>
-      <c r="AW4" s="175"/>
-      <c r="AX4" s="175"/>
-      <c r="AY4" s="175"/>
-      <c r="AZ4" s="175"/>
-      <c r="BA4" s="175"/>
-      <c r="BB4" s="174"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="174"/>
+      <c r="R4" s="174"/>
+      <c r="S4" s="174"/>
+      <c r="T4" s="174"/>
+      <c r="U4" s="174"/>
+      <c r="V4" s="174"/>
+      <c r="W4" s="174"/>
+      <c r="X4" s="174"/>
+      <c r="Y4" s="174"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="166"/>
+      <c r="AB4" s="174"/>
+      <c r="AC4" s="174"/>
+      <c r="AD4" s="174"/>
+      <c r="AE4" s="174"/>
+      <c r="AF4" s="174"/>
+      <c r="AG4" s="174"/>
+      <c r="AH4" s="174"/>
+      <c r="AI4" s="174"/>
+      <c r="AJ4" s="174"/>
+      <c r="AK4" s="174"/>
+      <c r="AL4" s="174"/>
+      <c r="AM4" s="174"/>
+      <c r="AN4" s="174"/>
+      <c r="AO4" s="174"/>
+      <c r="AP4" s="174"/>
+      <c r="AQ4" s="174"/>
+      <c r="AR4" s="174"/>
+      <c r="AS4" s="174"/>
+      <c r="AT4" s="174"/>
+      <c r="AU4" s="174"/>
+      <c r="AV4" s="174"/>
+      <c r="AW4" s="174"/>
+      <c r="AX4" s="174"/>
+      <c r="AY4" s="174"/>
+      <c r="AZ4" s="174"/>
+      <c r="BA4" s="174"/>
+      <c r="BB4" s="167"/>
     </row>
     <row r="5" spans="1:54">
-      <c r="A5" s="173">
+      <c r="A5" s="166">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="175"/>
-      <c r="S5" s="175"/>
-      <c r="T5" s="175"/>
-      <c r="U5" s="175"/>
-      <c r="V5" s="175"/>
-      <c r="W5" s="175"/>
-      <c r="X5" s="175"/>
-      <c r="Y5" s="175"/>
-      <c r="Z5" s="174"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="175"/>
-      <c r="AC5" s="175"/>
-      <c r="AD5" s="175"/>
-      <c r="AE5" s="175"/>
-      <c r="AF5" s="175"/>
-      <c r="AG5" s="175"/>
-      <c r="AH5" s="175"/>
-      <c r="AI5" s="175"/>
-      <c r="AJ5" s="175"/>
-      <c r="AK5" s="175"/>
-      <c r="AL5" s="175"/>
-      <c r="AM5" s="175"/>
-      <c r="AN5" s="175"/>
-      <c r="AO5" s="175"/>
-      <c r="AP5" s="175"/>
-      <c r="AQ5" s="175"/>
-      <c r="AR5" s="175"/>
-      <c r="AS5" s="175"/>
-      <c r="AT5" s="175"/>
-      <c r="AU5" s="175"/>
-      <c r="AV5" s="175"/>
-      <c r="AW5" s="175"/>
-      <c r="AX5" s="175"/>
-      <c r="AY5" s="175"/>
-      <c r="AZ5" s="175"/>
-      <c r="BA5" s="175"/>
-      <c r="BB5" s="174"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="174"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="174"/>
+      <c r="U5" s="174"/>
+      <c r="V5" s="174"/>
+      <c r="W5" s="174"/>
+      <c r="X5" s="174"/>
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="166"/>
+      <c r="AB5" s="174"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="174"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="174"/>
+      <c r="AG5" s="174"/>
+      <c r="AH5" s="174"/>
+      <c r="AI5" s="174"/>
+      <c r="AJ5" s="174"/>
+      <c r="AK5" s="174"/>
+      <c r="AL5" s="174"/>
+      <c r="AM5" s="174"/>
+      <c r="AN5" s="174"/>
+      <c r="AO5" s="174"/>
+      <c r="AP5" s="174"/>
+      <c r="AQ5" s="174"/>
+      <c r="AR5" s="174"/>
+      <c r="AS5" s="174"/>
+      <c r="AT5" s="174"/>
+      <c r="AU5" s="174"/>
+      <c r="AV5" s="174"/>
+      <c r="AW5" s="174"/>
+      <c r="AX5" s="174"/>
+      <c r="AY5" s="174"/>
+      <c r="AZ5" s="174"/>
+      <c r="BA5" s="174"/>
+      <c r="BB5" s="167"/>
     </row>
     <row r="6" spans="1:54">
-      <c r="A6" s="173">
+      <c r="A6" s="166">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="175"/>
-      <c r="R6" s="175"/>
-      <c r="S6" s="175"/>
-      <c r="T6" s="175"/>
-      <c r="U6" s="175"/>
-      <c r="V6" s="175"/>
-      <c r="W6" s="175"/>
-      <c r="X6" s="175"/>
-      <c r="Y6" s="175"/>
-      <c r="Z6" s="174"/>
-      <c r="AA6" s="173"/>
-      <c r="AB6" s="175"/>
-      <c r="AC6" s="175"/>
-      <c r="AD6" s="175"/>
-      <c r="AE6" s="175"/>
-      <c r="AF6" s="175"/>
-      <c r="AG6" s="175"/>
-      <c r="AH6" s="175"/>
-      <c r="AI6" s="175"/>
-      <c r="AJ6" s="175"/>
-      <c r="AK6" s="175"/>
-      <c r="AL6" s="175"/>
-      <c r="AM6" s="175"/>
-      <c r="AN6" s="175"/>
-      <c r="AO6" s="175"/>
-      <c r="AP6" s="175"/>
-      <c r="AQ6" s="175"/>
-      <c r="AR6" s="175"/>
-      <c r="AS6" s="175"/>
-      <c r="AT6" s="175"/>
-      <c r="AU6" s="175"/>
-      <c r="AV6" s="175"/>
-      <c r="AW6" s="175"/>
-      <c r="AX6" s="175"/>
-      <c r="AY6" s="175"/>
-      <c r="AZ6" s="175"/>
-      <c r="BA6" s="175"/>
-      <c r="BB6" s="174"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="174"/>
+      <c r="P6" s="174"/>
+      <c r="Q6" s="174"/>
+      <c r="R6" s="174"/>
+      <c r="S6" s="174"/>
+      <c r="T6" s="174"/>
+      <c r="U6" s="174"/>
+      <c r="V6" s="174"/>
+      <c r="W6" s="174"/>
+      <c r="X6" s="174"/>
+      <c r="Y6" s="174"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="166"/>
+      <c r="AB6" s="174"/>
+      <c r="AC6" s="174"/>
+      <c r="AD6" s="174"/>
+      <c r="AE6" s="174"/>
+      <c r="AF6" s="174"/>
+      <c r="AG6" s="174"/>
+      <c r="AH6" s="174"/>
+      <c r="AI6" s="174"/>
+      <c r="AJ6" s="174"/>
+      <c r="AK6" s="174"/>
+      <c r="AL6" s="174"/>
+      <c r="AM6" s="174"/>
+      <c r="AN6" s="174"/>
+      <c r="AO6" s="174"/>
+      <c r="AP6" s="174"/>
+      <c r="AQ6" s="174"/>
+      <c r="AR6" s="174"/>
+      <c r="AS6" s="174"/>
+      <c r="AT6" s="174"/>
+      <c r="AU6" s="174"/>
+      <c r="AV6" s="174"/>
+      <c r="AW6" s="174"/>
+      <c r="AX6" s="174"/>
+      <c r="AY6" s="174"/>
+      <c r="AZ6" s="174"/>
+      <c r="BA6" s="174"/>
+      <c r="BB6" s="167"/>
     </row>
     <row r="7" spans="1:54">
-      <c r="A7" s="173">
+      <c r="A7" s="166">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="175"/>
-      <c r="R7" s="175"/>
-      <c r="S7" s="175"/>
-      <c r="T7" s="175"/>
-      <c r="U7" s="175"/>
-      <c r="V7" s="175"/>
-      <c r="W7" s="175"/>
-      <c r="X7" s="175"/>
-      <c r="Y7" s="175"/>
-      <c r="Z7" s="174"/>
-      <c r="AA7" s="173"/>
-      <c r="AB7" s="175"/>
-      <c r="AC7" s="175"/>
-      <c r="AD7" s="175"/>
-      <c r="AE7" s="175"/>
-      <c r="AF7" s="175"/>
-      <c r="AG7" s="175"/>
-      <c r="AH7" s="175"/>
-      <c r="AI7" s="175"/>
-      <c r="AJ7" s="175"/>
-      <c r="AK7" s="175"/>
-      <c r="AL7" s="175"/>
-      <c r="AM7" s="175"/>
-      <c r="AN7" s="175"/>
-      <c r="AO7" s="175"/>
-      <c r="AP7" s="175"/>
-      <c r="AQ7" s="175"/>
-      <c r="AR7" s="175"/>
-      <c r="AS7" s="175"/>
-      <c r="AT7" s="175"/>
-      <c r="AU7" s="175"/>
-      <c r="AV7" s="175"/>
-      <c r="AW7" s="175"/>
-      <c r="AX7" s="175"/>
-      <c r="AY7" s="175"/>
-      <c r="AZ7" s="175"/>
-      <c r="BA7" s="175"/>
-      <c r="BB7" s="174"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="174"/>
+      <c r="U7" s="174"/>
+      <c r="V7" s="174"/>
+      <c r="W7" s="174"/>
+      <c r="X7" s="174"/>
+      <c r="Y7" s="174"/>
+      <c r="Z7" s="167"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="174"/>
+      <c r="AC7" s="174"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="174"/>
+      <c r="AF7" s="174"/>
+      <c r="AG7" s="174"/>
+      <c r="AH7" s="174"/>
+      <c r="AI7" s="174"/>
+      <c r="AJ7" s="174"/>
+      <c r="AK7" s="174"/>
+      <c r="AL7" s="174"/>
+      <c r="AM7" s="174"/>
+      <c r="AN7" s="174"/>
+      <c r="AO7" s="174"/>
+      <c r="AP7" s="174"/>
+      <c r="AQ7" s="174"/>
+      <c r="AR7" s="174"/>
+      <c r="AS7" s="174"/>
+      <c r="AT7" s="174"/>
+      <c r="AU7" s="174"/>
+      <c r="AV7" s="174"/>
+      <c r="AW7" s="174"/>
+      <c r="AX7" s="174"/>
+      <c r="AY7" s="174"/>
+      <c r="AZ7" s="174"/>
+      <c r="BA7" s="174"/>
+      <c r="BB7" s="167"/>
     </row>
     <row r="8" spans="1:54">
-      <c r="A8" s="173">
+      <c r="A8" s="166">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="174"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175"/>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="174"/>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175"/>
-      <c r="AE8" s="175"/>
-      <c r="AF8" s="175"/>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="175"/>
-      <c r="AI8" s="175"/>
-      <c r="AJ8" s="175"/>
-      <c r="AK8" s="175"/>
-      <c r="AL8" s="175"/>
-      <c r="AM8" s="175"/>
-      <c r="AN8" s="175"/>
-      <c r="AO8" s="175"/>
-      <c r="AP8" s="175"/>
-      <c r="AQ8" s="175"/>
-      <c r="AR8" s="175"/>
-      <c r="AS8" s="175"/>
-      <c r="AT8" s="175"/>
-      <c r="AU8" s="175"/>
-      <c r="AV8" s="175"/>
-      <c r="AW8" s="175"/>
-      <c r="AX8" s="175"/>
-      <c r="AY8" s="175"/>
-      <c r="AZ8" s="175"/>
-      <c r="BA8" s="175"/>
-      <c r="BB8" s="174"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="174"/>
+      <c r="R8" s="174"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="174"/>
+      <c r="U8" s="174"/>
+      <c r="V8" s="174"/>
+      <c r="W8" s="174"/>
+      <c r="X8" s="174"/>
+      <c r="Y8" s="174"/>
+      <c r="Z8" s="167"/>
+      <c r="AA8" s="166"/>
+      <c r="AB8" s="174"/>
+      <c r="AC8" s="174"/>
+      <c r="AD8" s="174"/>
+      <c r="AE8" s="174"/>
+      <c r="AF8" s="174"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="174"/>
+      <c r="AI8" s="174"/>
+      <c r="AJ8" s="174"/>
+      <c r="AK8" s="174"/>
+      <c r="AL8" s="174"/>
+      <c r="AM8" s="174"/>
+      <c r="AN8" s="174"/>
+      <c r="AO8" s="174"/>
+      <c r="AP8" s="174"/>
+      <c r="AQ8" s="174"/>
+      <c r="AR8" s="174"/>
+      <c r="AS8" s="174"/>
+      <c r="AT8" s="174"/>
+      <c r="AU8" s="174"/>
+      <c r="AV8" s="174"/>
+      <c r="AW8" s="174"/>
+      <c r="AX8" s="174"/>
+      <c r="AY8" s="174"/>
+      <c r="AZ8" s="174"/>
+      <c r="BA8" s="174"/>
+      <c r="BB8" s="167"/>
     </row>
     <row r="9" spans="1:54">
-      <c r="A9" s="173">
+      <c r="A9" s="166">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="160"/>
-      <c r="N9" s="173"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="175"/>
-      <c r="U9" s="175"/>
-      <c r="V9" s="175"/>
-      <c r="W9" s="175"/>
-      <c r="X9" s="175"/>
-      <c r="Y9" s="175"/>
-      <c r="Z9" s="174"/>
-      <c r="AA9" s="173"/>
-      <c r="AB9" s="175"/>
-      <c r="AC9" s="175"/>
-      <c r="AD9" s="175"/>
-      <c r="AE9" s="175"/>
-      <c r="AF9" s="175"/>
-      <c r="AG9" s="175"/>
-      <c r="AH9" s="175"/>
-      <c r="AI9" s="175"/>
-      <c r="AJ9" s="175"/>
-      <c r="AK9" s="175"/>
-      <c r="AL9" s="175"/>
-      <c r="AM9" s="175"/>
-      <c r="AN9" s="175"/>
-      <c r="AO9" s="175"/>
-      <c r="AP9" s="175"/>
-      <c r="AQ9" s="175"/>
-      <c r="AR9" s="175"/>
-      <c r="AS9" s="175"/>
-      <c r="AT9" s="175"/>
-      <c r="AU9" s="175"/>
-      <c r="AV9" s="175"/>
-      <c r="AW9" s="175"/>
-      <c r="AX9" s="175"/>
-      <c r="AY9" s="175"/>
-      <c r="AZ9" s="175"/>
-      <c r="BA9" s="175"/>
-      <c r="BB9" s="174"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="174"/>
+      <c r="P9" s="174"/>
+      <c r="Q9" s="174"/>
+      <c r="R9" s="174"/>
+      <c r="S9" s="174"/>
+      <c r="T9" s="174"/>
+      <c r="U9" s="174"/>
+      <c r="V9" s="174"/>
+      <c r="W9" s="174"/>
+      <c r="X9" s="174"/>
+      <c r="Y9" s="174"/>
+      <c r="Z9" s="167"/>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="174"/>
+      <c r="AC9" s="174"/>
+      <c r="AD9" s="174"/>
+      <c r="AE9" s="174"/>
+      <c r="AF9" s="174"/>
+      <c r="AG9" s="174"/>
+      <c r="AH9" s="174"/>
+      <c r="AI9" s="174"/>
+      <c r="AJ9" s="174"/>
+      <c r="AK9" s="174"/>
+      <c r="AL9" s="174"/>
+      <c r="AM9" s="174"/>
+      <c r="AN9" s="174"/>
+      <c r="AO9" s="174"/>
+      <c r="AP9" s="174"/>
+      <c r="AQ9" s="174"/>
+      <c r="AR9" s="174"/>
+      <c r="AS9" s="174"/>
+      <c r="AT9" s="174"/>
+      <c r="AU9" s="174"/>
+      <c r="AV9" s="174"/>
+      <c r="AW9" s="174"/>
+      <c r="AX9" s="174"/>
+      <c r="AY9" s="174"/>
+      <c r="AZ9" s="174"/>
+      <c r="BA9" s="174"/>
+      <c r="BB9" s="167"/>
     </row>
     <row r="10" spans="1:54">
-      <c r="A10" s="173">
+      <c r="A10" s="166">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="174"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="173"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
-      <c r="Y10" s="175"/>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="175"/>
-      <c r="AC10" s="175"/>
-      <c r="AD10" s="175"/>
-      <c r="AE10" s="175"/>
-      <c r="AF10" s="175"/>
-      <c r="AG10" s="175"/>
-      <c r="AH10" s="175"/>
-      <c r="AI10" s="175"/>
-      <c r="AJ10" s="175"/>
-      <c r="AK10" s="175"/>
-      <c r="AL10" s="175"/>
-      <c r="AM10" s="175"/>
-      <c r="AN10" s="175"/>
-      <c r="AO10" s="175"/>
-      <c r="AP10" s="175"/>
-      <c r="AQ10" s="175"/>
-      <c r="AR10" s="175"/>
-      <c r="AS10" s="175"/>
-      <c r="AT10" s="175"/>
-      <c r="AU10" s="175"/>
-      <c r="AV10" s="175"/>
-      <c r="AW10" s="175"/>
-      <c r="AX10" s="175"/>
-      <c r="AY10" s="175"/>
-      <c r="AZ10" s="175"/>
-      <c r="BA10" s="175"/>
-      <c r="BB10" s="174"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="174"/>
+      <c r="P10" s="174"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="174"/>
+      <c r="T10" s="174"/>
+      <c r="U10" s="174"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="174"/>
+      <c r="Y10" s="174"/>
+      <c r="Z10" s="167"/>
+      <c r="AA10" s="166"/>
+      <c r="AB10" s="174"/>
+      <c r="AC10" s="174"/>
+      <c r="AD10" s="174"/>
+      <c r="AE10" s="174"/>
+      <c r="AF10" s="174"/>
+      <c r="AG10" s="174"/>
+      <c r="AH10" s="174"/>
+      <c r="AI10" s="174"/>
+      <c r="AJ10" s="174"/>
+      <c r="AK10" s="174"/>
+      <c r="AL10" s="174"/>
+      <c r="AM10" s="174"/>
+      <c r="AN10" s="174"/>
+      <c r="AO10" s="174"/>
+      <c r="AP10" s="174"/>
+      <c r="AQ10" s="174"/>
+      <c r="AR10" s="174"/>
+      <c r="AS10" s="174"/>
+      <c r="AT10" s="174"/>
+      <c r="AU10" s="174"/>
+      <c r="AV10" s="174"/>
+      <c r="AW10" s="174"/>
+      <c r="AX10" s="174"/>
+      <c r="AY10" s="174"/>
+      <c r="AZ10" s="174"/>
+      <c r="BA10" s="174"/>
+      <c r="BB10" s="167"/>
     </row>
     <row r="11" spans="1:54">
-      <c r="A11" s="173">
+      <c r="A11" s="166">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="174"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="175"/>
-      <c r="P11" s="175"/>
-      <c r="Q11" s="175"/>
-      <c r="R11" s="175"/>
-      <c r="S11" s="175"/>
-      <c r="T11" s="175"/>
-      <c r="U11" s="175"/>
-      <c r="V11" s="175"/>
-      <c r="W11" s="175"/>
-      <c r="X11" s="175"/>
-      <c r="Y11" s="175"/>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="175"/>
-      <c r="AC11" s="175"/>
-      <c r="AD11" s="175"/>
-      <c r="AE11" s="175"/>
-      <c r="AF11" s="175"/>
-      <c r="AG11" s="175"/>
-      <c r="AH11" s="175"/>
-      <c r="AI11" s="175"/>
-      <c r="AJ11" s="175"/>
-      <c r="AK11" s="175"/>
-      <c r="AL11" s="175"/>
-      <c r="AM11" s="175"/>
-      <c r="AN11" s="175"/>
-      <c r="AO11" s="175"/>
-      <c r="AP11" s="175"/>
-      <c r="AQ11" s="175"/>
-      <c r="AR11" s="175"/>
-      <c r="AS11" s="175"/>
-      <c r="AT11" s="175"/>
-      <c r="AU11" s="175"/>
-      <c r="AV11" s="175"/>
-      <c r="AW11" s="175"/>
-      <c r="AX11" s="175"/>
-      <c r="AY11" s="175"/>
-      <c r="AZ11" s="175"/>
-      <c r="BA11" s="175"/>
-      <c r="BB11" s="174"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="172"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="174"/>
+      <c r="Q11" s="174"/>
+      <c r="R11" s="174"/>
+      <c r="S11" s="174"/>
+      <c r="T11" s="174"/>
+      <c r="U11" s="174"/>
+      <c r="V11" s="174"/>
+      <c r="W11" s="174"/>
+      <c r="X11" s="174"/>
+      <c r="Y11" s="174"/>
+      <c r="Z11" s="167"/>
+      <c r="AA11" s="166"/>
+      <c r="AB11" s="174"/>
+      <c r="AC11" s="174"/>
+      <c r="AD11" s="174"/>
+      <c r="AE11" s="174"/>
+      <c r="AF11" s="174"/>
+      <c r="AG11" s="174"/>
+      <c r="AH11" s="174"/>
+      <c r="AI11" s="174"/>
+      <c r="AJ11" s="174"/>
+      <c r="AK11" s="174"/>
+      <c r="AL11" s="174"/>
+      <c r="AM11" s="174"/>
+      <c r="AN11" s="174"/>
+      <c r="AO11" s="174"/>
+      <c r="AP11" s="174"/>
+      <c r="AQ11" s="174"/>
+      <c r="AR11" s="174"/>
+      <c r="AS11" s="174"/>
+      <c r="AT11" s="174"/>
+      <c r="AU11" s="174"/>
+      <c r="AV11" s="174"/>
+      <c r="AW11" s="174"/>
+      <c r="AX11" s="174"/>
+      <c r="AY11" s="174"/>
+      <c r="AZ11" s="174"/>
+      <c r="BA11" s="174"/>
+      <c r="BB11" s="167"/>
     </row>
     <row r="12" spans="1:54">
-      <c r="A12" s="173">
+      <c r="A12" s="166">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="174"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="175"/>
-      <c r="P12" s="175"/>
-      <c r="Q12" s="175"/>
-      <c r="R12" s="175"/>
-      <c r="S12" s="175"/>
-      <c r="T12" s="175"/>
-      <c r="U12" s="175"/>
-      <c r="V12" s="175"/>
-      <c r="W12" s="175"/>
-      <c r="X12" s="175"/>
-      <c r="Y12" s="175"/>
-      <c r="Z12" s="174"/>
-      <c r="AA12" s="173"/>
-      <c r="AB12" s="175"/>
-      <c r="AC12" s="175"/>
-      <c r="AD12" s="175"/>
-      <c r="AE12" s="175"/>
-      <c r="AF12" s="175"/>
-      <c r="AG12" s="175"/>
-      <c r="AH12" s="175"/>
-      <c r="AI12" s="175"/>
-      <c r="AJ12" s="175"/>
-      <c r="AK12" s="175"/>
-      <c r="AL12" s="175"/>
-      <c r="AM12" s="175"/>
-      <c r="AN12" s="175"/>
-      <c r="AO12" s="175"/>
-      <c r="AP12" s="175"/>
-      <c r="AQ12" s="175"/>
-      <c r="AR12" s="175"/>
-      <c r="AS12" s="175"/>
-      <c r="AT12" s="175"/>
-      <c r="AU12" s="175"/>
-      <c r="AV12" s="175"/>
-      <c r="AW12" s="175"/>
-      <c r="AX12" s="175"/>
-      <c r="AY12" s="175"/>
-      <c r="AZ12" s="175"/>
-      <c r="BA12" s="175"/>
-      <c r="BB12" s="174"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="173"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="174"/>
+      <c r="R12" s="174"/>
+      <c r="S12" s="174"/>
+      <c r="T12" s="174"/>
+      <c r="U12" s="174"/>
+      <c r="V12" s="174"/>
+      <c r="W12" s="174"/>
+      <c r="X12" s="174"/>
+      <c r="Y12" s="174"/>
+      <c r="Z12" s="167"/>
+      <c r="AA12" s="166"/>
+      <c r="AB12" s="174"/>
+      <c r="AC12" s="174"/>
+      <c r="AD12" s="174"/>
+      <c r="AE12" s="174"/>
+      <c r="AF12" s="174"/>
+      <c r="AG12" s="174"/>
+      <c r="AH12" s="174"/>
+      <c r="AI12" s="174"/>
+      <c r="AJ12" s="174"/>
+      <c r="AK12" s="174"/>
+      <c r="AL12" s="174"/>
+      <c r="AM12" s="174"/>
+      <c r="AN12" s="174"/>
+      <c r="AO12" s="174"/>
+      <c r="AP12" s="174"/>
+      <c r="AQ12" s="174"/>
+      <c r="AR12" s="174"/>
+      <c r="AS12" s="174"/>
+      <c r="AT12" s="174"/>
+      <c r="AU12" s="174"/>
+      <c r="AV12" s="174"/>
+      <c r="AW12" s="174"/>
+      <c r="AX12" s="174"/>
+      <c r="AY12" s="174"/>
+      <c r="AZ12" s="174"/>
+      <c r="BA12" s="174"/>
+      <c r="BB12" s="167"/>
     </row>
     <row r="13" spans="1:54">
-      <c r="A13" s="173">
+      <c r="A13" s="166">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="174"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="160"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="175"/>
-      <c r="Q13" s="175"/>
-      <c r="R13" s="175"/>
-      <c r="S13" s="175"/>
-      <c r="T13" s="175"/>
-      <c r="U13" s="175"/>
-      <c r="V13" s="175"/>
-      <c r="W13" s="175"/>
-      <c r="X13" s="175"/>
-      <c r="Y13" s="175"/>
-      <c r="Z13" s="174"/>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="175"/>
-      <c r="AC13" s="175"/>
-      <c r="AD13" s="175"/>
-      <c r="AE13" s="175"/>
-      <c r="AF13" s="175"/>
-      <c r="AG13" s="175"/>
-      <c r="AH13" s="175"/>
-      <c r="AI13" s="175"/>
-      <c r="AJ13" s="175"/>
-      <c r="AK13" s="175"/>
-      <c r="AL13" s="175"/>
-      <c r="AM13" s="175"/>
-      <c r="AN13" s="175"/>
-      <c r="AO13" s="175"/>
-      <c r="AP13" s="175"/>
-      <c r="AQ13" s="175"/>
-      <c r="AR13" s="175"/>
-      <c r="AS13" s="175"/>
-      <c r="AT13" s="175"/>
-      <c r="AU13" s="175"/>
-      <c r="AV13" s="175"/>
-      <c r="AW13" s="175"/>
-      <c r="AX13" s="175"/>
-      <c r="AY13" s="175"/>
-      <c r="AZ13" s="175"/>
-      <c r="BA13" s="175"/>
-      <c r="BB13" s="174"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="174"/>
+      <c r="S13" s="174"/>
+      <c r="T13" s="174"/>
+      <c r="U13" s="174"/>
+      <c r="V13" s="174"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="174"/>
+      <c r="Z13" s="167"/>
+      <c r="AA13" s="166"/>
+      <c r="AB13" s="174"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="174"/>
+      <c r="AE13" s="174"/>
+      <c r="AF13" s="174"/>
+      <c r="AG13" s="174"/>
+      <c r="AH13" s="174"/>
+      <c r="AI13" s="174"/>
+      <c r="AJ13" s="174"/>
+      <c r="AK13" s="174"/>
+      <c r="AL13" s="174"/>
+      <c r="AM13" s="174"/>
+      <c r="AN13" s="174"/>
+      <c r="AO13" s="174"/>
+      <c r="AP13" s="174"/>
+      <c r="AQ13" s="174"/>
+      <c r="AR13" s="174"/>
+      <c r="AS13" s="174"/>
+      <c r="AT13" s="174"/>
+      <c r="AU13" s="174"/>
+      <c r="AV13" s="174"/>
+      <c r="AW13" s="174"/>
+      <c r="AX13" s="174"/>
+      <c r="AY13" s="174"/>
+      <c r="AZ13" s="174"/>
+      <c r="BA13" s="174"/>
+      <c r="BB13" s="167"/>
     </row>
     <row r="14" spans="1:54">
-      <c r="A14" s="173">
+      <c r="A14" s="166">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="174"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="160"/>
-      <c r="N14" s="173"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="175"/>
-      <c r="Q14" s="175"/>
-      <c r="R14" s="175"/>
-      <c r="S14" s="175"/>
-      <c r="T14" s="175"/>
-      <c r="U14" s="175"/>
-      <c r="V14" s="175"/>
-      <c r="W14" s="175"/>
-      <c r="X14" s="175"/>
-      <c r="Y14" s="175"/>
-      <c r="Z14" s="174"/>
-      <c r="AA14" s="173"/>
-      <c r="AB14" s="175"/>
-      <c r="AC14" s="175"/>
-      <c r="AD14" s="175"/>
-      <c r="AE14" s="175"/>
-      <c r="AF14" s="175"/>
-      <c r="AG14" s="175"/>
-      <c r="AH14" s="175"/>
-      <c r="AI14" s="175"/>
-      <c r="AJ14" s="175"/>
-      <c r="AK14" s="175"/>
-      <c r="AL14" s="175"/>
-      <c r="AM14" s="175"/>
-      <c r="AN14" s="175"/>
-      <c r="AO14" s="175"/>
-      <c r="AP14" s="175"/>
-      <c r="AQ14" s="175"/>
-      <c r="AR14" s="175"/>
-      <c r="AS14" s="175"/>
-      <c r="AT14" s="175"/>
-      <c r="AU14" s="175"/>
-      <c r="AV14" s="175"/>
-      <c r="AW14" s="175"/>
-      <c r="AX14" s="175"/>
-      <c r="AY14" s="175"/>
-      <c r="AZ14" s="175"/>
-      <c r="BA14" s="175"/>
-      <c r="BB14" s="174"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="166"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="174"/>
+      <c r="S14" s="174"/>
+      <c r="T14" s="174"/>
+      <c r="U14" s="174"/>
+      <c r="V14" s="174"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="174"/>
+      <c r="Z14" s="167"/>
+      <c r="AA14" s="166"/>
+      <c r="AB14" s="174"/>
+      <c r="AC14" s="174"/>
+      <c r="AD14" s="174"/>
+      <c r="AE14" s="174"/>
+      <c r="AF14" s="174"/>
+      <c r="AG14" s="174"/>
+      <c r="AH14" s="174"/>
+      <c r="AI14" s="174"/>
+      <c r="AJ14" s="174"/>
+      <c r="AK14" s="174"/>
+      <c r="AL14" s="174"/>
+      <c r="AM14" s="174"/>
+      <c r="AN14" s="174"/>
+      <c r="AO14" s="174"/>
+      <c r="AP14" s="174"/>
+      <c r="AQ14" s="174"/>
+      <c r="AR14" s="174"/>
+      <c r="AS14" s="174"/>
+      <c r="AT14" s="174"/>
+      <c r="AU14" s="174"/>
+      <c r="AV14" s="174"/>
+      <c r="AW14" s="174"/>
+      <c r="AX14" s="174"/>
+      <c r="AY14" s="174"/>
+      <c r="AZ14" s="174"/>
+      <c r="BA14" s="174"/>
+      <c r="BB14" s="167"/>
     </row>
     <row r="15" spans="1:54">
-      <c r="A15" s="173">
+      <c r="A15" s="166">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="160"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="175"/>
-      <c r="R15" s="175"/>
-      <c r="S15" s="175"/>
-      <c r="T15" s="175"/>
-      <c r="U15" s="175"/>
-      <c r="V15" s="175"/>
-      <c r="W15" s="175"/>
-      <c r="X15" s="175"/>
-      <c r="Y15" s="175"/>
-      <c r="Z15" s="174"/>
-      <c r="AA15" s="173"/>
-      <c r="AB15" s="175"/>
-      <c r="AC15" s="175"/>
-      <c r="AD15" s="175"/>
-      <c r="AE15" s="175"/>
-      <c r="AF15" s="175"/>
-      <c r="AG15" s="175"/>
-      <c r="AH15" s="175"/>
-      <c r="AI15" s="175"/>
-      <c r="AJ15" s="175"/>
-      <c r="AK15" s="175"/>
-      <c r="AL15" s="175"/>
-      <c r="AM15" s="175"/>
-      <c r="AN15" s="175"/>
-      <c r="AO15" s="175"/>
-      <c r="AP15" s="175"/>
-      <c r="AQ15" s="175"/>
-      <c r="AR15" s="175"/>
-      <c r="AS15" s="175"/>
-      <c r="AT15" s="175"/>
-      <c r="AU15" s="175"/>
-      <c r="AV15" s="175"/>
-      <c r="AW15" s="175"/>
-      <c r="AX15" s="175"/>
-      <c r="AY15" s="175"/>
-      <c r="AZ15" s="175"/>
-      <c r="BA15" s="175"/>
-      <c r="BB15" s="174"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="174"/>
+      <c r="S15" s="174"/>
+      <c r="T15" s="174"/>
+      <c r="U15" s="174"/>
+      <c r="V15" s="174"/>
+      <c r="W15" s="174"/>
+      <c r="X15" s="174"/>
+      <c r="Y15" s="174"/>
+      <c r="Z15" s="167"/>
+      <c r="AA15" s="166"/>
+      <c r="AB15" s="174"/>
+      <c r="AC15" s="174"/>
+      <c r="AD15" s="174"/>
+      <c r="AE15" s="174"/>
+      <c r="AF15" s="174"/>
+      <c r="AG15" s="174"/>
+      <c r="AH15" s="174"/>
+      <c r="AI15" s="174"/>
+      <c r="AJ15" s="174"/>
+      <c r="AK15" s="174"/>
+      <c r="AL15" s="174"/>
+      <c r="AM15" s="174"/>
+      <c r="AN15" s="174"/>
+      <c r="AO15" s="174"/>
+      <c r="AP15" s="174"/>
+      <c r="AQ15" s="174"/>
+      <c r="AR15" s="174"/>
+      <c r="AS15" s="174"/>
+      <c r="AT15" s="174"/>
+      <c r="AU15" s="174"/>
+      <c r="AV15" s="174"/>
+      <c r="AW15" s="174"/>
+      <c r="AX15" s="174"/>
+      <c r="AY15" s="174"/>
+      <c r="AZ15" s="174"/>
+      <c r="BA15" s="174"/>
+      <c r="BB15" s="167"/>
     </row>
     <row r="16" spans="1:54">
-      <c r="A16" s="173">
+      <c r="A16" s="166">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="160"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="175"/>
-      <c r="Q16" s="175"/>
-      <c r="R16" s="175"/>
-      <c r="S16" s="175"/>
-      <c r="T16" s="175"/>
-      <c r="U16" s="175"/>
-      <c r="V16" s="175"/>
-      <c r="W16" s="175"/>
-      <c r="X16" s="175"/>
-      <c r="Y16" s="175"/>
-      <c r="Z16" s="174"/>
-      <c r="AA16" s="173"/>
-      <c r="AB16" s="175"/>
-      <c r="AC16" s="175"/>
-      <c r="AD16" s="175"/>
-      <c r="AE16" s="175"/>
-      <c r="AF16" s="175"/>
-      <c r="AG16" s="175"/>
-      <c r="AH16" s="175"/>
-      <c r="AI16" s="175"/>
-      <c r="AJ16" s="175"/>
-      <c r="AK16" s="175"/>
-      <c r="AL16" s="175"/>
-      <c r="AM16" s="175"/>
-      <c r="AN16" s="175"/>
-      <c r="AO16" s="175"/>
-      <c r="AP16" s="175"/>
-      <c r="AQ16" s="175"/>
-      <c r="AR16" s="175"/>
-      <c r="AS16" s="175"/>
-      <c r="AT16" s="175"/>
-      <c r="AU16" s="175"/>
-      <c r="AV16" s="175"/>
-      <c r="AW16" s="175"/>
-      <c r="AX16" s="175"/>
-      <c r="AY16" s="175"/>
-      <c r="AZ16" s="175"/>
-      <c r="BA16" s="175"/>
-      <c r="BB16" s="174"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="173"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="174"/>
+      <c r="T16" s="174"/>
+      <c r="U16" s="174"/>
+      <c r="V16" s="174"/>
+      <c r="W16" s="174"/>
+      <c r="X16" s="174"/>
+      <c r="Y16" s="174"/>
+      <c r="Z16" s="167"/>
+      <c r="AA16" s="166"/>
+      <c r="AB16" s="174"/>
+      <c r="AC16" s="174"/>
+      <c r="AD16" s="174"/>
+      <c r="AE16" s="174"/>
+      <c r="AF16" s="174"/>
+      <c r="AG16" s="174"/>
+      <c r="AH16" s="174"/>
+      <c r="AI16" s="174"/>
+      <c r="AJ16" s="174"/>
+      <c r="AK16" s="174"/>
+      <c r="AL16" s="174"/>
+      <c r="AM16" s="174"/>
+      <c r="AN16" s="174"/>
+      <c r="AO16" s="174"/>
+      <c r="AP16" s="174"/>
+      <c r="AQ16" s="174"/>
+      <c r="AR16" s="174"/>
+      <c r="AS16" s="174"/>
+      <c r="AT16" s="174"/>
+      <c r="AU16" s="174"/>
+      <c r="AV16" s="174"/>
+      <c r="AW16" s="174"/>
+      <c r="AX16" s="174"/>
+      <c r="AY16" s="174"/>
+      <c r="AZ16" s="174"/>
+      <c r="BA16" s="174"/>
+      <c r="BB16" s="167"/>
     </row>
     <row r="17" spans="1:54">
-      <c r="A17" s="173">
+      <c r="A17" s="166">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="174"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="175"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="175"/>
-      <c r="R17" s="175"/>
-      <c r="S17" s="175"/>
-      <c r="T17" s="175"/>
-      <c r="U17" s="175"/>
-      <c r="V17" s="175"/>
-      <c r="W17" s="175"/>
-      <c r="X17" s="175"/>
-      <c r="Y17" s="175"/>
-      <c r="Z17" s="174"/>
-      <c r="AA17" s="173"/>
-      <c r="AB17" s="175"/>
-      <c r="AC17" s="175"/>
-      <c r="AD17" s="175"/>
-      <c r="AE17" s="175"/>
-      <c r="AF17" s="175"/>
-      <c r="AG17" s="175"/>
-      <c r="AH17" s="175"/>
-      <c r="AI17" s="175"/>
-      <c r="AJ17" s="175"/>
-      <c r="AK17" s="175"/>
-      <c r="AL17" s="175"/>
-      <c r="AM17" s="175"/>
-      <c r="AN17" s="175"/>
-      <c r="AO17" s="175"/>
-      <c r="AP17" s="175"/>
-      <c r="AQ17" s="175"/>
-      <c r="AR17" s="175"/>
-      <c r="AS17" s="175"/>
-      <c r="AT17" s="175"/>
-      <c r="AU17" s="175"/>
-      <c r="AV17" s="175"/>
-      <c r="AW17" s="175"/>
-      <c r="AX17" s="175"/>
-      <c r="AY17" s="175"/>
-      <c r="AZ17" s="175"/>
-      <c r="BA17" s="175"/>
-      <c r="BB17" s="174"/>
+      <c r="B17" s="167"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="166"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="174"/>
+      <c r="S17" s="174"/>
+      <c r="T17" s="174"/>
+      <c r="U17" s="174"/>
+      <c r="V17" s="174"/>
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="174"/>
+      <c r="Z17" s="167"/>
+      <c r="AA17" s="166"/>
+      <c r="AB17" s="174"/>
+      <c r="AC17" s="174"/>
+      <c r="AD17" s="174"/>
+      <c r="AE17" s="174"/>
+      <c r="AF17" s="174"/>
+      <c r="AG17" s="174"/>
+      <c r="AH17" s="174"/>
+      <c r="AI17" s="174"/>
+      <c r="AJ17" s="174"/>
+      <c r="AK17" s="174"/>
+      <c r="AL17" s="174"/>
+      <c r="AM17" s="174"/>
+      <c r="AN17" s="174"/>
+      <c r="AO17" s="174"/>
+      <c r="AP17" s="174"/>
+      <c r="AQ17" s="174"/>
+      <c r="AR17" s="174"/>
+      <c r="AS17" s="174"/>
+      <c r="AT17" s="174"/>
+      <c r="AU17" s="174"/>
+      <c r="AV17" s="174"/>
+      <c r="AW17" s="174"/>
+      <c r="AX17" s="174"/>
+      <c r="AY17" s="174"/>
+      <c r="AZ17" s="174"/>
+      <c r="BA17" s="174"/>
+      <c r="BB17" s="167"/>
     </row>
     <row r="18" spans="1:54">
-      <c r="A18" s="173">
+      <c r="A18" s="166">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="174"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="160"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="175"/>
-      <c r="P18" s="175"/>
-      <c r="Q18" s="175"/>
-      <c r="R18" s="175"/>
-      <c r="S18" s="175"/>
-      <c r="T18" s="175"/>
-      <c r="U18" s="175"/>
-      <c r="V18" s="175"/>
-      <c r="W18" s="175"/>
-      <c r="X18" s="175"/>
-      <c r="Y18" s="175"/>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="173"/>
-      <c r="AB18" s="175"/>
-      <c r="AC18" s="175"/>
-      <c r="AD18" s="175"/>
-      <c r="AE18" s="175"/>
-      <c r="AF18" s="175"/>
-      <c r="AG18" s="175"/>
-      <c r="AH18" s="175"/>
-      <c r="AI18" s="175"/>
-      <c r="AJ18" s="175"/>
-      <c r="AK18" s="175"/>
-      <c r="AL18" s="175"/>
-      <c r="AM18" s="175"/>
-      <c r="AN18" s="175"/>
-      <c r="AO18" s="175"/>
-      <c r="AP18" s="175"/>
-      <c r="AQ18" s="175"/>
-      <c r="AR18" s="175"/>
-      <c r="AS18" s="175"/>
-      <c r="AT18" s="175"/>
-      <c r="AU18" s="175"/>
-      <c r="AV18" s="175"/>
-      <c r="AW18" s="175"/>
-      <c r="AX18" s="175"/>
-      <c r="AY18" s="175"/>
-      <c r="AZ18" s="175"/>
-      <c r="BA18" s="175"/>
-      <c r="BB18" s="174"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="166"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="174"/>
+      <c r="T18" s="174"/>
+      <c r="U18" s="174"/>
+      <c r="V18" s="174"/>
+      <c r="W18" s="174"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="174"/>
+      <c r="Z18" s="167"/>
+      <c r="AA18" s="166"/>
+      <c r="AB18" s="174"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="174"/>
+      <c r="AE18" s="174"/>
+      <c r="AF18" s="174"/>
+      <c r="AG18" s="174"/>
+      <c r="AH18" s="174"/>
+      <c r="AI18" s="174"/>
+      <c r="AJ18" s="174"/>
+      <c r="AK18" s="174"/>
+      <c r="AL18" s="174"/>
+      <c r="AM18" s="174"/>
+      <c r="AN18" s="174"/>
+      <c r="AO18" s="174"/>
+      <c r="AP18" s="174"/>
+      <c r="AQ18" s="174"/>
+      <c r="AR18" s="174"/>
+      <c r="AS18" s="174"/>
+      <c r="AT18" s="174"/>
+      <c r="AU18" s="174"/>
+      <c r="AV18" s="174"/>
+      <c r="AW18" s="174"/>
+      <c r="AX18" s="174"/>
+      <c r="AY18" s="174"/>
+      <c r="AZ18" s="174"/>
+      <c r="BA18" s="174"/>
+      <c r="BB18" s="167"/>
     </row>
     <row r="19" spans="1:54">
-      <c r="A19" s="173">
+      <c r="A19" s="166">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="174"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="160"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="175"/>
-      <c r="P19" s="175"/>
-      <c r="Q19" s="175"/>
-      <c r="R19" s="175"/>
-      <c r="S19" s="175"/>
-      <c r="T19" s="175"/>
-      <c r="U19" s="175"/>
-      <c r="V19" s="175"/>
-      <c r="W19" s="175"/>
-      <c r="X19" s="175"/>
-      <c r="Y19" s="175"/>
-      <c r="Z19" s="174"/>
-      <c r="AA19" s="173"/>
-      <c r="AB19" s="175"/>
-      <c r="AC19" s="175"/>
-      <c r="AD19" s="175"/>
-      <c r="AE19" s="175"/>
-      <c r="AF19" s="175"/>
-      <c r="AG19" s="175"/>
-      <c r="AH19" s="175"/>
-      <c r="AI19" s="175"/>
-      <c r="AJ19" s="175"/>
-      <c r="AK19" s="175"/>
-      <c r="AL19" s="175"/>
-      <c r="AM19" s="175"/>
-      <c r="AN19" s="175"/>
-      <c r="AO19" s="175"/>
-      <c r="AP19" s="175"/>
-      <c r="AQ19" s="175"/>
-      <c r="AR19" s="175"/>
-      <c r="AS19" s="175"/>
-      <c r="AT19" s="175"/>
-      <c r="AU19" s="175"/>
-      <c r="AV19" s="175"/>
-      <c r="AW19" s="175"/>
-      <c r="AX19" s="175"/>
-      <c r="AY19" s="175"/>
-      <c r="AZ19" s="175"/>
-      <c r="BA19" s="175"/>
-      <c r="BB19" s="174"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="166"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="174"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="174"/>
+      <c r="S19" s="174"/>
+      <c r="T19" s="174"/>
+      <c r="U19" s="174"/>
+      <c r="V19" s="174"/>
+      <c r="W19" s="174"/>
+      <c r="X19" s="174"/>
+      <c r="Y19" s="174"/>
+      <c r="Z19" s="167"/>
+      <c r="AA19" s="166"/>
+      <c r="AB19" s="174"/>
+      <c r="AC19" s="174"/>
+      <c r="AD19" s="174"/>
+      <c r="AE19" s="174"/>
+      <c r="AF19" s="174"/>
+      <c r="AG19" s="174"/>
+      <c r="AH19" s="174"/>
+      <c r="AI19" s="174"/>
+      <c r="AJ19" s="174"/>
+      <c r="AK19" s="174"/>
+      <c r="AL19" s="174"/>
+      <c r="AM19" s="174"/>
+      <c r="AN19" s="174"/>
+      <c r="AO19" s="174"/>
+      <c r="AP19" s="174"/>
+      <c r="AQ19" s="174"/>
+      <c r="AR19" s="174"/>
+      <c r="AS19" s="174"/>
+      <c r="AT19" s="174"/>
+      <c r="AU19" s="174"/>
+      <c r="AV19" s="174"/>
+      <c r="AW19" s="174"/>
+      <c r="AX19" s="174"/>
+      <c r="AY19" s="174"/>
+      <c r="AZ19" s="174"/>
+      <c r="BA19" s="174"/>
+      <c r="BB19" s="167"/>
     </row>
     <row r="20" spans="1:54">
-      <c r="A20" s="173">
+      <c r="A20" s="166">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="174"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="159"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="175"/>
-      <c r="R20" s="175"/>
-      <c r="S20" s="175"/>
-      <c r="T20" s="175"/>
-      <c r="U20" s="175"/>
-      <c r="V20" s="175"/>
-      <c r="W20" s="175"/>
-      <c r="X20" s="175"/>
-      <c r="Y20" s="175"/>
-      <c r="Z20" s="174"/>
-      <c r="AA20" s="173"/>
-      <c r="AB20" s="175"/>
-      <c r="AC20" s="175"/>
-      <c r="AD20" s="175"/>
-      <c r="AE20" s="175"/>
-      <c r="AF20" s="175"/>
-      <c r="AG20" s="175"/>
-      <c r="AH20" s="175"/>
-      <c r="AI20" s="175"/>
-      <c r="AJ20" s="175"/>
-      <c r="AK20" s="175"/>
-      <c r="AL20" s="175"/>
-      <c r="AM20" s="175"/>
-      <c r="AN20" s="175"/>
-      <c r="AO20" s="175"/>
-      <c r="AP20" s="175"/>
-      <c r="AQ20" s="175"/>
-      <c r="AR20" s="175"/>
-      <c r="AS20" s="175"/>
-      <c r="AT20" s="175"/>
-      <c r="AU20" s="175"/>
-      <c r="AV20" s="175"/>
-      <c r="AW20" s="175"/>
-      <c r="AX20" s="175"/>
-      <c r="AY20" s="175"/>
-      <c r="AZ20" s="175"/>
-      <c r="BA20" s="175"/>
-      <c r="BB20" s="174"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="174"/>
+      <c r="P20" s="174"/>
+      <c r="Q20" s="174"/>
+      <c r="R20" s="174"/>
+      <c r="S20" s="174"/>
+      <c r="T20" s="174"/>
+      <c r="U20" s="174"/>
+      <c r="V20" s="174"/>
+      <c r="W20" s="174"/>
+      <c r="X20" s="174"/>
+      <c r="Y20" s="174"/>
+      <c r="Z20" s="167"/>
+      <c r="AA20" s="166"/>
+      <c r="AB20" s="174"/>
+      <c r="AC20" s="174"/>
+      <c r="AD20" s="174"/>
+      <c r="AE20" s="174"/>
+      <c r="AF20" s="174"/>
+      <c r="AG20" s="174"/>
+      <c r="AH20" s="174"/>
+      <c r="AI20" s="174"/>
+      <c r="AJ20" s="174"/>
+      <c r="AK20" s="174"/>
+      <c r="AL20" s="174"/>
+      <c r="AM20" s="174"/>
+      <c r="AN20" s="174"/>
+      <c r="AO20" s="174"/>
+      <c r="AP20" s="174"/>
+      <c r="AQ20" s="174"/>
+      <c r="AR20" s="174"/>
+      <c r="AS20" s="174"/>
+      <c r="AT20" s="174"/>
+      <c r="AU20" s="174"/>
+      <c r="AV20" s="174"/>
+      <c r="AW20" s="174"/>
+      <c r="AX20" s="174"/>
+      <c r="AY20" s="174"/>
+      <c r="AZ20" s="174"/>
+      <c r="BA20" s="174"/>
+      <c r="BB20" s="167"/>
     </row>
     <row r="21" spans="1:54">
-      <c r="A21" s="173">
+      <c r="A21" s="166">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="174"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175"/>
-      <c r="T21" s="175"/>
-      <c r="U21" s="175"/>
-      <c r="V21" s="175"/>
-      <c r="W21" s="175"/>
-      <c r="X21" s="175"/>
-      <c r="Y21" s="175"/>
-      <c r="Z21" s="174"/>
-      <c r="AA21" s="173"/>
-      <c r="AB21" s="175"/>
-      <c r="AC21" s="175"/>
-      <c r="AD21" s="175"/>
-      <c r="AE21" s="175"/>
-      <c r="AF21" s="175"/>
-      <c r="AG21" s="175"/>
-      <c r="AH21" s="175"/>
-      <c r="AI21" s="175"/>
-      <c r="AJ21" s="175"/>
-      <c r="AK21" s="175"/>
-      <c r="AL21" s="175"/>
-      <c r="AM21" s="175"/>
-      <c r="AN21" s="175"/>
-      <c r="AO21" s="175"/>
-      <c r="AP21" s="175"/>
-      <c r="AQ21" s="175"/>
-      <c r="AR21" s="175"/>
-      <c r="AS21" s="175"/>
-      <c r="AT21" s="175"/>
-      <c r="AU21" s="175"/>
-      <c r="AV21" s="175"/>
-      <c r="AW21" s="175"/>
-      <c r="AX21" s="175"/>
-      <c r="AY21" s="175"/>
-      <c r="AZ21" s="175"/>
-      <c r="BA21" s="175"/>
-      <c r="BB21" s="174"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="174"/>
+      <c r="P21" s="174"/>
+      <c r="Q21" s="174"/>
+      <c r="R21" s="174"/>
+      <c r="S21" s="174"/>
+      <c r="T21" s="174"/>
+      <c r="U21" s="174"/>
+      <c r="V21" s="174"/>
+      <c r="W21" s="174"/>
+      <c r="X21" s="174"/>
+      <c r="Y21" s="174"/>
+      <c r="Z21" s="167"/>
+      <c r="AA21" s="166"/>
+      <c r="AB21" s="174"/>
+      <c r="AC21" s="174"/>
+      <c r="AD21" s="174"/>
+      <c r="AE21" s="174"/>
+      <c r="AF21" s="174"/>
+      <c r="AG21" s="174"/>
+      <c r="AH21" s="174"/>
+      <c r="AI21" s="174"/>
+      <c r="AJ21" s="174"/>
+      <c r="AK21" s="174"/>
+      <c r="AL21" s="174"/>
+      <c r="AM21" s="174"/>
+      <c r="AN21" s="174"/>
+      <c r="AO21" s="174"/>
+      <c r="AP21" s="174"/>
+      <c r="AQ21" s="174"/>
+      <c r="AR21" s="174"/>
+      <c r="AS21" s="174"/>
+      <c r="AT21" s="174"/>
+      <c r="AU21" s="174"/>
+      <c r="AV21" s="174"/>
+      <c r="AW21" s="174"/>
+      <c r="AX21" s="174"/>
+      <c r="AY21" s="174"/>
+      <c r="AZ21" s="174"/>
+      <c r="BA21" s="174"/>
+      <c r="BB21" s="167"/>
     </row>
     <row r="22" spans="1:54">
-      <c r="A22" s="173">
+      <c r="A22" s="166">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="174"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="173"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="175"/>
-      <c r="Q22" s="175"/>
-      <c r="R22" s="175"/>
-      <c r="S22" s="175"/>
-      <c r="T22" s="175"/>
-      <c r="U22" s="175"/>
-      <c r="V22" s="175"/>
-      <c r="W22" s="175"/>
-      <c r="X22" s="175"/>
-      <c r="Y22" s="175"/>
-      <c r="Z22" s="174"/>
-      <c r="AA22" s="173"/>
-      <c r="AB22" s="175"/>
-      <c r="AC22" s="175"/>
-      <c r="AD22" s="175"/>
-      <c r="AE22" s="175"/>
-      <c r="AF22" s="175"/>
-      <c r="AG22" s="175"/>
-      <c r="AH22" s="175"/>
-      <c r="AI22" s="175"/>
-      <c r="AJ22" s="175"/>
-      <c r="AK22" s="175"/>
-      <c r="AL22" s="175"/>
-      <c r="AM22" s="175"/>
-      <c r="AN22" s="175"/>
-      <c r="AO22" s="175"/>
-      <c r="AP22" s="175"/>
-      <c r="AQ22" s="175"/>
-      <c r="AR22" s="175"/>
-      <c r="AS22" s="175"/>
-      <c r="AT22" s="175"/>
-      <c r="AU22" s="175"/>
-      <c r="AV22" s="175"/>
-      <c r="AW22" s="175"/>
-      <c r="AX22" s="175"/>
-      <c r="AY22" s="175"/>
-      <c r="AZ22" s="175"/>
-      <c r="BA22" s="175"/>
-      <c r="BB22" s="174"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="172"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="174"/>
+      <c r="R22" s="174"/>
+      <c r="S22" s="174"/>
+      <c r="T22" s="174"/>
+      <c r="U22" s="174"/>
+      <c r="V22" s="174"/>
+      <c r="W22" s="174"/>
+      <c r="X22" s="174"/>
+      <c r="Y22" s="174"/>
+      <c r="Z22" s="167"/>
+      <c r="AA22" s="166"/>
+      <c r="AB22" s="174"/>
+      <c r="AC22" s="174"/>
+      <c r="AD22" s="174"/>
+      <c r="AE22" s="174"/>
+      <c r="AF22" s="174"/>
+      <c r="AG22" s="174"/>
+      <c r="AH22" s="174"/>
+      <c r="AI22" s="174"/>
+      <c r="AJ22" s="174"/>
+      <c r="AK22" s="174"/>
+      <c r="AL22" s="174"/>
+      <c r="AM22" s="174"/>
+      <c r="AN22" s="174"/>
+      <c r="AO22" s="174"/>
+      <c r="AP22" s="174"/>
+      <c r="AQ22" s="174"/>
+      <c r="AR22" s="174"/>
+      <c r="AS22" s="174"/>
+      <c r="AT22" s="174"/>
+      <c r="AU22" s="174"/>
+      <c r="AV22" s="174"/>
+      <c r="AW22" s="174"/>
+      <c r="AX22" s="174"/>
+      <c r="AY22" s="174"/>
+      <c r="AZ22" s="174"/>
+      <c r="BA22" s="174"/>
+      <c r="BB22" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -8422,6 +8361,96 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8430,6 +8459,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -8624,34 +8673,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B3B1BEA-EADF-41B4-975B-02A29918B2DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10038E6-5231-406B-8CB5-8AF486817164}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E6A24C0-8D2B-4AE7-9CD2-4CF353E7389D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E6A24C0-8D2B-4AE7-9CD2-4CF353E7389D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10038E6-5231-406B-8CB5-8AF486817164}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B3B1BEA-EADF-41B4-975B-02A29918B2DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（S200）社員画面.xlsx
+++ b/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（S200）社員画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_yoshiara\Desktop\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_suzuki\Desktop\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E811AB4-01DF-4CBF-B60D-A49C39471B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDF4C92-ECEA-4F9A-8341-43408AE5C6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFFAB72E-45D2-41BB-8725-BDB5F683A970}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{FFFAB72E-45D2-41BB-8725-BDB5F683A970}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="111">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -406,12 +406,6 @@
     <t>[2]　初期化する</t>
   </si>
   <si>
-    <t>[2-1]　まだ出勤時打刻していないなら「出勤」ボタンを有効にする</t>
-  </si>
-  <si>
-    <t>[2-2]　すでに出勤データがある場合は「退勤」ボタンを有効にする</t>
-  </si>
-  <si>
     <t>日付が切り替わる</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -508,12 +502,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>再描画</t>
-  </si>
-  <si>
-    <t>「出勤」ボタンを無効にする　「退勤」ボタンを有効にする</t>
-  </si>
-  <si>
     <t>「退勤」ボタン押下</t>
     <rPh sb="1" eb="3">
       <t>タイキン</t>
@@ -527,9 +515,6 @@
     <t>DB処理 No.2</t>
   </si>
   <si>
-    <t>「退勤」ボタンを無効にする</t>
-  </si>
-  <si>
     <t>「申請一覧」ボタン押下</t>
     <rPh sb="1" eb="5">
       <t>シンセイイチラン</t>
@@ -717,35 +702,11 @@
     <t>15分刻みで補正する（9:05→9:15）</t>
   </si>
   <si>
-    <t>No2.UPDATE[退勤] &lt;条件&gt; 現在の日付 = [打刻.日付] AND セッションの利用者ID = [打刻.利用者ID]</t>
-    <rPh sb="16" eb="18">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ダコク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="46" eb="49">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ダコク</t>
-    </rPh>
-    <rPh sb="58" eb="61">
-      <t>リヨウシャ</t>
-    </rPh>
+    <t>セッションスコープから取得された利用者IDを追加</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>セッションスコープから取得された利用者IDを追加</t>
+    <t xml:space="preserve">No2.UPDATE[退勤] 　&lt;条件&gt; [打刻.利用者ID] = セッションの利用者ID   AND   [打刻.日付] = 現在の日付 </t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -931,7 +892,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1128,17 +1089,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1147,7 +1097,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1469,12 +1419,39 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1490,41 +1467,38 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1547,59 +1521,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1618,33 +1568,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1667,17 +1590,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2903,7 +2823,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02347AC-2E94-4033-865C-C4152A82F2C5}">
   <dimension ref="A1:BY31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="18.75"/>
   <sheetData>
@@ -3900,94 +3822,94 @@
       <c r="BY1" s="1"/>
     </row>
     <row r="2" spans="1:77" s="3" customFormat="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="120" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="120" t="s">
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="120" t="s">
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="121"/>
-      <c r="W2" s="120" t="s">
+      <c r="V2" s="116"/>
+      <c r="W2" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="120" t="s">
+      <c r="X2" s="116"/>
+      <c r="Y2" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="120" t="s">
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="122" t="s">
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="121"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="117"/>
+      <c r="AJ2" s="117"/>
+      <c r="AK2" s="117"/>
+      <c r="AL2" s="117"/>
+      <c r="AM2" s="117"/>
+      <c r="AN2" s="117"/>
+      <c r="AO2" s="117"/>
+      <c r="AP2" s="117"/>
+      <c r="AQ2" s="117"/>
+      <c r="AR2" s="117"/>
+      <c r="AS2" s="117"/>
+      <c r="AT2" s="117"/>
+      <c r="AU2" s="117"/>
+      <c r="AV2" s="117"/>
+      <c r="AW2" s="117"/>
+      <c r="AX2" s="117"/>
+      <c r="AY2" s="117"/>
+      <c r="AZ2" s="117"/>
+      <c r="BA2" s="117"/>
+      <c r="BB2" s="116"/>
     </row>
     <row r="3" spans="1:77" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="109">
+      <c r="A3" s="118">
         <v>1</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="113"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="122"/>
       <c r="M3" s="69"/>
       <c r="N3" s="69"/>
       <c r="O3" s="69"/>
@@ -4032,52 +3954,52 @@
       <c r="BB3" s="68"/>
     </row>
     <row r="4" spans="1:77">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="117" t="s">
+      <c r="B4" s="110"/>
+      <c r="C4" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="118" t="s">
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="114" t="s">
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="114" t="s">
+      <c r="V4" s="108"/>
+      <c r="W4" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="114" t="s">
+      <c r="X4" s="108"/>
+      <c r="Y4" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="114">
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="107">
         <v>10</v>
       </c>
-      <c r="AF4" s="116"/>
+      <c r="AF4" s="108"/>
       <c r="AG4" s="4" t="s">
         <v>35</v>
       </c>
@@ -4104,52 +4026,52 @@
       <c r="BB4" s="6"/>
     </row>
     <row r="5" spans="1:77">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="117" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="118" t="s">
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="114" t="s">
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="116"/>
-      <c r="W5" s="114" t="s">
+      <c r="V5" s="108"/>
+      <c r="W5" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="114" t="s">
+      <c r="X5" s="108"/>
+      <c r="Y5" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="114">
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="114"/>
+      <c r="AB5" s="114"/>
+      <c r="AC5" s="114"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="107">
         <v>10</v>
       </c>
-      <c r="AF5" s="116"/>
+      <c r="AF5" s="108"/>
       <c r="AG5" s="4" t="s">
         <v>40</v>
       </c>
@@ -4176,22 +4098,22 @@
       <c r="BB5" s="6"/>
     </row>
     <row r="6" spans="1:77" ht="12.75" customHeight="1">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="111" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="113"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="122"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -4236,52 +4158,52 @@
       <c r="BB6" s="6"/>
     </row>
     <row r="7" spans="1:77">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="117" t="s">
+      <c r="B7" s="110"/>
+      <c r="C7" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="117" t="s">
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="114" t="s">
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="116"/>
-      <c r="W7" s="114" t="s">
+      <c r="V7" s="108"/>
+      <c r="W7" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="114" t="s">
+      <c r="X7" s="108"/>
+      <c r="Y7" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="115"/>
-      <c r="AC7" s="115"/>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="114" t="s">
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="AF7" s="116"/>
+      <c r="AF7" s="108"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
@@ -4306,52 +4228,52 @@
       <c r="BB7" s="6"/>
     </row>
     <row r="8" spans="1:77">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="117" t="s">
+      <c r="B8" s="110"/>
+      <c r="C8" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="117" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="114" t="s">
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="116"/>
-      <c r="W8" s="114" t="s">
+      <c r="V8" s="108"/>
+      <c r="W8" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="114" t="s">
+      <c r="X8" s="108"/>
+      <c r="Y8" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="116"/>
-      <c r="AE8" s="114" t="s">
+      <c r="Z8" s="114"/>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="AF8" s="116"/>
+      <c r="AF8" s="108"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
@@ -4376,22 +4298,22 @@
       <c r="BB8" s="6"/>
     </row>
     <row r="9" spans="1:77" ht="12.75" customHeight="1">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111" t="s">
+      <c r="B9" s="110"/>
+      <c r="C9" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="113"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="122"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -4436,52 +4358,52 @@
       <c r="BB9" s="6"/>
     </row>
     <row r="10" spans="1:77">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="117" t="s">
+      <c r="B10" s="110"/>
+      <c r="C10" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="117" t="s">
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="114" t="s">
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="116"/>
-      <c r="W10" s="114" t="s">
+      <c r="V10" s="108"/>
+      <c r="W10" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="116"/>
-      <c r="Y10" s="114" t="s">
+      <c r="X10" s="108"/>
+      <c r="Y10" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="115"/>
-      <c r="AC10" s="115"/>
-      <c r="AD10" s="116"/>
-      <c r="AE10" s="114" t="s">
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="108"/>
+      <c r="AE10" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="AF10" s="116"/>
+      <c r="AF10" s="108"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
@@ -4506,52 +4428,52 @@
       <c r="BB10" s="6"/>
     </row>
     <row r="11" spans="1:77">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="117" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="117" t="s">
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="119"/>
-      <c r="U11" s="114" t="s">
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="116"/>
-      <c r="W11" s="114" t="s">
+      <c r="V11" s="108"/>
+      <c r="W11" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="114" t="s">
+      <c r="X11" s="108"/>
+      <c r="Y11" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="115"/>
-      <c r="AA11" s="115"/>
-      <c r="AB11" s="115"/>
-      <c r="AC11" s="115"/>
-      <c r="AD11" s="116"/>
-      <c r="AE11" s="114" t="s">
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
+      <c r="AD11" s="108"/>
+      <c r="AE11" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="AF11" s="116"/>
+      <c r="AF11" s="108"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
@@ -4576,38 +4498,38 @@
       <c r="BB11" s="6"/>
     </row>
     <row r="12" spans="1:77">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="119"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="114"/>
-      <c r="Z12" s="115"/>
-      <c r="AA12" s="115"/>
-      <c r="AB12" s="115"/>
-      <c r="AC12" s="115"/>
-      <c r="AD12" s="116"/>
-      <c r="AE12" s="114"/>
-      <c r="AF12" s="116"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="108"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
@@ -4633,13 +4555,47 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:BB2"/>
     <mergeCell ref="A4:B4"/>
@@ -4655,47 +4611,13 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AD5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AI2:AI3">
@@ -4708,10 +4630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866C40FC-8D04-46C4-8E1C-8FF9B98D5FE5}">
-  <dimension ref="A1:CK19"/>
+  <dimension ref="A1:CK15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR13" sqref="AR13:BB13"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75"/>
@@ -4817,97 +4739,97 @@
       <c r="CK1" s="8"/>
     </row>
     <row r="2" spans="1:89">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120" t="s">
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120" t="s">
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="120"/>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="120"/>
-      <c r="AG2" s="120"/>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="120"/>
-      <c r="AJ2" s="120"/>
-      <c r="AK2" s="120"/>
-      <c r="AL2" s="120"/>
-      <c r="AM2" s="120"/>
-      <c r="AN2" s="120"/>
-      <c r="AO2" s="120"/>
-      <c r="AP2" s="120"/>
-      <c r="AQ2" s="120"/>
-      <c r="AR2" s="120" t="s">
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="115"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="121"/>
+      <c r="AS2" s="117"/>
+      <c r="AT2" s="117"/>
+      <c r="AU2" s="117"/>
+      <c r="AV2" s="117"/>
+      <c r="AW2" s="117"/>
+      <c r="AX2" s="117"/>
+      <c r="AY2" s="117"/>
+      <c r="AZ2" s="117"/>
+      <c r="BA2" s="117"/>
+      <c r="BB2" s="116"/>
     </row>
     <row r="3" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="117" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="114" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
       <c r="T3" s="55" t="s">
         <v>57</v>
       </c>
@@ -4925,25 +4847,25 @@
       <c r="BB3" s="11"/>
     </row>
     <row r="4" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="139"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="126"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="127"/>
       <c r="T4" s="55" t="s">
         <v>58</v>
       </c>
@@ -5004,306 +4926,352 @@
       <c r="BA6" s="13"/>
       <c r="BB6" s="14"/>
     </row>
-    <row r="7" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="133" t="s">
+    <row r="7" spans="1:89" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="131"/>
+      <c r="C7" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="134"/>
-      <c r="V7" s="134"/>
-      <c r="W7" s="134"/>
-      <c r="X7" s="134"/>
-      <c r="Y7" s="134"/>
-      <c r="Z7" s="134"/>
-      <c r="AA7" s="134"/>
-      <c r="AB7" s="134"/>
-      <c r="AC7" s="134"/>
-      <c r="AD7" s="134"/>
-      <c r="AE7" s="134"/>
-      <c r="AF7" s="134"/>
-      <c r="AG7" s="134"/>
-      <c r="AH7" s="134"/>
-      <c r="AI7" s="134"/>
-      <c r="AJ7" s="134"/>
-      <c r="AK7" s="134"/>
-      <c r="AL7" s="134"/>
-      <c r="AM7" s="134"/>
-      <c r="AN7" s="134"/>
-      <c r="AO7" s="134"/>
-      <c r="AP7" s="134"/>
-      <c r="AQ7" s="135"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="13"/>
-      <c r="BB7" s="14"/>
-    </row>
-    <row r="8" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="123" t="s">
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="124"/>
-      <c r="Z8" s="124"/>
-      <c r="AA8" s="124"/>
-      <c r="AB8" s="124"/>
-      <c r="AC8" s="124"/>
-      <c r="AD8" s="124"/>
-      <c r="AE8" s="124"/>
-      <c r="AF8" s="124"/>
-      <c r="AG8" s="124"/>
-      <c r="AH8" s="124"/>
-      <c r="AI8" s="124"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
-      <c r="AL8" s="124"/>
-      <c r="AM8" s="124"/>
-      <c r="AN8" s="124"/>
-      <c r="AO8" s="124"/>
-      <c r="AP8" s="124"/>
-      <c r="AQ8" s="125"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="13"/>
-      <c r="BB8" s="14"/>
-    </row>
-    <row r="9" spans="1:89" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="143" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="143"/>
-      <c r="C9" s="142" t="s">
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="132"/>
+      <c r="T7" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142" t="s">
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="65"/>
+      <c r="AJ7" s="65"/>
+      <c r="AK7" s="65"/>
+      <c r="AL7" s="65"/>
+      <c r="AM7" s="65"/>
+      <c r="AN7" s="65"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="65"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="58"/>
+      <c r="AT7" s="58"/>
+      <c r="AU7" s="58"/>
+      <c r="AV7" s="58"/>
+      <c r="AW7" s="58"/>
+      <c r="AX7" s="58"/>
+      <c r="AY7" s="58"/>
+      <c r="AZ7" s="58"/>
+      <c r="BA7" s="58"/>
+      <c r="BB7" s="59"/>
+    </row>
+    <row r="8" spans="1:89" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="128"/>
+      <c r="C8" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="56" t="s">
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="130" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="58"/>
-      <c r="AT9" s="58"/>
-      <c r="AU9" s="58"/>
-      <c r="AV9" s="58"/>
-      <c r="AW9" s="58"/>
-      <c r="AX9" s="58"/>
-      <c r="AY9" s="58"/>
-      <c r="AZ9" s="58"/>
-      <c r="BA9" s="58"/>
-      <c r="BB9" s="59"/>
-    </row>
-    <row r="10" spans="1:89" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="140" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="140"/>
-      <c r="C10" s="141" t="s">
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="72"/>
+      <c r="BB8" s="73"/>
+    </row>
+    <row r="9" spans="1:89" ht="15.75" customHeight="1">
+      <c r="A9" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="123"/>
+      <c r="C9" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="142" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="72" t="s">
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="72"/>
-      <c r="BB10" s="73"/>
-    </row>
-    <row r="11" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A11" s="146" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="146"/>
-      <c r="C11" s="117" t="s">
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117" t="s">
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
+      <c r="AB9" s="140"/>
+      <c r="AC9" s="140"/>
+      <c r="AD9" s="140"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="140"/>
+      <c r="AG9" s="140"/>
+      <c r="AH9" s="140"/>
+      <c r="AI9" s="140"/>
+      <c r="AJ9" s="140"/>
+      <c r="AK9" s="140"/>
+      <c r="AL9" s="140"/>
+      <c r="AM9" s="140"/>
+      <c r="AN9" s="140"/>
+      <c r="AO9" s="140"/>
+      <c r="AP9" s="140"/>
+      <c r="AQ9" s="140"/>
+      <c r="AR9" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="131" t="s">
+      <c r="AS9" s="135"/>
+      <c r="AT9" s="135"/>
+      <c r="AU9" s="135"/>
+      <c r="AV9" s="135"/>
+      <c r="AW9" s="135"/>
+      <c r="AX9" s="135"/>
+      <c r="AY9" s="135"/>
+      <c r="AZ9" s="135"/>
+      <c r="BA9" s="135"/>
+      <c r="BB9" s="136"/>
+    </row>
+    <row r="10" spans="1:89" ht="15.75" customHeight="1">
+      <c r="A10" s="123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="123"/>
+      <c r="C10" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="132"/>
-      <c r="AF11" s="132"/>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="132"/>
-      <c r="AJ11" s="132"/>
-      <c r="AK11" s="132"/>
-      <c r="AL11" s="132"/>
-      <c r="AM11" s="132"/>
-      <c r="AN11" s="132"/>
-      <c r="AO11" s="132"/>
-      <c r="AP11" s="132"/>
-      <c r="AQ11" s="132"/>
-      <c r="AR11" s="126" t="s">
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="AS11" s="127"/>
-      <c r="AT11" s="127"/>
-      <c r="AU11" s="127"/>
-      <c r="AV11" s="127"/>
-      <c r="AW11" s="127"/>
-      <c r="AX11" s="127"/>
-      <c r="AY11" s="127"/>
-      <c r="AZ11" s="127"/>
-      <c r="BA11" s="127"/>
-      <c r="BB11" s="128"/>
-    </row>
-    <row r="12" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A12" s="146"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117" t="s">
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="135"/>
+      <c r="AF10" s="135"/>
+      <c r="AG10" s="135"/>
+      <c r="AH10" s="135"/>
+      <c r="AI10" s="135"/>
+      <c r="AJ10" s="135"/>
+      <c r="AK10" s="135"/>
+      <c r="AL10" s="135"/>
+      <c r="AM10" s="135"/>
+      <c r="AN10" s="135"/>
+      <c r="AO10" s="135"/>
+      <c r="AP10" s="135"/>
+      <c r="AQ10" s="136"/>
+      <c r="AR10" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="131" t="s">
+      <c r="AS10" s="137"/>
+      <c r="AT10" s="137"/>
+      <c r="AU10" s="137"/>
+      <c r="AV10" s="137"/>
+      <c r="AW10" s="137"/>
+      <c r="AX10" s="137"/>
+      <c r="AY10" s="137"/>
+      <c r="AZ10" s="137"/>
+      <c r="BA10" s="137"/>
+      <c r="BB10" s="138"/>
+    </row>
+    <row r="11" spans="1:89">
+      <c r="A11" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="123"/>
+      <c r="C11" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="132"/>
-      <c r="AE12" s="132"/>
-      <c r="AF12" s="132"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="132"/>
-      <c r="AI12" s="132"/>
-      <c r="AJ12" s="132"/>
-      <c r="AK12" s="132"/>
-      <c r="AL12" s="132"/>
-      <c r="AM12" s="132"/>
-      <c r="AN12" s="132"/>
-      <c r="AO12" s="132"/>
-      <c r="AP12" s="132"/>
-      <c r="AQ12" s="136"/>
-      <c r="AR12" s="13"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="14"/>
+    </row>
+    <row r="12" spans="1:89">
+      <c r="A12" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="12"/>
       <c r="AS12" s="13"/>
       <c r="AT12" s="13"/>
       <c r="AU12" s="13"/>
@@ -5315,161 +5283,139 @@
       <c r="BA12" s="13"/>
       <c r="BB12" s="14"/>
     </row>
-    <row r="13" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A13" s="146" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="146"/>
-      <c r="C13" s="117" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="126" t="s">
-        <v>75</v>
-      </c>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="127"/>
-      <c r="AF13" s="127"/>
-      <c r="AG13" s="127"/>
-      <c r="AH13" s="127"/>
-      <c r="AI13" s="127"/>
-      <c r="AJ13" s="127"/>
-      <c r="AK13" s="127"/>
-      <c r="AL13" s="127"/>
-      <c r="AM13" s="127"/>
-      <c r="AN13" s="127"/>
-      <c r="AO13" s="127"/>
-      <c r="AP13" s="127"/>
-      <c r="AQ13" s="128"/>
-      <c r="AR13" s="129" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS13" s="129"/>
-      <c r="AT13" s="129"/>
-      <c r="AU13" s="129"/>
-      <c r="AV13" s="129"/>
-      <c r="AW13" s="129"/>
-      <c r="AX13" s="129"/>
-      <c r="AY13" s="129"/>
-      <c r="AZ13" s="129"/>
-      <c r="BA13" s="129"/>
-      <c r="BB13" s="130"/>
-    </row>
-    <row r="14" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A14" s="146"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="148" t="s">
-        <v>77</v>
-      </c>
-      <c r="U14" s="149"/>
-      <c r="V14" s="149"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="149"/>
-      <c r="Z14" s="149"/>
-      <c r="AA14" s="149"/>
-      <c r="AB14" s="149"/>
-      <c r="AC14" s="149"/>
-      <c r="AD14" s="149"/>
-      <c r="AE14" s="149"/>
-      <c r="AF14" s="149"/>
-      <c r="AG14" s="149"/>
-      <c r="AH14" s="149"/>
-      <c r="AI14" s="149"/>
-      <c r="AJ14" s="149"/>
-      <c r="AK14" s="149"/>
-      <c r="AL14" s="149"/>
-      <c r="AM14" s="149"/>
-      <c r="AN14" s="149"/>
-      <c r="AO14" s="149"/>
-      <c r="AP14" s="149"/>
-      <c r="AQ14" s="150"/>
-      <c r="AR14" s="114"/>
-      <c r="AS14" s="115"/>
-      <c r="AT14" s="115"/>
-      <c r="AU14" s="115"/>
-      <c r="AV14" s="115"/>
-      <c r="AW14" s="115"/>
-      <c r="AX14" s="115"/>
-      <c r="AY14" s="115"/>
-      <c r="AZ14" s="115"/>
-      <c r="BA14" s="115"/>
-      <c r="BB14" s="116"/>
+    <row r="13" spans="1:89">
+      <c r="A13" s="123"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="13"/>
+      <c r="BB13" s="14"/>
+    </row>
+    <row r="14" spans="1:89">
+      <c r="A14" s="123"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="13"/>
+      <c r="BB14" s="14"/>
     </row>
     <row r="15" spans="1:89">
-      <c r="A15" s="146" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="A15" s="123"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="12"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
@@ -5505,293 +5451,50 @@
       <c r="BA15" s="13"/>
       <c r="BB15" s="14"/>
     </row>
-    <row r="16" spans="1:89">
-      <c r="A16" s="146" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="146"/>
-      <c r="C16" s="117" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="13"/>
-      <c r="BA16" s="13"/>
-      <c r="BB16" s="14"/>
-    </row>
-    <row r="17" spans="1:54">
-      <c r="A17" s="146"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="13"/>
-      <c r="AV17" s="13"/>
-      <c r="AW17" s="13"/>
-      <c r="AX17" s="13"/>
-      <c r="AY17" s="13"/>
-      <c r="AZ17" s="13"/>
-      <c r="BA17" s="13"/>
-      <c r="BB17" s="14"/>
-    </row>
-    <row r="18" spans="1:54">
-      <c r="A18" s="146"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="14"/>
-      <c r="AR18" s="12"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="13"/>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="13"/>
-      <c r="BB18" s="14"/>
-    </row>
-    <row r="19" spans="1:54">
-      <c r="A19" s="146"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="12"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="13"/>
-      <c r="BA19" s="13"/>
-      <c r="BB19" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="T14:AQ14"/>
-    <mergeCell ref="AR14:BB14"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:L4"/>
+  <mergeCells count="42">
+    <mergeCell ref="AR9:BB9"/>
+    <mergeCell ref="AR10:BB10"/>
+    <mergeCell ref="T9:AQ9"/>
+    <mergeCell ref="T2:AQ2"/>
+    <mergeCell ref="AR2:BB2"/>
+    <mergeCell ref="T10:AQ10"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="M3:S3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="M2:S2"/>
-    <mergeCell ref="T8:AQ8"/>
-    <mergeCell ref="AR11:BB11"/>
-    <mergeCell ref="AR13:BB13"/>
-    <mergeCell ref="T11:AQ11"/>
-    <mergeCell ref="T2:AQ2"/>
-    <mergeCell ref="AR2:BB2"/>
-    <mergeCell ref="T7:AQ7"/>
-    <mergeCell ref="T12:AQ12"/>
-    <mergeCell ref="T13:AQ13"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:S11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AT1:AT2">
@@ -5806,7 +5509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63029EA3-83F6-4D40-BBC5-9474A2FBF5DA}">
   <dimension ref="A1:CC18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75"/>
   <cols>
@@ -5815,7 +5520,7 @@
   <sheetData>
     <row r="1" spans="1:81" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5898,42 +5603,42 @@
       <c r="CC1" s="1"/>
     </row>
     <row r="2" spans="1:81" s="3" customFormat="1">
-      <c r="A2" s="120" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="122" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="121"/>
+      <c r="A2" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="116"/>
       <c r="AE2" s="151" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AF2" s="152"/>
       <c r="AG2" s="152"/>
@@ -5962,34 +5667,34 @@
       <c r="BB2" s="153"/>
     </row>
     <row r="3" spans="1:81" s="3" customFormat="1">
-      <c r="A3" s="120" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="122" t="s">
+      <c r="A3" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="121"/>
+      <c r="T3" s="116"/>
       <c r="U3" s="154" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="V3" s="155"/>
       <c r="W3" s="155"/>
@@ -6027,7 +5732,7 @@
     </row>
     <row r="4" spans="1:81" s="3" customFormat="1">
       <c r="A4" s="36" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -6085,7 +5790,7 @@
     </row>
     <row r="5" spans="1:81" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6096,7 +5801,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
       <c r="J5" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -6106,50 +5811,50 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="157" t="s">
-        <v>93</v>
-      </c>
-      <c r="T5" s="108"/>
-      <c r="U5" s="158" t="s">
-        <v>94</v>
-      </c>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
-      <c r="X5" s="159"/>
-      <c r="Y5" s="159"/>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="117"/>
-      <c r="AF5" s="118"/>
-      <c r="AG5" s="118"/>
-      <c r="AH5" s="118"/>
-      <c r="AI5" s="118"/>
-      <c r="AJ5" s="118"/>
-      <c r="AK5" s="118"/>
-      <c r="AL5" s="118"/>
-      <c r="AM5" s="119"/>
-      <c r="AN5" s="117"/>
-      <c r="AO5" s="118"/>
-      <c r="AP5" s="118"/>
-      <c r="AQ5" s="118"/>
-      <c r="AR5" s="118"/>
-      <c r="AS5" s="118"/>
-      <c r="AT5" s="118"/>
-      <c r="AU5" s="118"/>
-      <c r="AV5" s="118"/>
-      <c r="AW5" s="118"/>
-      <c r="AX5" s="118"/>
-      <c r="AY5" s="118"/>
-      <c r="AZ5" s="118"/>
-      <c r="BA5" s="118"/>
-      <c r="BB5" s="119"/>
+      <c r="S5" s="141" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" s="110"/>
+      <c r="U5" s="142" t="s">
+        <v>89</v>
+      </c>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="111"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="112"/>
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="112"/>
+      <c r="BB5" s="113"/>
     </row>
     <row r="6" spans="1:81">
       <c r="A6" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6160,7 +5865,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
       <c r="J6" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -6170,52 +5875,52 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="157" t="s">
-        <v>93</v>
-      </c>
-      <c r="T6" s="108"/>
-      <c r="U6" s="158" t="s">
-        <v>96</v>
-      </c>
-      <c r="V6" s="159"/>
-      <c r="W6" s="159"/>
-      <c r="X6" s="159"/>
-      <c r="Y6" s="159"/>
-      <c r="Z6" s="159"/>
-      <c r="AA6" s="159"/>
-      <c r="AB6" s="159"/>
-      <c r="AC6" s="159"/>
-      <c r="AD6" s="160"/>
-      <c r="AE6" s="117"/>
-      <c r="AF6" s="118"/>
-      <c r="AG6" s="118"/>
-      <c r="AH6" s="118"/>
-      <c r="AI6" s="118"/>
-      <c r="AJ6" s="118"/>
-      <c r="AK6" s="118"/>
-      <c r="AL6" s="118"/>
-      <c r="AM6" s="119"/>
-      <c r="AN6" s="117" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO6" s="118"/>
-      <c r="AP6" s="118"/>
-      <c r="AQ6" s="118"/>
-      <c r="AR6" s="118"/>
-      <c r="AS6" s="118"/>
-      <c r="AT6" s="118"/>
-      <c r="AU6" s="118"/>
-      <c r="AV6" s="118"/>
-      <c r="AW6" s="118"/>
-      <c r="AX6" s="118"/>
-      <c r="AY6" s="118"/>
-      <c r="AZ6" s="118"/>
-      <c r="BA6" s="118"/>
-      <c r="BB6" s="119"/>
+      <c r="S6" s="141" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" s="110"/>
+      <c r="U6" s="142" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="144"/>
+      <c r="AE6" s="111"/>
+      <c r="AF6" s="112"/>
+      <c r="AG6" s="112"/>
+      <c r="AH6" s="112"/>
+      <c r="AI6" s="112"/>
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="112"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO6" s="112"/>
+      <c r="AP6" s="112"/>
+      <c r="AQ6" s="112"/>
+      <c r="AR6" s="112"/>
+      <c r="AS6" s="112"/>
+      <c r="AT6" s="112"/>
+      <c r="AU6" s="112"/>
+      <c r="AV6" s="112"/>
+      <c r="AW6" s="112"/>
+      <c r="AX6" s="112"/>
+      <c r="AY6" s="112"/>
+      <c r="AZ6" s="112"/>
+      <c r="BA6" s="112"/>
+      <c r="BB6" s="113"/>
     </row>
     <row r="7" spans="1:81" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -6226,7 +5931,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
       <c r="J7" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -6236,50 +5941,50 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="157" t="s">
+      <c r="S7" s="141" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" s="110"/>
+      <c r="U7" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="T7" s="108"/>
-      <c r="U7" s="158" t="s">
-        <v>98</v>
-      </c>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="117"/>
-      <c r="AF7" s="118"/>
-      <c r="AG7" s="118"/>
-      <c r="AH7" s="118"/>
-      <c r="AI7" s="118"/>
-      <c r="AJ7" s="118"/>
-      <c r="AK7" s="118"/>
-      <c r="AL7" s="118"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="117"/>
-      <c r="AO7" s="118"/>
-      <c r="AP7" s="118"/>
-      <c r="AQ7" s="118"/>
-      <c r="AR7" s="118"/>
-      <c r="AS7" s="118"/>
-      <c r="AT7" s="118"/>
-      <c r="AU7" s="118"/>
-      <c r="AV7" s="118"/>
-      <c r="AW7" s="118"/>
-      <c r="AX7" s="118"/>
-      <c r="AY7" s="118"/>
-      <c r="AZ7" s="118"/>
-      <c r="BA7" s="118"/>
-      <c r="BB7" s="119"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="144"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="112"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="112"/>
+      <c r="AI7" s="112"/>
+      <c r="AJ7" s="112"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="112"/>
+      <c r="AM7" s="113"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="112"/>
+      <c r="AP7" s="112"/>
+      <c r="AQ7" s="112"/>
+      <c r="AR7" s="112"/>
+      <c r="AS7" s="112"/>
+      <c r="AT7" s="112"/>
+      <c r="AU7" s="112"/>
+      <c r="AV7" s="112"/>
+      <c r="AW7" s="112"/>
+      <c r="AX7" s="112"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="112"/>
+      <c r="BA7" s="112"/>
+      <c r="BB7" s="113"/>
     </row>
     <row r="8" spans="1:81" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6290,7 +5995,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -6300,50 +6005,50 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="157" t="s">
-        <v>93</v>
-      </c>
-      <c r="T8" s="108"/>
-      <c r="U8" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="V8" s="159"/>
-      <c r="W8" s="159"/>
-      <c r="X8" s="159"/>
-      <c r="Y8" s="159"/>
-      <c r="Z8" s="159"/>
-      <c r="AA8" s="159"/>
-      <c r="AB8" s="159"/>
-      <c r="AC8" s="159"/>
-      <c r="AD8" s="160"/>
-      <c r="AE8" s="117"/>
-      <c r="AF8" s="118"/>
-      <c r="AG8" s="118"/>
-      <c r="AH8" s="118"/>
-      <c r="AI8" s="118"/>
-      <c r="AJ8" s="118"/>
-      <c r="AK8" s="118"/>
-      <c r="AL8" s="118"/>
-      <c r="AM8" s="119"/>
-      <c r="AN8" s="117"/>
-      <c r="AO8" s="118"/>
-      <c r="AP8" s="118"/>
-      <c r="AQ8" s="118"/>
-      <c r="AR8" s="118"/>
-      <c r="AS8" s="118"/>
-      <c r="AT8" s="118"/>
-      <c r="AU8" s="118"/>
-      <c r="AV8" s="118"/>
-      <c r="AW8" s="118"/>
-      <c r="AX8" s="118"/>
-      <c r="AY8" s="118"/>
-      <c r="AZ8" s="118"/>
-      <c r="BA8" s="118"/>
-      <c r="BB8" s="119"/>
+      <c r="S8" s="141" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="110"/>
+      <c r="U8" s="142" t="s">
+        <v>95</v>
+      </c>
+      <c r="V8" s="143"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143"/>
+      <c r="AD8" s="144"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="112"/>
+      <c r="AG8" s="112"/>
+      <c r="AH8" s="112"/>
+      <c r="AI8" s="112"/>
+      <c r="AJ8" s="112"/>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="112"/>
+      <c r="AM8" s="113"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="112"/>
+      <c r="AP8" s="112"/>
+      <c r="AQ8" s="112"/>
+      <c r="AR8" s="112"/>
+      <c r="AS8" s="112"/>
+      <c r="AT8" s="112"/>
+      <c r="AU8" s="112"/>
+      <c r="AV8" s="112"/>
+      <c r="AW8" s="112"/>
+      <c r="AX8" s="112"/>
+      <c r="AY8" s="112"/>
+      <c r="AZ8" s="112"/>
+      <c r="BA8" s="112"/>
+      <c r="BB8" s="113"/>
     </row>
     <row r="9" spans="1:81" ht="15" customHeight="1">
       <c r="A9" s="76" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6354,7 +6059,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="74" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -6364,52 +6069,52 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="161" t="s">
-        <v>93</v>
-      </c>
-      <c r="T9" s="162"/>
-      <c r="U9" s="158" t="s">
-        <v>102</v>
-      </c>
-      <c r="V9" s="159"/>
-      <c r="W9" s="159"/>
-      <c r="X9" s="159"/>
-      <c r="Y9" s="159"/>
-      <c r="Z9" s="159"/>
-      <c r="AA9" s="159"/>
-      <c r="AB9" s="159"/>
-      <c r="AC9" s="159"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="175"/>
-      <c r="AF9" s="118"/>
-      <c r="AG9" s="118"/>
-      <c r="AH9" s="118"/>
-      <c r="AI9" s="118"/>
-      <c r="AJ9" s="118"/>
-      <c r="AK9" s="118"/>
-      <c r="AL9" s="118"/>
-      <c r="AM9" s="119"/>
-      <c r="AN9" s="176" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO9" s="177"/>
-      <c r="AP9" s="177"/>
-      <c r="AQ9" s="177"/>
-      <c r="AR9" s="177"/>
-      <c r="AS9" s="177"/>
-      <c r="AT9" s="177"/>
-      <c r="AU9" s="177"/>
-      <c r="AV9" s="177"/>
-      <c r="AW9" s="177"/>
-      <c r="AX9" s="177"/>
-      <c r="AY9" s="177"/>
-      <c r="AZ9" s="177"/>
-      <c r="BA9" s="177"/>
-      <c r="BB9" s="178"/>
+      <c r="S9" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="146"/>
+      <c r="U9" s="142" t="s">
+        <v>97</v>
+      </c>
+      <c r="V9" s="143"/>
+      <c r="W9" s="143"/>
+      <c r="X9" s="143"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="143"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="143"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="147"/>
+      <c r="AF9" s="112"/>
+      <c r="AG9" s="112"/>
+      <c r="AH9" s="112"/>
+      <c r="AI9" s="112"/>
+      <c r="AJ9" s="112"/>
+      <c r="AK9" s="112"/>
+      <c r="AL9" s="112"/>
+      <c r="AM9" s="113"/>
+      <c r="AN9" s="148" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO9" s="149"/>
+      <c r="AP9" s="149"/>
+      <c r="AQ9" s="149"/>
+      <c r="AR9" s="149"/>
+      <c r="AS9" s="149"/>
+      <c r="AT9" s="149"/>
+      <c r="AU9" s="149"/>
+      <c r="AV9" s="149"/>
+      <c r="AW9" s="149"/>
+      <c r="AX9" s="149"/>
+      <c r="AY9" s="149"/>
+      <c r="AZ9" s="149"/>
+      <c r="BA9" s="149"/>
+      <c r="BB9" s="150"/>
     </row>
     <row r="10" spans="1:81">
       <c r="A10" s="36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -6494,7 +6199,7 @@
     </row>
     <row r="11" spans="1:81">
       <c r="A11" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6505,7 +6210,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -6515,50 +6220,50 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="T11" s="108"/>
-      <c r="U11" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="V11" s="159"/>
-      <c r="W11" s="159"/>
-      <c r="X11" s="159"/>
-      <c r="Y11" s="159"/>
-      <c r="Z11" s="159"/>
-      <c r="AA11" s="159"/>
-      <c r="AB11" s="159"/>
-      <c r="AC11" s="159"/>
-      <c r="AD11" s="160"/>
-      <c r="AE11" s="117"/>
-      <c r="AF11" s="118"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="118"/>
-      <c r="AK11" s="118"/>
-      <c r="AL11" s="118"/>
-      <c r="AM11" s="119"/>
-      <c r="AN11" s="117"/>
-      <c r="AO11" s="118"/>
-      <c r="AP11" s="118"/>
-      <c r="AQ11" s="118"/>
-      <c r="AR11" s="118"/>
-      <c r="AS11" s="118"/>
-      <c r="AT11" s="118"/>
-      <c r="AU11" s="118"/>
-      <c r="AV11" s="118"/>
-      <c r="AW11" s="118"/>
-      <c r="AX11" s="118"/>
-      <c r="AY11" s="118"/>
-      <c r="AZ11" s="118"/>
-      <c r="BA11" s="118"/>
-      <c r="BB11" s="119"/>
+      <c r="S11" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="T11" s="110"/>
+      <c r="U11" s="142" t="s">
+        <v>95</v>
+      </c>
+      <c r="V11" s="143"/>
+      <c r="W11" s="143"/>
+      <c r="X11" s="143"/>
+      <c r="Y11" s="143"/>
+      <c r="Z11" s="143"/>
+      <c r="AA11" s="143"/>
+      <c r="AB11" s="143"/>
+      <c r="AC11" s="143"/>
+      <c r="AD11" s="144"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="112"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="112"/>
+      <c r="AI11" s="112"/>
+      <c r="AJ11" s="112"/>
+      <c r="AK11" s="112"/>
+      <c r="AL11" s="112"/>
+      <c r="AM11" s="113"/>
+      <c r="AN11" s="111"/>
+      <c r="AO11" s="112"/>
+      <c r="AP11" s="112"/>
+      <c r="AQ11" s="112"/>
+      <c r="AR11" s="112"/>
+      <c r="AS11" s="112"/>
+      <c r="AT11" s="112"/>
+      <c r="AU11" s="112"/>
+      <c r="AV11" s="112"/>
+      <c r="AW11" s="112"/>
+      <c r="AX11" s="112"/>
+      <c r="AY11" s="112"/>
+      <c r="AZ11" s="112"/>
+      <c r="BA11" s="112"/>
+      <c r="BB11" s="113"/>
     </row>
     <row r="12" spans="1:81">
       <c r="A12" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6569,7 +6274,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -6579,48 +6284,48 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="T12" s="108"/>
-      <c r="U12" s="158" t="s">
-        <v>102</v>
-      </c>
-      <c r="V12" s="159"/>
-      <c r="W12" s="159"/>
-      <c r="X12" s="159"/>
-      <c r="Y12" s="159"/>
-      <c r="Z12" s="159"/>
-      <c r="AA12" s="159"/>
-      <c r="AB12" s="159"/>
-      <c r="AC12" s="159"/>
-      <c r="AD12" s="160"/>
-      <c r="AE12" s="117"/>
-      <c r="AF12" s="118"/>
-      <c r="AG12" s="118"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="118"/>
-      <c r="AJ12" s="118"/>
-      <c r="AK12" s="118"/>
-      <c r="AL12" s="118"/>
-      <c r="AM12" s="119"/>
-      <c r="AN12" s="158" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO12" s="159"/>
-      <c r="AP12" s="159"/>
-      <c r="AQ12" s="159"/>
-      <c r="AR12" s="159"/>
-      <c r="AS12" s="159"/>
-      <c r="AT12" s="159"/>
-      <c r="AU12" s="159"/>
-      <c r="AV12" s="159"/>
-      <c r="AW12" s="159"/>
-      <c r="AX12" s="159"/>
-      <c r="AY12" s="159"/>
-      <c r="AZ12" s="159"/>
-      <c r="BA12" s="159"/>
-      <c r="BB12" s="160"/>
+      <c r="S12" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="T12" s="110"/>
+      <c r="U12" s="142" t="s">
+        <v>97</v>
+      </c>
+      <c r="V12" s="143"/>
+      <c r="W12" s="143"/>
+      <c r="X12" s="143"/>
+      <c r="Y12" s="143"/>
+      <c r="Z12" s="143"/>
+      <c r="AA12" s="143"/>
+      <c r="AB12" s="143"/>
+      <c r="AC12" s="143"/>
+      <c r="AD12" s="144"/>
+      <c r="AE12" s="111"/>
+      <c r="AF12" s="112"/>
+      <c r="AG12" s="112"/>
+      <c r="AH12" s="112"/>
+      <c r="AI12" s="112"/>
+      <c r="AJ12" s="112"/>
+      <c r="AK12" s="112"/>
+      <c r="AL12" s="112"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="142" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO12" s="143"/>
+      <c r="AP12" s="143"/>
+      <c r="AQ12" s="143"/>
+      <c r="AR12" s="143"/>
+      <c r="AS12" s="143"/>
+      <c r="AT12" s="143"/>
+      <c r="AU12" s="143"/>
+      <c r="AV12" s="143"/>
+      <c r="AW12" s="143"/>
+      <c r="AX12" s="143"/>
+      <c r="AY12" s="143"/>
+      <c r="AZ12" s="143"/>
+      <c r="BA12" s="143"/>
+      <c r="BB12" s="144"/>
     </row>
     <row r="13" spans="1:81">
       <c r="A13" s="4"/>
@@ -6641,42 +6346,42 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="158"/>
-      <c r="V13" s="159"/>
-      <c r="W13" s="159"/>
-      <c r="X13" s="159"/>
-      <c r="Y13" s="159"/>
-      <c r="Z13" s="159"/>
-      <c r="AA13" s="159"/>
-      <c r="AB13" s="159"/>
-      <c r="AC13" s="159"/>
-      <c r="AD13" s="160"/>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="118"/>
-      <c r="AG13" s="118"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="118"/>
-      <c r="AK13" s="118"/>
-      <c r="AL13" s="118"/>
-      <c r="AM13" s="119"/>
-      <c r="AN13" s="117"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="118"/>
-      <c r="AQ13" s="118"/>
-      <c r="AR13" s="118"/>
-      <c r="AS13" s="118"/>
-      <c r="AT13" s="118"/>
-      <c r="AU13" s="118"/>
-      <c r="AV13" s="118"/>
-      <c r="AW13" s="118"/>
-      <c r="AX13" s="118"/>
-      <c r="AY13" s="118"/>
-      <c r="AZ13" s="118"/>
-      <c r="BA13" s="118"/>
-      <c r="BB13" s="119"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="142"/>
+      <c r="V13" s="143"/>
+      <c r="W13" s="143"/>
+      <c r="X13" s="143"/>
+      <c r="Y13" s="143"/>
+      <c r="Z13" s="143"/>
+      <c r="AA13" s="143"/>
+      <c r="AB13" s="143"/>
+      <c r="AC13" s="143"/>
+      <c r="AD13" s="144"/>
+      <c r="AE13" s="111"/>
+      <c r="AF13" s="112"/>
+      <c r="AG13" s="112"/>
+      <c r="AH13" s="112"/>
+      <c r="AI13" s="112"/>
+      <c r="AJ13" s="112"/>
+      <c r="AK13" s="112"/>
+      <c r="AL13" s="112"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="111"/>
+      <c r="AO13" s="112"/>
+      <c r="AP13" s="112"/>
+      <c r="AQ13" s="112"/>
+      <c r="AR13" s="112"/>
+      <c r="AS13" s="112"/>
+      <c r="AT13" s="112"/>
+      <c r="AU13" s="112"/>
+      <c r="AV13" s="112"/>
+      <c r="AW13" s="112"/>
+      <c r="AX13" s="112"/>
+      <c r="AY13" s="112"/>
+      <c r="AZ13" s="112"/>
+      <c r="BA13" s="112"/>
+      <c r="BB13" s="113"/>
     </row>
     <row r="14" spans="1:81">
       <c r="A14" s="4"/>
@@ -6697,42 +6402,42 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="108"/>
-      <c r="U14" s="158"/>
-      <c r="V14" s="159"/>
-      <c r="W14" s="159"/>
-      <c r="X14" s="159"/>
-      <c r="Y14" s="159"/>
-      <c r="Z14" s="159"/>
-      <c r="AA14" s="159"/>
-      <c r="AB14" s="159"/>
-      <c r="AC14" s="159"/>
-      <c r="AD14" s="160"/>
-      <c r="AE14" s="117"/>
-      <c r="AF14" s="118"/>
-      <c r="AG14" s="118"/>
-      <c r="AH14" s="118"/>
-      <c r="AI14" s="118"/>
-      <c r="AJ14" s="118"/>
-      <c r="AK14" s="118"/>
-      <c r="AL14" s="118"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="118"/>
-      <c r="AQ14" s="118"/>
-      <c r="AR14" s="118"/>
-      <c r="AS14" s="118"/>
-      <c r="AT14" s="118"/>
-      <c r="AU14" s="118"/>
-      <c r="AV14" s="118"/>
-      <c r="AW14" s="118"/>
-      <c r="AX14" s="118"/>
-      <c r="AY14" s="118"/>
-      <c r="AZ14" s="118"/>
-      <c r="BA14" s="118"/>
-      <c r="BB14" s="119"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="142"/>
+      <c r="V14" s="143"/>
+      <c r="W14" s="143"/>
+      <c r="X14" s="143"/>
+      <c r="Y14" s="143"/>
+      <c r="Z14" s="143"/>
+      <c r="AA14" s="143"/>
+      <c r="AB14" s="143"/>
+      <c r="AC14" s="143"/>
+      <c r="AD14" s="144"/>
+      <c r="AE14" s="111"/>
+      <c r="AF14" s="112"/>
+      <c r="AG14" s="112"/>
+      <c r="AH14" s="112"/>
+      <c r="AI14" s="112"/>
+      <c r="AJ14" s="112"/>
+      <c r="AK14" s="112"/>
+      <c r="AL14" s="112"/>
+      <c r="AM14" s="113"/>
+      <c r="AN14" s="111"/>
+      <c r="AO14" s="112"/>
+      <c r="AP14" s="112"/>
+      <c r="AQ14" s="112"/>
+      <c r="AR14" s="112"/>
+      <c r="AS14" s="112"/>
+      <c r="AT14" s="112"/>
+      <c r="AU14" s="112"/>
+      <c r="AV14" s="112"/>
+      <c r="AW14" s="112"/>
+      <c r="AX14" s="112"/>
+      <c r="AY14" s="112"/>
+      <c r="AZ14" s="112"/>
+      <c r="BA14" s="112"/>
+      <c r="BB14" s="113"/>
     </row>
     <row r="15" spans="1:81">
       <c r="A15" s="4"/>
@@ -6753,42 +6458,42 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="157"/>
-      <c r="T15" s="108"/>
-      <c r="U15" s="158"/>
-      <c r="V15" s="159"/>
-      <c r="W15" s="159"/>
-      <c r="X15" s="159"/>
-      <c r="Y15" s="159"/>
-      <c r="Z15" s="159"/>
-      <c r="AA15" s="159"/>
-      <c r="AB15" s="159"/>
-      <c r="AC15" s="159"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="117"/>
-      <c r="AF15" s="118"/>
-      <c r="AG15" s="118"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="119"/>
-      <c r="AN15" s="117"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="118"/>
-      <c r="AT15" s="118"/>
-      <c r="AU15" s="118"/>
-      <c r="AV15" s="118"/>
-      <c r="AW15" s="118"/>
-      <c r="AX15" s="118"/>
-      <c r="AY15" s="118"/>
-      <c r="AZ15" s="118"/>
-      <c r="BA15" s="118"/>
-      <c r="BB15" s="119"/>
+      <c r="S15" s="141"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="142"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="143"/>
+      <c r="Z15" s="143"/>
+      <c r="AA15" s="143"/>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="143"/>
+      <c r="AD15" s="144"/>
+      <c r="AE15" s="111"/>
+      <c r="AF15" s="112"/>
+      <c r="AG15" s="112"/>
+      <c r="AH15" s="112"/>
+      <c r="AI15" s="112"/>
+      <c r="AJ15" s="112"/>
+      <c r="AK15" s="112"/>
+      <c r="AL15" s="112"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="111"/>
+      <c r="AO15" s="112"/>
+      <c r="AP15" s="112"/>
+      <c r="AQ15" s="112"/>
+      <c r="AR15" s="112"/>
+      <c r="AS15" s="112"/>
+      <c r="AT15" s="112"/>
+      <c r="AU15" s="112"/>
+      <c r="AV15" s="112"/>
+      <c r="AW15" s="112"/>
+      <c r="AX15" s="112"/>
+      <c r="AY15" s="112"/>
+      <c r="AZ15" s="112"/>
+      <c r="BA15" s="112"/>
+      <c r="BB15" s="113"/>
     </row>
     <row r="16" spans="1:81">
       <c r="A16" s="4"/>
@@ -6809,42 +6514,42 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="157"/>
-      <c r="T16" s="108"/>
-      <c r="U16" s="158"/>
-      <c r="V16" s="159"/>
-      <c r="W16" s="159"/>
-      <c r="X16" s="159"/>
-      <c r="Y16" s="159"/>
-      <c r="Z16" s="159"/>
-      <c r="AA16" s="159"/>
-      <c r="AB16" s="159"/>
-      <c r="AC16" s="159"/>
-      <c r="AD16" s="160"/>
-      <c r="AE16" s="117"/>
-      <c r="AF16" s="118"/>
-      <c r="AG16" s="118"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="118"/>
-      <c r="AK16" s="118"/>
-      <c r="AL16" s="118"/>
-      <c r="AM16" s="119"/>
-      <c r="AN16" s="117"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
-      <c r="AS16" s="118"/>
-      <c r="AT16" s="118"/>
-      <c r="AU16" s="118"/>
-      <c r="AV16" s="118"/>
-      <c r="AW16" s="118"/>
-      <c r="AX16" s="118"/>
-      <c r="AY16" s="118"/>
-      <c r="AZ16" s="118"/>
-      <c r="BA16" s="118"/>
-      <c r="BB16" s="119"/>
+      <c r="S16" s="141"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="142"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="143"/>
+      <c r="Y16" s="143"/>
+      <c r="Z16" s="143"/>
+      <c r="AA16" s="143"/>
+      <c r="AB16" s="143"/>
+      <c r="AC16" s="143"/>
+      <c r="AD16" s="144"/>
+      <c r="AE16" s="111"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="112"/>
+      <c r="AH16" s="112"/>
+      <c r="AI16" s="112"/>
+      <c r="AJ16" s="112"/>
+      <c r="AK16" s="112"/>
+      <c r="AL16" s="112"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="111"/>
+      <c r="AO16" s="112"/>
+      <c r="AP16" s="112"/>
+      <c r="AQ16" s="112"/>
+      <c r="AR16" s="112"/>
+      <c r="AS16" s="112"/>
+      <c r="AT16" s="112"/>
+      <c r="AU16" s="112"/>
+      <c r="AV16" s="112"/>
+      <c r="AW16" s="112"/>
+      <c r="AX16" s="112"/>
+      <c r="AY16" s="112"/>
+      <c r="AZ16" s="112"/>
+      <c r="BA16" s="112"/>
+      <c r="BB16" s="113"/>
     </row>
     <row r="17" spans="1:54">
       <c r="A17" s="4"/>
@@ -6865,42 +6570,42 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="157"/>
-      <c r="T17" s="108"/>
-      <c r="U17" s="158"/>
-      <c r="V17" s="159"/>
-      <c r="W17" s="159"/>
-      <c r="X17" s="159"/>
-      <c r="Y17" s="159"/>
-      <c r="Z17" s="159"/>
-      <c r="AA17" s="159"/>
-      <c r="AB17" s="159"/>
-      <c r="AC17" s="159"/>
-      <c r="AD17" s="160"/>
-      <c r="AE17" s="117"/>
-      <c r="AF17" s="118"/>
-      <c r="AG17" s="118"/>
-      <c r="AH17" s="118"/>
-      <c r="AI17" s="118"/>
-      <c r="AJ17" s="118"/>
-      <c r="AK17" s="118"/>
-      <c r="AL17" s="118"/>
-      <c r="AM17" s="119"/>
-      <c r="AN17" s="117"/>
-      <c r="AO17" s="118"/>
-      <c r="AP17" s="118"/>
-      <c r="AQ17" s="118"/>
-      <c r="AR17" s="118"/>
-      <c r="AS17" s="118"/>
-      <c r="AT17" s="118"/>
-      <c r="AU17" s="118"/>
-      <c r="AV17" s="118"/>
-      <c r="AW17" s="118"/>
-      <c r="AX17" s="118"/>
-      <c r="AY17" s="118"/>
-      <c r="AZ17" s="118"/>
-      <c r="BA17" s="118"/>
-      <c r="BB17" s="119"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="142"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="143"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="143"/>
+      <c r="Z17" s="143"/>
+      <c r="AA17" s="143"/>
+      <c r="AB17" s="143"/>
+      <c r="AC17" s="143"/>
+      <c r="AD17" s="144"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="112"/>
+      <c r="AH17" s="112"/>
+      <c r="AI17" s="112"/>
+      <c r="AJ17" s="112"/>
+      <c r="AK17" s="112"/>
+      <c r="AL17" s="112"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="111"/>
+      <c r="AO17" s="112"/>
+      <c r="AP17" s="112"/>
+      <c r="AQ17" s="112"/>
+      <c r="AR17" s="112"/>
+      <c r="AS17" s="112"/>
+      <c r="AT17" s="112"/>
+      <c r="AU17" s="112"/>
+      <c r="AV17" s="112"/>
+      <c r="AW17" s="112"/>
+      <c r="AX17" s="112"/>
+      <c r="AY17" s="112"/>
+      <c r="AZ17" s="112"/>
+      <c r="BA17" s="112"/>
+      <c r="BB17" s="113"/>
     </row>
     <row r="18" spans="1:54">
       <c r="A18" s="4"/>
@@ -6921,45 +6626,89 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="157"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="159"/>
-      <c r="X18" s="159"/>
-      <c r="Y18" s="159"/>
-      <c r="Z18" s="159"/>
-      <c r="AA18" s="159"/>
-      <c r="AB18" s="159"/>
-      <c r="AC18" s="159"/>
-      <c r="AD18" s="160"/>
-      <c r="AE18" s="117"/>
-      <c r="AF18" s="118"/>
-      <c r="AG18" s="118"/>
-      <c r="AH18" s="118"/>
-      <c r="AI18" s="118"/>
-      <c r="AJ18" s="118"/>
-      <c r="AK18" s="118"/>
-      <c r="AL18" s="118"/>
-      <c r="AM18" s="119"/>
-      <c r="AN18" s="117"/>
-      <c r="AO18" s="118"/>
-      <c r="AP18" s="118"/>
-      <c r="AQ18" s="118"/>
-      <c r="AR18" s="118"/>
-      <c r="AS18" s="118"/>
-      <c r="AT18" s="118"/>
-      <c r="AU18" s="118"/>
-      <c r="AV18" s="118"/>
-      <c r="AW18" s="118"/>
-      <c r="AX18" s="118"/>
-      <c r="AY18" s="118"/>
-      <c r="AZ18" s="118"/>
-      <c r="BA18" s="118"/>
-      <c r="BB18" s="119"/>
+      <c r="S18" s="141"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="143"/>
+      <c r="W18" s="143"/>
+      <c r="X18" s="143"/>
+      <c r="Y18" s="143"/>
+      <c r="Z18" s="143"/>
+      <c r="AA18" s="143"/>
+      <c r="AB18" s="143"/>
+      <c r="AC18" s="143"/>
+      <c r="AD18" s="144"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="112"/>
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="112"/>
+      <c r="AJ18" s="112"/>
+      <c r="AK18" s="112"/>
+      <c r="AL18" s="112"/>
+      <c r="AM18" s="113"/>
+      <c r="AN18" s="111"/>
+      <c r="AO18" s="112"/>
+      <c r="AP18" s="112"/>
+      <c r="AQ18" s="112"/>
+      <c r="AR18" s="112"/>
+      <c r="AS18" s="112"/>
+      <c r="AT18" s="112"/>
+      <c r="AU18" s="112"/>
+      <c r="AV18" s="112"/>
+      <c r="AW18" s="112"/>
+      <c r="AX18" s="112"/>
+      <c r="AY18" s="112"/>
+      <c r="AZ18" s="112"/>
+      <c r="BA18" s="112"/>
+      <c r="BB18" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="AN2:BB2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:AD5"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="AN5:BB5"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:AD6"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="AN6:BB6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AN7:BB7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="AN8:BB8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AM9"/>
+    <mergeCell ref="AN9:BB9"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AN11:BB11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BB12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="AN13:BB13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BB14"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="U15:AD15"/>
     <mergeCell ref="AE15:AM15"/>
@@ -6976,50 +6725,6 @@
     <mergeCell ref="U17:AD17"/>
     <mergeCell ref="AE17:AM17"/>
     <mergeCell ref="AN17:BB17"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="AN13:BB13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BB14"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AN11:BB11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BB12"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AM8"/>
-    <mergeCell ref="AN8:BB8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AM9"/>
-    <mergeCell ref="AN9:BB9"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:AD6"/>
-    <mergeCell ref="AE6:AM6"/>
-    <mergeCell ref="AN6:BB6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="AE7:AM7"/>
-    <mergeCell ref="AN7:BB7"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:AD5"/>
-    <mergeCell ref="AE5:AM5"/>
-    <mergeCell ref="AN5:BB5"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="AN2:BB2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7042,7 +6747,7 @@
   <sheetData>
     <row r="1" spans="1:54" ht="24">
       <c r="A1" s="31" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -7099,1253 +6804,1343 @@
       <c r="BB1" s="31"/>
     </row>
     <row r="2" spans="1:54">
-      <c r="A2" s="163" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="163" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="163" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="163" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="163" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="165"/>
-      <c r="AF2" s="165"/>
-      <c r="AG2" s="165"/>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="165"/>
-      <c r="AJ2" s="165"/>
-      <c r="AK2" s="165"/>
-      <c r="AL2" s="165"/>
-      <c r="AM2" s="165"/>
-      <c r="AN2" s="165"/>
-      <c r="AO2" s="165"/>
-      <c r="AP2" s="165"/>
-      <c r="AQ2" s="165"/>
-      <c r="AR2" s="165"/>
-      <c r="AS2" s="165"/>
-      <c r="AT2" s="165"/>
-      <c r="AU2" s="165"/>
-      <c r="AV2" s="165"/>
-      <c r="AW2" s="165"/>
-      <c r="AX2" s="165"/>
-      <c r="AY2" s="165"/>
-      <c r="AZ2" s="165"/>
-      <c r="BA2" s="165"/>
-      <c r="BB2" s="164"/>
+      <c r="A2" s="166" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="167"/>
+      <c r="C2" s="166" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="166" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="166" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="168"/>
+      <c r="AH2" s="168"/>
+      <c r="AI2" s="168"/>
+      <c r="AJ2" s="168"/>
+      <c r="AK2" s="168"/>
+      <c r="AL2" s="168"/>
+      <c r="AM2" s="168"/>
+      <c r="AN2" s="168"/>
+      <c r="AO2" s="168"/>
+      <c r="AP2" s="168"/>
+      <c r="AQ2" s="168"/>
+      <c r="AR2" s="168"/>
+      <c r="AS2" s="168"/>
+      <c r="AT2" s="168"/>
+      <c r="AU2" s="168"/>
+      <c r="AV2" s="168"/>
+      <c r="AW2" s="168"/>
+      <c r="AX2" s="168"/>
+      <c r="AY2" s="168"/>
+      <c r="AZ2" s="168"/>
+      <c r="BA2" s="168"/>
+      <c r="BB2" s="167"/>
     </row>
     <row r="3" spans="1:54">
-      <c r="A3" s="166">
+      <c r="A3" s="157">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="174"/>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="174"/>
-      <c r="AJ3" s="174"/>
-      <c r="AK3" s="174"/>
-      <c r="AL3" s="174"/>
-      <c r="AM3" s="174"/>
-      <c r="AN3" s="174"/>
-      <c r="AO3" s="174"/>
-      <c r="AP3" s="174"/>
-      <c r="AQ3" s="174"/>
-      <c r="AR3" s="174"/>
-      <c r="AS3" s="174"/>
-      <c r="AT3" s="174"/>
-      <c r="AU3" s="174"/>
-      <c r="AV3" s="174"/>
-      <c r="AW3" s="174"/>
-      <c r="AX3" s="174"/>
-      <c r="AY3" s="174"/>
-      <c r="AZ3" s="174"/>
-      <c r="BA3" s="174"/>
-      <c r="BB3" s="167"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="158"/>
+      <c r="AA3" s="157"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="165"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
+      <c r="AK3" s="165"/>
+      <c r="AL3" s="165"/>
+      <c r="AM3" s="165"/>
+      <c r="AN3" s="165"/>
+      <c r="AO3" s="165"/>
+      <c r="AP3" s="165"/>
+      <c r="AQ3" s="165"/>
+      <c r="AR3" s="165"/>
+      <c r="AS3" s="165"/>
+      <c r="AT3" s="165"/>
+      <c r="AU3" s="165"/>
+      <c r="AV3" s="165"/>
+      <c r="AW3" s="165"/>
+      <c r="AX3" s="165"/>
+      <c r="AY3" s="165"/>
+      <c r="AZ3" s="165"/>
+      <c r="BA3" s="165"/>
+      <c r="BB3" s="158"/>
     </row>
     <row r="4" spans="1:54">
-      <c r="A4" s="166">
+      <c r="A4" s="157">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="174"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="174"/>
-      <c r="U4" s="174"/>
-      <c r="V4" s="174"/>
-      <c r="W4" s="174"/>
-      <c r="X4" s="174"/>
-      <c r="Y4" s="174"/>
-      <c r="Z4" s="167"/>
-      <c r="AA4" s="166"/>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="174"/>
-      <c r="AE4" s="174"/>
-      <c r="AF4" s="174"/>
-      <c r="AG4" s="174"/>
-      <c r="AH4" s="174"/>
-      <c r="AI4" s="174"/>
-      <c r="AJ4" s="174"/>
-      <c r="AK4" s="174"/>
-      <c r="AL4" s="174"/>
-      <c r="AM4" s="174"/>
-      <c r="AN4" s="174"/>
-      <c r="AO4" s="174"/>
-      <c r="AP4" s="174"/>
-      <c r="AQ4" s="174"/>
-      <c r="AR4" s="174"/>
-      <c r="AS4" s="174"/>
-      <c r="AT4" s="174"/>
-      <c r="AU4" s="174"/>
-      <c r="AV4" s="174"/>
-      <c r="AW4" s="174"/>
-      <c r="AX4" s="174"/>
-      <c r="AY4" s="174"/>
-      <c r="AZ4" s="174"/>
-      <c r="BA4" s="174"/>
-      <c r="BB4" s="167"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="165"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
+      <c r="AK4" s="165"/>
+      <c r="AL4" s="165"/>
+      <c r="AM4" s="165"/>
+      <c r="AN4" s="165"/>
+      <c r="AO4" s="165"/>
+      <c r="AP4" s="165"/>
+      <c r="AQ4" s="165"/>
+      <c r="AR4" s="165"/>
+      <c r="AS4" s="165"/>
+      <c r="AT4" s="165"/>
+      <c r="AU4" s="165"/>
+      <c r="AV4" s="165"/>
+      <c r="AW4" s="165"/>
+      <c r="AX4" s="165"/>
+      <c r="AY4" s="165"/>
+      <c r="AZ4" s="165"/>
+      <c r="BA4" s="165"/>
+      <c r="BB4" s="158"/>
     </row>
     <row r="5" spans="1:54">
-      <c r="A5" s="166">
+      <c r="A5" s="157">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="172"/>
-      <c r="L5" s="172"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="174"/>
-      <c r="P5" s="174"/>
-      <c r="Q5" s="174"/>
-      <c r="R5" s="174"/>
-      <c r="S5" s="174"/>
-      <c r="T5" s="174"/>
-      <c r="U5" s="174"/>
-      <c r="V5" s="174"/>
-      <c r="W5" s="174"/>
-      <c r="X5" s="174"/>
-      <c r="Y5" s="174"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="166"/>
-      <c r="AB5" s="174"/>
-      <c r="AC5" s="174"/>
-      <c r="AD5" s="174"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="174"/>
-      <c r="AG5" s="174"/>
-      <c r="AH5" s="174"/>
-      <c r="AI5" s="174"/>
-      <c r="AJ5" s="174"/>
-      <c r="AK5" s="174"/>
-      <c r="AL5" s="174"/>
-      <c r="AM5" s="174"/>
-      <c r="AN5" s="174"/>
-      <c r="AO5" s="174"/>
-      <c r="AP5" s="174"/>
-      <c r="AQ5" s="174"/>
-      <c r="AR5" s="174"/>
-      <c r="AS5" s="174"/>
-      <c r="AT5" s="174"/>
-      <c r="AU5" s="174"/>
-      <c r="AV5" s="174"/>
-      <c r="AW5" s="174"/>
-      <c r="AX5" s="174"/>
-      <c r="AY5" s="174"/>
-      <c r="AZ5" s="174"/>
-      <c r="BA5" s="174"/>
-      <c r="BB5" s="167"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="157"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="165"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="157"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="165"/>
+      <c r="AN5" s="165"/>
+      <c r="AO5" s="165"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="165"/>
+      <c r="AR5" s="165"/>
+      <c r="AS5" s="165"/>
+      <c r="AT5" s="165"/>
+      <c r="AU5" s="165"/>
+      <c r="AV5" s="165"/>
+      <c r="AW5" s="165"/>
+      <c r="AX5" s="165"/>
+      <c r="AY5" s="165"/>
+      <c r="AZ5" s="165"/>
+      <c r="BA5" s="165"/>
+      <c r="BB5" s="158"/>
     </row>
     <row r="6" spans="1:54">
-      <c r="A6" s="166">
+      <c r="A6" s="157">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="174"/>
-      <c r="S6" s="174"/>
-      <c r="T6" s="174"/>
-      <c r="U6" s="174"/>
-      <c r="V6" s="174"/>
-      <c r="W6" s="174"/>
-      <c r="X6" s="174"/>
-      <c r="Y6" s="174"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="166"/>
-      <c r="AB6" s="174"/>
-      <c r="AC6" s="174"/>
-      <c r="AD6" s="174"/>
-      <c r="AE6" s="174"/>
-      <c r="AF6" s="174"/>
-      <c r="AG6" s="174"/>
-      <c r="AH6" s="174"/>
-      <c r="AI6" s="174"/>
-      <c r="AJ6" s="174"/>
-      <c r="AK6" s="174"/>
-      <c r="AL6" s="174"/>
-      <c r="AM6" s="174"/>
-      <c r="AN6" s="174"/>
-      <c r="AO6" s="174"/>
-      <c r="AP6" s="174"/>
-      <c r="AQ6" s="174"/>
-      <c r="AR6" s="174"/>
-      <c r="AS6" s="174"/>
-      <c r="AT6" s="174"/>
-      <c r="AU6" s="174"/>
-      <c r="AV6" s="174"/>
-      <c r="AW6" s="174"/>
-      <c r="AX6" s="174"/>
-      <c r="AY6" s="174"/>
-      <c r="AZ6" s="174"/>
-      <c r="BA6" s="174"/>
-      <c r="BB6" s="167"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="165"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="165"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="157"/>
+      <c r="AB6" s="165"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="165"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="165"/>
+      <c r="AJ6" s="165"/>
+      <c r="AK6" s="165"/>
+      <c r="AL6" s="165"/>
+      <c r="AM6" s="165"/>
+      <c r="AN6" s="165"/>
+      <c r="AO6" s="165"/>
+      <c r="AP6" s="165"/>
+      <c r="AQ6" s="165"/>
+      <c r="AR6" s="165"/>
+      <c r="AS6" s="165"/>
+      <c r="AT6" s="165"/>
+      <c r="AU6" s="165"/>
+      <c r="AV6" s="165"/>
+      <c r="AW6" s="165"/>
+      <c r="AX6" s="165"/>
+      <c r="AY6" s="165"/>
+      <c r="AZ6" s="165"/>
+      <c r="BA6" s="165"/>
+      <c r="BB6" s="158"/>
     </row>
     <row r="7" spans="1:54">
-      <c r="A7" s="166">
+      <c r="A7" s="157">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="167"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
-      <c r="S7" s="174"/>
-      <c r="T7" s="174"/>
-      <c r="U7" s="174"/>
-      <c r="V7" s="174"/>
-      <c r="W7" s="174"/>
-      <c r="X7" s="174"/>
-      <c r="Y7" s="174"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="166"/>
-      <c r="AB7" s="174"/>
-      <c r="AC7" s="174"/>
-      <c r="AD7" s="174"/>
-      <c r="AE7" s="174"/>
-      <c r="AF7" s="174"/>
-      <c r="AG7" s="174"/>
-      <c r="AH7" s="174"/>
-      <c r="AI7" s="174"/>
-      <c r="AJ7" s="174"/>
-      <c r="AK7" s="174"/>
-      <c r="AL7" s="174"/>
-      <c r="AM7" s="174"/>
-      <c r="AN7" s="174"/>
-      <c r="AO7" s="174"/>
-      <c r="AP7" s="174"/>
-      <c r="AQ7" s="174"/>
-      <c r="AR7" s="174"/>
-      <c r="AS7" s="174"/>
-      <c r="AT7" s="174"/>
-      <c r="AU7" s="174"/>
-      <c r="AV7" s="174"/>
-      <c r="AW7" s="174"/>
-      <c r="AX7" s="174"/>
-      <c r="AY7" s="174"/>
-      <c r="AZ7" s="174"/>
-      <c r="BA7" s="174"/>
-      <c r="BB7" s="167"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="165"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="165"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="165"/>
+      <c r="X7" s="165"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="158"/>
+      <c r="AA7" s="157"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="165"/>
+      <c r="AJ7" s="165"/>
+      <c r="AK7" s="165"/>
+      <c r="AL7" s="165"/>
+      <c r="AM7" s="165"/>
+      <c r="AN7" s="165"/>
+      <c r="AO7" s="165"/>
+      <c r="AP7" s="165"/>
+      <c r="AQ7" s="165"/>
+      <c r="AR7" s="165"/>
+      <c r="AS7" s="165"/>
+      <c r="AT7" s="165"/>
+      <c r="AU7" s="165"/>
+      <c r="AV7" s="165"/>
+      <c r="AW7" s="165"/>
+      <c r="AX7" s="165"/>
+      <c r="AY7" s="165"/>
+      <c r="AZ7" s="165"/>
+      <c r="BA7" s="165"/>
+      <c r="BB7" s="158"/>
     </row>
     <row r="8" spans="1:54">
-      <c r="A8" s="166">
+      <c r="A8" s="157">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="174"/>
-      <c r="R8" s="174"/>
-      <c r="S8" s="174"/>
-      <c r="T8" s="174"/>
-      <c r="U8" s="174"/>
-      <c r="V8" s="174"/>
-      <c r="W8" s="174"/>
-      <c r="X8" s="174"/>
-      <c r="Y8" s="174"/>
-      <c r="Z8" s="167"/>
-      <c r="AA8" s="166"/>
-      <c r="AB8" s="174"/>
-      <c r="AC8" s="174"/>
-      <c r="AD8" s="174"/>
-      <c r="AE8" s="174"/>
-      <c r="AF8" s="174"/>
-      <c r="AG8" s="174"/>
-      <c r="AH8" s="174"/>
-      <c r="AI8" s="174"/>
-      <c r="AJ8" s="174"/>
-      <c r="AK8" s="174"/>
-      <c r="AL8" s="174"/>
-      <c r="AM8" s="174"/>
-      <c r="AN8" s="174"/>
-      <c r="AO8" s="174"/>
-      <c r="AP8" s="174"/>
-      <c r="AQ8" s="174"/>
-      <c r="AR8" s="174"/>
-      <c r="AS8" s="174"/>
-      <c r="AT8" s="174"/>
-      <c r="AU8" s="174"/>
-      <c r="AV8" s="174"/>
-      <c r="AW8" s="174"/>
-      <c r="AX8" s="174"/>
-      <c r="AY8" s="174"/>
-      <c r="AZ8" s="174"/>
-      <c r="BA8" s="174"/>
-      <c r="BB8" s="167"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="165"/>
+      <c r="Q8" s="165"/>
+      <c r="R8" s="165"/>
+      <c r="S8" s="165"/>
+      <c r="T8" s="165"/>
+      <c r="U8" s="165"/>
+      <c r="V8" s="165"/>
+      <c r="W8" s="165"/>
+      <c r="X8" s="165"/>
+      <c r="Y8" s="165"/>
+      <c r="Z8" s="158"/>
+      <c r="AA8" s="157"/>
+      <c r="AB8" s="165"/>
+      <c r="AC8" s="165"/>
+      <c r="AD8" s="165"/>
+      <c r="AE8" s="165"/>
+      <c r="AF8" s="165"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="165"/>
+      <c r="AI8" s="165"/>
+      <c r="AJ8" s="165"/>
+      <c r="AK8" s="165"/>
+      <c r="AL8" s="165"/>
+      <c r="AM8" s="165"/>
+      <c r="AN8" s="165"/>
+      <c r="AO8" s="165"/>
+      <c r="AP8" s="165"/>
+      <c r="AQ8" s="165"/>
+      <c r="AR8" s="165"/>
+      <c r="AS8" s="165"/>
+      <c r="AT8" s="165"/>
+      <c r="AU8" s="165"/>
+      <c r="AV8" s="165"/>
+      <c r="AW8" s="165"/>
+      <c r="AX8" s="165"/>
+      <c r="AY8" s="165"/>
+      <c r="AZ8" s="165"/>
+      <c r="BA8" s="165"/>
+      <c r="BB8" s="158"/>
     </row>
     <row r="9" spans="1:54">
-      <c r="A9" s="166">
+      <c r="A9" s="157">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="167"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="174"/>
-      <c r="P9" s="174"/>
-      <c r="Q9" s="174"/>
-      <c r="R9" s="174"/>
-      <c r="S9" s="174"/>
-      <c r="T9" s="174"/>
-      <c r="U9" s="174"/>
-      <c r="V9" s="174"/>
-      <c r="W9" s="174"/>
-      <c r="X9" s="174"/>
-      <c r="Y9" s="174"/>
-      <c r="Z9" s="167"/>
-      <c r="AA9" s="166"/>
-      <c r="AB9" s="174"/>
-      <c r="AC9" s="174"/>
-      <c r="AD9" s="174"/>
-      <c r="AE9" s="174"/>
-      <c r="AF9" s="174"/>
-      <c r="AG9" s="174"/>
-      <c r="AH9" s="174"/>
-      <c r="AI9" s="174"/>
-      <c r="AJ9" s="174"/>
-      <c r="AK9" s="174"/>
-      <c r="AL9" s="174"/>
-      <c r="AM9" s="174"/>
-      <c r="AN9" s="174"/>
-      <c r="AO9" s="174"/>
-      <c r="AP9" s="174"/>
-      <c r="AQ9" s="174"/>
-      <c r="AR9" s="174"/>
-      <c r="AS9" s="174"/>
-      <c r="AT9" s="174"/>
-      <c r="AU9" s="174"/>
-      <c r="AV9" s="174"/>
-      <c r="AW9" s="174"/>
-      <c r="AX9" s="174"/>
-      <c r="AY9" s="174"/>
-      <c r="AZ9" s="174"/>
-      <c r="BA9" s="174"/>
-      <c r="BB9" s="167"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="165"/>
+      <c r="Q9" s="165"/>
+      <c r="R9" s="165"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
+      <c r="U9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="165"/>
+      <c r="Y9" s="165"/>
+      <c r="Z9" s="158"/>
+      <c r="AA9" s="157"/>
+      <c r="AB9" s="165"/>
+      <c r="AC9" s="165"/>
+      <c r="AD9" s="165"/>
+      <c r="AE9" s="165"/>
+      <c r="AF9" s="165"/>
+      <c r="AG9" s="165"/>
+      <c r="AH9" s="165"/>
+      <c r="AI9" s="165"/>
+      <c r="AJ9" s="165"/>
+      <c r="AK9" s="165"/>
+      <c r="AL9" s="165"/>
+      <c r="AM9" s="165"/>
+      <c r="AN9" s="165"/>
+      <c r="AO9" s="165"/>
+      <c r="AP9" s="165"/>
+      <c r="AQ9" s="165"/>
+      <c r="AR9" s="165"/>
+      <c r="AS9" s="165"/>
+      <c r="AT9" s="165"/>
+      <c r="AU9" s="165"/>
+      <c r="AV9" s="165"/>
+      <c r="AW9" s="165"/>
+      <c r="AX9" s="165"/>
+      <c r="AY9" s="165"/>
+      <c r="AZ9" s="165"/>
+      <c r="BA9" s="165"/>
+      <c r="BB9" s="158"/>
     </row>
     <row r="10" spans="1:54">
-      <c r="A10" s="166">
+      <c r="A10" s="157">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="167"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="173"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="174"/>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="174"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="174"/>
-      <c r="T10" s="174"/>
-      <c r="U10" s="174"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="174"/>
-      <c r="Z10" s="167"/>
-      <c r="AA10" s="166"/>
-      <c r="AB10" s="174"/>
-      <c r="AC10" s="174"/>
-      <c r="AD10" s="174"/>
-      <c r="AE10" s="174"/>
-      <c r="AF10" s="174"/>
-      <c r="AG10" s="174"/>
-      <c r="AH10" s="174"/>
-      <c r="AI10" s="174"/>
-      <c r="AJ10" s="174"/>
-      <c r="AK10" s="174"/>
-      <c r="AL10" s="174"/>
-      <c r="AM10" s="174"/>
-      <c r="AN10" s="174"/>
-      <c r="AO10" s="174"/>
-      <c r="AP10" s="174"/>
-      <c r="AQ10" s="174"/>
-      <c r="AR10" s="174"/>
-      <c r="AS10" s="174"/>
-      <c r="AT10" s="174"/>
-      <c r="AU10" s="174"/>
-      <c r="AV10" s="174"/>
-      <c r="AW10" s="174"/>
-      <c r="AX10" s="174"/>
-      <c r="AY10" s="174"/>
-      <c r="AZ10" s="174"/>
-      <c r="BA10" s="174"/>
-      <c r="BB10" s="167"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="165"/>
+      <c r="Q10" s="165"/>
+      <c r="R10" s="165"/>
+      <c r="S10" s="165"/>
+      <c r="T10" s="165"/>
+      <c r="U10" s="165"/>
+      <c r="V10" s="165"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="165"/>
+      <c r="Y10" s="165"/>
+      <c r="Z10" s="158"/>
+      <c r="AA10" s="157"/>
+      <c r="AB10" s="165"/>
+      <c r="AC10" s="165"/>
+      <c r="AD10" s="165"/>
+      <c r="AE10" s="165"/>
+      <c r="AF10" s="165"/>
+      <c r="AG10" s="165"/>
+      <c r="AH10" s="165"/>
+      <c r="AI10" s="165"/>
+      <c r="AJ10" s="165"/>
+      <c r="AK10" s="165"/>
+      <c r="AL10" s="165"/>
+      <c r="AM10" s="165"/>
+      <c r="AN10" s="165"/>
+      <c r="AO10" s="165"/>
+      <c r="AP10" s="165"/>
+      <c r="AQ10" s="165"/>
+      <c r="AR10" s="165"/>
+      <c r="AS10" s="165"/>
+      <c r="AT10" s="165"/>
+      <c r="AU10" s="165"/>
+      <c r="AV10" s="165"/>
+      <c r="AW10" s="165"/>
+      <c r="AX10" s="165"/>
+      <c r="AY10" s="165"/>
+      <c r="AZ10" s="165"/>
+      <c r="BA10" s="165"/>
+      <c r="BB10" s="158"/>
     </row>
     <row r="11" spans="1:54">
-      <c r="A11" s="166">
+      <c r="A11" s="157">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="167"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="174"/>
-      <c r="P11" s="174"/>
-      <c r="Q11" s="174"/>
-      <c r="R11" s="174"/>
-      <c r="S11" s="174"/>
-      <c r="T11" s="174"/>
-      <c r="U11" s="174"/>
-      <c r="V11" s="174"/>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="174"/>
-      <c r="Z11" s="167"/>
-      <c r="AA11" s="166"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="174"/>
-      <c r="AD11" s="174"/>
-      <c r="AE11" s="174"/>
-      <c r="AF11" s="174"/>
-      <c r="AG11" s="174"/>
-      <c r="AH11" s="174"/>
-      <c r="AI11" s="174"/>
-      <c r="AJ11" s="174"/>
-      <c r="AK11" s="174"/>
-      <c r="AL11" s="174"/>
-      <c r="AM11" s="174"/>
-      <c r="AN11" s="174"/>
-      <c r="AO11" s="174"/>
-      <c r="AP11" s="174"/>
-      <c r="AQ11" s="174"/>
-      <c r="AR11" s="174"/>
-      <c r="AS11" s="174"/>
-      <c r="AT11" s="174"/>
-      <c r="AU11" s="174"/>
-      <c r="AV11" s="174"/>
-      <c r="AW11" s="174"/>
-      <c r="AX11" s="174"/>
-      <c r="AY11" s="174"/>
-      <c r="AZ11" s="174"/>
-      <c r="BA11" s="174"/>
-      <c r="BB11" s="167"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="165"/>
+      <c r="Q11" s="165"/>
+      <c r="R11" s="165"/>
+      <c r="S11" s="165"/>
+      <c r="T11" s="165"/>
+      <c r="U11" s="165"/>
+      <c r="V11" s="165"/>
+      <c r="W11" s="165"/>
+      <c r="X11" s="165"/>
+      <c r="Y11" s="165"/>
+      <c r="Z11" s="158"/>
+      <c r="AA11" s="157"/>
+      <c r="AB11" s="165"/>
+      <c r="AC11" s="165"/>
+      <c r="AD11" s="165"/>
+      <c r="AE11" s="165"/>
+      <c r="AF11" s="165"/>
+      <c r="AG11" s="165"/>
+      <c r="AH11" s="165"/>
+      <c r="AI11" s="165"/>
+      <c r="AJ11" s="165"/>
+      <c r="AK11" s="165"/>
+      <c r="AL11" s="165"/>
+      <c r="AM11" s="165"/>
+      <c r="AN11" s="165"/>
+      <c r="AO11" s="165"/>
+      <c r="AP11" s="165"/>
+      <c r="AQ11" s="165"/>
+      <c r="AR11" s="165"/>
+      <c r="AS11" s="165"/>
+      <c r="AT11" s="165"/>
+      <c r="AU11" s="165"/>
+      <c r="AV11" s="165"/>
+      <c r="AW11" s="165"/>
+      <c r="AX11" s="165"/>
+      <c r="AY11" s="165"/>
+      <c r="AZ11" s="165"/>
+      <c r="BA11" s="165"/>
+      <c r="BB11" s="158"/>
     </row>
     <row r="12" spans="1:54">
-      <c r="A12" s="166">
+      <c r="A12" s="157">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="167"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="174"/>
-      <c r="P12" s="174"/>
-      <c r="Q12" s="174"/>
-      <c r="R12" s="174"/>
-      <c r="S12" s="174"/>
-      <c r="T12" s="174"/>
-      <c r="U12" s="174"/>
-      <c r="V12" s="174"/>
-      <c r="W12" s="174"/>
-      <c r="X12" s="174"/>
-      <c r="Y12" s="174"/>
-      <c r="Z12" s="167"/>
-      <c r="AA12" s="166"/>
-      <c r="AB12" s="174"/>
-      <c r="AC12" s="174"/>
-      <c r="AD12" s="174"/>
-      <c r="AE12" s="174"/>
-      <c r="AF12" s="174"/>
-      <c r="AG12" s="174"/>
-      <c r="AH12" s="174"/>
-      <c r="AI12" s="174"/>
-      <c r="AJ12" s="174"/>
-      <c r="AK12" s="174"/>
-      <c r="AL12" s="174"/>
-      <c r="AM12" s="174"/>
-      <c r="AN12" s="174"/>
-      <c r="AO12" s="174"/>
-      <c r="AP12" s="174"/>
-      <c r="AQ12" s="174"/>
-      <c r="AR12" s="174"/>
-      <c r="AS12" s="174"/>
-      <c r="AT12" s="174"/>
-      <c r="AU12" s="174"/>
-      <c r="AV12" s="174"/>
-      <c r="AW12" s="174"/>
-      <c r="AX12" s="174"/>
-      <c r="AY12" s="174"/>
-      <c r="AZ12" s="174"/>
-      <c r="BA12" s="174"/>
-      <c r="BB12" s="167"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="165"/>
+      <c r="S12" s="165"/>
+      <c r="T12" s="165"/>
+      <c r="U12" s="165"/>
+      <c r="V12" s="165"/>
+      <c r="W12" s="165"/>
+      <c r="X12" s="165"/>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="158"/>
+      <c r="AA12" s="157"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
+      <c r="AD12" s="165"/>
+      <c r="AE12" s="165"/>
+      <c r="AF12" s="165"/>
+      <c r="AG12" s="165"/>
+      <c r="AH12" s="165"/>
+      <c r="AI12" s="165"/>
+      <c r="AJ12" s="165"/>
+      <c r="AK12" s="165"/>
+      <c r="AL12" s="165"/>
+      <c r="AM12" s="165"/>
+      <c r="AN12" s="165"/>
+      <c r="AO12" s="165"/>
+      <c r="AP12" s="165"/>
+      <c r="AQ12" s="165"/>
+      <c r="AR12" s="165"/>
+      <c r="AS12" s="165"/>
+      <c r="AT12" s="165"/>
+      <c r="AU12" s="165"/>
+      <c r="AV12" s="165"/>
+      <c r="AW12" s="165"/>
+      <c r="AX12" s="165"/>
+      <c r="AY12" s="165"/>
+      <c r="AZ12" s="165"/>
+      <c r="BA12" s="165"/>
+      <c r="BB12" s="158"/>
     </row>
     <row r="13" spans="1:54">
-      <c r="A13" s="166">
+      <c r="A13" s="157">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="167"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="172"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="174"/>
-      <c r="P13" s="174"/>
-      <c r="Q13" s="174"/>
-      <c r="R13" s="174"/>
-      <c r="S13" s="174"/>
-      <c r="T13" s="174"/>
-      <c r="U13" s="174"/>
-      <c r="V13" s="174"/>
-      <c r="W13" s="174"/>
-      <c r="X13" s="174"/>
-      <c r="Y13" s="174"/>
-      <c r="Z13" s="167"/>
-      <c r="AA13" s="166"/>
-      <c r="AB13" s="174"/>
-      <c r="AC13" s="174"/>
-      <c r="AD13" s="174"/>
-      <c r="AE13" s="174"/>
-      <c r="AF13" s="174"/>
-      <c r="AG13" s="174"/>
-      <c r="AH13" s="174"/>
-      <c r="AI13" s="174"/>
-      <c r="AJ13" s="174"/>
-      <c r="AK13" s="174"/>
-      <c r="AL13" s="174"/>
-      <c r="AM13" s="174"/>
-      <c r="AN13" s="174"/>
-      <c r="AO13" s="174"/>
-      <c r="AP13" s="174"/>
-      <c r="AQ13" s="174"/>
-      <c r="AR13" s="174"/>
-      <c r="AS13" s="174"/>
-      <c r="AT13" s="174"/>
-      <c r="AU13" s="174"/>
-      <c r="AV13" s="174"/>
-      <c r="AW13" s="174"/>
-      <c r="AX13" s="174"/>
-      <c r="AY13" s="174"/>
-      <c r="AZ13" s="174"/>
-      <c r="BA13" s="174"/>
-      <c r="BB13" s="167"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="163"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="165"/>
+      <c r="P13" s="165"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="165"/>
+      <c r="S13" s="165"/>
+      <c r="T13" s="165"/>
+      <c r="U13" s="165"/>
+      <c r="V13" s="165"/>
+      <c r="W13" s="165"/>
+      <c r="X13" s="165"/>
+      <c r="Y13" s="165"/>
+      <c r="Z13" s="158"/>
+      <c r="AA13" s="157"/>
+      <c r="AB13" s="165"/>
+      <c r="AC13" s="165"/>
+      <c r="AD13" s="165"/>
+      <c r="AE13" s="165"/>
+      <c r="AF13" s="165"/>
+      <c r="AG13" s="165"/>
+      <c r="AH13" s="165"/>
+      <c r="AI13" s="165"/>
+      <c r="AJ13" s="165"/>
+      <c r="AK13" s="165"/>
+      <c r="AL13" s="165"/>
+      <c r="AM13" s="165"/>
+      <c r="AN13" s="165"/>
+      <c r="AO13" s="165"/>
+      <c r="AP13" s="165"/>
+      <c r="AQ13" s="165"/>
+      <c r="AR13" s="165"/>
+      <c r="AS13" s="165"/>
+      <c r="AT13" s="165"/>
+      <c r="AU13" s="165"/>
+      <c r="AV13" s="165"/>
+      <c r="AW13" s="165"/>
+      <c r="AX13" s="165"/>
+      <c r="AY13" s="165"/>
+      <c r="AZ13" s="165"/>
+      <c r="BA13" s="165"/>
+      <c r="BB13" s="158"/>
     </row>
     <row r="14" spans="1:54">
-      <c r="A14" s="166">
+      <c r="A14" s="157">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="167"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="174"/>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="174"/>
-      <c r="R14" s="174"/>
-      <c r="S14" s="174"/>
-      <c r="T14" s="174"/>
-      <c r="U14" s="174"/>
-      <c r="V14" s="174"/>
-      <c r="W14" s="174"/>
-      <c r="X14" s="174"/>
-      <c r="Y14" s="174"/>
-      <c r="Z14" s="167"/>
-      <c r="AA14" s="166"/>
-      <c r="AB14" s="174"/>
-      <c r="AC14" s="174"/>
-      <c r="AD14" s="174"/>
-      <c r="AE14" s="174"/>
-      <c r="AF14" s="174"/>
-      <c r="AG14" s="174"/>
-      <c r="AH14" s="174"/>
-      <c r="AI14" s="174"/>
-      <c r="AJ14" s="174"/>
-      <c r="AK14" s="174"/>
-      <c r="AL14" s="174"/>
-      <c r="AM14" s="174"/>
-      <c r="AN14" s="174"/>
-      <c r="AO14" s="174"/>
-      <c r="AP14" s="174"/>
-      <c r="AQ14" s="174"/>
-      <c r="AR14" s="174"/>
-      <c r="AS14" s="174"/>
-      <c r="AT14" s="174"/>
-      <c r="AU14" s="174"/>
-      <c r="AV14" s="174"/>
-      <c r="AW14" s="174"/>
-      <c r="AX14" s="174"/>
-      <c r="AY14" s="174"/>
-      <c r="AZ14" s="174"/>
-      <c r="BA14" s="174"/>
-      <c r="BB14" s="167"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="157"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="165"/>
+      <c r="S14" s="165"/>
+      <c r="T14" s="165"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="165"/>
+      <c r="W14" s="165"/>
+      <c r="X14" s="165"/>
+      <c r="Y14" s="165"/>
+      <c r="Z14" s="158"/>
+      <c r="AA14" s="157"/>
+      <c r="AB14" s="165"/>
+      <c r="AC14" s="165"/>
+      <c r="AD14" s="165"/>
+      <c r="AE14" s="165"/>
+      <c r="AF14" s="165"/>
+      <c r="AG14" s="165"/>
+      <c r="AH14" s="165"/>
+      <c r="AI14" s="165"/>
+      <c r="AJ14" s="165"/>
+      <c r="AK14" s="165"/>
+      <c r="AL14" s="165"/>
+      <c r="AM14" s="165"/>
+      <c r="AN14" s="165"/>
+      <c r="AO14" s="165"/>
+      <c r="AP14" s="165"/>
+      <c r="AQ14" s="165"/>
+      <c r="AR14" s="165"/>
+      <c r="AS14" s="165"/>
+      <c r="AT14" s="165"/>
+      <c r="AU14" s="165"/>
+      <c r="AV14" s="165"/>
+      <c r="AW14" s="165"/>
+      <c r="AX14" s="165"/>
+      <c r="AY14" s="165"/>
+      <c r="AZ14" s="165"/>
+      <c r="BA14" s="165"/>
+      <c r="BB14" s="158"/>
     </row>
     <row r="15" spans="1:54">
-      <c r="A15" s="166">
+      <c r="A15" s="157">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="172"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="174"/>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="174"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="174"/>
-      <c r="T15" s="174"/>
-      <c r="U15" s="174"/>
-      <c r="V15" s="174"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="174"/>
-      <c r="Y15" s="174"/>
-      <c r="Z15" s="167"/>
-      <c r="AA15" s="166"/>
-      <c r="AB15" s="174"/>
-      <c r="AC15" s="174"/>
-      <c r="AD15" s="174"/>
-      <c r="AE15" s="174"/>
-      <c r="AF15" s="174"/>
-      <c r="AG15" s="174"/>
-      <c r="AH15" s="174"/>
-      <c r="AI15" s="174"/>
-      <c r="AJ15" s="174"/>
-      <c r="AK15" s="174"/>
-      <c r="AL15" s="174"/>
-      <c r="AM15" s="174"/>
-      <c r="AN15" s="174"/>
-      <c r="AO15" s="174"/>
-      <c r="AP15" s="174"/>
-      <c r="AQ15" s="174"/>
-      <c r="AR15" s="174"/>
-      <c r="AS15" s="174"/>
-      <c r="AT15" s="174"/>
-      <c r="AU15" s="174"/>
-      <c r="AV15" s="174"/>
-      <c r="AW15" s="174"/>
-      <c r="AX15" s="174"/>
-      <c r="AY15" s="174"/>
-      <c r="AZ15" s="174"/>
-      <c r="BA15" s="174"/>
-      <c r="BB15" s="167"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="165"/>
+      <c r="Q15" s="165"/>
+      <c r="R15" s="165"/>
+      <c r="S15" s="165"/>
+      <c r="T15" s="165"/>
+      <c r="U15" s="165"/>
+      <c r="V15" s="165"/>
+      <c r="W15" s="165"/>
+      <c r="X15" s="165"/>
+      <c r="Y15" s="165"/>
+      <c r="Z15" s="158"/>
+      <c r="AA15" s="157"/>
+      <c r="AB15" s="165"/>
+      <c r="AC15" s="165"/>
+      <c r="AD15" s="165"/>
+      <c r="AE15" s="165"/>
+      <c r="AF15" s="165"/>
+      <c r="AG15" s="165"/>
+      <c r="AH15" s="165"/>
+      <c r="AI15" s="165"/>
+      <c r="AJ15" s="165"/>
+      <c r="AK15" s="165"/>
+      <c r="AL15" s="165"/>
+      <c r="AM15" s="165"/>
+      <c r="AN15" s="165"/>
+      <c r="AO15" s="165"/>
+      <c r="AP15" s="165"/>
+      <c r="AQ15" s="165"/>
+      <c r="AR15" s="165"/>
+      <c r="AS15" s="165"/>
+      <c r="AT15" s="165"/>
+      <c r="AU15" s="165"/>
+      <c r="AV15" s="165"/>
+      <c r="AW15" s="165"/>
+      <c r="AX15" s="165"/>
+      <c r="AY15" s="165"/>
+      <c r="AZ15" s="165"/>
+      <c r="BA15" s="165"/>
+      <c r="BB15" s="158"/>
     </row>
     <row r="16" spans="1:54">
-      <c r="A16" s="166">
+      <c r="A16" s="157">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="174"/>
-      <c r="P16" s="174"/>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="174"/>
-      <c r="T16" s="174"/>
-      <c r="U16" s="174"/>
-      <c r="V16" s="174"/>
-      <c r="W16" s="174"/>
-      <c r="X16" s="174"/>
-      <c r="Y16" s="174"/>
-      <c r="Z16" s="167"/>
-      <c r="AA16" s="166"/>
-      <c r="AB16" s="174"/>
-      <c r="AC16" s="174"/>
-      <c r="AD16" s="174"/>
-      <c r="AE16" s="174"/>
-      <c r="AF16" s="174"/>
-      <c r="AG16" s="174"/>
-      <c r="AH16" s="174"/>
-      <c r="AI16" s="174"/>
-      <c r="AJ16" s="174"/>
-      <c r="AK16" s="174"/>
-      <c r="AL16" s="174"/>
-      <c r="AM16" s="174"/>
-      <c r="AN16" s="174"/>
-      <c r="AO16" s="174"/>
-      <c r="AP16" s="174"/>
-      <c r="AQ16" s="174"/>
-      <c r="AR16" s="174"/>
-      <c r="AS16" s="174"/>
-      <c r="AT16" s="174"/>
-      <c r="AU16" s="174"/>
-      <c r="AV16" s="174"/>
-      <c r="AW16" s="174"/>
-      <c r="AX16" s="174"/>
-      <c r="AY16" s="174"/>
-      <c r="AZ16" s="174"/>
-      <c r="BA16" s="174"/>
-      <c r="BB16" s="167"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="165"/>
+      <c r="R16" s="165"/>
+      <c r="S16" s="165"/>
+      <c r="T16" s="165"/>
+      <c r="U16" s="165"/>
+      <c r="V16" s="165"/>
+      <c r="W16" s="165"/>
+      <c r="X16" s="165"/>
+      <c r="Y16" s="165"/>
+      <c r="Z16" s="158"/>
+      <c r="AA16" s="157"/>
+      <c r="AB16" s="165"/>
+      <c r="AC16" s="165"/>
+      <c r="AD16" s="165"/>
+      <c r="AE16" s="165"/>
+      <c r="AF16" s="165"/>
+      <c r="AG16" s="165"/>
+      <c r="AH16" s="165"/>
+      <c r="AI16" s="165"/>
+      <c r="AJ16" s="165"/>
+      <c r="AK16" s="165"/>
+      <c r="AL16" s="165"/>
+      <c r="AM16" s="165"/>
+      <c r="AN16" s="165"/>
+      <c r="AO16" s="165"/>
+      <c r="AP16" s="165"/>
+      <c r="AQ16" s="165"/>
+      <c r="AR16" s="165"/>
+      <c r="AS16" s="165"/>
+      <c r="AT16" s="165"/>
+      <c r="AU16" s="165"/>
+      <c r="AV16" s="165"/>
+      <c r="AW16" s="165"/>
+      <c r="AX16" s="165"/>
+      <c r="AY16" s="165"/>
+      <c r="AZ16" s="165"/>
+      <c r="BA16" s="165"/>
+      <c r="BB16" s="158"/>
     </row>
     <row r="17" spans="1:54">
-      <c r="A17" s="166">
+      <c r="A17" s="157">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="167"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="173"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="174"/>
-      <c r="P17" s="174"/>
-      <c r="Q17" s="174"/>
-      <c r="R17" s="174"/>
-      <c r="S17" s="174"/>
-      <c r="T17" s="174"/>
-      <c r="U17" s="174"/>
-      <c r="V17" s="174"/>
-      <c r="W17" s="174"/>
-      <c r="X17" s="174"/>
-      <c r="Y17" s="174"/>
-      <c r="Z17" s="167"/>
-      <c r="AA17" s="166"/>
-      <c r="AB17" s="174"/>
-      <c r="AC17" s="174"/>
-      <c r="AD17" s="174"/>
-      <c r="AE17" s="174"/>
-      <c r="AF17" s="174"/>
-      <c r="AG17" s="174"/>
-      <c r="AH17" s="174"/>
-      <c r="AI17" s="174"/>
-      <c r="AJ17" s="174"/>
-      <c r="AK17" s="174"/>
-      <c r="AL17" s="174"/>
-      <c r="AM17" s="174"/>
-      <c r="AN17" s="174"/>
-      <c r="AO17" s="174"/>
-      <c r="AP17" s="174"/>
-      <c r="AQ17" s="174"/>
-      <c r="AR17" s="174"/>
-      <c r="AS17" s="174"/>
-      <c r="AT17" s="174"/>
-      <c r="AU17" s="174"/>
-      <c r="AV17" s="174"/>
-      <c r="AW17" s="174"/>
-      <c r="AX17" s="174"/>
-      <c r="AY17" s="174"/>
-      <c r="AZ17" s="174"/>
-      <c r="BA17" s="174"/>
-      <c r="BB17" s="167"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="157"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="165"/>
+      <c r="R17" s="165"/>
+      <c r="S17" s="165"/>
+      <c r="T17" s="165"/>
+      <c r="U17" s="165"/>
+      <c r="V17" s="165"/>
+      <c r="W17" s="165"/>
+      <c r="X17" s="165"/>
+      <c r="Y17" s="165"/>
+      <c r="Z17" s="158"/>
+      <c r="AA17" s="157"/>
+      <c r="AB17" s="165"/>
+      <c r="AC17" s="165"/>
+      <c r="AD17" s="165"/>
+      <c r="AE17" s="165"/>
+      <c r="AF17" s="165"/>
+      <c r="AG17" s="165"/>
+      <c r="AH17" s="165"/>
+      <c r="AI17" s="165"/>
+      <c r="AJ17" s="165"/>
+      <c r="AK17" s="165"/>
+      <c r="AL17" s="165"/>
+      <c r="AM17" s="165"/>
+      <c r="AN17" s="165"/>
+      <c r="AO17" s="165"/>
+      <c r="AP17" s="165"/>
+      <c r="AQ17" s="165"/>
+      <c r="AR17" s="165"/>
+      <c r="AS17" s="165"/>
+      <c r="AT17" s="165"/>
+      <c r="AU17" s="165"/>
+      <c r="AV17" s="165"/>
+      <c r="AW17" s="165"/>
+      <c r="AX17" s="165"/>
+      <c r="AY17" s="165"/>
+      <c r="AZ17" s="165"/>
+      <c r="BA17" s="165"/>
+      <c r="BB17" s="158"/>
     </row>
     <row r="18" spans="1:54">
-      <c r="A18" s="166">
+      <c r="A18" s="157">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="167"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="174"/>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="174"/>
-      <c r="T18" s="174"/>
-      <c r="U18" s="174"/>
-      <c r="V18" s="174"/>
-      <c r="W18" s="174"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="174"/>
-      <c r="Z18" s="167"/>
-      <c r="AA18" s="166"/>
-      <c r="AB18" s="174"/>
-      <c r="AC18" s="174"/>
-      <c r="AD18" s="174"/>
-      <c r="AE18" s="174"/>
-      <c r="AF18" s="174"/>
-      <c r="AG18" s="174"/>
-      <c r="AH18" s="174"/>
-      <c r="AI18" s="174"/>
-      <c r="AJ18" s="174"/>
-      <c r="AK18" s="174"/>
-      <c r="AL18" s="174"/>
-      <c r="AM18" s="174"/>
-      <c r="AN18" s="174"/>
-      <c r="AO18" s="174"/>
-      <c r="AP18" s="174"/>
-      <c r="AQ18" s="174"/>
-      <c r="AR18" s="174"/>
-      <c r="AS18" s="174"/>
-      <c r="AT18" s="174"/>
-      <c r="AU18" s="174"/>
-      <c r="AV18" s="174"/>
-      <c r="AW18" s="174"/>
-      <c r="AX18" s="174"/>
-      <c r="AY18" s="174"/>
-      <c r="AZ18" s="174"/>
-      <c r="BA18" s="174"/>
-      <c r="BB18" s="167"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="165"/>
+      <c r="Q18" s="165"/>
+      <c r="R18" s="165"/>
+      <c r="S18" s="165"/>
+      <c r="T18" s="165"/>
+      <c r="U18" s="165"/>
+      <c r="V18" s="165"/>
+      <c r="W18" s="165"/>
+      <c r="X18" s="165"/>
+      <c r="Y18" s="165"/>
+      <c r="Z18" s="158"/>
+      <c r="AA18" s="157"/>
+      <c r="AB18" s="165"/>
+      <c r="AC18" s="165"/>
+      <c r="AD18" s="165"/>
+      <c r="AE18" s="165"/>
+      <c r="AF18" s="165"/>
+      <c r="AG18" s="165"/>
+      <c r="AH18" s="165"/>
+      <c r="AI18" s="165"/>
+      <c r="AJ18" s="165"/>
+      <c r="AK18" s="165"/>
+      <c r="AL18" s="165"/>
+      <c r="AM18" s="165"/>
+      <c r="AN18" s="165"/>
+      <c r="AO18" s="165"/>
+      <c r="AP18" s="165"/>
+      <c r="AQ18" s="165"/>
+      <c r="AR18" s="165"/>
+      <c r="AS18" s="165"/>
+      <c r="AT18" s="165"/>
+      <c r="AU18" s="165"/>
+      <c r="AV18" s="165"/>
+      <c r="AW18" s="165"/>
+      <c r="AX18" s="165"/>
+      <c r="AY18" s="165"/>
+      <c r="AZ18" s="165"/>
+      <c r="BA18" s="165"/>
+      <c r="BB18" s="158"/>
     </row>
     <row r="19" spans="1:54">
-      <c r="A19" s="166">
+      <c r="A19" s="157">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="172"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="174"/>
-      <c r="P19" s="174"/>
-      <c r="Q19" s="174"/>
-      <c r="R19" s="174"/>
-      <c r="S19" s="174"/>
-      <c r="T19" s="174"/>
-      <c r="U19" s="174"/>
-      <c r="V19" s="174"/>
-      <c r="W19" s="174"/>
-      <c r="X19" s="174"/>
-      <c r="Y19" s="174"/>
-      <c r="Z19" s="167"/>
-      <c r="AA19" s="166"/>
-      <c r="AB19" s="174"/>
-      <c r="AC19" s="174"/>
-      <c r="AD19" s="174"/>
-      <c r="AE19" s="174"/>
-      <c r="AF19" s="174"/>
-      <c r="AG19" s="174"/>
-      <c r="AH19" s="174"/>
-      <c r="AI19" s="174"/>
-      <c r="AJ19" s="174"/>
-      <c r="AK19" s="174"/>
-      <c r="AL19" s="174"/>
-      <c r="AM19" s="174"/>
-      <c r="AN19" s="174"/>
-      <c r="AO19" s="174"/>
-      <c r="AP19" s="174"/>
-      <c r="AQ19" s="174"/>
-      <c r="AR19" s="174"/>
-      <c r="AS19" s="174"/>
-      <c r="AT19" s="174"/>
-      <c r="AU19" s="174"/>
-      <c r="AV19" s="174"/>
-      <c r="AW19" s="174"/>
-      <c r="AX19" s="174"/>
-      <c r="AY19" s="174"/>
-      <c r="AZ19" s="174"/>
-      <c r="BA19" s="174"/>
-      <c r="BB19" s="167"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="165"/>
+      <c r="Q19" s="165"/>
+      <c r="R19" s="165"/>
+      <c r="S19" s="165"/>
+      <c r="T19" s="165"/>
+      <c r="U19" s="165"/>
+      <c r="V19" s="165"/>
+      <c r="W19" s="165"/>
+      <c r="X19" s="165"/>
+      <c r="Y19" s="165"/>
+      <c r="Z19" s="158"/>
+      <c r="AA19" s="157"/>
+      <c r="AB19" s="165"/>
+      <c r="AC19" s="165"/>
+      <c r="AD19" s="165"/>
+      <c r="AE19" s="165"/>
+      <c r="AF19" s="165"/>
+      <c r="AG19" s="165"/>
+      <c r="AH19" s="165"/>
+      <c r="AI19" s="165"/>
+      <c r="AJ19" s="165"/>
+      <c r="AK19" s="165"/>
+      <c r="AL19" s="165"/>
+      <c r="AM19" s="165"/>
+      <c r="AN19" s="165"/>
+      <c r="AO19" s="165"/>
+      <c r="AP19" s="165"/>
+      <c r="AQ19" s="165"/>
+      <c r="AR19" s="165"/>
+      <c r="AS19" s="165"/>
+      <c r="AT19" s="165"/>
+      <c r="AU19" s="165"/>
+      <c r="AV19" s="165"/>
+      <c r="AW19" s="165"/>
+      <c r="AX19" s="165"/>
+      <c r="AY19" s="165"/>
+      <c r="AZ19" s="165"/>
+      <c r="BA19" s="165"/>
+      <c r="BB19" s="158"/>
     </row>
     <row r="20" spans="1:54">
-      <c r="A20" s="166">
+      <c r="A20" s="157">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="173"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="174"/>
-      <c r="P20" s="174"/>
-      <c r="Q20" s="174"/>
-      <c r="R20" s="174"/>
-      <c r="S20" s="174"/>
-      <c r="T20" s="174"/>
-      <c r="U20" s="174"/>
-      <c r="V20" s="174"/>
-      <c r="W20" s="174"/>
-      <c r="X20" s="174"/>
-      <c r="Y20" s="174"/>
-      <c r="Z20" s="167"/>
-      <c r="AA20" s="166"/>
-      <c r="AB20" s="174"/>
-      <c r="AC20" s="174"/>
-      <c r="AD20" s="174"/>
-      <c r="AE20" s="174"/>
-      <c r="AF20" s="174"/>
-      <c r="AG20" s="174"/>
-      <c r="AH20" s="174"/>
-      <c r="AI20" s="174"/>
-      <c r="AJ20" s="174"/>
-      <c r="AK20" s="174"/>
-      <c r="AL20" s="174"/>
-      <c r="AM20" s="174"/>
-      <c r="AN20" s="174"/>
-      <c r="AO20" s="174"/>
-      <c r="AP20" s="174"/>
-      <c r="AQ20" s="174"/>
-      <c r="AR20" s="174"/>
-      <c r="AS20" s="174"/>
-      <c r="AT20" s="174"/>
-      <c r="AU20" s="174"/>
-      <c r="AV20" s="174"/>
-      <c r="AW20" s="174"/>
-      <c r="AX20" s="174"/>
-      <c r="AY20" s="174"/>
-      <c r="AZ20" s="174"/>
-      <c r="BA20" s="174"/>
-      <c r="BB20" s="167"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="165"/>
+      <c r="R20" s="165"/>
+      <c r="S20" s="165"/>
+      <c r="T20" s="165"/>
+      <c r="U20" s="165"/>
+      <c r="V20" s="165"/>
+      <c r="W20" s="165"/>
+      <c r="X20" s="165"/>
+      <c r="Y20" s="165"/>
+      <c r="Z20" s="158"/>
+      <c r="AA20" s="157"/>
+      <c r="AB20" s="165"/>
+      <c r="AC20" s="165"/>
+      <c r="AD20" s="165"/>
+      <c r="AE20" s="165"/>
+      <c r="AF20" s="165"/>
+      <c r="AG20" s="165"/>
+      <c r="AH20" s="165"/>
+      <c r="AI20" s="165"/>
+      <c r="AJ20" s="165"/>
+      <c r="AK20" s="165"/>
+      <c r="AL20" s="165"/>
+      <c r="AM20" s="165"/>
+      <c r="AN20" s="165"/>
+      <c r="AO20" s="165"/>
+      <c r="AP20" s="165"/>
+      <c r="AQ20" s="165"/>
+      <c r="AR20" s="165"/>
+      <c r="AS20" s="165"/>
+      <c r="AT20" s="165"/>
+      <c r="AU20" s="165"/>
+      <c r="AV20" s="165"/>
+      <c r="AW20" s="165"/>
+      <c r="AX20" s="165"/>
+      <c r="AY20" s="165"/>
+      <c r="AZ20" s="165"/>
+      <c r="BA20" s="165"/>
+      <c r="BB20" s="158"/>
     </row>
     <row r="21" spans="1:54">
-      <c r="A21" s="166">
+      <c r="A21" s="157">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="167"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="172"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="174"/>
-      <c r="P21" s="174"/>
-      <c r="Q21" s="174"/>
-      <c r="R21" s="174"/>
-      <c r="S21" s="174"/>
-      <c r="T21" s="174"/>
-      <c r="U21" s="174"/>
-      <c r="V21" s="174"/>
-      <c r="W21" s="174"/>
-      <c r="X21" s="174"/>
-      <c r="Y21" s="174"/>
-      <c r="Z21" s="167"/>
-      <c r="AA21" s="166"/>
-      <c r="AB21" s="174"/>
-      <c r="AC21" s="174"/>
-      <c r="AD21" s="174"/>
-      <c r="AE21" s="174"/>
-      <c r="AF21" s="174"/>
-      <c r="AG21" s="174"/>
-      <c r="AH21" s="174"/>
-      <c r="AI21" s="174"/>
-      <c r="AJ21" s="174"/>
-      <c r="AK21" s="174"/>
-      <c r="AL21" s="174"/>
-      <c r="AM21" s="174"/>
-      <c r="AN21" s="174"/>
-      <c r="AO21" s="174"/>
-      <c r="AP21" s="174"/>
-      <c r="AQ21" s="174"/>
-      <c r="AR21" s="174"/>
-      <c r="AS21" s="174"/>
-      <c r="AT21" s="174"/>
-      <c r="AU21" s="174"/>
-      <c r="AV21" s="174"/>
-      <c r="AW21" s="174"/>
-      <c r="AX21" s="174"/>
-      <c r="AY21" s="174"/>
-      <c r="AZ21" s="174"/>
-      <c r="BA21" s="174"/>
-      <c r="BB21" s="167"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="165"/>
+      <c r="Q21" s="165"/>
+      <c r="R21" s="165"/>
+      <c r="S21" s="165"/>
+      <c r="T21" s="165"/>
+      <c r="U21" s="165"/>
+      <c r="V21" s="165"/>
+      <c r="W21" s="165"/>
+      <c r="X21" s="165"/>
+      <c r="Y21" s="165"/>
+      <c r="Z21" s="158"/>
+      <c r="AA21" s="157"/>
+      <c r="AB21" s="165"/>
+      <c r="AC21" s="165"/>
+      <c r="AD21" s="165"/>
+      <c r="AE21" s="165"/>
+      <c r="AF21" s="165"/>
+      <c r="AG21" s="165"/>
+      <c r="AH21" s="165"/>
+      <c r="AI21" s="165"/>
+      <c r="AJ21" s="165"/>
+      <c r="AK21" s="165"/>
+      <c r="AL21" s="165"/>
+      <c r="AM21" s="165"/>
+      <c r="AN21" s="165"/>
+      <c r="AO21" s="165"/>
+      <c r="AP21" s="165"/>
+      <c r="AQ21" s="165"/>
+      <c r="AR21" s="165"/>
+      <c r="AS21" s="165"/>
+      <c r="AT21" s="165"/>
+      <c r="AU21" s="165"/>
+      <c r="AV21" s="165"/>
+      <c r="AW21" s="165"/>
+      <c r="AX21" s="165"/>
+      <c r="AY21" s="165"/>
+      <c r="AZ21" s="165"/>
+      <c r="BA21" s="165"/>
+      <c r="BB21" s="158"/>
     </row>
     <row r="22" spans="1:54">
-      <c r="A22" s="166">
+      <c r="A22" s="157">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="167"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="172"/>
-      <c r="L22" s="172"/>
-      <c r="M22" s="173"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="174"/>
-      <c r="P22" s="174"/>
-      <c r="Q22" s="174"/>
-      <c r="R22" s="174"/>
-      <c r="S22" s="174"/>
-      <c r="T22" s="174"/>
-      <c r="U22" s="174"/>
-      <c r="V22" s="174"/>
-      <c r="W22" s="174"/>
-      <c r="X22" s="174"/>
-      <c r="Y22" s="174"/>
-      <c r="Z22" s="167"/>
-      <c r="AA22" s="166"/>
-      <c r="AB22" s="174"/>
-      <c r="AC22" s="174"/>
-      <c r="AD22" s="174"/>
-      <c r="AE22" s="174"/>
-      <c r="AF22" s="174"/>
-      <c r="AG22" s="174"/>
-      <c r="AH22" s="174"/>
-      <c r="AI22" s="174"/>
-      <c r="AJ22" s="174"/>
-      <c r="AK22" s="174"/>
-      <c r="AL22" s="174"/>
-      <c r="AM22" s="174"/>
-      <c r="AN22" s="174"/>
-      <c r="AO22" s="174"/>
-      <c r="AP22" s="174"/>
-      <c r="AQ22" s="174"/>
-      <c r="AR22" s="174"/>
-      <c r="AS22" s="174"/>
-      <c r="AT22" s="174"/>
-      <c r="AU22" s="174"/>
-      <c r="AV22" s="174"/>
-      <c r="AW22" s="174"/>
-      <c r="AX22" s="174"/>
-      <c r="AY22" s="174"/>
-      <c r="AZ22" s="174"/>
-      <c r="BA22" s="174"/>
-      <c r="BB22" s="167"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="165"/>
+      <c r="Q22" s="165"/>
+      <c r="R22" s="165"/>
+      <c r="S22" s="165"/>
+      <c r="T22" s="165"/>
+      <c r="U22" s="165"/>
+      <c r="V22" s="165"/>
+      <c r="W22" s="165"/>
+      <c r="X22" s="165"/>
+      <c r="Y22" s="165"/>
+      <c r="Z22" s="158"/>
+      <c r="AA22" s="157"/>
+      <c r="AB22" s="165"/>
+      <c r="AC22" s="165"/>
+      <c r="AD22" s="165"/>
+      <c r="AE22" s="165"/>
+      <c r="AF22" s="165"/>
+      <c r="AG22" s="165"/>
+      <c r="AH22" s="165"/>
+      <c r="AI22" s="165"/>
+      <c r="AJ22" s="165"/>
+      <c r="AK22" s="165"/>
+      <c r="AL22" s="165"/>
+      <c r="AM22" s="165"/>
+      <c r="AN22" s="165"/>
+      <c r="AO22" s="165"/>
+      <c r="AP22" s="165"/>
+      <c r="AQ22" s="165"/>
+      <c r="AR22" s="165"/>
+      <c r="AS22" s="165"/>
+      <c r="AT22" s="165"/>
+      <c r="AU22" s="165"/>
+      <c r="AV22" s="165"/>
+      <c r="AW22" s="165"/>
+      <c r="AX22" s="165"/>
+      <c r="AY22" s="165"/>
+      <c r="AZ22" s="165"/>
+      <c r="BA22" s="165"/>
+      <c r="BB22" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -8361,96 +8156,6 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8459,26 +8164,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -8673,10 +8358,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10038E6-5231-406B-8CB5-8AF486817164}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B3B1BEA-EADF-41B4-975B-02A29918B2DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8693,20 +8409,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B3B1BEA-EADF-41B4-975B-02A29918B2DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10038E6-5231-406B-8CB5-8AF486817164}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
-    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（S200）社員画面.xlsx
+++ b/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（S200）社員画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_suzuki\Desktop\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDF4C92-ECEA-4F9A-8341-43408AE5C6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172952A3-C8C4-4AAA-A72C-6715A5198D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{FFFAB72E-45D2-41BB-8725-BDB5F683A970}"/>
+    <workbookView xWindow="-28920" yWindow="-4695" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FFFAB72E-45D2-41BB-8725-BDB5F683A970}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -509,9 +509,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[打刻]を更新する</t>
-  </si>
-  <si>
     <t>DB処理 No.2</t>
   </si>
   <si>
@@ -709,6 +706,49 @@
     <t xml:space="preserve">No2.UPDATE[退勤] 　&lt;条件&gt; [打刻.利用者ID] = セッションの利用者ID   AND   [打刻.日付] = 現在の日付 </t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>[打刻]を更新する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ：「出勤時刻は登録済みです」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「出勤」ボタン押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ：「出勤時刻を登録しました」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ：「退勤時刻を登録しました」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ：「退勤時刻は登録済みです」</t>
+    <rPh sb="10" eb="12">
+      <t>タイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ：「出勤時刻が登録されていません」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;条件&gt; [打刻,出勤打刻時刻] != null       </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;条件&gt; [打刻.利用者ID] = セッションの利用者ID   AND   [打刻.日付] = 現在の日付   AND  [打刻.出勤打刻時刻] == null　 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;条件&gt;  [打刻.利用者ID] = セッションの利用者ID   AND   [打刻.日付] = 現在の日付  AND  [打刻,退勤打刻時刻] != null    </t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -717,7 +757,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,6 +886,22 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1097,7 +1153,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1419,18 +1475,36 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1440,9 +1514,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1452,20 +1523,53 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1473,53 +1577,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1551,23 +1625,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1590,14 +1655,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3822,94 +3911,94 @@
       <c r="BY1" s="1"/>
     </row>
     <row r="2" spans="1:77" s="3" customFormat="1">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="115" t="s">
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="115" t="s">
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="116"/>
-      <c r="W2" s="115" t="s">
+      <c r="V2" s="121"/>
+      <c r="W2" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="115" t="s">
+      <c r="X2" s="121"/>
+      <c r="Y2" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="115" t="s">
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="117" t="s">
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="117"/>
-      <c r="AJ2" s="117"/>
-      <c r="AK2" s="117"/>
-      <c r="AL2" s="117"/>
-      <c r="AM2" s="117"/>
-      <c r="AN2" s="117"/>
-      <c r="AO2" s="117"/>
-      <c r="AP2" s="117"/>
-      <c r="AQ2" s="117"/>
-      <c r="AR2" s="117"/>
-      <c r="AS2" s="117"/>
-      <c r="AT2" s="117"/>
-      <c r="AU2" s="117"/>
-      <c r="AV2" s="117"/>
-      <c r="AW2" s="117"/>
-      <c r="AX2" s="117"/>
-      <c r="AY2" s="117"/>
-      <c r="AZ2" s="117"/>
-      <c r="BA2" s="117"/>
-      <c r="BB2" s="116"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
+      <c r="AR2" s="122"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="122"/>
+      <c r="AU2" s="122"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="122"/>
+      <c r="AY2" s="122"/>
+      <c r="AZ2" s="122"/>
+      <c r="BA2" s="122"/>
+      <c r="BB2" s="121"/>
     </row>
     <row r="3" spans="1:77" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="118">
+      <c r="A3" s="109">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="122"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="113"/>
       <c r="M3" s="69"/>
       <c r="N3" s="69"/>
       <c r="O3" s="69"/>
@@ -3954,52 +4043,52 @@
       <c r="BB3" s="68"/>
     </row>
     <row r="4" spans="1:77">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="111" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="112" t="s">
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="107" t="s">
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="108"/>
-      <c r="W4" s="107" t="s">
+      <c r="V4" s="116"/>
+      <c r="W4" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="107" t="s">
+      <c r="X4" s="116"/>
+      <c r="Y4" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="107">
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="115"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="114">
         <v>10</v>
       </c>
-      <c r="AF4" s="108"/>
+      <c r="AF4" s="116"/>
       <c r="AG4" s="4" t="s">
         <v>35</v>
       </c>
@@ -4026,52 +4115,52 @@
       <c r="BB4" s="6"/>
     </row>
     <row r="5" spans="1:77">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="112" t="s">
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="107" t="s">
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="108"/>
-      <c r="W5" s="107" t="s">
+      <c r="V5" s="116"/>
+      <c r="W5" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="107" t="s">
+      <c r="X5" s="116"/>
+      <c r="Y5" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="107">
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="114">
         <v>10</v>
       </c>
-      <c r="AF5" s="108"/>
+      <c r="AF5" s="116"/>
       <c r="AG5" s="4" t="s">
         <v>40</v>
       </c>
@@ -4098,22 +4187,22 @@
       <c r="BB5" s="6"/>
     </row>
     <row r="6" spans="1:77" ht="12.75" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="120" t="s">
+      <c r="B6" s="108"/>
+      <c r="C6" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="113"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -4158,52 +4247,52 @@
       <c r="BB6" s="6"/>
     </row>
     <row r="7" spans="1:77">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="111" t="s">
+      <c r="B7" s="108"/>
+      <c r="C7" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="111" t="s">
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="107" t="s">
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="108"/>
-      <c r="W7" s="107" t="s">
+      <c r="V7" s="116"/>
+      <c r="W7" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="107" t="s">
+      <c r="X7" s="116"/>
+      <c r="Y7" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="114"/>
-      <c r="AB7" s="114"/>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="108"/>
-      <c r="AE7" s="107" t="s">
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="AF7" s="108"/>
+      <c r="AF7" s="116"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
@@ -4228,52 +4317,52 @@
       <c r="BB7" s="6"/>
     </row>
     <row r="8" spans="1:77">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="111" t="s">
+      <c r="B8" s="108"/>
+      <c r="C8" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="111" t="s">
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="107" t="s">
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="108"/>
-      <c r="W8" s="107" t="s">
+      <c r="V8" s="116"/>
+      <c r="W8" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="107" t="s">
+      <c r="X8" s="116"/>
+      <c r="Y8" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="Z8" s="114"/>
-      <c r="AA8" s="114"/>
-      <c r="AB8" s="114"/>
-      <c r="AC8" s="114"/>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="107" t="s">
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="AF8" s="108"/>
+      <c r="AF8" s="116"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
@@ -4298,22 +4387,22 @@
       <c r="BB8" s="6"/>
     </row>
     <row r="9" spans="1:77" ht="12.75" customHeight="1">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="120" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="122"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="113"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -4358,52 +4447,52 @@
       <c r="BB9" s="6"/>
     </row>
     <row r="10" spans="1:77">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="111" t="s">
+      <c r="B10" s="108"/>
+      <c r="C10" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="111" t="s">
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="107" t="s">
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="108"/>
-      <c r="W10" s="107" t="s">
+      <c r="V10" s="116"/>
+      <c r="W10" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="107" t="s">
+      <c r="X10" s="116"/>
+      <c r="Y10" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="114"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="108"/>
-      <c r="AE10" s="107" t="s">
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="AF10" s="108"/>
+      <c r="AF10" s="116"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
@@ -4428,52 +4517,52 @@
       <c r="BB10" s="6"/>
     </row>
     <row r="11" spans="1:77">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111" t="s">
+      <c r="B11" s="108"/>
+      <c r="C11" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="111" t="s">
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="107" t="s">
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="108"/>
-      <c r="W11" s="107" t="s">
+      <c r="V11" s="116"/>
+      <c r="W11" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="107" t="s">
+      <c r="X11" s="116"/>
+      <c r="Y11" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="114"/>
-      <c r="AD11" s="108"/>
-      <c r="AE11" s="107" t="s">
+      <c r="Z11" s="115"/>
+      <c r="AA11" s="115"/>
+      <c r="AB11" s="115"/>
+      <c r="AC11" s="115"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="AF11" s="108"/>
+      <c r="AF11" s="116"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
@@ -4498,38 +4587,38 @@
       <c r="BB11" s="6"/>
     </row>
     <row r="12" spans="1:77">
-      <c r="A12" s="109"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="114"/>
-      <c r="AA12" s="114"/>
-      <c r="AB12" s="114"/>
-      <c r="AC12" s="114"/>
-      <c r="AD12" s="108"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="108"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="115"/>
+      <c r="AA12" s="115"/>
+      <c r="AB12" s="115"/>
+      <c r="AC12" s="115"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="114"/>
+      <c r="AF12" s="116"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
@@ -4555,47 +4644,13 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="Y12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AD5"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:BB2"/>
     <mergeCell ref="A4:B4"/>
@@ -4611,13 +4666,47 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C9:L9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AI2:AI3">
@@ -4630,22 +4719,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866C40FC-8D04-46C4-8E1C-8FF9B98D5FE5}">
-  <dimension ref="A1:CK15"/>
+  <dimension ref="A1:CA20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15:AR15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="19" width="2.75" style="3"/>
-    <col min="20" max="20" width="2.75" style="3" customWidth="1"/>
-    <col min="21" max="53" width="2.75" style="3"/>
-    <col min="54" max="54" width="5.5" style="3" customWidth="1"/>
-    <col min="55" max="16384" width="2.75" style="3"/>
+    <col min="1" max="43" width="3.375" style="3"/>
+    <col min="44" max="44" width="49.75" style="3" customWidth="1"/>
+    <col min="45" max="16384" width="3.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="9" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:79" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -4727,162 +4814,142 @@
       <c r="BY1" s="8"/>
       <c r="BZ1" s="8"/>
       <c r="CA1" s="8"/>
-      <c r="CB1" s="8"/>
-      <c r="CC1" s="8"/>
-      <c r="CD1" s="8"/>
-      <c r="CE1" s="8"/>
-      <c r="CF1" s="8"/>
-      <c r="CG1" s="8"/>
-      <c r="CH1" s="8"/>
-      <c r="CI1" s="8"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="8"/>
-    </row>
-    <row r="2" spans="1:89">
-      <c r="A2" s="115" t="s">
+    </row>
+    <row r="2" spans="1:79">
+      <c r="A2" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115" t="s">
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115" t="s">
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="115"/>
-      <c r="AJ2" s="115"/>
-      <c r="AK2" s="115"/>
-      <c r="AL2" s="115"/>
-      <c r="AM2" s="115"/>
-      <c r="AN2" s="115"/>
-      <c r="AO2" s="115"/>
-      <c r="AP2" s="115"/>
-      <c r="AQ2" s="115"/>
-      <c r="AR2" s="115" t="s">
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="AS2" s="117"/>
-      <c r="AT2" s="117"/>
-      <c r="AU2" s="117"/>
-      <c r="AV2" s="117"/>
-      <c r="AW2" s="117"/>
-      <c r="AX2" s="117"/>
-      <c r="AY2" s="117"/>
-      <c r="AZ2" s="117"/>
-      <c r="BA2" s="117"/>
-      <c r="BB2" s="116"/>
-    </row>
-    <row r="3" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
+      <c r="AR2" s="121"/>
+    </row>
+    <row r="3" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A3" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="107" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
       <c r="T3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="11"/>
-    </row>
-    <row r="4" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="127"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="11"/>
+    </row>
+    <row r="4" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A4" s="138"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="132"/>
       <c r="T4" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="6"/>
-    </row>
-    <row r="5" spans="1:89" ht="15.75" customHeight="1">
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="6"/>
+    </row>
+    <row r="5" spans="1:79" ht="15.75" customHeight="1">
       <c r="A5" s="53"/>
       <c r="B5" s="53"/>
       <c r="C5" s="55"/>
@@ -4891,20 +4958,20 @@
       <c r="T5" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="14"/>
-    </row>
-    <row r="6" spans="1:89" ht="15.75" customHeight="1">
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="14"/>
+    </row>
+    <row r="6" spans="1:79" ht="15.75" customHeight="1">
       <c r="A6" s="53"/>
       <c r="B6" s="53"/>
       <c r="C6" s="55"/>
@@ -4913,45 +4980,45 @@
       <c r="T6" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="AQ6" s="54"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="13"/>
-      <c r="BB6" s="14"/>
-    </row>
-    <row r="7" spans="1:89" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="131" t="s">
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="14"/>
+    </row>
+    <row r="7" spans="1:79" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="130" t="s">
+      <c r="B7" s="136"/>
+      <c r="C7" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130" t="s">
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="132"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="137"/>
       <c r="T7" s="56" t="s">
         <v>63</v>
       </c>
@@ -4967,504 +5034,730 @@
       <c r="AD7" s="65"/>
       <c r="AE7" s="65"/>
       <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="65"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="65"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="58"/>
-      <c r="AT7" s="58"/>
-      <c r="AU7" s="58"/>
-      <c r="AV7" s="58"/>
-      <c r="AW7" s="58"/>
-      <c r="AX7" s="58"/>
-      <c r="AY7" s="58"/>
-      <c r="AZ7" s="58"/>
-      <c r="BA7" s="58"/>
-      <c r="BB7" s="59"/>
-    </row>
-    <row r="8" spans="1:89" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="128" t="s">
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="58"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="58"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="58"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="58"/>
+      <c r="AQ7" s="58"/>
+      <c r="AR7" s="59"/>
+    </row>
+    <row r="8" spans="1:79" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129" t="s">
+      <c r="B8" s="133"/>
+      <c r="C8" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="130" t="s">
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
-      <c r="P8" s="130"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="130"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="135"/>
       <c r="T8" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="72"/>
-      <c r="BB8" s="73"/>
-    </row>
-    <row r="9" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A9" s="123" t="s">
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="72"/>
+      <c r="AR8" s="73"/>
+    </row>
+    <row r="9" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A9" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="111" t="s">
+      <c r="B9" s="139"/>
+      <c r="C9" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111" t="s">
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="139" t="s">
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="140"/>
-      <c r="V9" s="140"/>
-      <c r="W9" s="140"/>
-      <c r="X9" s="140"/>
-      <c r="Y9" s="140"/>
-      <c r="Z9" s="140"/>
-      <c r="AA9" s="140"/>
-      <c r="AB9" s="140"/>
-      <c r="AC9" s="140"/>
-      <c r="AD9" s="140"/>
-      <c r="AE9" s="140"/>
-      <c r="AF9" s="140"/>
-      <c r="AG9" s="140"/>
-      <c r="AH9" s="140"/>
-      <c r="AI9" s="140"/>
-      <c r="AJ9" s="140"/>
-      <c r="AK9" s="140"/>
-      <c r="AL9" s="140"/>
-      <c r="AM9" s="140"/>
-      <c r="AN9" s="140"/>
-      <c r="AO9" s="140"/>
-      <c r="AP9" s="140"/>
-      <c r="AQ9" s="140"/>
-      <c r="AR9" s="134" t="s">
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="AS9" s="135"/>
-      <c r="AT9" s="135"/>
-      <c r="AU9" s="135"/>
-      <c r="AV9" s="135"/>
-      <c r="AW9" s="135"/>
-      <c r="AX9" s="135"/>
-      <c r="AY9" s="135"/>
-      <c r="AZ9" s="135"/>
-      <c r="BA9" s="135"/>
-      <c r="BB9" s="136"/>
-    </row>
-    <row r="10" spans="1:89" ht="15.75" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="AI9" s="124"/>
+      <c r="AJ9" s="124"/>
+      <c r="AK9" s="124"/>
+      <c r="AL9" s="124"/>
+      <c r="AM9" s="124"/>
+      <c r="AN9" s="124"/>
+      <c r="AO9" s="124"/>
+      <c r="AP9" s="124"/>
+      <c r="AQ9" s="124"/>
+      <c r="AR9" s="125"/>
+    </row>
+    <row r="10" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A10" s="139" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="139"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="169" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="170" t="s">
+        <v>113</v>
+      </c>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="129"/>
+      <c r="AE10" s="129"/>
+      <c r="AF10" s="129"/>
+      <c r="AG10" s="129"/>
+      <c r="AH10" s="173"/>
+      <c r="AI10" s="174"/>
+      <c r="AJ10" s="174"/>
+      <c r="AK10" s="174"/>
+      <c r="AL10" s="174"/>
+      <c r="AM10" s="174"/>
+      <c r="AN10" s="174"/>
+      <c r="AO10" s="174"/>
+      <c r="AP10" s="174"/>
+      <c r="AQ10" s="174"/>
+      <c r="AR10" s="175"/>
+    </row>
+    <row r="11" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A11" s="139" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="139"/>
+      <c r="C11" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="169" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="171" t="s">
+        <v>111</v>
+      </c>
+      <c r="U11" s="172"/>
+      <c r="V11" s="172"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="172"/>
+      <c r="Y11" s="172"/>
+      <c r="Z11" s="172"/>
+      <c r="AA11" s="172"/>
+      <c r="AB11" s="172"/>
+      <c r="AC11" s="172"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="172"/>
+      <c r="AF11" s="172"/>
+      <c r="AG11" s="172"/>
+      <c r="AH11" s="173" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI11" s="174"/>
+      <c r="AJ11" s="174"/>
+      <c r="AK11" s="174"/>
+      <c r="AL11" s="174"/>
+      <c r="AM11" s="174"/>
+      <c r="AN11" s="174"/>
+      <c r="AO11" s="174"/>
+      <c r="AP11" s="174"/>
+      <c r="AQ11" s="174"/>
+      <c r="AR11" s="175"/>
+    </row>
+    <row r="12" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A12" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="111" t="s">
+      <c r="B12" s="139"/>
+      <c r="C12" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111" t="s">
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="134" t="s">
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="117"/>
+      <c r="T12" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="124"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="124"/>
+      <c r="AE12" s="124"/>
+      <c r="AF12" s="124"/>
+      <c r="AG12" s="125"/>
+      <c r="AH12" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="U10" s="135"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="135"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="135"/>
-      <c r="AE10" s="135"/>
-      <c r="AF10" s="135"/>
-      <c r="AG10" s="135"/>
-      <c r="AH10" s="135"/>
-      <c r="AI10" s="135"/>
-      <c r="AJ10" s="135"/>
-      <c r="AK10" s="135"/>
-      <c r="AL10" s="135"/>
-      <c r="AM10" s="135"/>
-      <c r="AN10" s="135"/>
-      <c r="AO10" s="135"/>
-      <c r="AP10" s="135"/>
-      <c r="AQ10" s="136"/>
-      <c r="AR10" s="137" t="s">
+      <c r="AI12" s="126"/>
+      <c r="AJ12" s="126"/>
+      <c r="AK12" s="126"/>
+      <c r="AL12" s="126"/>
+      <c r="AM12" s="126"/>
+      <c r="AN12" s="126"/>
+      <c r="AO12" s="126"/>
+      <c r="AP12" s="126"/>
+      <c r="AQ12" s="126"/>
+      <c r="AR12" s="127"/>
+    </row>
+    <row r="13" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A13" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="139"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="176" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="169"/>
+      <c r="O13" s="169"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="169"/>
+      <c r="T13" s="173" t="s">
+        <v>114</v>
+      </c>
+      <c r="U13" s="174"/>
+      <c r="V13" s="174"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="174"/>
+      <c r="Z13" s="174"/>
+      <c r="AA13" s="174"/>
+      <c r="AB13" s="174"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="174"/>
+      <c r="AE13" s="174"/>
+      <c r="AF13" s="174"/>
+      <c r="AG13" s="175"/>
+      <c r="AH13" s="177"/>
+      <c r="AI13" s="178"/>
+      <c r="AJ13" s="178"/>
+      <c r="AK13" s="178"/>
+      <c r="AL13" s="178"/>
+      <c r="AM13" s="178"/>
+      <c r="AN13" s="178"/>
+      <c r="AO13" s="178"/>
+      <c r="AP13" s="178"/>
+      <c r="AQ13" s="178"/>
+      <c r="AR13" s="179"/>
+    </row>
+    <row r="14" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A14" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="139"/>
+      <c r="C14" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="176" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="169"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="169"/>
+      <c r="T14" s="173" t="s">
+        <v>116</v>
+      </c>
+      <c r="U14" s="174"/>
+      <c r="V14" s="174"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="174"/>
+      <c r="Z14" s="174"/>
+      <c r="AA14" s="174"/>
+      <c r="AB14" s="174"/>
+      <c r="AC14" s="174"/>
+      <c r="AD14" s="174"/>
+      <c r="AE14" s="174"/>
+      <c r="AF14" s="174"/>
+      <c r="AG14" s="175"/>
+      <c r="AH14" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="126"/>
+      <c r="AL14" s="126"/>
+      <c r="AM14" s="126"/>
+      <c r="AN14" s="126"/>
+      <c r="AO14" s="126"/>
+      <c r="AP14" s="126"/>
+      <c r="AQ14" s="126"/>
+      <c r="AR14" s="127"/>
+    </row>
+    <row r="15" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A15" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="139"/>
+      <c r="C15" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="176" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="169"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="169"/>
+      <c r="Q15" s="169"/>
+      <c r="R15" s="169"/>
+      <c r="S15" s="169"/>
+      <c r="T15" s="173" t="s">
+        <v>115</v>
+      </c>
+      <c r="U15" s="174"/>
+      <c r="V15" s="174"/>
+      <c r="W15" s="174"/>
+      <c r="X15" s="174"/>
+      <c r="Y15" s="174"/>
+      <c r="Z15" s="174"/>
+      <c r="AA15" s="174"/>
+      <c r="AB15" s="174"/>
+      <c r="AC15" s="174"/>
+      <c r="AD15" s="174"/>
+      <c r="AE15" s="174"/>
+      <c r="AF15" s="174"/>
+      <c r="AG15" s="175"/>
+      <c r="AH15" s="126" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI15" s="126"/>
+      <c r="AJ15" s="126"/>
+      <c r="AK15" s="126"/>
+      <c r="AL15" s="126"/>
+      <c r="AM15" s="126"/>
+      <c r="AN15" s="126"/>
+      <c r="AO15" s="126"/>
+      <c r="AP15" s="126"/>
+      <c r="AQ15" s="126"/>
+      <c r="AR15" s="127"/>
+    </row>
+    <row r="16" spans="1:79">
+      <c r="A16" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="139"/>
+      <c r="C16" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="AS10" s="137"/>
-      <c r="AT10" s="137"/>
-      <c r="AU10" s="137"/>
-      <c r="AV10" s="137"/>
-      <c r="AW10" s="137"/>
-      <c r="AX10" s="137"/>
-      <c r="AY10" s="137"/>
-      <c r="AZ10" s="137"/>
-      <c r="BA10" s="137"/>
-      <c r="BB10" s="138"/>
-    </row>
-    <row r="11" spans="1:89">
-      <c r="A11" s="123" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="111" t="s">
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111" t="s">
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="12" t="s">
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="14"/>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" s="139" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="139"/>
+      <c r="C17" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="14"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
-      <c r="AX11" s="13"/>
-      <c r="AY11" s="13"/>
-      <c r="AZ11" s="13"/>
-      <c r="BA11" s="13"/>
-      <c r="BB11" s="14"/>
-    </row>
-    <row r="12" spans="1:89">
-      <c r="A12" s="123" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="111" t="s">
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
-      <c r="AX12" s="13"/>
-      <c r="AY12" s="13"/>
-      <c r="AZ12" s="13"/>
-      <c r="BA12" s="13"/>
-      <c r="BB12" s="14"/>
-    </row>
-    <row r="13" spans="1:89">
-      <c r="A13" s="123"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="14"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="13"/>
-      <c r="AW13" s="13"/>
-      <c r="AX13" s="13"/>
-      <c r="AY13" s="13"/>
-      <c r="AZ13" s="13"/>
-      <c r="BA13" s="13"/>
-      <c r="BB13" s="14"/>
-    </row>
-    <row r="14" spans="1:89">
-      <c r="A14" s="123"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="13"/>
-      <c r="AZ14" s="13"/>
-      <c r="BA14" s="13"/>
-      <c r="BB14" s="14"/>
-    </row>
-    <row r="15" spans="1:89">
-      <c r="A15" s="123"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="13"/>
-      <c r="AZ15" s="13"/>
-      <c r="BA15" s="13"/>
-      <c r="BB15" s="14"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="14"/>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" s="139"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="117"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="14"/>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" s="139"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="14"/>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20" s="139"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="AR9:BB9"/>
-    <mergeCell ref="AR10:BB10"/>
-    <mergeCell ref="T9:AQ9"/>
-    <mergeCell ref="T2:AQ2"/>
-    <mergeCell ref="AR2:BB2"/>
-    <mergeCell ref="T10:AQ10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:S2"/>
+  <mergeCells count="67">
+    <mergeCell ref="AH13:AR13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="T15:AG15"/>
+    <mergeCell ref="AH15:AR15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:AG10"/>
+    <mergeCell ref="AH10:AR10"/>
+    <mergeCell ref="T14:AG14"/>
+    <mergeCell ref="AH14:AR14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:AG11"/>
+    <mergeCell ref="AH11:AR11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="T13:AG13"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="M4:S4"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:L8"/>
@@ -5474,30 +5767,21 @@
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="AH9:AR9"/>
+    <mergeCell ref="AH12:AR12"/>
+    <mergeCell ref="T9:AG9"/>
+    <mergeCell ref="T2:AG2"/>
+    <mergeCell ref="AH2:AR2"/>
+    <mergeCell ref="T12:AG12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="AT1:AT2">
+  <conditionalFormatting sqref="AJ1:AJ2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5509,7 +5793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63029EA3-83F6-4D40-BBC5-9474A2FBF5DA}">
   <dimension ref="A1:CC18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -5520,7 +5804,7 @@
   <sheetData>
     <row r="1" spans="1:81" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5603,108 +5887,108 @@
       <c r="CC1" s="1"/>
     </row>
     <row r="2" spans="1:81" s="3" customFormat="1">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="117" t="s">
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="151" t="s">
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="141" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO2" s="142"/>
+      <c r="AP2" s="142"/>
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="142"/>
+      <c r="AX2" s="142"/>
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="143"/>
+    </row>
+    <row r="3" spans="1:81" s="3" customFormat="1">
+      <c r="A3" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="152"/>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="152"/>
-      <c r="AM2" s="152"/>
-      <c r="AN2" s="151" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO2" s="152"/>
-      <c r="AP2" s="152"/>
-      <c r="AQ2" s="152"/>
-      <c r="AR2" s="152"/>
-      <c r="AS2" s="152"/>
-      <c r="AT2" s="152"/>
-      <c r="AU2" s="152"/>
-      <c r="AV2" s="152"/>
-      <c r="AW2" s="152"/>
-      <c r="AX2" s="152"/>
-      <c r="AY2" s="152"/>
-      <c r="AZ2" s="152"/>
-      <c r="BA2" s="152"/>
-      <c r="BB2" s="153"/>
-    </row>
-    <row r="3" spans="1:81" s="3" customFormat="1">
-      <c r="A3" s="115" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="115" t="s">
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="121"/>
+      <c r="U3" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="117" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="116"/>
-      <c r="U3" s="154" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="156"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="145"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="145"/>
+      <c r="AC3" s="145"/>
+      <c r="AD3" s="146"/>
       <c r="AE3" s="15"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
@@ -5732,7 +6016,7 @@
     </row>
     <row r="4" spans="1:81" s="3" customFormat="1">
       <c r="A4" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -5790,7 +6074,7 @@
     </row>
     <row r="5" spans="1:81" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5801,7 +6085,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
       <c r="J5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -5811,50 +6095,50 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="141" t="s">
+      <c r="S5" s="147" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" s="108"/>
+      <c r="U5" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="T5" s="110"/>
-      <c r="U5" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="V5" s="143"/>
-      <c r="W5" s="143"/>
-      <c r="X5" s="143"/>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="143"/>
-      <c r="AA5" s="143"/>
-      <c r="AB5" s="143"/>
-      <c r="AC5" s="143"/>
-      <c r="AD5" s="144"/>
-      <c r="AE5" s="111"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="111"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="113"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="149"/>
+      <c r="Y5" s="149"/>
+      <c r="Z5" s="149"/>
+      <c r="AA5" s="149"/>
+      <c r="AB5" s="149"/>
+      <c r="AC5" s="149"/>
+      <c r="AD5" s="150"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="118"/>
+      <c r="AG5" s="118"/>
+      <c r="AH5" s="118"/>
+      <c r="AI5" s="118"/>
+      <c r="AJ5" s="118"/>
+      <c r="AK5" s="118"/>
+      <c r="AL5" s="118"/>
+      <c r="AM5" s="119"/>
+      <c r="AN5" s="117"/>
+      <c r="AO5" s="118"/>
+      <c r="AP5" s="118"/>
+      <c r="AQ5" s="118"/>
+      <c r="AR5" s="118"/>
+      <c r="AS5" s="118"/>
+      <c r="AT5" s="118"/>
+      <c r="AU5" s="118"/>
+      <c r="AV5" s="118"/>
+      <c r="AW5" s="118"/>
+      <c r="AX5" s="118"/>
+      <c r="AY5" s="118"/>
+      <c r="AZ5" s="118"/>
+      <c r="BA5" s="118"/>
+      <c r="BB5" s="119"/>
     </row>
     <row r="6" spans="1:81">
       <c r="A6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5865,7 +6149,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
       <c r="J6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -5875,52 +6159,52 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="141" t="s">
-        <v>88</v>
-      </c>
-      <c r="T6" s="110"/>
-      <c r="U6" s="142" t="s">
-        <v>91</v>
-      </c>
-      <c r="V6" s="143"/>
-      <c r="W6" s="143"/>
-      <c r="X6" s="143"/>
-      <c r="Y6" s="143"/>
-      <c r="Z6" s="143"/>
-      <c r="AA6" s="143"/>
-      <c r="AB6" s="143"/>
-      <c r="AC6" s="143"/>
-      <c r="AD6" s="144"/>
-      <c r="AE6" s="111"/>
-      <c r="AF6" s="112"/>
-      <c r="AG6" s="112"/>
-      <c r="AH6" s="112"/>
-      <c r="AI6" s="112"/>
-      <c r="AJ6" s="112"/>
-      <c r="AK6" s="112"/>
-      <c r="AL6" s="112"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO6" s="112"/>
-      <c r="AP6" s="112"/>
-      <c r="AQ6" s="112"/>
-      <c r="AR6" s="112"/>
-      <c r="AS6" s="112"/>
-      <c r="AT6" s="112"/>
-      <c r="AU6" s="112"/>
-      <c r="AV6" s="112"/>
-      <c r="AW6" s="112"/>
-      <c r="AX6" s="112"/>
-      <c r="AY6" s="112"/>
-      <c r="AZ6" s="112"/>
-      <c r="BA6" s="112"/>
-      <c r="BB6" s="113"/>
+      <c r="S6" s="147" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" s="108"/>
+      <c r="U6" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" s="149"/>
+      <c r="W6" s="149"/>
+      <c r="X6" s="149"/>
+      <c r="Y6" s="149"/>
+      <c r="Z6" s="149"/>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="149"/>
+      <c r="AC6" s="149"/>
+      <c r="AD6" s="150"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="118"/>
+      <c r="AG6" s="118"/>
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="118"/>
+      <c r="AJ6" s="118"/>
+      <c r="AK6" s="118"/>
+      <c r="AL6" s="118"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO6" s="118"/>
+      <c r="AP6" s="118"/>
+      <c r="AQ6" s="118"/>
+      <c r="AR6" s="118"/>
+      <c r="AS6" s="118"/>
+      <c r="AT6" s="118"/>
+      <c r="AU6" s="118"/>
+      <c r="AV6" s="118"/>
+      <c r="AW6" s="118"/>
+      <c r="AX6" s="118"/>
+      <c r="AY6" s="118"/>
+      <c r="AZ6" s="118"/>
+      <c r="BA6" s="118"/>
+      <c r="BB6" s="119"/>
     </row>
     <row r="7" spans="1:81" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5931,7 +6215,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
       <c r="J7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -5941,50 +6225,50 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="141" t="s">
-        <v>88</v>
-      </c>
-      <c r="T7" s="110"/>
-      <c r="U7" s="142" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" s="143"/>
-      <c r="W7" s="143"/>
-      <c r="X7" s="143"/>
-      <c r="Y7" s="143"/>
-      <c r="Z7" s="143"/>
-      <c r="AA7" s="143"/>
-      <c r="AB7" s="143"/>
-      <c r="AC7" s="143"/>
-      <c r="AD7" s="144"/>
-      <c r="AE7" s="111"/>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="112"/>
-      <c r="AJ7" s="112"/>
-      <c r="AK7" s="112"/>
-      <c r="AL7" s="112"/>
-      <c r="AM7" s="113"/>
-      <c r="AN7" s="111"/>
-      <c r="AO7" s="112"/>
-      <c r="AP7" s="112"/>
-      <c r="AQ7" s="112"/>
-      <c r="AR7" s="112"/>
-      <c r="AS7" s="112"/>
-      <c r="AT7" s="112"/>
-      <c r="AU7" s="112"/>
-      <c r="AV7" s="112"/>
-      <c r="AW7" s="112"/>
-      <c r="AX7" s="112"/>
-      <c r="AY7" s="112"/>
-      <c r="AZ7" s="112"/>
-      <c r="BA7" s="112"/>
-      <c r="BB7" s="113"/>
+      <c r="S7" s="147" t="s">
+        <v>87</v>
+      </c>
+      <c r="T7" s="108"/>
+      <c r="U7" s="148" t="s">
+        <v>92</v>
+      </c>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="117"/>
+      <c r="AF7" s="118"/>
+      <c r="AG7" s="118"/>
+      <c r="AH7" s="118"/>
+      <c r="AI7" s="118"/>
+      <c r="AJ7" s="118"/>
+      <c r="AK7" s="118"/>
+      <c r="AL7" s="118"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="117"/>
+      <c r="AO7" s="118"/>
+      <c r="AP7" s="118"/>
+      <c r="AQ7" s="118"/>
+      <c r="AR7" s="118"/>
+      <c r="AS7" s="118"/>
+      <c r="AT7" s="118"/>
+      <c r="AU7" s="118"/>
+      <c r="AV7" s="118"/>
+      <c r="AW7" s="118"/>
+      <c r="AX7" s="118"/>
+      <c r="AY7" s="118"/>
+      <c r="AZ7" s="118"/>
+      <c r="BA7" s="118"/>
+      <c r="BB7" s="119"/>
     </row>
     <row r="8" spans="1:81" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5995,7 +6279,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -6005,50 +6289,50 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="141" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" s="110"/>
-      <c r="U8" s="142" t="s">
-        <v>95</v>
-      </c>
-      <c r="V8" s="143"/>
-      <c r="W8" s="143"/>
-      <c r="X8" s="143"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="143"/>
-      <c r="AA8" s="143"/>
-      <c r="AB8" s="143"/>
-      <c r="AC8" s="143"/>
-      <c r="AD8" s="144"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="112"/>
-      <c r="AJ8" s="112"/>
-      <c r="AK8" s="112"/>
-      <c r="AL8" s="112"/>
-      <c r="AM8" s="113"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="112"/>
-      <c r="AP8" s="112"/>
-      <c r="AQ8" s="112"/>
-      <c r="AR8" s="112"/>
-      <c r="AS8" s="112"/>
-      <c r="AT8" s="112"/>
-      <c r="AU8" s="112"/>
-      <c r="AV8" s="112"/>
-      <c r="AW8" s="112"/>
-      <c r="AX8" s="112"/>
-      <c r="AY8" s="112"/>
-      <c r="AZ8" s="112"/>
-      <c r="BA8" s="112"/>
-      <c r="BB8" s="113"/>
+      <c r="S8" s="147" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="108"/>
+      <c r="U8" s="148" t="s">
+        <v>94</v>
+      </c>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="150"/>
+      <c r="AE8" s="117"/>
+      <c r="AF8" s="118"/>
+      <c r="AG8" s="118"/>
+      <c r="AH8" s="118"/>
+      <c r="AI8" s="118"/>
+      <c r="AJ8" s="118"/>
+      <c r="AK8" s="118"/>
+      <c r="AL8" s="118"/>
+      <c r="AM8" s="119"/>
+      <c r="AN8" s="117"/>
+      <c r="AO8" s="118"/>
+      <c r="AP8" s="118"/>
+      <c r="AQ8" s="118"/>
+      <c r="AR8" s="118"/>
+      <c r="AS8" s="118"/>
+      <c r="AT8" s="118"/>
+      <c r="AU8" s="118"/>
+      <c r="AV8" s="118"/>
+      <c r="AW8" s="118"/>
+      <c r="AX8" s="118"/>
+      <c r="AY8" s="118"/>
+      <c r="AZ8" s="118"/>
+      <c r="BA8" s="118"/>
+      <c r="BB8" s="119"/>
     </row>
     <row r="9" spans="1:81" ht="15" customHeight="1">
       <c r="A9" s="76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6059,7 +6343,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -6069,52 +6353,52 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" s="146"/>
-      <c r="U9" s="142" t="s">
-        <v>97</v>
-      </c>
-      <c r="V9" s="143"/>
-      <c r="W9" s="143"/>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="143"/>
-      <c r="AD9" s="144"/>
-      <c r="AE9" s="147"/>
-      <c r="AF9" s="112"/>
-      <c r="AG9" s="112"/>
-      <c r="AH9" s="112"/>
-      <c r="AI9" s="112"/>
-      <c r="AJ9" s="112"/>
-      <c r="AK9" s="112"/>
-      <c r="AL9" s="112"/>
-      <c r="AM9" s="113"/>
-      <c r="AN9" s="148" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO9" s="149"/>
-      <c r="AP9" s="149"/>
-      <c r="AQ9" s="149"/>
-      <c r="AR9" s="149"/>
-      <c r="AS9" s="149"/>
-      <c r="AT9" s="149"/>
-      <c r="AU9" s="149"/>
-      <c r="AV9" s="149"/>
-      <c r="AW9" s="149"/>
-      <c r="AX9" s="149"/>
-      <c r="AY9" s="149"/>
-      <c r="AZ9" s="149"/>
-      <c r="BA9" s="149"/>
-      <c r="BB9" s="150"/>
+      <c r="S9" s="151" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="152"/>
+      <c r="U9" s="148" t="s">
+        <v>96</v>
+      </c>
+      <c r="V9" s="149"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="149"/>
+      <c r="Z9" s="149"/>
+      <c r="AA9" s="149"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="149"/>
+      <c r="AD9" s="150"/>
+      <c r="AE9" s="153"/>
+      <c r="AF9" s="118"/>
+      <c r="AG9" s="118"/>
+      <c r="AH9" s="118"/>
+      <c r="AI9" s="118"/>
+      <c r="AJ9" s="118"/>
+      <c r="AK9" s="118"/>
+      <c r="AL9" s="118"/>
+      <c r="AM9" s="119"/>
+      <c r="AN9" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO9" s="155"/>
+      <c r="AP9" s="155"/>
+      <c r="AQ9" s="155"/>
+      <c r="AR9" s="155"/>
+      <c r="AS9" s="155"/>
+      <c r="AT9" s="155"/>
+      <c r="AU9" s="155"/>
+      <c r="AV9" s="155"/>
+      <c r="AW9" s="155"/>
+      <c r="AX9" s="155"/>
+      <c r="AY9" s="155"/>
+      <c r="AZ9" s="155"/>
+      <c r="BA9" s="155"/>
+      <c r="BB9" s="156"/>
     </row>
     <row r="10" spans="1:81">
       <c r="A10" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -6199,7 +6483,7 @@
     </row>
     <row r="11" spans="1:81">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6210,7 +6494,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -6220,50 +6504,50 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="109" t="s">
-        <v>99</v>
-      </c>
-      <c r="T11" s="110"/>
-      <c r="U11" s="142" t="s">
-        <v>95</v>
-      </c>
-      <c r="V11" s="143"/>
-      <c r="W11" s="143"/>
-      <c r="X11" s="143"/>
-      <c r="Y11" s="143"/>
-      <c r="Z11" s="143"/>
-      <c r="AA11" s="143"/>
-      <c r="AB11" s="143"/>
-      <c r="AC11" s="143"/>
-      <c r="AD11" s="144"/>
-      <c r="AE11" s="111"/>
-      <c r="AF11" s="112"/>
-      <c r="AG11" s="112"/>
-      <c r="AH11" s="112"/>
-      <c r="AI11" s="112"/>
-      <c r="AJ11" s="112"/>
-      <c r="AK11" s="112"/>
-      <c r="AL11" s="112"/>
-      <c r="AM11" s="113"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="112"/>
-      <c r="AP11" s="112"/>
-      <c r="AQ11" s="112"/>
-      <c r="AR11" s="112"/>
-      <c r="AS11" s="112"/>
-      <c r="AT11" s="112"/>
-      <c r="AU11" s="112"/>
-      <c r="AV11" s="112"/>
-      <c r="AW11" s="112"/>
-      <c r="AX11" s="112"/>
-      <c r="AY11" s="112"/>
-      <c r="AZ11" s="112"/>
-      <c r="BA11" s="112"/>
-      <c r="BB11" s="113"/>
+      <c r="S11" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" s="108"/>
+      <c r="U11" s="148" t="s">
+        <v>94</v>
+      </c>
+      <c r="V11" s="149"/>
+      <c r="W11" s="149"/>
+      <c r="X11" s="149"/>
+      <c r="Y11" s="149"/>
+      <c r="Z11" s="149"/>
+      <c r="AA11" s="149"/>
+      <c r="AB11" s="149"/>
+      <c r="AC11" s="149"/>
+      <c r="AD11" s="150"/>
+      <c r="AE11" s="117"/>
+      <c r="AF11" s="118"/>
+      <c r="AG11" s="118"/>
+      <c r="AH11" s="118"/>
+      <c r="AI11" s="118"/>
+      <c r="AJ11" s="118"/>
+      <c r="AK11" s="118"/>
+      <c r="AL11" s="118"/>
+      <c r="AM11" s="119"/>
+      <c r="AN11" s="117"/>
+      <c r="AO11" s="118"/>
+      <c r="AP11" s="118"/>
+      <c r="AQ11" s="118"/>
+      <c r="AR11" s="118"/>
+      <c r="AS11" s="118"/>
+      <c r="AT11" s="118"/>
+      <c r="AU11" s="118"/>
+      <c r="AV11" s="118"/>
+      <c r="AW11" s="118"/>
+      <c r="AX11" s="118"/>
+      <c r="AY11" s="118"/>
+      <c r="AZ11" s="118"/>
+      <c r="BA11" s="118"/>
+      <c r="BB11" s="119"/>
     </row>
     <row r="12" spans="1:81">
       <c r="A12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6274,7 +6558,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -6284,48 +6568,48 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="109" t="s">
-        <v>99</v>
-      </c>
-      <c r="T12" s="110"/>
-      <c r="U12" s="142" t="s">
-        <v>97</v>
-      </c>
-      <c r="V12" s="143"/>
-      <c r="W12" s="143"/>
-      <c r="X12" s="143"/>
-      <c r="Y12" s="143"/>
-      <c r="Z12" s="143"/>
-      <c r="AA12" s="143"/>
-      <c r="AB12" s="143"/>
-      <c r="AC12" s="143"/>
-      <c r="AD12" s="144"/>
-      <c r="AE12" s="111"/>
-      <c r="AF12" s="112"/>
-      <c r="AG12" s="112"/>
-      <c r="AH12" s="112"/>
-      <c r="AI12" s="112"/>
-      <c r="AJ12" s="112"/>
-      <c r="AK12" s="112"/>
-      <c r="AL12" s="112"/>
-      <c r="AM12" s="113"/>
-      <c r="AN12" s="142" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO12" s="143"/>
-      <c r="AP12" s="143"/>
-      <c r="AQ12" s="143"/>
-      <c r="AR12" s="143"/>
-      <c r="AS12" s="143"/>
-      <c r="AT12" s="143"/>
-      <c r="AU12" s="143"/>
-      <c r="AV12" s="143"/>
-      <c r="AW12" s="143"/>
-      <c r="AX12" s="143"/>
-      <c r="AY12" s="143"/>
-      <c r="AZ12" s="143"/>
-      <c r="BA12" s="143"/>
-      <c r="BB12" s="144"/>
+      <c r="S12" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" s="108"/>
+      <c r="U12" s="148" t="s">
+        <v>96</v>
+      </c>
+      <c r="V12" s="149"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="150"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="118"/>
+      <c r="AG12" s="118"/>
+      <c r="AH12" s="118"/>
+      <c r="AI12" s="118"/>
+      <c r="AJ12" s="118"/>
+      <c r="AK12" s="118"/>
+      <c r="AL12" s="118"/>
+      <c r="AM12" s="119"/>
+      <c r="AN12" s="148" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO12" s="149"/>
+      <c r="AP12" s="149"/>
+      <c r="AQ12" s="149"/>
+      <c r="AR12" s="149"/>
+      <c r="AS12" s="149"/>
+      <c r="AT12" s="149"/>
+      <c r="AU12" s="149"/>
+      <c r="AV12" s="149"/>
+      <c r="AW12" s="149"/>
+      <c r="AX12" s="149"/>
+      <c r="AY12" s="149"/>
+      <c r="AZ12" s="149"/>
+      <c r="BA12" s="149"/>
+      <c r="BB12" s="150"/>
     </row>
     <row r="13" spans="1:81">
       <c r="A13" s="4"/>
@@ -6346,42 +6630,42 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="142"/>
-      <c r="V13" s="143"/>
-      <c r="W13" s="143"/>
-      <c r="X13" s="143"/>
-      <c r="Y13" s="143"/>
-      <c r="Z13" s="143"/>
-      <c r="AA13" s="143"/>
-      <c r="AB13" s="143"/>
-      <c r="AC13" s="143"/>
-      <c r="AD13" s="144"/>
-      <c r="AE13" s="111"/>
-      <c r="AF13" s="112"/>
-      <c r="AG13" s="112"/>
-      <c r="AH13" s="112"/>
-      <c r="AI13" s="112"/>
-      <c r="AJ13" s="112"/>
-      <c r="AK13" s="112"/>
-      <c r="AL13" s="112"/>
-      <c r="AM13" s="113"/>
-      <c r="AN13" s="111"/>
-      <c r="AO13" s="112"/>
-      <c r="AP13" s="112"/>
-      <c r="AQ13" s="112"/>
-      <c r="AR13" s="112"/>
-      <c r="AS13" s="112"/>
-      <c r="AT13" s="112"/>
-      <c r="AU13" s="112"/>
-      <c r="AV13" s="112"/>
-      <c r="AW13" s="112"/>
-      <c r="AX13" s="112"/>
-      <c r="AY13" s="112"/>
-      <c r="AZ13" s="112"/>
-      <c r="BA13" s="112"/>
-      <c r="BB13" s="113"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="148"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="150"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="118"/>
+      <c r="AG13" s="118"/>
+      <c r="AH13" s="118"/>
+      <c r="AI13" s="118"/>
+      <c r="AJ13" s="118"/>
+      <c r="AK13" s="118"/>
+      <c r="AL13" s="118"/>
+      <c r="AM13" s="119"/>
+      <c r="AN13" s="117"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="118"/>
+      <c r="AQ13" s="118"/>
+      <c r="AR13" s="118"/>
+      <c r="AS13" s="118"/>
+      <c r="AT13" s="118"/>
+      <c r="AU13" s="118"/>
+      <c r="AV13" s="118"/>
+      <c r="AW13" s="118"/>
+      <c r="AX13" s="118"/>
+      <c r="AY13" s="118"/>
+      <c r="AZ13" s="118"/>
+      <c r="BA13" s="118"/>
+      <c r="BB13" s="119"/>
     </row>
     <row r="14" spans="1:81">
       <c r="A14" s="4"/>
@@ -6402,42 +6686,42 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="142"/>
-      <c r="V14" s="143"/>
-      <c r="W14" s="143"/>
-      <c r="X14" s="143"/>
-      <c r="Y14" s="143"/>
-      <c r="Z14" s="143"/>
-      <c r="AA14" s="143"/>
-      <c r="AB14" s="143"/>
-      <c r="AC14" s="143"/>
-      <c r="AD14" s="144"/>
-      <c r="AE14" s="111"/>
-      <c r="AF14" s="112"/>
-      <c r="AG14" s="112"/>
-      <c r="AH14" s="112"/>
-      <c r="AI14" s="112"/>
-      <c r="AJ14" s="112"/>
-      <c r="AK14" s="112"/>
-      <c r="AL14" s="112"/>
-      <c r="AM14" s="113"/>
-      <c r="AN14" s="111"/>
-      <c r="AO14" s="112"/>
-      <c r="AP14" s="112"/>
-      <c r="AQ14" s="112"/>
-      <c r="AR14" s="112"/>
-      <c r="AS14" s="112"/>
-      <c r="AT14" s="112"/>
-      <c r="AU14" s="112"/>
-      <c r="AV14" s="112"/>
-      <c r="AW14" s="112"/>
-      <c r="AX14" s="112"/>
-      <c r="AY14" s="112"/>
-      <c r="AZ14" s="112"/>
-      <c r="BA14" s="112"/>
-      <c r="BB14" s="113"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="149"/>
+      <c r="Z14" s="149"/>
+      <c r="AA14" s="149"/>
+      <c r="AB14" s="149"/>
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="150"/>
+      <c r="AE14" s="117"/>
+      <c r="AF14" s="118"/>
+      <c r="AG14" s="118"/>
+      <c r="AH14" s="118"/>
+      <c r="AI14" s="118"/>
+      <c r="AJ14" s="118"/>
+      <c r="AK14" s="118"/>
+      <c r="AL14" s="118"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="117"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="118"/>
+      <c r="AQ14" s="118"/>
+      <c r="AR14" s="118"/>
+      <c r="AS14" s="118"/>
+      <c r="AT14" s="118"/>
+      <c r="AU14" s="118"/>
+      <c r="AV14" s="118"/>
+      <c r="AW14" s="118"/>
+      <c r="AX14" s="118"/>
+      <c r="AY14" s="118"/>
+      <c r="AZ14" s="118"/>
+      <c r="BA14" s="118"/>
+      <c r="BB14" s="119"/>
     </row>
     <row r="15" spans="1:81">
       <c r="A15" s="4"/>
@@ -6458,42 +6742,42 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="141"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="142"/>
-      <c r="V15" s="143"/>
-      <c r="W15" s="143"/>
-      <c r="X15" s="143"/>
-      <c r="Y15" s="143"/>
-      <c r="Z15" s="143"/>
-      <c r="AA15" s="143"/>
-      <c r="AB15" s="143"/>
-      <c r="AC15" s="143"/>
-      <c r="AD15" s="144"/>
-      <c r="AE15" s="111"/>
-      <c r="AF15" s="112"/>
-      <c r="AG15" s="112"/>
-      <c r="AH15" s="112"/>
-      <c r="AI15" s="112"/>
-      <c r="AJ15" s="112"/>
-      <c r="AK15" s="112"/>
-      <c r="AL15" s="112"/>
-      <c r="AM15" s="113"/>
-      <c r="AN15" s="111"/>
-      <c r="AO15" s="112"/>
-      <c r="AP15" s="112"/>
-      <c r="AQ15" s="112"/>
-      <c r="AR15" s="112"/>
-      <c r="AS15" s="112"/>
-      <c r="AT15" s="112"/>
-      <c r="AU15" s="112"/>
-      <c r="AV15" s="112"/>
-      <c r="AW15" s="112"/>
-      <c r="AX15" s="112"/>
-      <c r="AY15" s="112"/>
-      <c r="AZ15" s="112"/>
-      <c r="BA15" s="112"/>
-      <c r="BB15" s="113"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="148"/>
+      <c r="V15" s="149"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="149"/>
+      <c r="Z15" s="149"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="150"/>
+      <c r="AE15" s="117"/>
+      <c r="AF15" s="118"/>
+      <c r="AG15" s="118"/>
+      <c r="AH15" s="118"/>
+      <c r="AI15" s="118"/>
+      <c r="AJ15" s="118"/>
+      <c r="AK15" s="118"/>
+      <c r="AL15" s="118"/>
+      <c r="AM15" s="119"/>
+      <c r="AN15" s="117"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="118"/>
+      <c r="AQ15" s="118"/>
+      <c r="AR15" s="118"/>
+      <c r="AS15" s="118"/>
+      <c r="AT15" s="118"/>
+      <c r="AU15" s="118"/>
+      <c r="AV15" s="118"/>
+      <c r="AW15" s="118"/>
+      <c r="AX15" s="118"/>
+      <c r="AY15" s="118"/>
+      <c r="AZ15" s="118"/>
+      <c r="BA15" s="118"/>
+      <c r="BB15" s="119"/>
     </row>
     <row r="16" spans="1:81">
       <c r="A16" s="4"/>
@@ -6514,42 +6798,42 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="141"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="142"/>
-      <c r="V16" s="143"/>
-      <c r="W16" s="143"/>
-      <c r="X16" s="143"/>
-      <c r="Y16" s="143"/>
-      <c r="Z16" s="143"/>
-      <c r="AA16" s="143"/>
-      <c r="AB16" s="143"/>
-      <c r="AC16" s="143"/>
-      <c r="AD16" s="144"/>
-      <c r="AE16" s="111"/>
-      <c r="AF16" s="112"/>
-      <c r="AG16" s="112"/>
-      <c r="AH16" s="112"/>
-      <c r="AI16" s="112"/>
-      <c r="AJ16" s="112"/>
-      <c r="AK16" s="112"/>
-      <c r="AL16" s="112"/>
-      <c r="AM16" s="113"/>
-      <c r="AN16" s="111"/>
-      <c r="AO16" s="112"/>
-      <c r="AP16" s="112"/>
-      <c r="AQ16" s="112"/>
-      <c r="AR16" s="112"/>
-      <c r="AS16" s="112"/>
-      <c r="AT16" s="112"/>
-      <c r="AU16" s="112"/>
-      <c r="AV16" s="112"/>
-      <c r="AW16" s="112"/>
-      <c r="AX16" s="112"/>
-      <c r="AY16" s="112"/>
-      <c r="AZ16" s="112"/>
-      <c r="BA16" s="112"/>
-      <c r="BB16" s="113"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="149"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="150"/>
+      <c r="AE16" s="117"/>
+      <c r="AF16" s="118"/>
+      <c r="AG16" s="118"/>
+      <c r="AH16" s="118"/>
+      <c r="AI16" s="118"/>
+      <c r="AJ16" s="118"/>
+      <c r="AK16" s="118"/>
+      <c r="AL16" s="118"/>
+      <c r="AM16" s="119"/>
+      <c r="AN16" s="117"/>
+      <c r="AO16" s="118"/>
+      <c r="AP16" s="118"/>
+      <c r="AQ16" s="118"/>
+      <c r="AR16" s="118"/>
+      <c r="AS16" s="118"/>
+      <c r="AT16" s="118"/>
+      <c r="AU16" s="118"/>
+      <c r="AV16" s="118"/>
+      <c r="AW16" s="118"/>
+      <c r="AX16" s="118"/>
+      <c r="AY16" s="118"/>
+      <c r="AZ16" s="118"/>
+      <c r="BA16" s="118"/>
+      <c r="BB16" s="119"/>
     </row>
     <row r="17" spans="1:54">
       <c r="A17" s="4"/>
@@ -6570,42 +6854,42 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="141"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="142"/>
-      <c r="V17" s="143"/>
-      <c r="W17" s="143"/>
-      <c r="X17" s="143"/>
-      <c r="Y17" s="143"/>
-      <c r="Z17" s="143"/>
-      <c r="AA17" s="143"/>
-      <c r="AB17" s="143"/>
-      <c r="AC17" s="143"/>
-      <c r="AD17" s="144"/>
-      <c r="AE17" s="111"/>
-      <c r="AF17" s="112"/>
-      <c r="AG17" s="112"/>
-      <c r="AH17" s="112"/>
-      <c r="AI17" s="112"/>
-      <c r="AJ17" s="112"/>
-      <c r="AK17" s="112"/>
-      <c r="AL17" s="112"/>
-      <c r="AM17" s="113"/>
-      <c r="AN17" s="111"/>
-      <c r="AO17" s="112"/>
-      <c r="AP17" s="112"/>
-      <c r="AQ17" s="112"/>
-      <c r="AR17" s="112"/>
-      <c r="AS17" s="112"/>
-      <c r="AT17" s="112"/>
-      <c r="AU17" s="112"/>
-      <c r="AV17" s="112"/>
-      <c r="AW17" s="112"/>
-      <c r="AX17" s="112"/>
-      <c r="AY17" s="112"/>
-      <c r="AZ17" s="112"/>
-      <c r="BA17" s="112"/>
-      <c r="BB17" s="113"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="148"/>
+      <c r="V17" s="149"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="149"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="150"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="118"/>
+      <c r="AG17" s="118"/>
+      <c r="AH17" s="118"/>
+      <c r="AI17" s="118"/>
+      <c r="AJ17" s="118"/>
+      <c r="AK17" s="118"/>
+      <c r="AL17" s="118"/>
+      <c r="AM17" s="119"/>
+      <c r="AN17" s="117"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="118"/>
+      <c r="AQ17" s="118"/>
+      <c r="AR17" s="118"/>
+      <c r="AS17" s="118"/>
+      <c r="AT17" s="118"/>
+      <c r="AU17" s="118"/>
+      <c r="AV17" s="118"/>
+      <c r="AW17" s="118"/>
+      <c r="AX17" s="118"/>
+      <c r="AY17" s="118"/>
+      <c r="AZ17" s="118"/>
+      <c r="BA17" s="118"/>
+      <c r="BB17" s="119"/>
     </row>
     <row r="18" spans="1:54">
       <c r="A18" s="4"/>
@@ -6626,89 +6910,45 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="141"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="142"/>
-      <c r="V18" s="143"/>
-      <c r="W18" s="143"/>
-      <c r="X18" s="143"/>
-      <c r="Y18" s="143"/>
-      <c r="Z18" s="143"/>
-      <c r="AA18" s="143"/>
-      <c r="AB18" s="143"/>
-      <c r="AC18" s="143"/>
-      <c r="AD18" s="144"/>
-      <c r="AE18" s="111"/>
-      <c r="AF18" s="112"/>
-      <c r="AG18" s="112"/>
-      <c r="AH18" s="112"/>
-      <c r="AI18" s="112"/>
-      <c r="AJ18" s="112"/>
-      <c r="AK18" s="112"/>
-      <c r="AL18" s="112"/>
-      <c r="AM18" s="113"/>
-      <c r="AN18" s="111"/>
-      <c r="AO18" s="112"/>
-      <c r="AP18" s="112"/>
-      <c r="AQ18" s="112"/>
-      <c r="AR18" s="112"/>
-      <c r="AS18" s="112"/>
-      <c r="AT18" s="112"/>
-      <c r="AU18" s="112"/>
-      <c r="AV18" s="112"/>
-      <c r="AW18" s="112"/>
-      <c r="AX18" s="112"/>
-      <c r="AY18" s="112"/>
-      <c r="AZ18" s="112"/>
-      <c r="BA18" s="112"/>
-      <c r="BB18" s="113"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="148"/>
+      <c r="V18" s="149"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="149"/>
+      <c r="Z18" s="149"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="150"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="118"/>
+      <c r="AG18" s="118"/>
+      <c r="AH18" s="118"/>
+      <c r="AI18" s="118"/>
+      <c r="AJ18" s="118"/>
+      <c r="AK18" s="118"/>
+      <c r="AL18" s="118"/>
+      <c r="AM18" s="119"/>
+      <c r="AN18" s="117"/>
+      <c r="AO18" s="118"/>
+      <c r="AP18" s="118"/>
+      <c r="AQ18" s="118"/>
+      <c r="AR18" s="118"/>
+      <c r="AS18" s="118"/>
+      <c r="AT18" s="118"/>
+      <c r="AU18" s="118"/>
+      <c r="AV18" s="118"/>
+      <c r="AW18" s="118"/>
+      <c r="AX18" s="118"/>
+      <c r="AY18" s="118"/>
+      <c r="AZ18" s="118"/>
+      <c r="BA18" s="118"/>
+      <c r="BB18" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="AN2:BB2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:AD5"/>
-    <mergeCell ref="AE5:AM5"/>
-    <mergeCell ref="AN5:BB5"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:AD6"/>
-    <mergeCell ref="AE6:AM6"/>
-    <mergeCell ref="AN6:BB6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="AE7:AM7"/>
-    <mergeCell ref="AN7:BB7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AM8"/>
-    <mergeCell ref="AN8:BB8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AM9"/>
-    <mergeCell ref="AN9:BB9"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AN11:BB11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BB12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="AN13:BB13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BB14"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="U15:AD15"/>
     <mergeCell ref="AE15:AM15"/>
@@ -6725,6 +6965,50 @@
     <mergeCell ref="U17:AD17"/>
     <mergeCell ref="AE17:AM17"/>
     <mergeCell ref="AN17:BB17"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="AN13:BB13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BB14"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AN11:BB11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BB12"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="AN8:BB8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AM9"/>
+    <mergeCell ref="AN9:BB9"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:AD6"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="AN6:BB6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AN7:BB7"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:AD5"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="AN5:BB5"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="AN2:BB2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6747,7 +7031,7 @@
   <sheetData>
     <row r="1" spans="1:54" ht="24">
       <c r="A1" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -6804,1343 +7088,1253 @@
       <c r="BB1" s="31"/>
     </row>
     <row r="2" spans="1:54">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="157" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="158"/>
+      <c r="C2" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="166" t="s">
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="157" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="166" t="s">
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="157" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="166" t="s">
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="166" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="168"/>
-      <c r="AK2" s="168"/>
-      <c r="AL2" s="168"/>
-      <c r="AM2" s="168"/>
-      <c r="AN2" s="168"/>
-      <c r="AO2" s="168"/>
-      <c r="AP2" s="168"/>
-      <c r="AQ2" s="168"/>
-      <c r="AR2" s="168"/>
-      <c r="AS2" s="168"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="168"/>
-      <c r="AV2" s="168"/>
-      <c r="AW2" s="168"/>
-      <c r="AX2" s="168"/>
-      <c r="AY2" s="168"/>
-      <c r="AZ2" s="168"/>
-      <c r="BA2" s="168"/>
-      <c r="BB2" s="167"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="159"/>
+      <c r="AD2" s="159"/>
+      <c r="AE2" s="159"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="159"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="159"/>
+      <c r="AJ2" s="159"/>
+      <c r="AK2" s="159"/>
+      <c r="AL2" s="159"/>
+      <c r="AM2" s="159"/>
+      <c r="AN2" s="159"/>
+      <c r="AO2" s="159"/>
+      <c r="AP2" s="159"/>
+      <c r="AQ2" s="159"/>
+      <c r="AR2" s="159"/>
+      <c r="AS2" s="159"/>
+      <c r="AT2" s="159"/>
+      <c r="AU2" s="159"/>
+      <c r="AV2" s="159"/>
+      <c r="AW2" s="159"/>
+      <c r="AX2" s="159"/>
+      <c r="AY2" s="159"/>
+      <c r="AZ2" s="159"/>
+      <c r="BA2" s="159"/>
+      <c r="BB2" s="158"/>
     </row>
     <row r="3" spans="1:54">
-      <c r="A3" s="157">
+      <c r="A3" s="160">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="165"/>
-      <c r="AF3" s="165"/>
-      <c r="AG3" s="165"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="165"/>
-      <c r="AJ3" s="165"/>
-      <c r="AK3" s="165"/>
-      <c r="AL3" s="165"/>
-      <c r="AM3" s="165"/>
-      <c r="AN3" s="165"/>
-      <c r="AO3" s="165"/>
-      <c r="AP3" s="165"/>
-      <c r="AQ3" s="165"/>
-      <c r="AR3" s="165"/>
-      <c r="AS3" s="165"/>
-      <c r="AT3" s="165"/>
-      <c r="AU3" s="165"/>
-      <c r="AV3" s="165"/>
-      <c r="AW3" s="165"/>
-      <c r="AX3" s="165"/>
-      <c r="AY3" s="165"/>
-      <c r="AZ3" s="165"/>
-      <c r="BA3" s="165"/>
-      <c r="BB3" s="158"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="168"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="168"/>
+      <c r="AL3" s="168"/>
+      <c r="AM3" s="168"/>
+      <c r="AN3" s="168"/>
+      <c r="AO3" s="168"/>
+      <c r="AP3" s="168"/>
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="168"/>
+      <c r="AT3" s="168"/>
+      <c r="AU3" s="168"/>
+      <c r="AV3" s="168"/>
+      <c r="AW3" s="168"/>
+      <c r="AX3" s="168"/>
+      <c r="AY3" s="168"/>
+      <c r="AZ3" s="168"/>
+      <c r="BA3" s="168"/>
+      <c r="BB3" s="161"/>
     </row>
     <row r="4" spans="1:54">
-      <c r="A4" s="157">
+      <c r="A4" s="160">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="165"/>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165"/>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="165"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="165"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="165"/>
-      <c r="AG4" s="165"/>
-      <c r="AH4" s="165"/>
-      <c r="AI4" s="165"/>
-      <c r="AJ4" s="165"/>
-      <c r="AK4" s="165"/>
-      <c r="AL4" s="165"/>
-      <c r="AM4" s="165"/>
-      <c r="AN4" s="165"/>
-      <c r="AO4" s="165"/>
-      <c r="AP4" s="165"/>
-      <c r="AQ4" s="165"/>
-      <c r="AR4" s="165"/>
-      <c r="AS4" s="165"/>
-      <c r="AT4" s="165"/>
-      <c r="AU4" s="165"/>
-      <c r="AV4" s="165"/>
-      <c r="AW4" s="165"/>
-      <c r="AX4" s="165"/>
-      <c r="AY4" s="165"/>
-      <c r="AZ4" s="165"/>
-      <c r="BA4" s="165"/>
-      <c r="BB4" s="158"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="168"/>
+      <c r="W4" s="168"/>
+      <c r="X4" s="168"/>
+      <c r="Y4" s="168"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="160"/>
+      <c r="AB4" s="168"/>
+      <c r="AC4" s="168"/>
+      <c r="AD4" s="168"/>
+      <c r="AE4" s="168"/>
+      <c r="AF4" s="168"/>
+      <c r="AG4" s="168"/>
+      <c r="AH4" s="168"/>
+      <c r="AI4" s="168"/>
+      <c r="AJ4" s="168"/>
+      <c r="AK4" s="168"/>
+      <c r="AL4" s="168"/>
+      <c r="AM4" s="168"/>
+      <c r="AN4" s="168"/>
+      <c r="AO4" s="168"/>
+      <c r="AP4" s="168"/>
+      <c r="AQ4" s="168"/>
+      <c r="AR4" s="168"/>
+      <c r="AS4" s="168"/>
+      <c r="AT4" s="168"/>
+      <c r="AU4" s="168"/>
+      <c r="AV4" s="168"/>
+      <c r="AW4" s="168"/>
+      <c r="AX4" s="168"/>
+      <c r="AY4" s="168"/>
+      <c r="AZ4" s="168"/>
+      <c r="BA4" s="168"/>
+      <c r="BB4" s="161"/>
     </row>
     <row r="5" spans="1:54">
-      <c r="A5" s="157">
+      <c r="A5" s="160">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="165"/>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="165"/>
-      <c r="R5" s="165"/>
-      <c r="S5" s="165"/>
-      <c r="T5" s="165"/>
-      <c r="U5" s="165"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="157"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="165"/>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="165"/>
-      <c r="AR5" s="165"/>
-      <c r="AS5" s="165"/>
-      <c r="AT5" s="165"/>
-      <c r="AU5" s="165"/>
-      <c r="AV5" s="165"/>
-      <c r="AW5" s="165"/>
-      <c r="AX5" s="165"/>
-      <c r="AY5" s="165"/>
-      <c r="AZ5" s="165"/>
-      <c r="BA5" s="165"/>
-      <c r="BB5" s="158"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="168"/>
+      <c r="V5" s="168"/>
+      <c r="W5" s="168"/>
+      <c r="X5" s="168"/>
+      <c r="Y5" s="168"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="168"/>
+      <c r="AC5" s="168"/>
+      <c r="AD5" s="168"/>
+      <c r="AE5" s="168"/>
+      <c r="AF5" s="168"/>
+      <c r="AG5" s="168"/>
+      <c r="AH5" s="168"/>
+      <c r="AI5" s="168"/>
+      <c r="AJ5" s="168"/>
+      <c r="AK5" s="168"/>
+      <c r="AL5" s="168"/>
+      <c r="AM5" s="168"/>
+      <c r="AN5" s="168"/>
+      <c r="AO5" s="168"/>
+      <c r="AP5" s="168"/>
+      <c r="AQ5" s="168"/>
+      <c r="AR5" s="168"/>
+      <c r="AS5" s="168"/>
+      <c r="AT5" s="168"/>
+      <c r="AU5" s="168"/>
+      <c r="AV5" s="168"/>
+      <c r="AW5" s="168"/>
+      <c r="AX5" s="168"/>
+      <c r="AY5" s="168"/>
+      <c r="AZ5" s="168"/>
+      <c r="BA5" s="168"/>
+      <c r="BB5" s="161"/>
     </row>
     <row r="6" spans="1:54">
-      <c r="A6" s="157">
+      <c r="A6" s="160">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="165"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="165"/>
-      <c r="S6" s="165"/>
-      <c r="T6" s="165"/>
-      <c r="U6" s="165"/>
-      <c r="V6" s="165"/>
-      <c r="W6" s="165"/>
-      <c r="X6" s="165"/>
-      <c r="Y6" s="165"/>
-      <c r="Z6" s="158"/>
-      <c r="AA6" s="157"/>
-      <c r="AB6" s="165"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="165"/>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="165"/>
-      <c r="AH6" s="165"/>
-      <c r="AI6" s="165"/>
-      <c r="AJ6" s="165"/>
-      <c r="AK6" s="165"/>
-      <c r="AL6" s="165"/>
-      <c r="AM6" s="165"/>
-      <c r="AN6" s="165"/>
-      <c r="AO6" s="165"/>
-      <c r="AP6" s="165"/>
-      <c r="AQ6" s="165"/>
-      <c r="AR6" s="165"/>
-      <c r="AS6" s="165"/>
-      <c r="AT6" s="165"/>
-      <c r="AU6" s="165"/>
-      <c r="AV6" s="165"/>
-      <c r="AW6" s="165"/>
-      <c r="AX6" s="165"/>
-      <c r="AY6" s="165"/>
-      <c r="AZ6" s="165"/>
-      <c r="BA6" s="165"/>
-      <c r="BB6" s="158"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="168"/>
+      <c r="S6" s="168"/>
+      <c r="T6" s="168"/>
+      <c r="U6" s="168"/>
+      <c r="V6" s="168"/>
+      <c r="W6" s="168"/>
+      <c r="X6" s="168"/>
+      <c r="Y6" s="168"/>
+      <c r="Z6" s="161"/>
+      <c r="AA6" s="160"/>
+      <c r="AB6" s="168"/>
+      <c r="AC6" s="168"/>
+      <c r="AD6" s="168"/>
+      <c r="AE6" s="168"/>
+      <c r="AF6" s="168"/>
+      <c r="AG6" s="168"/>
+      <c r="AH6" s="168"/>
+      <c r="AI6" s="168"/>
+      <c r="AJ6" s="168"/>
+      <c r="AK6" s="168"/>
+      <c r="AL6" s="168"/>
+      <c r="AM6" s="168"/>
+      <c r="AN6" s="168"/>
+      <c r="AO6" s="168"/>
+      <c r="AP6" s="168"/>
+      <c r="AQ6" s="168"/>
+      <c r="AR6" s="168"/>
+      <c r="AS6" s="168"/>
+      <c r="AT6" s="168"/>
+      <c r="AU6" s="168"/>
+      <c r="AV6" s="168"/>
+      <c r="AW6" s="168"/>
+      <c r="AX6" s="168"/>
+      <c r="AY6" s="168"/>
+      <c r="AZ6" s="168"/>
+      <c r="BA6" s="168"/>
+      <c r="BB6" s="161"/>
     </row>
     <row r="7" spans="1:54">
-      <c r="A7" s="157">
+      <c r="A7" s="160">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="158"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="164"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="165"/>
-      <c r="T7" s="165"/>
-      <c r="U7" s="165"/>
-      <c r="V7" s="165"/>
-      <c r="W7" s="165"/>
-      <c r="X7" s="165"/>
-      <c r="Y7" s="165"/>
-      <c r="Z7" s="158"/>
-      <c r="AA7" s="157"/>
-      <c r="AB7" s="165"/>
-      <c r="AC7" s="165"/>
-      <c r="AD7" s="165"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="165"/>
-      <c r="AG7" s="165"/>
-      <c r="AH7" s="165"/>
-      <c r="AI7" s="165"/>
-      <c r="AJ7" s="165"/>
-      <c r="AK7" s="165"/>
-      <c r="AL7" s="165"/>
-      <c r="AM7" s="165"/>
-      <c r="AN7" s="165"/>
-      <c r="AO7" s="165"/>
-      <c r="AP7" s="165"/>
-      <c r="AQ7" s="165"/>
-      <c r="AR7" s="165"/>
-      <c r="AS7" s="165"/>
-      <c r="AT7" s="165"/>
-      <c r="AU7" s="165"/>
-      <c r="AV7" s="165"/>
-      <c r="AW7" s="165"/>
-      <c r="AX7" s="165"/>
-      <c r="AY7" s="165"/>
-      <c r="AZ7" s="165"/>
-      <c r="BA7" s="165"/>
-      <c r="BB7" s="158"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
+      <c r="R7" s="168"/>
+      <c r="S7" s="168"/>
+      <c r="T7" s="168"/>
+      <c r="U7" s="168"/>
+      <c r="V7" s="168"/>
+      <c r="W7" s="168"/>
+      <c r="X7" s="168"/>
+      <c r="Y7" s="168"/>
+      <c r="Z7" s="161"/>
+      <c r="AA7" s="160"/>
+      <c r="AB7" s="168"/>
+      <c r="AC7" s="168"/>
+      <c r="AD7" s="168"/>
+      <c r="AE7" s="168"/>
+      <c r="AF7" s="168"/>
+      <c r="AG7" s="168"/>
+      <c r="AH7" s="168"/>
+      <c r="AI7" s="168"/>
+      <c r="AJ7" s="168"/>
+      <c r="AK7" s="168"/>
+      <c r="AL7" s="168"/>
+      <c r="AM7" s="168"/>
+      <c r="AN7" s="168"/>
+      <c r="AO7" s="168"/>
+      <c r="AP7" s="168"/>
+      <c r="AQ7" s="168"/>
+      <c r="AR7" s="168"/>
+      <c r="AS7" s="168"/>
+      <c r="AT7" s="168"/>
+      <c r="AU7" s="168"/>
+      <c r="AV7" s="168"/>
+      <c r="AW7" s="168"/>
+      <c r="AX7" s="168"/>
+      <c r="AY7" s="168"/>
+      <c r="AZ7" s="168"/>
+      <c r="BA7" s="168"/>
+      <c r="BB7" s="161"/>
     </row>
     <row r="8" spans="1:54">
-      <c r="A8" s="157">
+      <c r="A8" s="160">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="165"/>
-      <c r="S8" s="165"/>
-      <c r="T8" s="165"/>
-      <c r="U8" s="165"/>
-      <c r="V8" s="165"/>
-      <c r="W8" s="165"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="165"/>
-      <c r="Z8" s="158"/>
-      <c r="AA8" s="157"/>
-      <c r="AB8" s="165"/>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="165"/>
-      <c r="AE8" s="165"/>
-      <c r="AF8" s="165"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="165"/>
-      <c r="AI8" s="165"/>
-      <c r="AJ8" s="165"/>
-      <c r="AK8" s="165"/>
-      <c r="AL8" s="165"/>
-      <c r="AM8" s="165"/>
-      <c r="AN8" s="165"/>
-      <c r="AO8" s="165"/>
-      <c r="AP8" s="165"/>
-      <c r="AQ8" s="165"/>
-      <c r="AR8" s="165"/>
-      <c r="AS8" s="165"/>
-      <c r="AT8" s="165"/>
-      <c r="AU8" s="165"/>
-      <c r="AV8" s="165"/>
-      <c r="AW8" s="165"/>
-      <c r="AX8" s="165"/>
-      <c r="AY8" s="165"/>
-      <c r="AZ8" s="165"/>
-      <c r="BA8" s="165"/>
-      <c r="BB8" s="158"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="168"/>
+      <c r="R8" s="168"/>
+      <c r="S8" s="168"/>
+      <c r="T8" s="168"/>
+      <c r="U8" s="168"/>
+      <c r="V8" s="168"/>
+      <c r="W8" s="168"/>
+      <c r="X8" s="168"/>
+      <c r="Y8" s="168"/>
+      <c r="Z8" s="161"/>
+      <c r="AA8" s="160"/>
+      <c r="AB8" s="168"/>
+      <c r="AC8" s="168"/>
+      <c r="AD8" s="168"/>
+      <c r="AE8" s="168"/>
+      <c r="AF8" s="168"/>
+      <c r="AG8" s="168"/>
+      <c r="AH8" s="168"/>
+      <c r="AI8" s="168"/>
+      <c r="AJ8" s="168"/>
+      <c r="AK8" s="168"/>
+      <c r="AL8" s="168"/>
+      <c r="AM8" s="168"/>
+      <c r="AN8" s="168"/>
+      <c r="AO8" s="168"/>
+      <c r="AP8" s="168"/>
+      <c r="AQ8" s="168"/>
+      <c r="AR8" s="168"/>
+      <c r="AS8" s="168"/>
+      <c r="AT8" s="168"/>
+      <c r="AU8" s="168"/>
+      <c r="AV8" s="168"/>
+      <c r="AW8" s="168"/>
+      <c r="AX8" s="168"/>
+      <c r="AY8" s="168"/>
+      <c r="AZ8" s="168"/>
+      <c r="BA8" s="168"/>
+      <c r="BB8" s="161"/>
     </row>
     <row r="9" spans="1:54">
-      <c r="A9" s="157">
+      <c r="A9" s="160">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="158"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="165"/>
-      <c r="P9" s="165"/>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="165"/>
-      <c r="S9" s="165"/>
-      <c r="T9" s="165"/>
-      <c r="U9" s="165"/>
-      <c r="V9" s="165"/>
-      <c r="W9" s="165"/>
-      <c r="X9" s="165"/>
-      <c r="Y9" s="165"/>
-      <c r="Z9" s="158"/>
-      <c r="AA9" s="157"/>
-      <c r="AB9" s="165"/>
-      <c r="AC9" s="165"/>
-      <c r="AD9" s="165"/>
-      <c r="AE9" s="165"/>
-      <c r="AF9" s="165"/>
-      <c r="AG9" s="165"/>
-      <c r="AH9" s="165"/>
-      <c r="AI9" s="165"/>
-      <c r="AJ9" s="165"/>
-      <c r="AK9" s="165"/>
-      <c r="AL9" s="165"/>
-      <c r="AM9" s="165"/>
-      <c r="AN9" s="165"/>
-      <c r="AO9" s="165"/>
-      <c r="AP9" s="165"/>
-      <c r="AQ9" s="165"/>
-      <c r="AR9" s="165"/>
-      <c r="AS9" s="165"/>
-      <c r="AT9" s="165"/>
-      <c r="AU9" s="165"/>
-      <c r="AV9" s="165"/>
-      <c r="AW9" s="165"/>
-      <c r="AX9" s="165"/>
-      <c r="AY9" s="165"/>
-      <c r="AZ9" s="165"/>
-      <c r="BA9" s="165"/>
-      <c r="BB9" s="158"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="160"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="168"/>
+      <c r="U9" s="168"/>
+      <c r="V9" s="168"/>
+      <c r="W9" s="168"/>
+      <c r="X9" s="168"/>
+      <c r="Y9" s="168"/>
+      <c r="Z9" s="161"/>
+      <c r="AA9" s="160"/>
+      <c r="AB9" s="168"/>
+      <c r="AC9" s="168"/>
+      <c r="AD9" s="168"/>
+      <c r="AE9" s="168"/>
+      <c r="AF9" s="168"/>
+      <c r="AG9" s="168"/>
+      <c r="AH9" s="168"/>
+      <c r="AI9" s="168"/>
+      <c r="AJ9" s="168"/>
+      <c r="AK9" s="168"/>
+      <c r="AL9" s="168"/>
+      <c r="AM9" s="168"/>
+      <c r="AN9" s="168"/>
+      <c r="AO9" s="168"/>
+      <c r="AP9" s="168"/>
+      <c r="AQ9" s="168"/>
+      <c r="AR9" s="168"/>
+      <c r="AS9" s="168"/>
+      <c r="AT9" s="168"/>
+      <c r="AU9" s="168"/>
+      <c r="AV9" s="168"/>
+      <c r="AW9" s="168"/>
+      <c r="AX9" s="168"/>
+      <c r="AY9" s="168"/>
+      <c r="AZ9" s="168"/>
+      <c r="BA9" s="168"/>
+      <c r="BB9" s="161"/>
     </row>
     <row r="10" spans="1:54">
-      <c r="A10" s="157">
+      <c r="A10" s="160">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="165"/>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="165"/>
-      <c r="S10" s="165"/>
-      <c r="T10" s="165"/>
-      <c r="U10" s="165"/>
-      <c r="V10" s="165"/>
-      <c r="W10" s="165"/>
-      <c r="X10" s="165"/>
-      <c r="Y10" s="165"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="157"/>
-      <c r="AB10" s="165"/>
-      <c r="AC10" s="165"/>
-      <c r="AD10" s="165"/>
-      <c r="AE10" s="165"/>
-      <c r="AF10" s="165"/>
-      <c r="AG10" s="165"/>
-      <c r="AH10" s="165"/>
-      <c r="AI10" s="165"/>
-      <c r="AJ10" s="165"/>
-      <c r="AK10" s="165"/>
-      <c r="AL10" s="165"/>
-      <c r="AM10" s="165"/>
-      <c r="AN10" s="165"/>
-      <c r="AO10" s="165"/>
-      <c r="AP10" s="165"/>
-      <c r="AQ10" s="165"/>
-      <c r="AR10" s="165"/>
-      <c r="AS10" s="165"/>
-      <c r="AT10" s="165"/>
-      <c r="AU10" s="165"/>
-      <c r="AV10" s="165"/>
-      <c r="AW10" s="165"/>
-      <c r="AX10" s="165"/>
-      <c r="AY10" s="165"/>
-      <c r="AZ10" s="165"/>
-      <c r="BA10" s="165"/>
-      <c r="BB10" s="158"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="167"/>
+      <c r="N10" s="160"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="168"/>
+      <c r="X10" s="168"/>
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="161"/>
+      <c r="AA10" s="160"/>
+      <c r="AB10" s="168"/>
+      <c r="AC10" s="168"/>
+      <c r="AD10" s="168"/>
+      <c r="AE10" s="168"/>
+      <c r="AF10" s="168"/>
+      <c r="AG10" s="168"/>
+      <c r="AH10" s="168"/>
+      <c r="AI10" s="168"/>
+      <c r="AJ10" s="168"/>
+      <c r="AK10" s="168"/>
+      <c r="AL10" s="168"/>
+      <c r="AM10" s="168"/>
+      <c r="AN10" s="168"/>
+      <c r="AO10" s="168"/>
+      <c r="AP10" s="168"/>
+      <c r="AQ10" s="168"/>
+      <c r="AR10" s="168"/>
+      <c r="AS10" s="168"/>
+      <c r="AT10" s="168"/>
+      <c r="AU10" s="168"/>
+      <c r="AV10" s="168"/>
+      <c r="AW10" s="168"/>
+      <c r="AX10" s="168"/>
+      <c r="AY10" s="168"/>
+      <c r="AZ10" s="168"/>
+      <c r="BA10" s="168"/>
+      <c r="BB10" s="161"/>
     </row>
     <row r="11" spans="1:54">
-      <c r="A11" s="157">
+      <c r="A11" s="160">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="158"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="165"/>
-      <c r="S11" s="165"/>
-      <c r="T11" s="165"/>
-      <c r="U11" s="165"/>
-      <c r="V11" s="165"/>
-      <c r="W11" s="165"/>
-      <c r="X11" s="165"/>
-      <c r="Y11" s="165"/>
-      <c r="Z11" s="158"/>
-      <c r="AA11" s="157"/>
-      <c r="AB11" s="165"/>
-      <c r="AC11" s="165"/>
-      <c r="AD11" s="165"/>
-      <c r="AE11" s="165"/>
-      <c r="AF11" s="165"/>
-      <c r="AG11" s="165"/>
-      <c r="AH11" s="165"/>
-      <c r="AI11" s="165"/>
-      <c r="AJ11" s="165"/>
-      <c r="AK11" s="165"/>
-      <c r="AL11" s="165"/>
-      <c r="AM11" s="165"/>
-      <c r="AN11" s="165"/>
-      <c r="AO11" s="165"/>
-      <c r="AP11" s="165"/>
-      <c r="AQ11" s="165"/>
-      <c r="AR11" s="165"/>
-      <c r="AS11" s="165"/>
-      <c r="AT11" s="165"/>
-      <c r="AU11" s="165"/>
-      <c r="AV11" s="165"/>
-      <c r="AW11" s="165"/>
-      <c r="AX11" s="165"/>
-      <c r="AY11" s="165"/>
-      <c r="AZ11" s="165"/>
-      <c r="BA11" s="165"/>
-      <c r="BB11" s="158"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="160"/>
+      <c r="O11" s="168"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="168"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="168"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="168"/>
+      <c r="Y11" s="168"/>
+      <c r="Z11" s="161"/>
+      <c r="AA11" s="160"/>
+      <c r="AB11" s="168"/>
+      <c r="AC11" s="168"/>
+      <c r="AD11" s="168"/>
+      <c r="AE11" s="168"/>
+      <c r="AF11" s="168"/>
+      <c r="AG11" s="168"/>
+      <c r="AH11" s="168"/>
+      <c r="AI11" s="168"/>
+      <c r="AJ11" s="168"/>
+      <c r="AK11" s="168"/>
+      <c r="AL11" s="168"/>
+      <c r="AM11" s="168"/>
+      <c r="AN11" s="168"/>
+      <c r="AO11" s="168"/>
+      <c r="AP11" s="168"/>
+      <c r="AQ11" s="168"/>
+      <c r="AR11" s="168"/>
+      <c r="AS11" s="168"/>
+      <c r="AT11" s="168"/>
+      <c r="AU11" s="168"/>
+      <c r="AV11" s="168"/>
+      <c r="AW11" s="168"/>
+      <c r="AX11" s="168"/>
+      <c r="AY11" s="168"/>
+      <c r="AZ11" s="168"/>
+      <c r="BA11" s="168"/>
+      <c r="BB11" s="161"/>
     </row>
     <row r="12" spans="1:54">
-      <c r="A12" s="157">
+      <c r="A12" s="160">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="158"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="165"/>
-      <c r="S12" s="165"/>
-      <c r="T12" s="165"/>
-      <c r="U12" s="165"/>
-      <c r="V12" s="165"/>
-      <c r="W12" s="165"/>
-      <c r="X12" s="165"/>
-      <c r="Y12" s="165"/>
-      <c r="Z12" s="158"/>
-      <c r="AA12" s="157"/>
-      <c r="AB12" s="165"/>
-      <c r="AC12" s="165"/>
-      <c r="AD12" s="165"/>
-      <c r="AE12" s="165"/>
-      <c r="AF12" s="165"/>
-      <c r="AG12" s="165"/>
-      <c r="AH12" s="165"/>
-      <c r="AI12" s="165"/>
-      <c r="AJ12" s="165"/>
-      <c r="AK12" s="165"/>
-      <c r="AL12" s="165"/>
-      <c r="AM12" s="165"/>
-      <c r="AN12" s="165"/>
-      <c r="AO12" s="165"/>
-      <c r="AP12" s="165"/>
-      <c r="AQ12" s="165"/>
-      <c r="AR12" s="165"/>
-      <c r="AS12" s="165"/>
-      <c r="AT12" s="165"/>
-      <c r="AU12" s="165"/>
-      <c r="AV12" s="165"/>
-      <c r="AW12" s="165"/>
-      <c r="AX12" s="165"/>
-      <c r="AY12" s="165"/>
-      <c r="AZ12" s="165"/>
-      <c r="BA12" s="165"/>
-      <c r="BB12" s="158"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="167"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="168"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="161"/>
+      <c r="AA12" s="160"/>
+      <c r="AB12" s="168"/>
+      <c r="AC12" s="168"/>
+      <c r="AD12" s="168"/>
+      <c r="AE12" s="168"/>
+      <c r="AF12" s="168"/>
+      <c r="AG12" s="168"/>
+      <c r="AH12" s="168"/>
+      <c r="AI12" s="168"/>
+      <c r="AJ12" s="168"/>
+      <c r="AK12" s="168"/>
+      <c r="AL12" s="168"/>
+      <c r="AM12" s="168"/>
+      <c r="AN12" s="168"/>
+      <c r="AO12" s="168"/>
+      <c r="AP12" s="168"/>
+      <c r="AQ12" s="168"/>
+      <c r="AR12" s="168"/>
+      <c r="AS12" s="168"/>
+      <c r="AT12" s="168"/>
+      <c r="AU12" s="168"/>
+      <c r="AV12" s="168"/>
+      <c r="AW12" s="168"/>
+      <c r="AX12" s="168"/>
+      <c r="AY12" s="168"/>
+      <c r="AZ12" s="168"/>
+      <c r="BA12" s="168"/>
+      <c r="BB12" s="161"/>
     </row>
     <row r="13" spans="1:54">
-      <c r="A13" s="157">
+      <c r="A13" s="160">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="158"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="165"/>
-      <c r="P13" s="165"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="165"/>
-      <c r="S13" s="165"/>
-      <c r="T13" s="165"/>
-      <c r="U13" s="165"/>
-      <c r="V13" s="165"/>
-      <c r="W13" s="165"/>
-      <c r="X13" s="165"/>
-      <c r="Y13" s="165"/>
-      <c r="Z13" s="158"/>
-      <c r="AA13" s="157"/>
-      <c r="AB13" s="165"/>
-      <c r="AC13" s="165"/>
-      <c r="AD13" s="165"/>
-      <c r="AE13" s="165"/>
-      <c r="AF13" s="165"/>
-      <c r="AG13" s="165"/>
-      <c r="AH13" s="165"/>
-      <c r="AI13" s="165"/>
-      <c r="AJ13" s="165"/>
-      <c r="AK13" s="165"/>
-      <c r="AL13" s="165"/>
-      <c r="AM13" s="165"/>
-      <c r="AN13" s="165"/>
-      <c r="AO13" s="165"/>
-      <c r="AP13" s="165"/>
-      <c r="AQ13" s="165"/>
-      <c r="AR13" s="165"/>
-      <c r="AS13" s="165"/>
-      <c r="AT13" s="165"/>
-      <c r="AU13" s="165"/>
-      <c r="AV13" s="165"/>
-      <c r="AW13" s="165"/>
-      <c r="AX13" s="165"/>
-      <c r="AY13" s="165"/>
-      <c r="AZ13" s="165"/>
-      <c r="BA13" s="165"/>
-      <c r="BB13" s="158"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="168"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="161"/>
+      <c r="AA13" s="160"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="168"/>
+      <c r="AD13" s="168"/>
+      <c r="AE13" s="168"/>
+      <c r="AF13" s="168"/>
+      <c r="AG13" s="168"/>
+      <c r="AH13" s="168"/>
+      <c r="AI13" s="168"/>
+      <c r="AJ13" s="168"/>
+      <c r="AK13" s="168"/>
+      <c r="AL13" s="168"/>
+      <c r="AM13" s="168"/>
+      <c r="AN13" s="168"/>
+      <c r="AO13" s="168"/>
+      <c r="AP13" s="168"/>
+      <c r="AQ13" s="168"/>
+      <c r="AR13" s="168"/>
+      <c r="AS13" s="168"/>
+      <c r="AT13" s="168"/>
+      <c r="AU13" s="168"/>
+      <c r="AV13" s="168"/>
+      <c r="AW13" s="168"/>
+      <c r="AX13" s="168"/>
+      <c r="AY13" s="168"/>
+      <c r="AZ13" s="168"/>
+      <c r="BA13" s="168"/>
+      <c r="BB13" s="161"/>
     </row>
     <row r="14" spans="1:54">
-      <c r="A14" s="157">
+      <c r="A14" s="160">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="165"/>
-      <c r="S14" s="165"/>
-      <c r="T14" s="165"/>
-      <c r="U14" s="165"/>
-      <c r="V14" s="165"/>
-      <c r="W14" s="165"/>
-      <c r="X14" s="165"/>
-      <c r="Y14" s="165"/>
-      <c r="Z14" s="158"/>
-      <c r="AA14" s="157"/>
-      <c r="AB14" s="165"/>
-      <c r="AC14" s="165"/>
-      <c r="AD14" s="165"/>
-      <c r="AE14" s="165"/>
-      <c r="AF14" s="165"/>
-      <c r="AG14" s="165"/>
-      <c r="AH14" s="165"/>
-      <c r="AI14" s="165"/>
-      <c r="AJ14" s="165"/>
-      <c r="AK14" s="165"/>
-      <c r="AL14" s="165"/>
-      <c r="AM14" s="165"/>
-      <c r="AN14" s="165"/>
-      <c r="AO14" s="165"/>
-      <c r="AP14" s="165"/>
-      <c r="AQ14" s="165"/>
-      <c r="AR14" s="165"/>
-      <c r="AS14" s="165"/>
-      <c r="AT14" s="165"/>
-      <c r="AU14" s="165"/>
-      <c r="AV14" s="165"/>
-      <c r="AW14" s="165"/>
-      <c r="AX14" s="165"/>
-      <c r="AY14" s="165"/>
-      <c r="AZ14" s="165"/>
-      <c r="BA14" s="165"/>
-      <c r="BB14" s="158"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="168"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="168"/>
+      <c r="Z14" s="161"/>
+      <c r="AA14" s="160"/>
+      <c r="AB14" s="168"/>
+      <c r="AC14" s="168"/>
+      <c r="AD14" s="168"/>
+      <c r="AE14" s="168"/>
+      <c r="AF14" s="168"/>
+      <c r="AG14" s="168"/>
+      <c r="AH14" s="168"/>
+      <c r="AI14" s="168"/>
+      <c r="AJ14" s="168"/>
+      <c r="AK14" s="168"/>
+      <c r="AL14" s="168"/>
+      <c r="AM14" s="168"/>
+      <c r="AN14" s="168"/>
+      <c r="AO14" s="168"/>
+      <c r="AP14" s="168"/>
+      <c r="AQ14" s="168"/>
+      <c r="AR14" s="168"/>
+      <c r="AS14" s="168"/>
+      <c r="AT14" s="168"/>
+      <c r="AU14" s="168"/>
+      <c r="AV14" s="168"/>
+      <c r="AW14" s="168"/>
+      <c r="AX14" s="168"/>
+      <c r="AY14" s="168"/>
+      <c r="AZ14" s="168"/>
+      <c r="BA14" s="168"/>
+      <c r="BB14" s="161"/>
     </row>
     <row r="15" spans="1:54">
-      <c r="A15" s="157">
+      <c r="A15" s="160">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="165"/>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="165"/>
-      <c r="S15" s="165"/>
-      <c r="T15" s="165"/>
-      <c r="U15" s="165"/>
-      <c r="V15" s="165"/>
-      <c r="W15" s="165"/>
-      <c r="X15" s="165"/>
-      <c r="Y15" s="165"/>
-      <c r="Z15" s="158"/>
-      <c r="AA15" s="157"/>
-      <c r="AB15" s="165"/>
-      <c r="AC15" s="165"/>
-      <c r="AD15" s="165"/>
-      <c r="AE15" s="165"/>
-      <c r="AF15" s="165"/>
-      <c r="AG15" s="165"/>
-      <c r="AH15" s="165"/>
-      <c r="AI15" s="165"/>
-      <c r="AJ15" s="165"/>
-      <c r="AK15" s="165"/>
-      <c r="AL15" s="165"/>
-      <c r="AM15" s="165"/>
-      <c r="AN15" s="165"/>
-      <c r="AO15" s="165"/>
-      <c r="AP15" s="165"/>
-      <c r="AQ15" s="165"/>
-      <c r="AR15" s="165"/>
-      <c r="AS15" s="165"/>
-      <c r="AT15" s="165"/>
-      <c r="AU15" s="165"/>
-      <c r="AV15" s="165"/>
-      <c r="AW15" s="165"/>
-      <c r="AX15" s="165"/>
-      <c r="AY15" s="165"/>
-      <c r="AZ15" s="165"/>
-      <c r="BA15" s="165"/>
-      <c r="BB15" s="158"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="167"/>
+      <c r="N15" s="160"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="168"/>
+      <c r="S15" s="168"/>
+      <c r="T15" s="168"/>
+      <c r="U15" s="168"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="168"/>
+      <c r="X15" s="168"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="161"/>
+      <c r="AA15" s="160"/>
+      <c r="AB15" s="168"/>
+      <c r="AC15" s="168"/>
+      <c r="AD15" s="168"/>
+      <c r="AE15" s="168"/>
+      <c r="AF15" s="168"/>
+      <c r="AG15" s="168"/>
+      <c r="AH15" s="168"/>
+      <c r="AI15" s="168"/>
+      <c r="AJ15" s="168"/>
+      <c r="AK15" s="168"/>
+      <c r="AL15" s="168"/>
+      <c r="AM15" s="168"/>
+      <c r="AN15" s="168"/>
+      <c r="AO15" s="168"/>
+      <c r="AP15" s="168"/>
+      <c r="AQ15" s="168"/>
+      <c r="AR15" s="168"/>
+      <c r="AS15" s="168"/>
+      <c r="AT15" s="168"/>
+      <c r="AU15" s="168"/>
+      <c r="AV15" s="168"/>
+      <c r="AW15" s="168"/>
+      <c r="AX15" s="168"/>
+      <c r="AY15" s="168"/>
+      <c r="AZ15" s="168"/>
+      <c r="BA15" s="168"/>
+      <c r="BB15" s="161"/>
     </row>
     <row r="16" spans="1:54">
-      <c r="A16" s="157">
+      <c r="A16" s="160">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="165"/>
-      <c r="S16" s="165"/>
-      <c r="T16" s="165"/>
-      <c r="U16" s="165"/>
-      <c r="V16" s="165"/>
-      <c r="W16" s="165"/>
-      <c r="X16" s="165"/>
-      <c r="Y16" s="165"/>
-      <c r="Z16" s="158"/>
-      <c r="AA16" s="157"/>
-      <c r="AB16" s="165"/>
-      <c r="AC16" s="165"/>
-      <c r="AD16" s="165"/>
-      <c r="AE16" s="165"/>
-      <c r="AF16" s="165"/>
-      <c r="AG16" s="165"/>
-      <c r="AH16" s="165"/>
-      <c r="AI16" s="165"/>
-      <c r="AJ16" s="165"/>
-      <c r="AK16" s="165"/>
-      <c r="AL16" s="165"/>
-      <c r="AM16" s="165"/>
-      <c r="AN16" s="165"/>
-      <c r="AO16" s="165"/>
-      <c r="AP16" s="165"/>
-      <c r="AQ16" s="165"/>
-      <c r="AR16" s="165"/>
-      <c r="AS16" s="165"/>
-      <c r="AT16" s="165"/>
-      <c r="AU16" s="165"/>
-      <c r="AV16" s="165"/>
-      <c r="AW16" s="165"/>
-      <c r="AX16" s="165"/>
-      <c r="AY16" s="165"/>
-      <c r="AZ16" s="165"/>
-      <c r="BA16" s="165"/>
-      <c r="BB16" s="158"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="168"/>
+      <c r="P16" s="168"/>
+      <c r="Q16" s="168"/>
+      <c r="R16" s="168"/>
+      <c r="S16" s="168"/>
+      <c r="T16" s="168"/>
+      <c r="U16" s="168"/>
+      <c r="V16" s="168"/>
+      <c r="W16" s="168"/>
+      <c r="X16" s="168"/>
+      <c r="Y16" s="168"/>
+      <c r="Z16" s="161"/>
+      <c r="AA16" s="160"/>
+      <c r="AB16" s="168"/>
+      <c r="AC16" s="168"/>
+      <c r="AD16" s="168"/>
+      <c r="AE16" s="168"/>
+      <c r="AF16" s="168"/>
+      <c r="AG16" s="168"/>
+      <c r="AH16" s="168"/>
+      <c r="AI16" s="168"/>
+      <c r="AJ16" s="168"/>
+      <c r="AK16" s="168"/>
+      <c r="AL16" s="168"/>
+      <c r="AM16" s="168"/>
+      <c r="AN16" s="168"/>
+      <c r="AO16" s="168"/>
+      <c r="AP16" s="168"/>
+      <c r="AQ16" s="168"/>
+      <c r="AR16" s="168"/>
+      <c r="AS16" s="168"/>
+      <c r="AT16" s="168"/>
+      <c r="AU16" s="168"/>
+      <c r="AV16" s="168"/>
+      <c r="AW16" s="168"/>
+      <c r="AX16" s="168"/>
+      <c r="AY16" s="168"/>
+      <c r="AZ16" s="168"/>
+      <c r="BA16" s="168"/>
+      <c r="BB16" s="161"/>
     </row>
     <row r="17" spans="1:54">
-      <c r="A17" s="157">
+      <c r="A17" s="160">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="158"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="165"/>
-      <c r="S17" s="165"/>
-      <c r="T17" s="165"/>
-      <c r="U17" s="165"/>
-      <c r="V17" s="165"/>
-      <c r="W17" s="165"/>
-      <c r="X17" s="165"/>
-      <c r="Y17" s="165"/>
-      <c r="Z17" s="158"/>
-      <c r="AA17" s="157"/>
-      <c r="AB17" s="165"/>
-      <c r="AC17" s="165"/>
-      <c r="AD17" s="165"/>
-      <c r="AE17" s="165"/>
-      <c r="AF17" s="165"/>
-      <c r="AG17" s="165"/>
-      <c r="AH17" s="165"/>
-      <c r="AI17" s="165"/>
-      <c r="AJ17" s="165"/>
-      <c r="AK17" s="165"/>
-      <c r="AL17" s="165"/>
-      <c r="AM17" s="165"/>
-      <c r="AN17" s="165"/>
-      <c r="AO17" s="165"/>
-      <c r="AP17" s="165"/>
-      <c r="AQ17" s="165"/>
-      <c r="AR17" s="165"/>
-      <c r="AS17" s="165"/>
-      <c r="AT17" s="165"/>
-      <c r="AU17" s="165"/>
-      <c r="AV17" s="165"/>
-      <c r="AW17" s="165"/>
-      <c r="AX17" s="165"/>
-      <c r="AY17" s="165"/>
-      <c r="AZ17" s="165"/>
-      <c r="BA17" s="165"/>
-      <c r="BB17" s="158"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="167"/>
+      <c r="N17" s="160"/>
+      <c r="O17" s="168"/>
+      <c r="P17" s="168"/>
+      <c r="Q17" s="168"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="168"/>
+      <c r="T17" s="168"/>
+      <c r="U17" s="168"/>
+      <c r="V17" s="168"/>
+      <c r="W17" s="168"/>
+      <c r="X17" s="168"/>
+      <c r="Y17" s="168"/>
+      <c r="Z17" s="161"/>
+      <c r="AA17" s="160"/>
+      <c r="AB17" s="168"/>
+      <c r="AC17" s="168"/>
+      <c r="AD17" s="168"/>
+      <c r="AE17" s="168"/>
+      <c r="AF17" s="168"/>
+      <c r="AG17" s="168"/>
+      <c r="AH17" s="168"/>
+      <c r="AI17" s="168"/>
+      <c r="AJ17" s="168"/>
+      <c r="AK17" s="168"/>
+      <c r="AL17" s="168"/>
+      <c r="AM17" s="168"/>
+      <c r="AN17" s="168"/>
+      <c r="AO17" s="168"/>
+      <c r="AP17" s="168"/>
+      <c r="AQ17" s="168"/>
+      <c r="AR17" s="168"/>
+      <c r="AS17" s="168"/>
+      <c r="AT17" s="168"/>
+      <c r="AU17" s="168"/>
+      <c r="AV17" s="168"/>
+      <c r="AW17" s="168"/>
+      <c r="AX17" s="168"/>
+      <c r="AY17" s="168"/>
+      <c r="AZ17" s="168"/>
+      <c r="BA17" s="168"/>
+      <c r="BB17" s="161"/>
     </row>
     <row r="18" spans="1:54">
-      <c r="A18" s="157">
+      <c r="A18" s="160">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="165"/>
-      <c r="S18" s="165"/>
-      <c r="T18" s="165"/>
-      <c r="U18" s="165"/>
-      <c r="V18" s="165"/>
-      <c r="W18" s="165"/>
-      <c r="X18" s="165"/>
-      <c r="Y18" s="165"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="157"/>
-      <c r="AB18" s="165"/>
-      <c r="AC18" s="165"/>
-      <c r="AD18" s="165"/>
-      <c r="AE18" s="165"/>
-      <c r="AF18" s="165"/>
-      <c r="AG18" s="165"/>
-      <c r="AH18" s="165"/>
-      <c r="AI18" s="165"/>
-      <c r="AJ18" s="165"/>
-      <c r="AK18" s="165"/>
-      <c r="AL18" s="165"/>
-      <c r="AM18" s="165"/>
-      <c r="AN18" s="165"/>
-      <c r="AO18" s="165"/>
-      <c r="AP18" s="165"/>
-      <c r="AQ18" s="165"/>
-      <c r="AR18" s="165"/>
-      <c r="AS18" s="165"/>
-      <c r="AT18" s="165"/>
-      <c r="AU18" s="165"/>
-      <c r="AV18" s="165"/>
-      <c r="AW18" s="165"/>
-      <c r="AX18" s="165"/>
-      <c r="AY18" s="165"/>
-      <c r="AZ18" s="165"/>
-      <c r="BA18" s="165"/>
-      <c r="BB18" s="158"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="167"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="168"/>
+      <c r="P18" s="168"/>
+      <c r="Q18" s="168"/>
+      <c r="R18" s="168"/>
+      <c r="S18" s="168"/>
+      <c r="T18" s="168"/>
+      <c r="U18" s="168"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="168"/>
+      <c r="X18" s="168"/>
+      <c r="Y18" s="168"/>
+      <c r="Z18" s="161"/>
+      <c r="AA18" s="160"/>
+      <c r="AB18" s="168"/>
+      <c r="AC18" s="168"/>
+      <c r="AD18" s="168"/>
+      <c r="AE18" s="168"/>
+      <c r="AF18" s="168"/>
+      <c r="AG18" s="168"/>
+      <c r="AH18" s="168"/>
+      <c r="AI18" s="168"/>
+      <c r="AJ18" s="168"/>
+      <c r="AK18" s="168"/>
+      <c r="AL18" s="168"/>
+      <c r="AM18" s="168"/>
+      <c r="AN18" s="168"/>
+      <c r="AO18" s="168"/>
+      <c r="AP18" s="168"/>
+      <c r="AQ18" s="168"/>
+      <c r="AR18" s="168"/>
+      <c r="AS18" s="168"/>
+      <c r="AT18" s="168"/>
+      <c r="AU18" s="168"/>
+      <c r="AV18" s="168"/>
+      <c r="AW18" s="168"/>
+      <c r="AX18" s="168"/>
+      <c r="AY18" s="168"/>
+      <c r="AZ18" s="168"/>
+      <c r="BA18" s="168"/>
+      <c r="BB18" s="161"/>
     </row>
     <row r="19" spans="1:54">
-      <c r="A19" s="157">
+      <c r="A19" s="160">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="165"/>
-      <c r="P19" s="165"/>
-      <c r="Q19" s="165"/>
-      <c r="R19" s="165"/>
-      <c r="S19" s="165"/>
-      <c r="T19" s="165"/>
-      <c r="U19" s="165"/>
-      <c r="V19" s="165"/>
-      <c r="W19" s="165"/>
-      <c r="X19" s="165"/>
-      <c r="Y19" s="165"/>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="157"/>
-      <c r="AB19" s="165"/>
-      <c r="AC19" s="165"/>
-      <c r="AD19" s="165"/>
-      <c r="AE19" s="165"/>
-      <c r="AF19" s="165"/>
-      <c r="AG19" s="165"/>
-      <c r="AH19" s="165"/>
-      <c r="AI19" s="165"/>
-      <c r="AJ19" s="165"/>
-      <c r="AK19" s="165"/>
-      <c r="AL19" s="165"/>
-      <c r="AM19" s="165"/>
-      <c r="AN19" s="165"/>
-      <c r="AO19" s="165"/>
-      <c r="AP19" s="165"/>
-      <c r="AQ19" s="165"/>
-      <c r="AR19" s="165"/>
-      <c r="AS19" s="165"/>
-      <c r="AT19" s="165"/>
-      <c r="AU19" s="165"/>
-      <c r="AV19" s="165"/>
-      <c r="AW19" s="165"/>
-      <c r="AX19" s="165"/>
-      <c r="AY19" s="165"/>
-      <c r="AZ19" s="165"/>
-      <c r="BA19" s="165"/>
-      <c r="BB19" s="158"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="167"/>
+      <c r="N19" s="160"/>
+      <c r="O19" s="168"/>
+      <c r="P19" s="168"/>
+      <c r="Q19" s="168"/>
+      <c r="R19" s="168"/>
+      <c r="S19" s="168"/>
+      <c r="T19" s="168"/>
+      <c r="U19" s="168"/>
+      <c r="V19" s="168"/>
+      <c r="W19" s="168"/>
+      <c r="X19" s="168"/>
+      <c r="Y19" s="168"/>
+      <c r="Z19" s="161"/>
+      <c r="AA19" s="160"/>
+      <c r="AB19" s="168"/>
+      <c r="AC19" s="168"/>
+      <c r="AD19" s="168"/>
+      <c r="AE19" s="168"/>
+      <c r="AF19" s="168"/>
+      <c r="AG19" s="168"/>
+      <c r="AH19" s="168"/>
+      <c r="AI19" s="168"/>
+      <c r="AJ19" s="168"/>
+      <c r="AK19" s="168"/>
+      <c r="AL19" s="168"/>
+      <c r="AM19" s="168"/>
+      <c r="AN19" s="168"/>
+      <c r="AO19" s="168"/>
+      <c r="AP19" s="168"/>
+      <c r="AQ19" s="168"/>
+      <c r="AR19" s="168"/>
+      <c r="AS19" s="168"/>
+      <c r="AT19" s="168"/>
+      <c r="AU19" s="168"/>
+      <c r="AV19" s="168"/>
+      <c r="AW19" s="168"/>
+      <c r="AX19" s="168"/>
+      <c r="AY19" s="168"/>
+      <c r="AZ19" s="168"/>
+      <c r="BA19" s="168"/>
+      <c r="BB19" s="161"/>
     </row>
     <row r="20" spans="1:54">
-      <c r="A20" s="157">
+      <c r="A20" s="160">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="158"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="164"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="165"/>
-      <c r="S20" s="165"/>
-      <c r="T20" s="165"/>
-      <c r="U20" s="165"/>
-      <c r="V20" s="165"/>
-      <c r="W20" s="165"/>
-      <c r="X20" s="165"/>
-      <c r="Y20" s="165"/>
-      <c r="Z20" s="158"/>
-      <c r="AA20" s="157"/>
-      <c r="AB20" s="165"/>
-      <c r="AC20" s="165"/>
-      <c r="AD20" s="165"/>
-      <c r="AE20" s="165"/>
-      <c r="AF20" s="165"/>
-      <c r="AG20" s="165"/>
-      <c r="AH20" s="165"/>
-      <c r="AI20" s="165"/>
-      <c r="AJ20" s="165"/>
-      <c r="AK20" s="165"/>
-      <c r="AL20" s="165"/>
-      <c r="AM20" s="165"/>
-      <c r="AN20" s="165"/>
-      <c r="AO20" s="165"/>
-      <c r="AP20" s="165"/>
-      <c r="AQ20" s="165"/>
-      <c r="AR20" s="165"/>
-      <c r="AS20" s="165"/>
-      <c r="AT20" s="165"/>
-      <c r="AU20" s="165"/>
-      <c r="AV20" s="165"/>
-      <c r="AW20" s="165"/>
-      <c r="AX20" s="165"/>
-      <c r="AY20" s="165"/>
-      <c r="AZ20" s="165"/>
-      <c r="BA20" s="165"/>
-      <c r="BB20" s="158"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="168"/>
+      <c r="Q20" s="168"/>
+      <c r="R20" s="168"/>
+      <c r="S20" s="168"/>
+      <c r="T20" s="168"/>
+      <c r="U20" s="168"/>
+      <c r="V20" s="168"/>
+      <c r="W20" s="168"/>
+      <c r="X20" s="168"/>
+      <c r="Y20" s="168"/>
+      <c r="Z20" s="161"/>
+      <c r="AA20" s="160"/>
+      <c r="AB20" s="168"/>
+      <c r="AC20" s="168"/>
+      <c r="AD20" s="168"/>
+      <c r="AE20" s="168"/>
+      <c r="AF20" s="168"/>
+      <c r="AG20" s="168"/>
+      <c r="AH20" s="168"/>
+      <c r="AI20" s="168"/>
+      <c r="AJ20" s="168"/>
+      <c r="AK20" s="168"/>
+      <c r="AL20" s="168"/>
+      <c r="AM20" s="168"/>
+      <c r="AN20" s="168"/>
+      <c r="AO20" s="168"/>
+      <c r="AP20" s="168"/>
+      <c r="AQ20" s="168"/>
+      <c r="AR20" s="168"/>
+      <c r="AS20" s="168"/>
+      <c r="AT20" s="168"/>
+      <c r="AU20" s="168"/>
+      <c r="AV20" s="168"/>
+      <c r="AW20" s="168"/>
+      <c r="AX20" s="168"/>
+      <c r="AY20" s="168"/>
+      <c r="AZ20" s="168"/>
+      <c r="BA20" s="168"/>
+      <c r="BB20" s="161"/>
     </row>
     <row r="21" spans="1:54">
-      <c r="A21" s="157">
+      <c r="A21" s="160">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="158"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="165"/>
-      <c r="S21" s="165"/>
-      <c r="T21" s="165"/>
-      <c r="U21" s="165"/>
-      <c r="V21" s="165"/>
-      <c r="W21" s="165"/>
-      <c r="X21" s="165"/>
-      <c r="Y21" s="165"/>
-      <c r="Z21" s="158"/>
-      <c r="AA21" s="157"/>
-      <c r="AB21" s="165"/>
-      <c r="AC21" s="165"/>
-      <c r="AD21" s="165"/>
-      <c r="AE21" s="165"/>
-      <c r="AF21" s="165"/>
-      <c r="AG21" s="165"/>
-      <c r="AH21" s="165"/>
-      <c r="AI21" s="165"/>
-      <c r="AJ21" s="165"/>
-      <c r="AK21" s="165"/>
-      <c r="AL21" s="165"/>
-      <c r="AM21" s="165"/>
-      <c r="AN21" s="165"/>
-      <c r="AO21" s="165"/>
-      <c r="AP21" s="165"/>
-      <c r="AQ21" s="165"/>
-      <c r="AR21" s="165"/>
-      <c r="AS21" s="165"/>
-      <c r="AT21" s="165"/>
-      <c r="AU21" s="165"/>
-      <c r="AV21" s="165"/>
-      <c r="AW21" s="165"/>
-      <c r="AX21" s="165"/>
-      <c r="AY21" s="165"/>
-      <c r="AZ21" s="165"/>
-      <c r="BA21" s="165"/>
-      <c r="BB21" s="158"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="160"/>
+      <c r="O21" s="168"/>
+      <c r="P21" s="168"/>
+      <c r="Q21" s="168"/>
+      <c r="R21" s="168"/>
+      <c r="S21" s="168"/>
+      <c r="T21" s="168"/>
+      <c r="U21" s="168"/>
+      <c r="V21" s="168"/>
+      <c r="W21" s="168"/>
+      <c r="X21" s="168"/>
+      <c r="Y21" s="168"/>
+      <c r="Z21" s="161"/>
+      <c r="AA21" s="160"/>
+      <c r="AB21" s="168"/>
+      <c r="AC21" s="168"/>
+      <c r="AD21" s="168"/>
+      <c r="AE21" s="168"/>
+      <c r="AF21" s="168"/>
+      <c r="AG21" s="168"/>
+      <c r="AH21" s="168"/>
+      <c r="AI21" s="168"/>
+      <c r="AJ21" s="168"/>
+      <c r="AK21" s="168"/>
+      <c r="AL21" s="168"/>
+      <c r="AM21" s="168"/>
+      <c r="AN21" s="168"/>
+      <c r="AO21" s="168"/>
+      <c r="AP21" s="168"/>
+      <c r="AQ21" s="168"/>
+      <c r="AR21" s="168"/>
+      <c r="AS21" s="168"/>
+      <c r="AT21" s="168"/>
+      <c r="AU21" s="168"/>
+      <c r="AV21" s="168"/>
+      <c r="AW21" s="168"/>
+      <c r="AX21" s="168"/>
+      <c r="AY21" s="168"/>
+      <c r="AZ21" s="168"/>
+      <c r="BA21" s="168"/>
+      <c r="BB21" s="161"/>
     </row>
     <row r="22" spans="1:54">
-      <c r="A22" s="157">
+      <c r="A22" s="160">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="165"/>
-      <c r="S22" s="165"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="165"/>
-      <c r="V22" s="165"/>
-      <c r="W22" s="165"/>
-      <c r="X22" s="165"/>
-      <c r="Y22" s="165"/>
-      <c r="Z22" s="158"/>
-      <c r="AA22" s="157"/>
-      <c r="AB22" s="165"/>
-      <c r="AC22" s="165"/>
-      <c r="AD22" s="165"/>
-      <c r="AE22" s="165"/>
-      <c r="AF22" s="165"/>
-      <c r="AG22" s="165"/>
-      <c r="AH22" s="165"/>
-      <c r="AI22" s="165"/>
-      <c r="AJ22" s="165"/>
-      <c r="AK22" s="165"/>
-      <c r="AL22" s="165"/>
-      <c r="AM22" s="165"/>
-      <c r="AN22" s="165"/>
-      <c r="AO22" s="165"/>
-      <c r="AP22" s="165"/>
-      <c r="AQ22" s="165"/>
-      <c r="AR22" s="165"/>
-      <c r="AS22" s="165"/>
-      <c r="AT22" s="165"/>
-      <c r="AU22" s="165"/>
-      <c r="AV22" s="165"/>
-      <c r="AW22" s="165"/>
-      <c r="AX22" s="165"/>
-      <c r="AY22" s="165"/>
-      <c r="AZ22" s="165"/>
-      <c r="BA22" s="165"/>
-      <c r="BB22" s="158"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="168"/>
+      <c r="P22" s="168"/>
+      <c r="Q22" s="168"/>
+      <c r="R22" s="168"/>
+      <c r="S22" s="168"/>
+      <c r="T22" s="168"/>
+      <c r="U22" s="168"/>
+      <c r="V22" s="168"/>
+      <c r="W22" s="168"/>
+      <c r="X22" s="168"/>
+      <c r="Y22" s="168"/>
+      <c r="Z22" s="161"/>
+      <c r="AA22" s="160"/>
+      <c r="AB22" s="168"/>
+      <c r="AC22" s="168"/>
+      <c r="AD22" s="168"/>
+      <c r="AE22" s="168"/>
+      <c r="AF22" s="168"/>
+      <c r="AG22" s="168"/>
+      <c r="AH22" s="168"/>
+      <c r="AI22" s="168"/>
+      <c r="AJ22" s="168"/>
+      <c r="AK22" s="168"/>
+      <c r="AL22" s="168"/>
+      <c r="AM22" s="168"/>
+      <c r="AN22" s="168"/>
+      <c r="AO22" s="168"/>
+      <c r="AP22" s="168"/>
+      <c r="AQ22" s="168"/>
+      <c r="AR22" s="168"/>
+      <c r="AS22" s="168"/>
+      <c r="AT22" s="168"/>
+      <c r="AU22" s="168"/>
+      <c r="AV22" s="168"/>
+      <c r="AW22" s="168"/>
+      <c r="AX22" s="168"/>
+      <c r="AY22" s="168"/>
+      <c r="AZ22" s="168"/>
+      <c r="BA22" s="168"/>
+      <c r="BB22" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -8156,6 +8350,96 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8164,6 +8448,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -8358,17 +8653,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8379,6 +8663,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E6A24C0-8D2B-4AE7-9CD2-4CF353E7389D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B3B1BEA-EADF-41B4-975B-02A29918B2DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8397,17 +8692,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E6A24C0-8D2B-4AE7-9CD2-4CF353E7389D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
-    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10038E6-5231-406B-8CB5-8AF486817164}">
   <ds:schemaRefs>

--- a/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（S200）社員画面.xlsx
+++ b/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（S200）社員画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_suzuki\Desktop\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172952A3-C8C4-4AAA-A72C-6715A5198D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB9E513-C40A-4CA6-88DE-D89B0346B4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4695" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FFFAB72E-45D2-41BB-8725-BDB5F683A970}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -421,25 +421,6 @@
   <si>
     <t>再描画</t>
     <rPh sb="0" eb="3">
-      <t>サイビョウガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日付が切り替わるごとに画面を再描画する</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="17">
       <t>サイビョウガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -461,25 +442,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>時刻が切り替わるごとに画面を再描画する</t>
-    <rPh sb="0" eb="2">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>サイビョウガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「出勤」ボタン押下</t>
     <rPh sb="1" eb="3">
       <t>シュッキン</t>
@@ -738,15 +700,37 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;条件&gt; [打刻,出勤打刻時刻] != null       </t>
+    <t xml:space="preserve">&lt;エラー条件&gt;  [打刻.利用者ID] = セッションの利用者ID   AND   [打刻.日付] = 現在の日付   AND[打刻,出勤打刻時刻] != null       </t>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;条件&gt; [打刻.利用者ID] = セッションの利用者ID   AND   [打刻.日付] = 現在の日付   AND  [打刻.出勤打刻時刻] == null　 </t>
+    <t xml:space="preserve">&lt;エラー条件&gt; [打刻.利用者ID] = セッションの利用者ID   AND   [打刻.日付] = 現在の日付   AND  [打刻.出勤打刻時刻] == null　 </t>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;条件&gt;  [打刻.利用者ID] = セッションの利用者ID   AND   [打刻.日付] = 現在の日付  AND  [打刻,退勤打刻時刻] != null    </t>
+    <t xml:space="preserve">&lt;エラー条件&gt;  [打刻.利用者ID] = セッションの利用者ID   AND   [打刻.日付] = 現在の日付  AND  [打刻,退勤打刻時刻] != null    </t>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100ミリ秒ごとに画面を再描画する</t>
+    <rPh sb="5" eb="6">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>サイビョウガ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -757,7 +741,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,22 +871,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -948,7 +916,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1145,6 +1113,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1153,7 +1158,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1322,260 +1327,308 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1594,45 +1647,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1655,37 +1669,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3676,16 +3684,16 @@
     <row r="24" spans="1:42" ht="18.75" customHeight="1">
       <c r="A24" s="24"/>
       <c r="C24" s="46"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
       <c r="AN24" s="40"/>
       <c r="AP24" s="25"/>
     </row>
@@ -3911,184 +3919,184 @@
       <c r="BY1" s="1"/>
     </row>
     <row r="2" spans="1:77" s="3" customFormat="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="120" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="120" t="s">
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="120" t="s">
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="121"/>
-      <c r="W2" s="120" t="s">
+      <c r="V2" s="116"/>
+      <c r="W2" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="120" t="s">
+      <c r="X2" s="116"/>
+      <c r="Y2" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="120" t="s">
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="122" t="s">
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="121"/>
-    </row>
-    <row r="3" spans="1:77" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="109">
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="117"/>
+      <c r="AJ2" s="117"/>
+      <c r="AK2" s="117"/>
+      <c r="AL2" s="117"/>
+      <c r="AM2" s="117"/>
+      <c r="AN2" s="117"/>
+      <c r="AO2" s="117"/>
+      <c r="AP2" s="117"/>
+      <c r="AQ2" s="117"/>
+      <c r="AR2" s="117"/>
+      <c r="AS2" s="117"/>
+      <c r="AT2" s="117"/>
+      <c r="AU2" s="117"/>
+      <c r="AV2" s="117"/>
+      <c r="AW2" s="117"/>
+      <c r="AX2" s="117"/>
+      <c r="AY2" s="117"/>
+      <c r="AZ2" s="117"/>
+      <c r="BA2" s="117"/>
+      <c r="BB2" s="116"/>
+    </row>
+    <row r="3" spans="1:77" s="67" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="118">
         <v>1</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
-      <c r="BB3" s="68"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="66"/>
+      <c r="BB3" s="65"/>
     </row>
     <row r="4" spans="1:77">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="117" t="s">
+      <c r="B4" s="110"/>
+      <c r="C4" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="118" t="s">
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="114" t="s">
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="114" t="s">
+      <c r="V4" s="108"/>
+      <c r="W4" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="114" t="s">
+      <c r="X4" s="108"/>
+      <c r="Y4" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="114">
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="107">
         <v>10</v>
       </c>
-      <c r="AF4" s="116"/>
+      <c r="AF4" s="108"/>
       <c r="AG4" s="4" t="s">
         <v>35</v>
       </c>
@@ -4115,52 +4123,52 @@
       <c r="BB4" s="6"/>
     </row>
     <row r="5" spans="1:77">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="117" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="118" t="s">
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="114" t="s">
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="116"/>
-      <c r="W5" s="114" t="s">
+      <c r="V5" s="108"/>
+      <c r="W5" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="114" t="s">
+      <c r="X5" s="108"/>
+      <c r="Y5" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="114">
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="114"/>
+      <c r="AB5" s="114"/>
+      <c r="AC5" s="114"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="107">
         <v>10</v>
       </c>
-      <c r="AF5" s="116"/>
+      <c r="AF5" s="108"/>
       <c r="AG5" s="4" t="s">
         <v>40</v>
       </c>
@@ -4187,22 +4195,22 @@
       <c r="BB5" s="6"/>
     </row>
     <row r="6" spans="1:77" ht="12.75" customHeight="1">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="111" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="113"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="122"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -4211,18 +4219,18 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="63"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="62"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
@@ -4247,52 +4255,52 @@
       <c r="BB6" s="6"/>
     </row>
     <row r="7" spans="1:77">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="117" t="s">
+      <c r="B7" s="110"/>
+      <c r="C7" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="117" t="s">
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="114" t="s">
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="116"/>
-      <c r="W7" s="114" t="s">
+      <c r="V7" s="108"/>
+      <c r="W7" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="114" t="s">
+      <c r="X7" s="108"/>
+      <c r="Y7" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="115"/>
-      <c r="AC7" s="115"/>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="114" t="s">
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="AF7" s="116"/>
+      <c r="AF7" s="108"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
@@ -4317,52 +4325,52 @@
       <c r="BB7" s="6"/>
     </row>
     <row r="8" spans="1:77">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="117" t="s">
+      <c r="B8" s="110"/>
+      <c r="C8" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="117" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="114" t="s">
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="116"/>
-      <c r="W8" s="114" t="s">
+      <c r="V8" s="108"/>
+      <c r="W8" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="114" t="s">
+      <c r="X8" s="108"/>
+      <c r="Y8" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="116"/>
-      <c r="AE8" s="114" t="s">
+      <c r="Z8" s="114"/>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="AF8" s="116"/>
+      <c r="AF8" s="108"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
@@ -4387,22 +4395,22 @@
       <c r="BB8" s="6"/>
     </row>
     <row r="9" spans="1:77" ht="12.75" customHeight="1">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111" t="s">
+      <c r="B9" s="110"/>
+      <c r="C9" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="113"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="122"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -4411,18 +4419,18 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="63"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="62"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
@@ -4447,52 +4455,52 @@
       <c r="BB9" s="6"/>
     </row>
     <row r="10" spans="1:77">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="117" t="s">
+      <c r="B10" s="110"/>
+      <c r="C10" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="117" t="s">
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="114" t="s">
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="116"/>
-      <c r="W10" s="114" t="s">
+      <c r="V10" s="108"/>
+      <c r="W10" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="116"/>
-      <c r="Y10" s="114" t="s">
+      <c r="X10" s="108"/>
+      <c r="Y10" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="115"/>
-      <c r="AC10" s="115"/>
-      <c r="AD10" s="116"/>
-      <c r="AE10" s="114" t="s">
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="108"/>
+      <c r="AE10" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="AF10" s="116"/>
+      <c r="AF10" s="108"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
@@ -4517,52 +4525,52 @@
       <c r="BB10" s="6"/>
     </row>
     <row r="11" spans="1:77">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="117" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="117" t="s">
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="119"/>
-      <c r="U11" s="114" t="s">
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="116"/>
-      <c r="W11" s="114" t="s">
+      <c r="V11" s="108"/>
+      <c r="W11" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="114" t="s">
+      <c r="X11" s="108"/>
+      <c r="Y11" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="115"/>
-      <c r="AA11" s="115"/>
-      <c r="AB11" s="115"/>
-      <c r="AC11" s="115"/>
-      <c r="AD11" s="116"/>
-      <c r="AE11" s="114" t="s">
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
+      <c r="AD11" s="108"/>
+      <c r="AE11" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="AF11" s="116"/>
+      <c r="AF11" s="108"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
@@ -4587,38 +4595,38 @@
       <c r="BB11" s="6"/>
     </row>
     <row r="12" spans="1:77">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="119"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="114"/>
-      <c r="Z12" s="115"/>
-      <c r="AA12" s="115"/>
-      <c r="AB12" s="115"/>
-      <c r="AC12" s="115"/>
-      <c r="AD12" s="116"/>
-      <c r="AE12" s="114"/>
-      <c r="AF12" s="116"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="108"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
@@ -4644,13 +4652,47 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:BB2"/>
     <mergeCell ref="A4:B4"/>
@@ -4666,47 +4708,13 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AD5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AI2:AI3">
@@ -4722,13 +4730,13 @@
   <dimension ref="A1:CA20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15:AR15"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="43" width="3.375" style="3"/>
-    <col min="44" max="44" width="49.75" style="3" customWidth="1"/>
+    <col min="44" max="44" width="53.625" style="3" customWidth="1"/>
     <col min="45" max="16384" width="3.375" style="3"/>
   </cols>
   <sheetData>
@@ -4816,87 +4824,87 @@
       <c r="CA1" s="8"/>
     </row>
     <row r="2" spans="1:79">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120" t="s">
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120" t="s">
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="120"/>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="120"/>
-      <c r="AG2" s="120"/>
-      <c r="AH2" s="120" t="s">
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="121"/>
+      <c r="AI2" s="117"/>
+      <c r="AJ2" s="117"/>
+      <c r="AK2" s="117"/>
+      <c r="AL2" s="117"/>
+      <c r="AM2" s="117"/>
+      <c r="AN2" s="117"/>
+      <c r="AO2" s="117"/>
+      <c r="AP2" s="117"/>
+      <c r="AQ2" s="117"/>
+      <c r="AR2" s="116"/>
     </row>
     <row r="3" spans="1:79" ht="15.75" customHeight="1">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="117" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="114" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
       <c r="T3" s="55" t="s">
         <v>57</v>
       </c>
@@ -4914,25 +4922,25 @@
       <c r="AR3" s="11"/>
     </row>
     <row r="4" spans="1:79" ht="15.75" customHeight="1">
-      <c r="A4" s="138"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="132"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="135"/>
       <c r="T4" s="55" t="s">
         <v>58</v>
       </c>
@@ -4977,7 +4985,7 @@
       <c r="C6" s="55"/>
       <c r="M6" s="55"/>
       <c r="S6" s="54"/>
-      <c r="T6" s="71" t="s">
+      <c r="T6" s="68" t="s">
         <v>60</v>
       </c>
       <c r="AG6" s="54"/>
@@ -4993,605 +5001,617 @@
       <c r="AQ6" s="13"/>
       <c r="AR6" s="14"/>
     </row>
-    <row r="7" spans="1:79" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="136" t="s">
+    <row r="7" spans="1:79" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="135" t="s">
+      <c r="B7" s="139"/>
+      <c r="C7" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
-      <c r="R7" s="135"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="56" t="s">
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="175" t="s">
+        <v>118</v>
+      </c>
+      <c r="U7" s="176"/>
+      <c r="V7" s="176"/>
+      <c r="W7" s="176"/>
+      <c r="X7" s="176"/>
+      <c r="Y7" s="176"/>
+      <c r="Z7" s="176"/>
+      <c r="AA7" s="176"/>
+      <c r="AB7" s="176"/>
+      <c r="AC7" s="176"/>
+      <c r="AD7" s="176"/>
+      <c r="AE7" s="176"/>
+      <c r="AF7" s="176"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="58"/>
+    </row>
+    <row r="8" spans="1:79" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="136"/>
+      <c r="C8" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="58"/>
-      <c r="AJ7" s="58"/>
-      <c r="AK7" s="58"/>
-      <c r="AL7" s="58"/>
-      <c r="AM7" s="58"/>
-      <c r="AN7" s="58"/>
-      <c r="AO7" s="58"/>
-      <c r="AP7" s="58"/>
-      <c r="AQ7" s="58"/>
-      <c r="AR7" s="59"/>
-    </row>
-    <row r="8" spans="1:79" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="133" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="134" t="s">
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="178" t="s">
+        <v>118</v>
+      </c>
+      <c r="U8" s="179"/>
+      <c r="V8" s="179"/>
+      <c r="W8" s="179"/>
+      <c r="X8" s="179"/>
+      <c r="Y8" s="179"/>
+      <c r="Z8" s="179"/>
+      <c r="AA8" s="179"/>
+      <c r="AB8" s="179"/>
+      <c r="AC8" s="179"/>
+      <c r="AD8" s="179"/>
+      <c r="AE8" s="179"/>
+      <c r="AF8" s="179"/>
+      <c r="AG8" s="180"/>
+      <c r="AH8" s="69"/>
+      <c r="AR8" s="70"/>
+    </row>
+    <row r="9" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A9" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="125"/>
+      <c r="C9" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="135" t="s">
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="145" t="s">
+        <v>66</v>
+      </c>
+      <c r="U9" s="146"/>
+      <c r="V9" s="146"/>
+      <c r="W9" s="146"/>
+      <c r="X9" s="146"/>
+      <c r="Y9" s="146"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="146"/>
+      <c r="AE9" s="146"/>
+      <c r="AF9" s="146"/>
+      <c r="AG9" s="146"/>
+      <c r="AH9" s="142" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI9" s="143"/>
+      <c r="AJ9" s="143"/>
+      <c r="AK9" s="143"/>
+      <c r="AL9" s="143"/>
+      <c r="AM9" s="143"/>
+      <c r="AN9" s="143"/>
+      <c r="AO9" s="143"/>
+      <c r="AP9" s="143"/>
+      <c r="AQ9" s="143"/>
+      <c r="AR9" s="144"/>
+    </row>
+    <row r="10" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A10" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="125"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="135"/>
-      <c r="S8" s="135"/>
-      <c r="T8" s="72" t="s">
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="131"/>
+      <c r="AA10" s="131"/>
+      <c r="AB10" s="131"/>
+      <c r="AC10" s="131"/>
+      <c r="AD10" s="131"/>
+      <c r="AE10" s="131"/>
+      <c r="AF10" s="131"/>
+      <c r="AG10" s="131"/>
+      <c r="AH10" s="127"/>
+      <c r="AI10" s="128"/>
+      <c r="AJ10" s="128"/>
+      <c r="AK10" s="128"/>
+      <c r="AL10" s="128"/>
+      <c r="AM10" s="128"/>
+      <c r="AN10" s="128"/>
+      <c r="AO10" s="128"/>
+      <c r="AP10" s="128"/>
+      <c r="AQ10" s="128"/>
+      <c r="AR10" s="129"/>
+    </row>
+    <row r="11" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A11" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="125"/>
+      <c r="C11" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="131"/>
+      <c r="Z11" s="131"/>
+      <c r="AA11" s="131"/>
+      <c r="AB11" s="131"/>
+      <c r="AC11" s="131"/>
+      <c r="AD11" s="131"/>
+      <c r="AE11" s="131"/>
+      <c r="AF11" s="131"/>
+      <c r="AG11" s="131"/>
+      <c r="AH11" s="127" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI11" s="128"/>
+      <c r="AJ11" s="128"/>
+      <c r="AK11" s="128"/>
+      <c r="AL11" s="128"/>
+      <c r="AM11" s="128"/>
+      <c r="AN11" s="128"/>
+      <c r="AO11" s="128"/>
+      <c r="AP11" s="128"/>
+      <c r="AQ11" s="128"/>
+      <c r="AR11" s="129"/>
+    </row>
+    <row r="12" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A12" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="125"/>
+      <c r="C12" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="AG8" s="73"/>
-      <c r="AH8" s="72"/>
-      <c r="AR8" s="73"/>
-    </row>
-    <row r="9" spans="1:79" ht="15.75" customHeight="1">
-      <c r="A9" s="139" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="117" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="128" t="s">
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
+      <c r="S12" s="126"/>
+      <c r="T12" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="128"/>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="128"/>
+      <c r="AG12" s="129"/>
+      <c r="AH12" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI12" s="123"/>
+      <c r="AJ12" s="123"/>
+      <c r="AK12" s="123"/>
+      <c r="AL12" s="123"/>
+      <c r="AM12" s="123"/>
+      <c r="AN12" s="123"/>
+      <c r="AO12" s="123"/>
+      <c r="AP12" s="123"/>
+      <c r="AQ12" s="123"/>
+      <c r="AR12" s="124"/>
+    </row>
+    <row r="13" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A13" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="125"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="126"/>
+      <c r="T13" s="127" t="s">
+        <v>112</v>
+      </c>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="128"/>
+      <c r="AD13" s="128"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="129"/>
+      <c r="AH13" s="123"/>
+      <c r="AI13" s="123"/>
+      <c r="AJ13" s="123"/>
+      <c r="AK13" s="123"/>
+      <c r="AL13" s="123"/>
+      <c r="AM13" s="123"/>
+      <c r="AN13" s="123"/>
+      <c r="AO13" s="123"/>
+      <c r="AP13" s="123"/>
+      <c r="AQ13" s="123"/>
+      <c r="AR13" s="124"/>
+    </row>
+    <row r="14" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A14" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="125"/>
+      <c r="C14" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="129"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="129"/>
-      <c r="Z9" s="129"/>
-      <c r="AA9" s="129"/>
-      <c r="AB9" s="129"/>
-      <c r="AC9" s="129"/>
-      <c r="AD9" s="129"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="129"/>
-      <c r="AG9" s="129"/>
-      <c r="AH9" s="123" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI9" s="124"/>
-      <c r="AJ9" s="124"/>
-      <c r="AK9" s="124"/>
-      <c r="AL9" s="124"/>
-      <c r="AM9" s="124"/>
-      <c r="AN9" s="124"/>
-      <c r="AO9" s="124"/>
-      <c r="AP9" s="124"/>
-      <c r="AQ9" s="124"/>
-      <c r="AR9" s="125"/>
-    </row>
-    <row r="10" spans="1:79" ht="15.75" customHeight="1">
-      <c r="A10" s="139" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="169" t="s">
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="170" t="s">
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="126"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="128"/>
+      <c r="Y14" s="128"/>
+      <c r="Z14" s="128"/>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="128"/>
+      <c r="AC14" s="128"/>
+      <c r="AD14" s="128"/>
+      <c r="AE14" s="128"/>
+      <c r="AF14" s="128"/>
+      <c r="AG14" s="129"/>
+      <c r="AH14" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI14" s="123"/>
+      <c r="AJ14" s="123"/>
+      <c r="AK14" s="123"/>
+      <c r="AL14" s="123"/>
+      <c r="AM14" s="123"/>
+      <c r="AN14" s="123"/>
+      <c r="AO14" s="123"/>
+      <c r="AP14" s="123"/>
+      <c r="AQ14" s="123"/>
+      <c r="AR14" s="124"/>
+    </row>
+    <row r="15" spans="1:79" ht="15.75" customHeight="1">
+      <c r="A15" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="125"/>
+      <c r="C15" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="126"/>
+      <c r="T15" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="U10" s="129"/>
-      <c r="V10" s="129"/>
-      <c r="W10" s="129"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="129"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="129"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="129"/>
-      <c r="AH10" s="173"/>
-      <c r="AI10" s="174"/>
-      <c r="AJ10" s="174"/>
-      <c r="AK10" s="174"/>
-      <c r="AL10" s="174"/>
-      <c r="AM10" s="174"/>
-      <c r="AN10" s="174"/>
-      <c r="AO10" s="174"/>
-      <c r="AP10" s="174"/>
-      <c r="AQ10" s="174"/>
-      <c r="AR10" s="175"/>
-    </row>
-    <row r="11" spans="1:79" ht="15.75" customHeight="1">
-      <c r="A11" s="139" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="117" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="169" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="171" t="s">
-        <v>111</v>
-      </c>
-      <c r="U11" s="172"/>
-      <c r="V11" s="172"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="172"/>
-      <c r="Z11" s="172"/>
-      <c r="AA11" s="172"/>
-      <c r="AB11" s="172"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="172"/>
-      <c r="AE11" s="172"/>
-      <c r="AF11" s="172"/>
-      <c r="AG11" s="172"/>
-      <c r="AH11" s="173" t="s">
+      <c r="U15" s="128"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="128"/>
+      <c r="AD15" s="128"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="129"/>
+      <c r="AH15" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="AI11" s="174"/>
-      <c r="AJ11" s="174"/>
-      <c r="AK11" s="174"/>
-      <c r="AL11" s="174"/>
-      <c r="AM11" s="174"/>
-      <c r="AN11" s="174"/>
-      <c r="AO11" s="174"/>
-      <c r="AP11" s="174"/>
-      <c r="AQ11" s="174"/>
-      <c r="AR11" s="175"/>
-    </row>
-    <row r="12" spans="1:79" ht="15.75" customHeight="1">
-      <c r="A12" s="139" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="117" t="s">
+      <c r="AI15" s="123"/>
+      <c r="AJ15" s="123"/>
+      <c r="AK15" s="123"/>
+      <c r="AL15" s="123"/>
+      <c r="AM15" s="123"/>
+      <c r="AN15" s="123"/>
+      <c r="AO15" s="123"/>
+      <c r="AP15" s="123"/>
+      <c r="AQ15" s="123"/>
+      <c r="AR15" s="124"/>
+    </row>
+    <row r="16" spans="1:79">
+      <c r="A16" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="125"/>
+      <c r="C16" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="123" t="s">
-        <v>110</v>
-      </c>
-      <c r="U12" s="124"/>
-      <c r="V12" s="124"/>
-      <c r="W12" s="124"/>
-      <c r="X12" s="124"/>
-      <c r="Y12" s="124"/>
-      <c r="Z12" s="124"/>
-      <c r="AA12" s="124"/>
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="124"/>
-      <c r="AD12" s="124"/>
-      <c r="AE12" s="124"/>
-      <c r="AF12" s="124"/>
-      <c r="AG12" s="125"/>
-      <c r="AH12" s="126" t="s">
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="AI12" s="126"/>
-      <c r="AJ12" s="126"/>
-      <c r="AK12" s="126"/>
-      <c r="AL12" s="126"/>
-      <c r="AM12" s="126"/>
-      <c r="AN12" s="126"/>
-      <c r="AO12" s="126"/>
-      <c r="AP12" s="126"/>
-      <c r="AQ12" s="126"/>
-      <c r="AR12" s="127"/>
-    </row>
-    <row r="13" spans="1:79" ht="15.75" customHeight="1">
-      <c r="A13" s="139" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="176" t="s">
-        <v>62</v>
-      </c>
-      <c r="N13" s="169"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="169"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="169"/>
-      <c r="T13" s="173" t="s">
-        <v>114</v>
-      </c>
-      <c r="U13" s="174"/>
-      <c r="V13" s="174"/>
-      <c r="W13" s="174"/>
-      <c r="X13" s="174"/>
-      <c r="Y13" s="174"/>
-      <c r="Z13" s="174"/>
-      <c r="AA13" s="174"/>
-      <c r="AB13" s="174"/>
-      <c r="AC13" s="174"/>
-      <c r="AD13" s="174"/>
-      <c r="AE13" s="174"/>
-      <c r="AF13" s="174"/>
-      <c r="AG13" s="175"/>
-      <c r="AH13" s="177"/>
-      <c r="AI13" s="178"/>
-      <c r="AJ13" s="178"/>
-      <c r="AK13" s="178"/>
-      <c r="AL13" s="178"/>
-      <c r="AM13" s="178"/>
-      <c r="AN13" s="178"/>
-      <c r="AO13" s="178"/>
-      <c r="AP13" s="178"/>
-      <c r="AQ13" s="178"/>
-      <c r="AR13" s="179"/>
-    </row>
-    <row r="14" spans="1:79" ht="15.75" customHeight="1">
-      <c r="A14" s="139" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="176" t="s">
-        <v>62</v>
-      </c>
-      <c r="N14" s="169"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="169"/>
-      <c r="T14" s="173" t="s">
-        <v>116</v>
-      </c>
-      <c r="U14" s="174"/>
-      <c r="V14" s="174"/>
-      <c r="W14" s="174"/>
-      <c r="X14" s="174"/>
-      <c r="Y14" s="174"/>
-      <c r="Z14" s="174"/>
-      <c r="AA14" s="174"/>
-      <c r="AB14" s="174"/>
-      <c r="AC14" s="174"/>
-      <c r="AD14" s="174"/>
-      <c r="AE14" s="174"/>
-      <c r="AF14" s="174"/>
-      <c r="AG14" s="175"/>
-      <c r="AH14" s="126" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI14" s="126"/>
-      <c r="AJ14" s="126"/>
-      <c r="AK14" s="126"/>
-      <c r="AL14" s="126"/>
-      <c r="AM14" s="126"/>
-      <c r="AN14" s="126"/>
-      <c r="AO14" s="126"/>
-      <c r="AP14" s="126"/>
-      <c r="AQ14" s="126"/>
-      <c r="AR14" s="127"/>
-    </row>
-    <row r="15" spans="1:79" ht="15.75" customHeight="1">
-      <c r="A15" s="139" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="176" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" s="169"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="169"/>
-      <c r="S15" s="169"/>
-      <c r="T15" s="173" t="s">
-        <v>115</v>
-      </c>
-      <c r="U15" s="174"/>
-      <c r="V15" s="174"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="174"/>
-      <c r="Y15" s="174"/>
-      <c r="Z15" s="174"/>
-      <c r="AA15" s="174"/>
-      <c r="AB15" s="174"/>
-      <c r="AC15" s="174"/>
-      <c r="AD15" s="174"/>
-      <c r="AE15" s="174"/>
-      <c r="AF15" s="174"/>
-      <c r="AG15" s="175"/>
-      <c r="AH15" s="126" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI15" s="126"/>
-      <c r="AJ15" s="126"/>
-      <c r="AK15" s="126"/>
-      <c r="AL15" s="126"/>
-      <c r="AM15" s="126"/>
-      <c r="AN15" s="126"/>
-      <c r="AO15" s="126"/>
-      <c r="AP15" s="126"/>
-      <c r="AQ15" s="126"/>
-      <c r="AR15" s="127"/>
-    </row>
-    <row r="16" spans="1:79">
-      <c r="A16" s="139" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="139"/>
-      <c r="C16" s="117" t="s">
+      <c r="N16" s="126"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="126"/>
+      <c r="T16" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117" t="s">
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="75"/>
+      <c r="AP16" s="75"/>
+      <c r="AQ16" s="75"/>
+      <c r="AR16" s="76"/>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="125"/>
+      <c r="C17" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="12" t="s">
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="126" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="126"/>
+      <c r="S17" s="126"/>
+      <c r="T17" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="14"/>
-    </row>
-    <row r="17" spans="1:44">
-      <c r="A17" s="139" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="14"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="74"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="75"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="75"/>
+      <c r="AN17" s="75"/>
+      <c r="AO17" s="75"/>
+      <c r="AP17" s="75"/>
+      <c r="AQ17" s="75"/>
+      <c r="AR17" s="76"/>
     </row>
     <row r="18" spans="1:44">
-      <c r="A18" s="139"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="117"/>
+      <c r="A18" s="125"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
       <c r="T18" s="12"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
@@ -5619,25 +5639,25 @@
       <c r="AR18" s="14"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="139"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
       <c r="T19" s="12"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
@@ -5665,25 +5685,25 @@
       <c r="AR19" s="14"/>
     </row>
     <row r="20" spans="1:44">
-      <c r="A20" s="139"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="117"/>
+      <c r="A20" s="125"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
       <c r="T20" s="12"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -5711,37 +5731,30 @@
       <c r="AR20" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="AH13:AR13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="T15:AG15"/>
-    <mergeCell ref="AH15:AR15"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:AG10"/>
-    <mergeCell ref="AH10:AR10"/>
-    <mergeCell ref="T14:AG14"/>
-    <mergeCell ref="AH14:AR14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:AG11"/>
-    <mergeCell ref="AH11:AR11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="T13:AG13"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="M14:S14"/>
+  <mergeCells count="69">
+    <mergeCell ref="AH9:AR9"/>
+    <mergeCell ref="AH12:AR12"/>
+    <mergeCell ref="T9:AG9"/>
+    <mergeCell ref="T2:AG2"/>
+    <mergeCell ref="AH2:AR2"/>
+    <mergeCell ref="T12:AG12"/>
+    <mergeCell ref="T7:AG7"/>
+    <mergeCell ref="T8:AG8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="M9:S9"/>
@@ -5758,27 +5771,36 @@
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="M17:S17"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:S2"/>
-    <mergeCell ref="AH9:AR9"/>
-    <mergeCell ref="AH12:AR12"/>
-    <mergeCell ref="T9:AG9"/>
-    <mergeCell ref="T2:AG2"/>
-    <mergeCell ref="AH2:AR2"/>
-    <mergeCell ref="T12:AG12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:AG11"/>
+    <mergeCell ref="AH11:AR11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:AG10"/>
+    <mergeCell ref="AH10:AR10"/>
+    <mergeCell ref="AH13:AR13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="T15:AG15"/>
+    <mergeCell ref="AH15:AR15"/>
+    <mergeCell ref="T14:AG14"/>
+    <mergeCell ref="AH14:AR14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="T13:AG13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AJ1:AJ2">
@@ -5804,7 +5826,7 @@
   <sheetData>
     <row r="1" spans="1:81" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5887,108 +5909,108 @@
       <c r="CC1" s="1"/>
     </row>
     <row r="2" spans="1:81" s="3" customFormat="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="122" t="s">
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="158"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="158"/>
+      <c r="AJ2" s="158"/>
+      <c r="AK2" s="158"/>
+      <c r="AL2" s="158"/>
+      <c r="AM2" s="158"/>
+      <c r="AN2" s="157" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO2" s="158"/>
+      <c r="AP2" s="158"/>
+      <c r="AQ2" s="158"/>
+      <c r="AR2" s="158"/>
+      <c r="AS2" s="158"/>
+      <c r="AT2" s="158"/>
+      <c r="AU2" s="158"/>
+      <c r="AV2" s="158"/>
+      <c r="AW2" s="158"/>
+      <c r="AX2" s="158"/>
+      <c r="AY2" s="158"/>
+      <c r="AZ2" s="158"/>
+      <c r="BA2" s="158"/>
+      <c r="BB2" s="159"/>
+    </row>
+    <row r="3" spans="1:81" s="3" customFormat="1">
+      <c r="A3" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="141" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="142"/>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="141" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="142"/>
-      <c r="AX2" s="142"/>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="143"/>
-    </row>
-    <row r="3" spans="1:81" s="3" customFormat="1">
-      <c r="A3" s="120" t="s">
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="116"/>
+      <c r="U3" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="120" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="121"/>
-      <c r="U3" s="144" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="145"/>
-      <c r="W3" s="145"/>
-      <c r="X3" s="145"/>
-      <c r="Y3" s="145"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="145"/>
-      <c r="AD3" s="146"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="161"/>
+      <c r="AD3" s="162"/>
       <c r="AE3" s="15"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
@@ -6016,7 +6038,7 @@
     </row>
     <row r="4" spans="1:81" s="3" customFormat="1">
       <c r="A4" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -6037,16 +6059,16 @@
       <c r="R4" s="37"/>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="75"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
       <c r="AE4" s="37"/>
       <c r="AF4" s="37"/>
       <c r="AG4" s="37"/>
@@ -6074,7 +6096,7 @@
     </row>
     <row r="5" spans="1:81" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6085,7 +6107,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
       <c r="J5" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -6096,11 +6118,11 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="6"/>
       <c r="S5" s="147" t="s">
-        <v>87</v>
-      </c>
-      <c r="T5" s="108"/>
+        <v>85</v>
+      </c>
+      <c r="T5" s="110"/>
       <c r="U5" s="148" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V5" s="149"/>
       <c r="W5" s="149"/>
@@ -6111,34 +6133,34 @@
       <c r="AB5" s="149"/>
       <c r="AC5" s="149"/>
       <c r="AD5" s="150"/>
-      <c r="AE5" s="117"/>
-      <c r="AF5" s="118"/>
-      <c r="AG5" s="118"/>
-      <c r="AH5" s="118"/>
-      <c r="AI5" s="118"/>
-      <c r="AJ5" s="118"/>
-      <c r="AK5" s="118"/>
-      <c r="AL5" s="118"/>
-      <c r="AM5" s="119"/>
-      <c r="AN5" s="117"/>
-      <c r="AO5" s="118"/>
-      <c r="AP5" s="118"/>
-      <c r="AQ5" s="118"/>
-      <c r="AR5" s="118"/>
-      <c r="AS5" s="118"/>
-      <c r="AT5" s="118"/>
-      <c r="AU5" s="118"/>
-      <c r="AV5" s="118"/>
-      <c r="AW5" s="118"/>
-      <c r="AX5" s="118"/>
-      <c r="AY5" s="118"/>
-      <c r="AZ5" s="118"/>
-      <c r="BA5" s="118"/>
-      <c r="BB5" s="119"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="111"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="112"/>
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="112"/>
+      <c r="BB5" s="113"/>
     </row>
     <row r="6" spans="1:81">
       <c r="A6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6149,7 +6171,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
       <c r="J6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -6160,11 +6182,11 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
       <c r="S6" s="147" t="s">
-        <v>87</v>
-      </c>
-      <c r="T6" s="108"/>
+        <v>85</v>
+      </c>
+      <c r="T6" s="110"/>
       <c r="U6" s="148" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V6" s="149"/>
       <c r="W6" s="149"/>
@@ -6175,36 +6197,36 @@
       <c r="AB6" s="149"/>
       <c r="AC6" s="149"/>
       <c r="AD6" s="150"/>
-      <c r="AE6" s="117"/>
-      <c r="AF6" s="118"/>
-      <c r="AG6" s="118"/>
-      <c r="AH6" s="118"/>
-      <c r="AI6" s="118"/>
-      <c r="AJ6" s="118"/>
-      <c r="AK6" s="118"/>
-      <c r="AL6" s="118"/>
-      <c r="AM6" s="119"/>
-      <c r="AN6" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO6" s="118"/>
-      <c r="AP6" s="118"/>
-      <c r="AQ6" s="118"/>
-      <c r="AR6" s="118"/>
-      <c r="AS6" s="118"/>
-      <c r="AT6" s="118"/>
-      <c r="AU6" s="118"/>
-      <c r="AV6" s="118"/>
-      <c r="AW6" s="118"/>
-      <c r="AX6" s="118"/>
-      <c r="AY6" s="118"/>
-      <c r="AZ6" s="118"/>
-      <c r="BA6" s="118"/>
-      <c r="BB6" s="119"/>
+      <c r="AE6" s="111"/>
+      <c r="AF6" s="112"/>
+      <c r="AG6" s="112"/>
+      <c r="AH6" s="112"/>
+      <c r="AI6" s="112"/>
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="112"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO6" s="112"/>
+      <c r="AP6" s="112"/>
+      <c r="AQ6" s="112"/>
+      <c r="AR6" s="112"/>
+      <c r="AS6" s="112"/>
+      <c r="AT6" s="112"/>
+      <c r="AU6" s="112"/>
+      <c r="AV6" s="112"/>
+      <c r="AW6" s="112"/>
+      <c r="AX6" s="112"/>
+      <c r="AY6" s="112"/>
+      <c r="AZ6" s="112"/>
+      <c r="BA6" s="112"/>
+      <c r="BB6" s="113"/>
     </row>
     <row r="7" spans="1:81" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -6215,7 +6237,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
       <c r="J7" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -6226,11 +6248,11 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="6"/>
       <c r="S7" s="147" t="s">
-        <v>87</v>
-      </c>
-      <c r="T7" s="108"/>
+        <v>85</v>
+      </c>
+      <c r="T7" s="110"/>
       <c r="U7" s="148" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V7" s="149"/>
       <c r="W7" s="149"/>
@@ -6241,34 +6263,34 @@
       <c r="AB7" s="149"/>
       <c r="AC7" s="149"/>
       <c r="AD7" s="150"/>
-      <c r="AE7" s="117"/>
-      <c r="AF7" s="118"/>
-      <c r="AG7" s="118"/>
-      <c r="AH7" s="118"/>
-      <c r="AI7" s="118"/>
-      <c r="AJ7" s="118"/>
-      <c r="AK7" s="118"/>
-      <c r="AL7" s="118"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="117"/>
-      <c r="AO7" s="118"/>
-      <c r="AP7" s="118"/>
-      <c r="AQ7" s="118"/>
-      <c r="AR7" s="118"/>
-      <c r="AS7" s="118"/>
-      <c r="AT7" s="118"/>
-      <c r="AU7" s="118"/>
-      <c r="AV7" s="118"/>
-      <c r="AW7" s="118"/>
-      <c r="AX7" s="118"/>
-      <c r="AY7" s="118"/>
-      <c r="AZ7" s="118"/>
-      <c r="BA7" s="118"/>
-      <c r="BB7" s="119"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="112"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="112"/>
+      <c r="AI7" s="112"/>
+      <c r="AJ7" s="112"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="112"/>
+      <c r="AM7" s="113"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="112"/>
+      <c r="AP7" s="112"/>
+      <c r="AQ7" s="112"/>
+      <c r="AR7" s="112"/>
+      <c r="AS7" s="112"/>
+      <c r="AT7" s="112"/>
+      <c r="AU7" s="112"/>
+      <c r="AV7" s="112"/>
+      <c r="AW7" s="112"/>
+      <c r="AX7" s="112"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="112"/>
+      <c r="BA7" s="112"/>
+      <c r="BB7" s="113"/>
     </row>
     <row r="8" spans="1:81" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6279,7 +6301,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -6290,11 +6312,11 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
       <c r="S8" s="147" t="s">
-        <v>87</v>
-      </c>
-      <c r="T8" s="108"/>
+        <v>85</v>
+      </c>
+      <c r="T8" s="110"/>
       <c r="U8" s="148" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V8" s="149"/>
       <c r="W8" s="149"/>
@@ -6305,34 +6327,34 @@
       <c r="AB8" s="149"/>
       <c r="AC8" s="149"/>
       <c r="AD8" s="150"/>
-      <c r="AE8" s="117"/>
-      <c r="AF8" s="118"/>
-      <c r="AG8" s="118"/>
-      <c r="AH8" s="118"/>
-      <c r="AI8" s="118"/>
-      <c r="AJ8" s="118"/>
-      <c r="AK8" s="118"/>
-      <c r="AL8" s="118"/>
-      <c r="AM8" s="119"/>
-      <c r="AN8" s="117"/>
-      <c r="AO8" s="118"/>
-      <c r="AP8" s="118"/>
-      <c r="AQ8" s="118"/>
-      <c r="AR8" s="118"/>
-      <c r="AS8" s="118"/>
-      <c r="AT8" s="118"/>
-      <c r="AU8" s="118"/>
-      <c r="AV8" s="118"/>
-      <c r="AW8" s="118"/>
-      <c r="AX8" s="118"/>
-      <c r="AY8" s="118"/>
-      <c r="AZ8" s="118"/>
-      <c r="BA8" s="118"/>
-      <c r="BB8" s="119"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="112"/>
+      <c r="AG8" s="112"/>
+      <c r="AH8" s="112"/>
+      <c r="AI8" s="112"/>
+      <c r="AJ8" s="112"/>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="112"/>
+      <c r="AM8" s="113"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="112"/>
+      <c r="AP8" s="112"/>
+      <c r="AQ8" s="112"/>
+      <c r="AR8" s="112"/>
+      <c r="AS8" s="112"/>
+      <c r="AT8" s="112"/>
+      <c r="AU8" s="112"/>
+      <c r="AV8" s="112"/>
+      <c r="AW8" s="112"/>
+      <c r="AX8" s="112"/>
+      <c r="AY8" s="112"/>
+      <c r="AZ8" s="112"/>
+      <c r="BA8" s="112"/>
+      <c r="BB8" s="113"/>
     </row>
     <row r="9" spans="1:81" ht="15" customHeight="1">
-      <c r="A9" s="76" t="s">
-        <v>85</v>
+      <c r="A9" s="73" t="s">
+        <v>83</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6342,8 +6364,8 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="74" t="s">
-        <v>95</v>
+      <c r="J9" s="71" t="s">
+        <v>93</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -6354,11 +6376,11 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="6"/>
       <c r="S9" s="151" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T9" s="152"/>
       <c r="U9" s="148" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V9" s="149"/>
       <c r="W9" s="149"/>
@@ -6370,16 +6392,16 @@
       <c r="AC9" s="149"/>
       <c r="AD9" s="150"/>
       <c r="AE9" s="153"/>
-      <c r="AF9" s="118"/>
-      <c r="AG9" s="118"/>
-      <c r="AH9" s="118"/>
-      <c r="AI9" s="118"/>
-      <c r="AJ9" s="118"/>
-      <c r="AK9" s="118"/>
-      <c r="AL9" s="118"/>
-      <c r="AM9" s="119"/>
+      <c r="AF9" s="112"/>
+      <c r="AG9" s="112"/>
+      <c r="AH9" s="112"/>
+      <c r="AI9" s="112"/>
+      <c r="AJ9" s="112"/>
+      <c r="AK9" s="112"/>
+      <c r="AL9" s="112"/>
+      <c r="AM9" s="113"/>
       <c r="AN9" s="154" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AO9" s="155"/>
       <c r="AP9" s="155"/>
@@ -6398,7 +6420,7 @@
     </row>
     <row r="10" spans="1:81">
       <c r="A10" s="36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -6419,16 +6441,16 @@
       <c r="R10" s="37"/>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
       <c r="AE10" s="37"/>
       <c r="AF10" s="37"/>
       <c r="AG10" s="37"/>
@@ -6483,7 +6505,7 @@
     </row>
     <row r="11" spans="1:81">
       <c r="A11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6494,7 +6516,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -6504,12 +6526,12 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="T11" s="108"/>
+      <c r="S11" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="T11" s="110"/>
       <c r="U11" s="148" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V11" s="149"/>
       <c r="W11" s="149"/>
@@ -6520,34 +6542,34 @@
       <c r="AB11" s="149"/>
       <c r="AC11" s="149"/>
       <c r="AD11" s="150"/>
-      <c r="AE11" s="117"/>
-      <c r="AF11" s="118"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="118"/>
-      <c r="AK11" s="118"/>
-      <c r="AL11" s="118"/>
-      <c r="AM11" s="119"/>
-      <c r="AN11" s="117"/>
-      <c r="AO11" s="118"/>
-      <c r="AP11" s="118"/>
-      <c r="AQ11" s="118"/>
-      <c r="AR11" s="118"/>
-      <c r="AS11" s="118"/>
-      <c r="AT11" s="118"/>
-      <c r="AU11" s="118"/>
-      <c r="AV11" s="118"/>
-      <c r="AW11" s="118"/>
-      <c r="AX11" s="118"/>
-      <c r="AY11" s="118"/>
-      <c r="AZ11" s="118"/>
-      <c r="BA11" s="118"/>
-      <c r="BB11" s="119"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="112"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="112"/>
+      <c r="AI11" s="112"/>
+      <c r="AJ11" s="112"/>
+      <c r="AK11" s="112"/>
+      <c r="AL11" s="112"/>
+      <c r="AM11" s="113"/>
+      <c r="AN11" s="111"/>
+      <c r="AO11" s="112"/>
+      <c r="AP11" s="112"/>
+      <c r="AQ11" s="112"/>
+      <c r="AR11" s="112"/>
+      <c r="AS11" s="112"/>
+      <c r="AT11" s="112"/>
+      <c r="AU11" s="112"/>
+      <c r="AV11" s="112"/>
+      <c r="AW11" s="112"/>
+      <c r="AX11" s="112"/>
+      <c r="AY11" s="112"/>
+      <c r="AZ11" s="112"/>
+      <c r="BA11" s="112"/>
+      <c r="BB11" s="113"/>
     </row>
     <row r="12" spans="1:81">
       <c r="A12" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6558,7 +6580,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -6568,12 +6590,12 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="T12" s="108"/>
+      <c r="S12" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="T12" s="110"/>
       <c r="U12" s="148" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V12" s="149"/>
       <c r="W12" s="149"/>
@@ -6584,17 +6606,17 @@
       <c r="AB12" s="149"/>
       <c r="AC12" s="149"/>
       <c r="AD12" s="150"/>
-      <c r="AE12" s="117"/>
-      <c r="AF12" s="118"/>
-      <c r="AG12" s="118"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="118"/>
-      <c r="AJ12" s="118"/>
-      <c r="AK12" s="118"/>
-      <c r="AL12" s="118"/>
-      <c r="AM12" s="119"/>
+      <c r="AE12" s="111"/>
+      <c r="AF12" s="112"/>
+      <c r="AG12" s="112"/>
+      <c r="AH12" s="112"/>
+      <c r="AI12" s="112"/>
+      <c r="AJ12" s="112"/>
+      <c r="AK12" s="112"/>
+      <c r="AL12" s="112"/>
+      <c r="AM12" s="113"/>
       <c r="AN12" s="148" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AO12" s="149"/>
       <c r="AP12" s="149"/>
@@ -6630,8 +6652,8 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="108"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="110"/>
       <c r="U13" s="148"/>
       <c r="V13" s="149"/>
       <c r="W13" s="149"/>
@@ -6642,30 +6664,30 @@
       <c r="AB13" s="149"/>
       <c r="AC13" s="149"/>
       <c r="AD13" s="150"/>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="118"/>
-      <c r="AG13" s="118"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="118"/>
-      <c r="AK13" s="118"/>
-      <c r="AL13" s="118"/>
-      <c r="AM13" s="119"/>
-      <c r="AN13" s="117"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="118"/>
-      <c r="AQ13" s="118"/>
-      <c r="AR13" s="118"/>
-      <c r="AS13" s="118"/>
-      <c r="AT13" s="118"/>
-      <c r="AU13" s="118"/>
-      <c r="AV13" s="118"/>
-      <c r="AW13" s="118"/>
-      <c r="AX13" s="118"/>
-      <c r="AY13" s="118"/>
-      <c r="AZ13" s="118"/>
-      <c r="BA13" s="118"/>
-      <c r="BB13" s="119"/>
+      <c r="AE13" s="111"/>
+      <c r="AF13" s="112"/>
+      <c r="AG13" s="112"/>
+      <c r="AH13" s="112"/>
+      <c r="AI13" s="112"/>
+      <c r="AJ13" s="112"/>
+      <c r="AK13" s="112"/>
+      <c r="AL13" s="112"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="111"/>
+      <c r="AO13" s="112"/>
+      <c r="AP13" s="112"/>
+      <c r="AQ13" s="112"/>
+      <c r="AR13" s="112"/>
+      <c r="AS13" s="112"/>
+      <c r="AT13" s="112"/>
+      <c r="AU13" s="112"/>
+      <c r="AV13" s="112"/>
+      <c r="AW13" s="112"/>
+      <c r="AX13" s="112"/>
+      <c r="AY13" s="112"/>
+      <c r="AZ13" s="112"/>
+      <c r="BA13" s="112"/>
+      <c r="BB13" s="113"/>
     </row>
     <row r="14" spans="1:81">
       <c r="A14" s="4"/>
@@ -6686,8 +6708,8 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="108"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="110"/>
       <c r="U14" s="148"/>
       <c r="V14" s="149"/>
       <c r="W14" s="149"/>
@@ -6698,30 +6720,30 @@
       <c r="AB14" s="149"/>
       <c r="AC14" s="149"/>
       <c r="AD14" s="150"/>
-      <c r="AE14" s="117"/>
-      <c r="AF14" s="118"/>
-      <c r="AG14" s="118"/>
-      <c r="AH14" s="118"/>
-      <c r="AI14" s="118"/>
-      <c r="AJ14" s="118"/>
-      <c r="AK14" s="118"/>
-      <c r="AL14" s="118"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="118"/>
-      <c r="AQ14" s="118"/>
-      <c r="AR14" s="118"/>
-      <c r="AS14" s="118"/>
-      <c r="AT14" s="118"/>
-      <c r="AU14" s="118"/>
-      <c r="AV14" s="118"/>
-      <c r="AW14" s="118"/>
-      <c r="AX14" s="118"/>
-      <c r="AY14" s="118"/>
-      <c r="AZ14" s="118"/>
-      <c r="BA14" s="118"/>
-      <c r="BB14" s="119"/>
+      <c r="AE14" s="111"/>
+      <c r="AF14" s="112"/>
+      <c r="AG14" s="112"/>
+      <c r="AH14" s="112"/>
+      <c r="AI14" s="112"/>
+      <c r="AJ14" s="112"/>
+      <c r="AK14" s="112"/>
+      <c r="AL14" s="112"/>
+      <c r="AM14" s="113"/>
+      <c r="AN14" s="111"/>
+      <c r="AO14" s="112"/>
+      <c r="AP14" s="112"/>
+      <c r="AQ14" s="112"/>
+      <c r="AR14" s="112"/>
+      <c r="AS14" s="112"/>
+      <c r="AT14" s="112"/>
+      <c r="AU14" s="112"/>
+      <c r="AV14" s="112"/>
+      <c r="AW14" s="112"/>
+      <c r="AX14" s="112"/>
+      <c r="AY14" s="112"/>
+      <c r="AZ14" s="112"/>
+      <c r="BA14" s="112"/>
+      <c r="BB14" s="113"/>
     </row>
     <row r="15" spans="1:81">
       <c r="A15" s="4"/>
@@ -6743,7 +6765,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="6"/>
       <c r="S15" s="147"/>
-      <c r="T15" s="108"/>
+      <c r="T15" s="110"/>
       <c r="U15" s="148"/>
       <c r="V15" s="149"/>
       <c r="W15" s="149"/>
@@ -6754,30 +6776,30 @@
       <c r="AB15" s="149"/>
       <c r="AC15" s="149"/>
       <c r="AD15" s="150"/>
-      <c r="AE15" s="117"/>
-      <c r="AF15" s="118"/>
-      <c r="AG15" s="118"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="119"/>
-      <c r="AN15" s="117"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="118"/>
-      <c r="AT15" s="118"/>
-      <c r="AU15" s="118"/>
-      <c r="AV15" s="118"/>
-      <c r="AW15" s="118"/>
-      <c r="AX15" s="118"/>
-      <c r="AY15" s="118"/>
-      <c r="AZ15" s="118"/>
-      <c r="BA15" s="118"/>
-      <c r="BB15" s="119"/>
+      <c r="AE15" s="111"/>
+      <c r="AF15" s="112"/>
+      <c r="AG15" s="112"/>
+      <c r="AH15" s="112"/>
+      <c r="AI15" s="112"/>
+      <c r="AJ15" s="112"/>
+      <c r="AK15" s="112"/>
+      <c r="AL15" s="112"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="111"/>
+      <c r="AO15" s="112"/>
+      <c r="AP15" s="112"/>
+      <c r="AQ15" s="112"/>
+      <c r="AR15" s="112"/>
+      <c r="AS15" s="112"/>
+      <c r="AT15" s="112"/>
+      <c r="AU15" s="112"/>
+      <c r="AV15" s="112"/>
+      <c r="AW15" s="112"/>
+      <c r="AX15" s="112"/>
+      <c r="AY15" s="112"/>
+      <c r="AZ15" s="112"/>
+      <c r="BA15" s="112"/>
+      <c r="BB15" s="113"/>
     </row>
     <row r="16" spans="1:81">
       <c r="A16" s="4"/>
@@ -6799,7 +6821,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="6"/>
       <c r="S16" s="147"/>
-      <c r="T16" s="108"/>
+      <c r="T16" s="110"/>
       <c r="U16" s="148"/>
       <c r="V16" s="149"/>
       <c r="W16" s="149"/>
@@ -6810,30 +6832,30 @@
       <c r="AB16" s="149"/>
       <c r="AC16" s="149"/>
       <c r="AD16" s="150"/>
-      <c r="AE16" s="117"/>
-      <c r="AF16" s="118"/>
-      <c r="AG16" s="118"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="118"/>
-      <c r="AK16" s="118"/>
-      <c r="AL16" s="118"/>
-      <c r="AM16" s="119"/>
-      <c r="AN16" s="117"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
-      <c r="AS16" s="118"/>
-      <c r="AT16" s="118"/>
-      <c r="AU16" s="118"/>
-      <c r="AV16" s="118"/>
-      <c r="AW16" s="118"/>
-      <c r="AX16" s="118"/>
-      <c r="AY16" s="118"/>
-      <c r="AZ16" s="118"/>
-      <c r="BA16" s="118"/>
-      <c r="BB16" s="119"/>
+      <c r="AE16" s="111"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="112"/>
+      <c r="AH16" s="112"/>
+      <c r="AI16" s="112"/>
+      <c r="AJ16" s="112"/>
+      <c r="AK16" s="112"/>
+      <c r="AL16" s="112"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="111"/>
+      <c r="AO16" s="112"/>
+      <c r="AP16" s="112"/>
+      <c r="AQ16" s="112"/>
+      <c r="AR16" s="112"/>
+      <c r="AS16" s="112"/>
+      <c r="AT16" s="112"/>
+      <c r="AU16" s="112"/>
+      <c r="AV16" s="112"/>
+      <c r="AW16" s="112"/>
+      <c r="AX16" s="112"/>
+      <c r="AY16" s="112"/>
+      <c r="AZ16" s="112"/>
+      <c r="BA16" s="112"/>
+      <c r="BB16" s="113"/>
     </row>
     <row r="17" spans="1:54">
       <c r="A17" s="4"/>
@@ -6855,7 +6877,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="6"/>
       <c r="S17" s="147"/>
-      <c r="T17" s="108"/>
+      <c r="T17" s="110"/>
       <c r="U17" s="148"/>
       <c r="V17" s="149"/>
       <c r="W17" s="149"/>
@@ -6866,30 +6888,30 @@
       <c r="AB17" s="149"/>
       <c r="AC17" s="149"/>
       <c r="AD17" s="150"/>
-      <c r="AE17" s="117"/>
-      <c r="AF17" s="118"/>
-      <c r="AG17" s="118"/>
-      <c r="AH17" s="118"/>
-      <c r="AI17" s="118"/>
-      <c r="AJ17" s="118"/>
-      <c r="AK17" s="118"/>
-      <c r="AL17" s="118"/>
-      <c r="AM17" s="119"/>
-      <c r="AN17" s="117"/>
-      <c r="AO17" s="118"/>
-      <c r="AP17" s="118"/>
-      <c r="AQ17" s="118"/>
-      <c r="AR17" s="118"/>
-      <c r="AS17" s="118"/>
-      <c r="AT17" s="118"/>
-      <c r="AU17" s="118"/>
-      <c r="AV17" s="118"/>
-      <c r="AW17" s="118"/>
-      <c r="AX17" s="118"/>
-      <c r="AY17" s="118"/>
-      <c r="AZ17" s="118"/>
-      <c r="BA17" s="118"/>
-      <c r="BB17" s="119"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="112"/>
+      <c r="AH17" s="112"/>
+      <c r="AI17" s="112"/>
+      <c r="AJ17" s="112"/>
+      <c r="AK17" s="112"/>
+      <c r="AL17" s="112"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="111"/>
+      <c r="AO17" s="112"/>
+      <c r="AP17" s="112"/>
+      <c r="AQ17" s="112"/>
+      <c r="AR17" s="112"/>
+      <c r="AS17" s="112"/>
+      <c r="AT17" s="112"/>
+      <c r="AU17" s="112"/>
+      <c r="AV17" s="112"/>
+      <c r="AW17" s="112"/>
+      <c r="AX17" s="112"/>
+      <c r="AY17" s="112"/>
+      <c r="AZ17" s="112"/>
+      <c r="BA17" s="112"/>
+      <c r="BB17" s="113"/>
     </row>
     <row r="18" spans="1:54">
       <c r="A18" s="4"/>
@@ -6911,7 +6933,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="6"/>
       <c r="S18" s="147"/>
-      <c r="T18" s="108"/>
+      <c r="T18" s="110"/>
       <c r="U18" s="148"/>
       <c r="V18" s="149"/>
       <c r="W18" s="149"/>
@@ -6922,33 +6944,77 @@
       <c r="AB18" s="149"/>
       <c r="AC18" s="149"/>
       <c r="AD18" s="150"/>
-      <c r="AE18" s="117"/>
-      <c r="AF18" s="118"/>
-      <c r="AG18" s="118"/>
-      <c r="AH18" s="118"/>
-      <c r="AI18" s="118"/>
-      <c r="AJ18" s="118"/>
-      <c r="AK18" s="118"/>
-      <c r="AL18" s="118"/>
-      <c r="AM18" s="119"/>
-      <c r="AN18" s="117"/>
-      <c r="AO18" s="118"/>
-      <c r="AP18" s="118"/>
-      <c r="AQ18" s="118"/>
-      <c r="AR18" s="118"/>
-      <c r="AS18" s="118"/>
-      <c r="AT18" s="118"/>
-      <c r="AU18" s="118"/>
-      <c r="AV18" s="118"/>
-      <c r="AW18" s="118"/>
-      <c r="AX18" s="118"/>
-      <c r="AY18" s="118"/>
-      <c r="AZ18" s="118"/>
-      <c r="BA18" s="118"/>
-      <c r="BB18" s="119"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="112"/>
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="112"/>
+      <c r="AJ18" s="112"/>
+      <c r="AK18" s="112"/>
+      <c r="AL18" s="112"/>
+      <c r="AM18" s="113"/>
+      <c r="AN18" s="111"/>
+      <c r="AO18" s="112"/>
+      <c r="AP18" s="112"/>
+      <c r="AQ18" s="112"/>
+      <c r="AR18" s="112"/>
+      <c r="AS18" s="112"/>
+      <c r="AT18" s="112"/>
+      <c r="AU18" s="112"/>
+      <c r="AV18" s="112"/>
+      <c r="AW18" s="112"/>
+      <c r="AX18" s="112"/>
+      <c r="AY18" s="112"/>
+      <c r="AZ18" s="112"/>
+      <c r="BA18" s="112"/>
+      <c r="BB18" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="AN2:BB2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:AD5"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="AN5:BB5"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:AD6"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="AN6:BB6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AN7:BB7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="AN8:BB8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AM9"/>
+    <mergeCell ref="AN9:BB9"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AN11:BB11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BB12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="AN13:BB13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BB14"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="U15:AD15"/>
     <mergeCell ref="AE15:AM15"/>
@@ -6965,50 +7031,6 @@
     <mergeCell ref="U17:AD17"/>
     <mergeCell ref="AE17:AM17"/>
     <mergeCell ref="AN17:BB17"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="AN13:BB13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BB14"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AN11:BB11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BB12"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AM8"/>
-    <mergeCell ref="AN8:BB8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AM9"/>
-    <mergeCell ref="AN9:BB9"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:AD6"/>
-    <mergeCell ref="AE6:AM6"/>
-    <mergeCell ref="AN6:BB6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="AE7:AM7"/>
-    <mergeCell ref="AN7:BB7"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:AD5"/>
-    <mergeCell ref="AE5:AM5"/>
-    <mergeCell ref="AN5:BB5"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="AN2:BB2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7031,7 +7053,7 @@
   <sheetData>
     <row r="1" spans="1:54" ht="24">
       <c r="A1" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -7088,1253 +7110,1343 @@
       <c r="BB1" s="31"/>
     </row>
     <row r="2" spans="1:54">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="172" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="173"/>
+      <c r="C2" s="172" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="172" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="157" t="s">
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="157" t="s">
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="172" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="157" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="157" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="159"/>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="159"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="159"/>
-      <c r="AJ2" s="159"/>
-      <c r="AK2" s="159"/>
-      <c r="AL2" s="159"/>
-      <c r="AM2" s="159"/>
-      <c r="AN2" s="159"/>
-      <c r="AO2" s="159"/>
-      <c r="AP2" s="159"/>
-      <c r="AQ2" s="159"/>
-      <c r="AR2" s="159"/>
-      <c r="AS2" s="159"/>
-      <c r="AT2" s="159"/>
-      <c r="AU2" s="159"/>
-      <c r="AV2" s="159"/>
-      <c r="AW2" s="159"/>
-      <c r="AX2" s="159"/>
-      <c r="AY2" s="159"/>
-      <c r="AZ2" s="159"/>
-      <c r="BA2" s="159"/>
-      <c r="BB2" s="158"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="174"/>
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="174"/>
+      <c r="AJ2" s="174"/>
+      <c r="AK2" s="174"/>
+      <c r="AL2" s="174"/>
+      <c r="AM2" s="174"/>
+      <c r="AN2" s="174"/>
+      <c r="AO2" s="174"/>
+      <c r="AP2" s="174"/>
+      <c r="AQ2" s="174"/>
+      <c r="AR2" s="174"/>
+      <c r="AS2" s="174"/>
+      <c r="AT2" s="174"/>
+      <c r="AU2" s="174"/>
+      <c r="AV2" s="174"/>
+      <c r="AW2" s="174"/>
+      <c r="AX2" s="174"/>
+      <c r="AY2" s="174"/>
+      <c r="AZ2" s="174"/>
+      <c r="BA2" s="174"/>
+      <c r="BB2" s="173"/>
     </row>
     <row r="3" spans="1:54">
-      <c r="A3" s="160">
+      <c r="A3" s="163">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="168"/>
-      <c r="AI3" s="168"/>
-      <c r="AJ3" s="168"/>
-      <c r="AK3" s="168"/>
-      <c r="AL3" s="168"/>
-      <c r="AM3" s="168"/>
-      <c r="AN3" s="168"/>
-      <c r="AO3" s="168"/>
-      <c r="AP3" s="168"/>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
-      <c r="AT3" s="168"/>
-      <c r="AU3" s="168"/>
-      <c r="AV3" s="168"/>
-      <c r="AW3" s="168"/>
-      <c r="AX3" s="168"/>
-      <c r="AY3" s="168"/>
-      <c r="AZ3" s="168"/>
-      <c r="BA3" s="168"/>
-      <c r="BB3" s="161"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="171"/>
+      <c r="AG3" s="171"/>
+      <c r="AH3" s="171"/>
+      <c r="AI3" s="171"/>
+      <c r="AJ3" s="171"/>
+      <c r="AK3" s="171"/>
+      <c r="AL3" s="171"/>
+      <c r="AM3" s="171"/>
+      <c r="AN3" s="171"/>
+      <c r="AO3" s="171"/>
+      <c r="AP3" s="171"/>
+      <c r="AQ3" s="171"/>
+      <c r="AR3" s="171"/>
+      <c r="AS3" s="171"/>
+      <c r="AT3" s="171"/>
+      <c r="AU3" s="171"/>
+      <c r="AV3" s="171"/>
+      <c r="AW3" s="171"/>
+      <c r="AX3" s="171"/>
+      <c r="AY3" s="171"/>
+      <c r="AZ3" s="171"/>
+      <c r="BA3" s="171"/>
+      <c r="BB3" s="164"/>
     </row>
     <row r="4" spans="1:54">
-      <c r="A4" s="160">
+      <c r="A4" s="163">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="168"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="168"/>
-      <c r="AC4" s="168"/>
-      <c r="AD4" s="168"/>
-      <c r="AE4" s="168"/>
-      <c r="AF4" s="168"/>
-      <c r="AG4" s="168"/>
-      <c r="AH4" s="168"/>
-      <c r="AI4" s="168"/>
-      <c r="AJ4" s="168"/>
-      <c r="AK4" s="168"/>
-      <c r="AL4" s="168"/>
-      <c r="AM4" s="168"/>
-      <c r="AN4" s="168"/>
-      <c r="AO4" s="168"/>
-      <c r="AP4" s="168"/>
-      <c r="AQ4" s="168"/>
-      <c r="AR4" s="168"/>
-      <c r="AS4" s="168"/>
-      <c r="AT4" s="168"/>
-      <c r="AU4" s="168"/>
-      <c r="AV4" s="168"/>
-      <c r="AW4" s="168"/>
-      <c r="AX4" s="168"/>
-      <c r="AY4" s="168"/>
-      <c r="AZ4" s="168"/>
-      <c r="BA4" s="168"/>
-      <c r="BB4" s="161"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="171"/>
+      <c r="T4" s="171"/>
+      <c r="U4" s="171"/>
+      <c r="V4" s="171"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="171"/>
+      <c r="Y4" s="171"/>
+      <c r="Z4" s="164"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="171"/>
+      <c r="AC4" s="171"/>
+      <c r="AD4" s="171"/>
+      <c r="AE4" s="171"/>
+      <c r="AF4" s="171"/>
+      <c r="AG4" s="171"/>
+      <c r="AH4" s="171"/>
+      <c r="AI4" s="171"/>
+      <c r="AJ4" s="171"/>
+      <c r="AK4" s="171"/>
+      <c r="AL4" s="171"/>
+      <c r="AM4" s="171"/>
+      <c r="AN4" s="171"/>
+      <c r="AO4" s="171"/>
+      <c r="AP4" s="171"/>
+      <c r="AQ4" s="171"/>
+      <c r="AR4" s="171"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="171"/>
+      <c r="AU4" s="171"/>
+      <c r="AV4" s="171"/>
+      <c r="AW4" s="171"/>
+      <c r="AX4" s="171"/>
+      <c r="AY4" s="171"/>
+      <c r="AZ4" s="171"/>
+      <c r="BA4" s="171"/>
+      <c r="BB4" s="164"/>
     </row>
     <row r="5" spans="1:54">
-      <c r="A5" s="160">
+      <c r="A5" s="163">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="168"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="161"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="168"/>
-      <c r="AE5" s="168"/>
-      <c r="AF5" s="168"/>
-      <c r="AG5" s="168"/>
-      <c r="AH5" s="168"/>
-      <c r="AI5" s="168"/>
-      <c r="AJ5" s="168"/>
-      <c r="AK5" s="168"/>
-      <c r="AL5" s="168"/>
-      <c r="AM5" s="168"/>
-      <c r="AN5" s="168"/>
-      <c r="AO5" s="168"/>
-      <c r="AP5" s="168"/>
-      <c r="AQ5" s="168"/>
-      <c r="AR5" s="168"/>
-      <c r="AS5" s="168"/>
-      <c r="AT5" s="168"/>
-      <c r="AU5" s="168"/>
-      <c r="AV5" s="168"/>
-      <c r="AW5" s="168"/>
-      <c r="AX5" s="168"/>
-      <c r="AY5" s="168"/>
-      <c r="AZ5" s="168"/>
-      <c r="BA5" s="168"/>
-      <c r="BB5" s="161"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="164"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="171"/>
+      <c r="AC5" s="171"/>
+      <c r="AD5" s="171"/>
+      <c r="AE5" s="171"/>
+      <c r="AF5" s="171"/>
+      <c r="AG5" s="171"/>
+      <c r="AH5" s="171"/>
+      <c r="AI5" s="171"/>
+      <c r="AJ5" s="171"/>
+      <c r="AK5" s="171"/>
+      <c r="AL5" s="171"/>
+      <c r="AM5" s="171"/>
+      <c r="AN5" s="171"/>
+      <c r="AO5" s="171"/>
+      <c r="AP5" s="171"/>
+      <c r="AQ5" s="171"/>
+      <c r="AR5" s="171"/>
+      <c r="AS5" s="171"/>
+      <c r="AT5" s="171"/>
+      <c r="AU5" s="171"/>
+      <c r="AV5" s="171"/>
+      <c r="AW5" s="171"/>
+      <c r="AX5" s="171"/>
+      <c r="AY5" s="171"/>
+      <c r="AZ5" s="171"/>
+      <c r="BA5" s="171"/>
+      <c r="BB5" s="164"/>
     </row>
     <row r="6" spans="1:54">
-      <c r="A6" s="160">
+      <c r="A6" s="163">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="168"/>
-      <c r="S6" s="168"/>
-      <c r="T6" s="168"/>
-      <c r="U6" s="168"/>
-      <c r="V6" s="168"/>
-      <c r="W6" s="168"/>
-      <c r="X6" s="168"/>
-      <c r="Y6" s="168"/>
-      <c r="Z6" s="161"/>
-      <c r="AA6" s="160"/>
-      <c r="AB6" s="168"/>
-      <c r="AC6" s="168"/>
-      <c r="AD6" s="168"/>
-      <c r="AE6" s="168"/>
-      <c r="AF6" s="168"/>
-      <c r="AG6" s="168"/>
-      <c r="AH6" s="168"/>
-      <c r="AI6" s="168"/>
-      <c r="AJ6" s="168"/>
-      <c r="AK6" s="168"/>
-      <c r="AL6" s="168"/>
-      <c r="AM6" s="168"/>
-      <c r="AN6" s="168"/>
-      <c r="AO6" s="168"/>
-      <c r="AP6" s="168"/>
-      <c r="AQ6" s="168"/>
-      <c r="AR6" s="168"/>
-      <c r="AS6" s="168"/>
-      <c r="AT6" s="168"/>
-      <c r="AU6" s="168"/>
-      <c r="AV6" s="168"/>
-      <c r="AW6" s="168"/>
-      <c r="AX6" s="168"/>
-      <c r="AY6" s="168"/>
-      <c r="AZ6" s="168"/>
-      <c r="BA6" s="168"/>
-      <c r="BB6" s="161"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="171"/>
+      <c r="Q6" s="171"/>
+      <c r="R6" s="171"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="171"/>
+      <c r="U6" s="171"/>
+      <c r="V6" s="171"/>
+      <c r="W6" s="171"/>
+      <c r="X6" s="171"/>
+      <c r="Y6" s="171"/>
+      <c r="Z6" s="164"/>
+      <c r="AA6" s="163"/>
+      <c r="AB6" s="171"/>
+      <c r="AC6" s="171"/>
+      <c r="AD6" s="171"/>
+      <c r="AE6" s="171"/>
+      <c r="AF6" s="171"/>
+      <c r="AG6" s="171"/>
+      <c r="AH6" s="171"/>
+      <c r="AI6" s="171"/>
+      <c r="AJ6" s="171"/>
+      <c r="AK6" s="171"/>
+      <c r="AL6" s="171"/>
+      <c r="AM6" s="171"/>
+      <c r="AN6" s="171"/>
+      <c r="AO6" s="171"/>
+      <c r="AP6" s="171"/>
+      <c r="AQ6" s="171"/>
+      <c r="AR6" s="171"/>
+      <c r="AS6" s="171"/>
+      <c r="AT6" s="171"/>
+      <c r="AU6" s="171"/>
+      <c r="AV6" s="171"/>
+      <c r="AW6" s="171"/>
+      <c r="AX6" s="171"/>
+      <c r="AY6" s="171"/>
+      <c r="AZ6" s="171"/>
+      <c r="BA6" s="171"/>
+      <c r="BB6" s="164"/>
     </row>
     <row r="7" spans="1:54">
-      <c r="A7" s="160">
+      <c r="A7" s="163">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="168"/>
-      <c r="S7" s="168"/>
-      <c r="T7" s="168"/>
-      <c r="U7" s="168"/>
-      <c r="V7" s="168"/>
-      <c r="W7" s="168"/>
-      <c r="X7" s="168"/>
-      <c r="Y7" s="168"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="168"/>
-      <c r="AC7" s="168"/>
-      <c r="AD7" s="168"/>
-      <c r="AE7" s="168"/>
-      <c r="AF7" s="168"/>
-      <c r="AG7" s="168"/>
-      <c r="AH7" s="168"/>
-      <c r="AI7" s="168"/>
-      <c r="AJ7" s="168"/>
-      <c r="AK7" s="168"/>
-      <c r="AL7" s="168"/>
-      <c r="AM7" s="168"/>
-      <c r="AN7" s="168"/>
-      <c r="AO7" s="168"/>
-      <c r="AP7" s="168"/>
-      <c r="AQ7" s="168"/>
-      <c r="AR7" s="168"/>
-      <c r="AS7" s="168"/>
-      <c r="AT7" s="168"/>
-      <c r="AU7" s="168"/>
-      <c r="AV7" s="168"/>
-      <c r="AW7" s="168"/>
-      <c r="AX7" s="168"/>
-      <c r="AY7" s="168"/>
-      <c r="AZ7" s="168"/>
-      <c r="BA7" s="168"/>
-      <c r="BB7" s="161"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="171"/>
+      <c r="R7" s="171"/>
+      <c r="S7" s="171"/>
+      <c r="T7" s="171"/>
+      <c r="U7" s="171"/>
+      <c r="V7" s="171"/>
+      <c r="W7" s="171"/>
+      <c r="X7" s="171"/>
+      <c r="Y7" s="171"/>
+      <c r="Z7" s="164"/>
+      <c r="AA7" s="163"/>
+      <c r="AB7" s="171"/>
+      <c r="AC7" s="171"/>
+      <c r="AD7" s="171"/>
+      <c r="AE7" s="171"/>
+      <c r="AF7" s="171"/>
+      <c r="AG7" s="171"/>
+      <c r="AH7" s="171"/>
+      <c r="AI7" s="171"/>
+      <c r="AJ7" s="171"/>
+      <c r="AK7" s="171"/>
+      <c r="AL7" s="171"/>
+      <c r="AM7" s="171"/>
+      <c r="AN7" s="171"/>
+      <c r="AO7" s="171"/>
+      <c r="AP7" s="171"/>
+      <c r="AQ7" s="171"/>
+      <c r="AR7" s="171"/>
+      <c r="AS7" s="171"/>
+      <c r="AT7" s="171"/>
+      <c r="AU7" s="171"/>
+      <c r="AV7" s="171"/>
+      <c r="AW7" s="171"/>
+      <c r="AX7" s="171"/>
+      <c r="AY7" s="171"/>
+      <c r="AZ7" s="171"/>
+      <c r="BA7" s="171"/>
+      <c r="BB7" s="164"/>
     </row>
     <row r="8" spans="1:54">
-      <c r="A8" s="160">
+      <c r="A8" s="163">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="168"/>
-      <c r="R8" s="168"/>
-      <c r="S8" s="168"/>
-      <c r="T8" s="168"/>
-      <c r="U8" s="168"/>
-      <c r="V8" s="168"/>
-      <c r="W8" s="168"/>
-      <c r="X8" s="168"/>
-      <c r="Y8" s="168"/>
-      <c r="Z8" s="161"/>
-      <c r="AA8" s="160"/>
-      <c r="AB8" s="168"/>
-      <c r="AC8" s="168"/>
-      <c r="AD8" s="168"/>
-      <c r="AE8" s="168"/>
-      <c r="AF8" s="168"/>
-      <c r="AG8" s="168"/>
-      <c r="AH8" s="168"/>
-      <c r="AI8" s="168"/>
-      <c r="AJ8" s="168"/>
-      <c r="AK8" s="168"/>
-      <c r="AL8" s="168"/>
-      <c r="AM8" s="168"/>
-      <c r="AN8" s="168"/>
-      <c r="AO8" s="168"/>
-      <c r="AP8" s="168"/>
-      <c r="AQ8" s="168"/>
-      <c r="AR8" s="168"/>
-      <c r="AS8" s="168"/>
-      <c r="AT8" s="168"/>
-      <c r="AU8" s="168"/>
-      <c r="AV8" s="168"/>
-      <c r="AW8" s="168"/>
-      <c r="AX8" s="168"/>
-      <c r="AY8" s="168"/>
-      <c r="AZ8" s="168"/>
-      <c r="BA8" s="168"/>
-      <c r="BB8" s="161"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="171"/>
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="164"/>
+      <c r="AA8" s="163"/>
+      <c r="AB8" s="171"/>
+      <c r="AC8" s="171"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="171"/>
+      <c r="AF8" s="171"/>
+      <c r="AG8" s="171"/>
+      <c r="AH8" s="171"/>
+      <c r="AI8" s="171"/>
+      <c r="AJ8" s="171"/>
+      <c r="AK8" s="171"/>
+      <c r="AL8" s="171"/>
+      <c r="AM8" s="171"/>
+      <c r="AN8" s="171"/>
+      <c r="AO8" s="171"/>
+      <c r="AP8" s="171"/>
+      <c r="AQ8" s="171"/>
+      <c r="AR8" s="171"/>
+      <c r="AS8" s="171"/>
+      <c r="AT8" s="171"/>
+      <c r="AU8" s="171"/>
+      <c r="AV8" s="171"/>
+      <c r="AW8" s="171"/>
+      <c r="AX8" s="171"/>
+      <c r="AY8" s="171"/>
+      <c r="AZ8" s="171"/>
+      <c r="BA8" s="171"/>
+      <c r="BB8" s="164"/>
     </row>
     <row r="9" spans="1:54">
-      <c r="A9" s="160">
+      <c r="A9" s="163">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="160"/>
-      <c r="O9" s="168"/>
-      <c r="P9" s="168"/>
-      <c r="Q9" s="168"/>
-      <c r="R9" s="168"/>
-      <c r="S9" s="168"/>
-      <c r="T9" s="168"/>
-      <c r="U9" s="168"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="168"/>
-      <c r="X9" s="168"/>
-      <c r="Y9" s="168"/>
-      <c r="Z9" s="161"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="168"/>
-      <c r="AC9" s="168"/>
-      <c r="AD9" s="168"/>
-      <c r="AE9" s="168"/>
-      <c r="AF9" s="168"/>
-      <c r="AG9" s="168"/>
-      <c r="AH9" s="168"/>
-      <c r="AI9" s="168"/>
-      <c r="AJ9" s="168"/>
-      <c r="AK9" s="168"/>
-      <c r="AL9" s="168"/>
-      <c r="AM9" s="168"/>
-      <c r="AN9" s="168"/>
-      <c r="AO9" s="168"/>
-      <c r="AP9" s="168"/>
-      <c r="AQ9" s="168"/>
-      <c r="AR9" s="168"/>
-      <c r="AS9" s="168"/>
-      <c r="AT9" s="168"/>
-      <c r="AU9" s="168"/>
-      <c r="AV9" s="168"/>
-      <c r="AW9" s="168"/>
-      <c r="AX9" s="168"/>
-      <c r="AY9" s="168"/>
-      <c r="AZ9" s="168"/>
-      <c r="BA9" s="168"/>
-      <c r="BB9" s="161"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="171"/>
+      <c r="R9" s="171"/>
+      <c r="S9" s="171"/>
+      <c r="T9" s="171"/>
+      <c r="U9" s="171"/>
+      <c r="V9" s="171"/>
+      <c r="W9" s="171"/>
+      <c r="X9" s="171"/>
+      <c r="Y9" s="171"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="163"/>
+      <c r="AB9" s="171"/>
+      <c r="AC9" s="171"/>
+      <c r="AD9" s="171"/>
+      <c r="AE9" s="171"/>
+      <c r="AF9" s="171"/>
+      <c r="AG9" s="171"/>
+      <c r="AH9" s="171"/>
+      <c r="AI9" s="171"/>
+      <c r="AJ9" s="171"/>
+      <c r="AK9" s="171"/>
+      <c r="AL9" s="171"/>
+      <c r="AM9" s="171"/>
+      <c r="AN9" s="171"/>
+      <c r="AO9" s="171"/>
+      <c r="AP9" s="171"/>
+      <c r="AQ9" s="171"/>
+      <c r="AR9" s="171"/>
+      <c r="AS9" s="171"/>
+      <c r="AT9" s="171"/>
+      <c r="AU9" s="171"/>
+      <c r="AV9" s="171"/>
+      <c r="AW9" s="171"/>
+      <c r="AX9" s="171"/>
+      <c r="AY9" s="171"/>
+      <c r="AZ9" s="171"/>
+      <c r="BA9" s="171"/>
+      <c r="BB9" s="164"/>
     </row>
     <row r="10" spans="1:54">
-      <c r="A10" s="160">
+      <c r="A10" s="163">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="161"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="167"/>
-      <c r="N10" s="160"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="168"/>
-      <c r="X10" s="168"/>
-      <c r="Y10" s="168"/>
-      <c r="Z10" s="161"/>
-      <c r="AA10" s="160"/>
-      <c r="AB10" s="168"/>
-      <c r="AC10" s="168"/>
-      <c r="AD10" s="168"/>
-      <c r="AE10" s="168"/>
-      <c r="AF10" s="168"/>
-      <c r="AG10" s="168"/>
-      <c r="AH10" s="168"/>
-      <c r="AI10" s="168"/>
-      <c r="AJ10" s="168"/>
-      <c r="AK10" s="168"/>
-      <c r="AL10" s="168"/>
-      <c r="AM10" s="168"/>
-      <c r="AN10" s="168"/>
-      <c r="AO10" s="168"/>
-      <c r="AP10" s="168"/>
-      <c r="AQ10" s="168"/>
-      <c r="AR10" s="168"/>
-      <c r="AS10" s="168"/>
-      <c r="AT10" s="168"/>
-      <c r="AU10" s="168"/>
-      <c r="AV10" s="168"/>
-      <c r="AW10" s="168"/>
-      <c r="AX10" s="168"/>
-      <c r="AY10" s="168"/>
-      <c r="AZ10" s="168"/>
-      <c r="BA10" s="168"/>
-      <c r="BB10" s="161"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="171"/>
+      <c r="R10" s="171"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="171"/>
+      <c r="U10" s="171"/>
+      <c r="V10" s="171"/>
+      <c r="W10" s="171"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="171"/>
+      <c r="Z10" s="164"/>
+      <c r="AA10" s="163"/>
+      <c r="AB10" s="171"/>
+      <c r="AC10" s="171"/>
+      <c r="AD10" s="171"/>
+      <c r="AE10" s="171"/>
+      <c r="AF10" s="171"/>
+      <c r="AG10" s="171"/>
+      <c r="AH10" s="171"/>
+      <c r="AI10" s="171"/>
+      <c r="AJ10" s="171"/>
+      <c r="AK10" s="171"/>
+      <c r="AL10" s="171"/>
+      <c r="AM10" s="171"/>
+      <c r="AN10" s="171"/>
+      <c r="AO10" s="171"/>
+      <c r="AP10" s="171"/>
+      <c r="AQ10" s="171"/>
+      <c r="AR10" s="171"/>
+      <c r="AS10" s="171"/>
+      <c r="AT10" s="171"/>
+      <c r="AU10" s="171"/>
+      <c r="AV10" s="171"/>
+      <c r="AW10" s="171"/>
+      <c r="AX10" s="171"/>
+      <c r="AY10" s="171"/>
+      <c r="AZ10" s="171"/>
+      <c r="BA10" s="171"/>
+      <c r="BB10" s="164"/>
     </row>
     <row r="11" spans="1:54">
-      <c r="A11" s="160">
+      <c r="A11" s="163">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="161"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="160"/>
-      <c r="O11" s="168"/>
-      <c r="P11" s="168"/>
-      <c r="Q11" s="168"/>
-      <c r="R11" s="168"/>
-      <c r="S11" s="168"/>
-      <c r="T11" s="168"/>
-      <c r="U11" s="168"/>
-      <c r="V11" s="168"/>
-      <c r="W11" s="168"/>
-      <c r="X11" s="168"/>
-      <c r="Y11" s="168"/>
-      <c r="Z11" s="161"/>
-      <c r="AA11" s="160"/>
-      <c r="AB11" s="168"/>
-      <c r="AC11" s="168"/>
-      <c r="AD11" s="168"/>
-      <c r="AE11" s="168"/>
-      <c r="AF11" s="168"/>
-      <c r="AG11" s="168"/>
-      <c r="AH11" s="168"/>
-      <c r="AI11" s="168"/>
-      <c r="AJ11" s="168"/>
-      <c r="AK11" s="168"/>
-      <c r="AL11" s="168"/>
-      <c r="AM11" s="168"/>
-      <c r="AN11" s="168"/>
-      <c r="AO11" s="168"/>
-      <c r="AP11" s="168"/>
-      <c r="AQ11" s="168"/>
-      <c r="AR11" s="168"/>
-      <c r="AS11" s="168"/>
-      <c r="AT11" s="168"/>
-      <c r="AU11" s="168"/>
-      <c r="AV11" s="168"/>
-      <c r="AW11" s="168"/>
-      <c r="AX11" s="168"/>
-      <c r="AY11" s="168"/>
-      <c r="AZ11" s="168"/>
-      <c r="BA11" s="168"/>
-      <c r="BB11" s="161"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="171"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="171"/>
+      <c r="T11" s="171"/>
+      <c r="U11" s="171"/>
+      <c r="V11" s="171"/>
+      <c r="W11" s="171"/>
+      <c r="X11" s="171"/>
+      <c r="Y11" s="171"/>
+      <c r="Z11" s="164"/>
+      <c r="AA11" s="163"/>
+      <c r="AB11" s="171"/>
+      <c r="AC11" s="171"/>
+      <c r="AD11" s="171"/>
+      <c r="AE11" s="171"/>
+      <c r="AF11" s="171"/>
+      <c r="AG11" s="171"/>
+      <c r="AH11" s="171"/>
+      <c r="AI11" s="171"/>
+      <c r="AJ11" s="171"/>
+      <c r="AK11" s="171"/>
+      <c r="AL11" s="171"/>
+      <c r="AM11" s="171"/>
+      <c r="AN11" s="171"/>
+      <c r="AO11" s="171"/>
+      <c r="AP11" s="171"/>
+      <c r="AQ11" s="171"/>
+      <c r="AR11" s="171"/>
+      <c r="AS11" s="171"/>
+      <c r="AT11" s="171"/>
+      <c r="AU11" s="171"/>
+      <c r="AV11" s="171"/>
+      <c r="AW11" s="171"/>
+      <c r="AX11" s="171"/>
+      <c r="AY11" s="171"/>
+      <c r="AZ11" s="171"/>
+      <c r="BA11" s="171"/>
+      <c r="BB11" s="164"/>
     </row>
     <row r="12" spans="1:54">
-      <c r="A12" s="160">
+      <c r="A12" s="163">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="161"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="168"/>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="168"/>
-      <c r="S12" s="168"/>
-      <c r="T12" s="168"/>
-      <c r="U12" s="168"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="168"/>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="161"/>
-      <c r="AA12" s="160"/>
-      <c r="AB12" s="168"/>
-      <c r="AC12" s="168"/>
-      <c r="AD12" s="168"/>
-      <c r="AE12" s="168"/>
-      <c r="AF12" s="168"/>
-      <c r="AG12" s="168"/>
-      <c r="AH12" s="168"/>
-      <c r="AI12" s="168"/>
-      <c r="AJ12" s="168"/>
-      <c r="AK12" s="168"/>
-      <c r="AL12" s="168"/>
-      <c r="AM12" s="168"/>
-      <c r="AN12" s="168"/>
-      <c r="AO12" s="168"/>
-      <c r="AP12" s="168"/>
-      <c r="AQ12" s="168"/>
-      <c r="AR12" s="168"/>
-      <c r="AS12" s="168"/>
-      <c r="AT12" s="168"/>
-      <c r="AU12" s="168"/>
-      <c r="AV12" s="168"/>
-      <c r="AW12" s="168"/>
-      <c r="AX12" s="168"/>
-      <c r="AY12" s="168"/>
-      <c r="AZ12" s="168"/>
-      <c r="BA12" s="168"/>
-      <c r="BB12" s="161"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="171"/>
+      <c r="Q12" s="171"/>
+      <c r="R12" s="171"/>
+      <c r="S12" s="171"/>
+      <c r="T12" s="171"/>
+      <c r="U12" s="171"/>
+      <c r="V12" s="171"/>
+      <c r="W12" s="171"/>
+      <c r="X12" s="171"/>
+      <c r="Y12" s="171"/>
+      <c r="Z12" s="164"/>
+      <c r="AA12" s="163"/>
+      <c r="AB12" s="171"/>
+      <c r="AC12" s="171"/>
+      <c r="AD12" s="171"/>
+      <c r="AE12" s="171"/>
+      <c r="AF12" s="171"/>
+      <c r="AG12" s="171"/>
+      <c r="AH12" s="171"/>
+      <c r="AI12" s="171"/>
+      <c r="AJ12" s="171"/>
+      <c r="AK12" s="171"/>
+      <c r="AL12" s="171"/>
+      <c r="AM12" s="171"/>
+      <c r="AN12" s="171"/>
+      <c r="AO12" s="171"/>
+      <c r="AP12" s="171"/>
+      <c r="AQ12" s="171"/>
+      <c r="AR12" s="171"/>
+      <c r="AS12" s="171"/>
+      <c r="AT12" s="171"/>
+      <c r="AU12" s="171"/>
+      <c r="AV12" s="171"/>
+      <c r="AW12" s="171"/>
+      <c r="AX12" s="171"/>
+      <c r="AY12" s="171"/>
+      <c r="AZ12" s="171"/>
+      <c r="BA12" s="171"/>
+      <c r="BB12" s="164"/>
     </row>
     <row r="13" spans="1:54">
-      <c r="A13" s="160">
+      <c r="A13" s="163">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="161"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="160"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="168"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="168"/>
-      <c r="S13" s="168"/>
-      <c r="T13" s="168"/>
-      <c r="U13" s="168"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="168"/>
-      <c r="Z13" s="161"/>
-      <c r="AA13" s="160"/>
-      <c r="AB13" s="168"/>
-      <c r="AC13" s="168"/>
-      <c r="AD13" s="168"/>
-      <c r="AE13" s="168"/>
-      <c r="AF13" s="168"/>
-      <c r="AG13" s="168"/>
-      <c r="AH13" s="168"/>
-      <c r="AI13" s="168"/>
-      <c r="AJ13" s="168"/>
-      <c r="AK13" s="168"/>
-      <c r="AL13" s="168"/>
-      <c r="AM13" s="168"/>
-      <c r="AN13" s="168"/>
-      <c r="AO13" s="168"/>
-      <c r="AP13" s="168"/>
-      <c r="AQ13" s="168"/>
-      <c r="AR13" s="168"/>
-      <c r="AS13" s="168"/>
-      <c r="AT13" s="168"/>
-      <c r="AU13" s="168"/>
-      <c r="AV13" s="168"/>
-      <c r="AW13" s="168"/>
-      <c r="AX13" s="168"/>
-      <c r="AY13" s="168"/>
-      <c r="AZ13" s="168"/>
-      <c r="BA13" s="168"/>
-      <c r="BB13" s="161"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
+      <c r="L13" s="169"/>
+      <c r="M13" s="170"/>
+      <c r="N13" s="163"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="171"/>
+      <c r="Q13" s="171"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="171"/>
+      <c r="T13" s="171"/>
+      <c r="U13" s="171"/>
+      <c r="V13" s="171"/>
+      <c r="W13" s="171"/>
+      <c r="X13" s="171"/>
+      <c r="Y13" s="171"/>
+      <c r="Z13" s="164"/>
+      <c r="AA13" s="163"/>
+      <c r="AB13" s="171"/>
+      <c r="AC13" s="171"/>
+      <c r="AD13" s="171"/>
+      <c r="AE13" s="171"/>
+      <c r="AF13" s="171"/>
+      <c r="AG13" s="171"/>
+      <c r="AH13" s="171"/>
+      <c r="AI13" s="171"/>
+      <c r="AJ13" s="171"/>
+      <c r="AK13" s="171"/>
+      <c r="AL13" s="171"/>
+      <c r="AM13" s="171"/>
+      <c r="AN13" s="171"/>
+      <c r="AO13" s="171"/>
+      <c r="AP13" s="171"/>
+      <c r="AQ13" s="171"/>
+      <c r="AR13" s="171"/>
+      <c r="AS13" s="171"/>
+      <c r="AT13" s="171"/>
+      <c r="AU13" s="171"/>
+      <c r="AV13" s="171"/>
+      <c r="AW13" s="171"/>
+      <c r="AX13" s="171"/>
+      <c r="AY13" s="171"/>
+      <c r="AZ13" s="171"/>
+      <c r="BA13" s="171"/>
+      <c r="BB13" s="164"/>
     </row>
     <row r="14" spans="1:54">
-      <c r="A14" s="160">
+      <c r="A14" s="163">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="168"/>
-      <c r="S14" s="168"/>
-      <c r="T14" s="168"/>
-      <c r="U14" s="168"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="168"/>
-      <c r="Y14" s="168"/>
-      <c r="Z14" s="161"/>
-      <c r="AA14" s="160"/>
-      <c r="AB14" s="168"/>
-      <c r="AC14" s="168"/>
-      <c r="AD14" s="168"/>
-      <c r="AE14" s="168"/>
-      <c r="AF14" s="168"/>
-      <c r="AG14" s="168"/>
-      <c r="AH14" s="168"/>
-      <c r="AI14" s="168"/>
-      <c r="AJ14" s="168"/>
-      <c r="AK14" s="168"/>
-      <c r="AL14" s="168"/>
-      <c r="AM14" s="168"/>
-      <c r="AN14" s="168"/>
-      <c r="AO14" s="168"/>
-      <c r="AP14" s="168"/>
-      <c r="AQ14" s="168"/>
-      <c r="AR14" s="168"/>
-      <c r="AS14" s="168"/>
-      <c r="AT14" s="168"/>
-      <c r="AU14" s="168"/>
-      <c r="AV14" s="168"/>
-      <c r="AW14" s="168"/>
-      <c r="AX14" s="168"/>
-      <c r="AY14" s="168"/>
-      <c r="AZ14" s="168"/>
-      <c r="BA14" s="168"/>
-      <c r="BB14" s="161"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="171"/>
+      <c r="Q14" s="171"/>
+      <c r="R14" s="171"/>
+      <c r="S14" s="171"/>
+      <c r="T14" s="171"/>
+      <c r="U14" s="171"/>
+      <c r="V14" s="171"/>
+      <c r="W14" s="171"/>
+      <c r="X14" s="171"/>
+      <c r="Y14" s="171"/>
+      <c r="Z14" s="164"/>
+      <c r="AA14" s="163"/>
+      <c r="AB14" s="171"/>
+      <c r="AC14" s="171"/>
+      <c r="AD14" s="171"/>
+      <c r="AE14" s="171"/>
+      <c r="AF14" s="171"/>
+      <c r="AG14" s="171"/>
+      <c r="AH14" s="171"/>
+      <c r="AI14" s="171"/>
+      <c r="AJ14" s="171"/>
+      <c r="AK14" s="171"/>
+      <c r="AL14" s="171"/>
+      <c r="AM14" s="171"/>
+      <c r="AN14" s="171"/>
+      <c r="AO14" s="171"/>
+      <c r="AP14" s="171"/>
+      <c r="AQ14" s="171"/>
+      <c r="AR14" s="171"/>
+      <c r="AS14" s="171"/>
+      <c r="AT14" s="171"/>
+      <c r="AU14" s="171"/>
+      <c r="AV14" s="171"/>
+      <c r="AW14" s="171"/>
+      <c r="AX14" s="171"/>
+      <c r="AY14" s="171"/>
+      <c r="AZ14" s="171"/>
+      <c r="BA14" s="171"/>
+      <c r="BB14" s="164"/>
     </row>
     <row r="15" spans="1:54">
-      <c r="A15" s="160">
+      <c r="A15" s="163">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="166"/>
-      <c r="K15" s="166"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="167"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="168"/>
-      <c r="R15" s="168"/>
-      <c r="S15" s="168"/>
-      <c r="T15" s="168"/>
-      <c r="U15" s="168"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="168"/>
-      <c r="X15" s="168"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="161"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="168"/>
-      <c r="AC15" s="168"/>
-      <c r="AD15" s="168"/>
-      <c r="AE15" s="168"/>
-      <c r="AF15" s="168"/>
-      <c r="AG15" s="168"/>
-      <c r="AH15" s="168"/>
-      <c r="AI15" s="168"/>
-      <c r="AJ15" s="168"/>
-      <c r="AK15" s="168"/>
-      <c r="AL15" s="168"/>
-      <c r="AM15" s="168"/>
-      <c r="AN15" s="168"/>
-      <c r="AO15" s="168"/>
-      <c r="AP15" s="168"/>
-      <c r="AQ15" s="168"/>
-      <c r="AR15" s="168"/>
-      <c r="AS15" s="168"/>
-      <c r="AT15" s="168"/>
-      <c r="AU15" s="168"/>
-      <c r="AV15" s="168"/>
-      <c r="AW15" s="168"/>
-      <c r="AX15" s="168"/>
-      <c r="AY15" s="168"/>
-      <c r="AZ15" s="168"/>
-      <c r="BA15" s="168"/>
-      <c r="BB15" s="161"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="171"/>
+      <c r="Q15" s="171"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="171"/>
+      <c r="T15" s="171"/>
+      <c r="U15" s="171"/>
+      <c r="V15" s="171"/>
+      <c r="W15" s="171"/>
+      <c r="X15" s="171"/>
+      <c r="Y15" s="171"/>
+      <c r="Z15" s="164"/>
+      <c r="AA15" s="163"/>
+      <c r="AB15" s="171"/>
+      <c r="AC15" s="171"/>
+      <c r="AD15" s="171"/>
+      <c r="AE15" s="171"/>
+      <c r="AF15" s="171"/>
+      <c r="AG15" s="171"/>
+      <c r="AH15" s="171"/>
+      <c r="AI15" s="171"/>
+      <c r="AJ15" s="171"/>
+      <c r="AK15" s="171"/>
+      <c r="AL15" s="171"/>
+      <c r="AM15" s="171"/>
+      <c r="AN15" s="171"/>
+      <c r="AO15" s="171"/>
+      <c r="AP15" s="171"/>
+      <c r="AQ15" s="171"/>
+      <c r="AR15" s="171"/>
+      <c r="AS15" s="171"/>
+      <c r="AT15" s="171"/>
+      <c r="AU15" s="171"/>
+      <c r="AV15" s="171"/>
+      <c r="AW15" s="171"/>
+      <c r="AX15" s="171"/>
+      <c r="AY15" s="171"/>
+      <c r="AZ15" s="171"/>
+      <c r="BA15" s="171"/>
+      <c r="BB15" s="164"/>
     </row>
     <row r="16" spans="1:54">
-      <c r="A16" s="160">
+      <c r="A16" s="163">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="161"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="167"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="168"/>
-      <c r="P16" s="168"/>
-      <c r="Q16" s="168"/>
-      <c r="R16" s="168"/>
-      <c r="S16" s="168"/>
-      <c r="T16" s="168"/>
-      <c r="U16" s="168"/>
-      <c r="V16" s="168"/>
-      <c r="W16" s="168"/>
-      <c r="X16" s="168"/>
-      <c r="Y16" s="168"/>
-      <c r="Z16" s="161"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="168"/>
-      <c r="AC16" s="168"/>
-      <c r="AD16" s="168"/>
-      <c r="AE16" s="168"/>
-      <c r="AF16" s="168"/>
-      <c r="AG16" s="168"/>
-      <c r="AH16" s="168"/>
-      <c r="AI16" s="168"/>
-      <c r="AJ16" s="168"/>
-      <c r="AK16" s="168"/>
-      <c r="AL16" s="168"/>
-      <c r="AM16" s="168"/>
-      <c r="AN16" s="168"/>
-      <c r="AO16" s="168"/>
-      <c r="AP16" s="168"/>
-      <c r="AQ16" s="168"/>
-      <c r="AR16" s="168"/>
-      <c r="AS16" s="168"/>
-      <c r="AT16" s="168"/>
-      <c r="AU16" s="168"/>
-      <c r="AV16" s="168"/>
-      <c r="AW16" s="168"/>
-      <c r="AX16" s="168"/>
-      <c r="AY16" s="168"/>
-      <c r="AZ16" s="168"/>
-      <c r="BA16" s="168"/>
-      <c r="BB16" s="161"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="171"/>
+      <c r="R16" s="171"/>
+      <c r="S16" s="171"/>
+      <c r="T16" s="171"/>
+      <c r="U16" s="171"/>
+      <c r="V16" s="171"/>
+      <c r="W16" s="171"/>
+      <c r="X16" s="171"/>
+      <c r="Y16" s="171"/>
+      <c r="Z16" s="164"/>
+      <c r="AA16" s="163"/>
+      <c r="AB16" s="171"/>
+      <c r="AC16" s="171"/>
+      <c r="AD16" s="171"/>
+      <c r="AE16" s="171"/>
+      <c r="AF16" s="171"/>
+      <c r="AG16" s="171"/>
+      <c r="AH16" s="171"/>
+      <c r="AI16" s="171"/>
+      <c r="AJ16" s="171"/>
+      <c r="AK16" s="171"/>
+      <c r="AL16" s="171"/>
+      <c r="AM16" s="171"/>
+      <c r="AN16" s="171"/>
+      <c r="AO16" s="171"/>
+      <c r="AP16" s="171"/>
+      <c r="AQ16" s="171"/>
+      <c r="AR16" s="171"/>
+      <c r="AS16" s="171"/>
+      <c r="AT16" s="171"/>
+      <c r="AU16" s="171"/>
+      <c r="AV16" s="171"/>
+      <c r="AW16" s="171"/>
+      <c r="AX16" s="171"/>
+      <c r="AY16" s="171"/>
+      <c r="AZ16" s="171"/>
+      <c r="BA16" s="171"/>
+      <c r="BB16" s="164"/>
     </row>
     <row r="17" spans="1:54">
-      <c r="A17" s="160">
+      <c r="A17" s="163">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="161"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="167"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="168"/>
-      <c r="P17" s="168"/>
-      <c r="Q17" s="168"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="168"/>
-      <c r="T17" s="168"/>
-      <c r="U17" s="168"/>
-      <c r="V17" s="168"/>
-      <c r="W17" s="168"/>
-      <c r="X17" s="168"/>
-      <c r="Y17" s="168"/>
-      <c r="Z17" s="161"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="168"/>
-      <c r="AC17" s="168"/>
-      <c r="AD17" s="168"/>
-      <c r="AE17" s="168"/>
-      <c r="AF17" s="168"/>
-      <c r="AG17" s="168"/>
-      <c r="AH17" s="168"/>
-      <c r="AI17" s="168"/>
-      <c r="AJ17" s="168"/>
-      <c r="AK17" s="168"/>
-      <c r="AL17" s="168"/>
-      <c r="AM17" s="168"/>
-      <c r="AN17" s="168"/>
-      <c r="AO17" s="168"/>
-      <c r="AP17" s="168"/>
-      <c r="AQ17" s="168"/>
-      <c r="AR17" s="168"/>
-      <c r="AS17" s="168"/>
-      <c r="AT17" s="168"/>
-      <c r="AU17" s="168"/>
-      <c r="AV17" s="168"/>
-      <c r="AW17" s="168"/>
-      <c r="AX17" s="168"/>
-      <c r="AY17" s="168"/>
-      <c r="AZ17" s="168"/>
-      <c r="BA17" s="168"/>
-      <c r="BB17" s="161"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="171"/>
+      <c r="Q17" s="171"/>
+      <c r="R17" s="171"/>
+      <c r="S17" s="171"/>
+      <c r="T17" s="171"/>
+      <c r="U17" s="171"/>
+      <c r="V17" s="171"/>
+      <c r="W17" s="171"/>
+      <c r="X17" s="171"/>
+      <c r="Y17" s="171"/>
+      <c r="Z17" s="164"/>
+      <c r="AA17" s="163"/>
+      <c r="AB17" s="171"/>
+      <c r="AC17" s="171"/>
+      <c r="AD17" s="171"/>
+      <c r="AE17" s="171"/>
+      <c r="AF17" s="171"/>
+      <c r="AG17" s="171"/>
+      <c r="AH17" s="171"/>
+      <c r="AI17" s="171"/>
+      <c r="AJ17" s="171"/>
+      <c r="AK17" s="171"/>
+      <c r="AL17" s="171"/>
+      <c r="AM17" s="171"/>
+      <c r="AN17" s="171"/>
+      <c r="AO17" s="171"/>
+      <c r="AP17" s="171"/>
+      <c r="AQ17" s="171"/>
+      <c r="AR17" s="171"/>
+      <c r="AS17" s="171"/>
+      <c r="AT17" s="171"/>
+      <c r="AU17" s="171"/>
+      <c r="AV17" s="171"/>
+      <c r="AW17" s="171"/>
+      <c r="AX17" s="171"/>
+      <c r="AY17" s="171"/>
+      <c r="AZ17" s="171"/>
+      <c r="BA17" s="171"/>
+      <c r="BB17" s="164"/>
     </row>
     <row r="18" spans="1:54">
-      <c r="A18" s="160">
+      <c r="A18" s="163">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="161"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="160"/>
-      <c r="O18" s="168"/>
-      <c r="P18" s="168"/>
-      <c r="Q18" s="168"/>
-      <c r="R18" s="168"/>
-      <c r="S18" s="168"/>
-      <c r="T18" s="168"/>
-      <c r="U18" s="168"/>
-      <c r="V18" s="168"/>
-      <c r="W18" s="168"/>
-      <c r="X18" s="168"/>
-      <c r="Y18" s="168"/>
-      <c r="Z18" s="161"/>
-      <c r="AA18" s="160"/>
-      <c r="AB18" s="168"/>
-      <c r="AC18" s="168"/>
-      <c r="AD18" s="168"/>
-      <c r="AE18" s="168"/>
-      <c r="AF18" s="168"/>
-      <c r="AG18" s="168"/>
-      <c r="AH18" s="168"/>
-      <c r="AI18" s="168"/>
-      <c r="AJ18" s="168"/>
-      <c r="AK18" s="168"/>
-      <c r="AL18" s="168"/>
-      <c r="AM18" s="168"/>
-      <c r="AN18" s="168"/>
-      <c r="AO18" s="168"/>
-      <c r="AP18" s="168"/>
-      <c r="AQ18" s="168"/>
-      <c r="AR18" s="168"/>
-      <c r="AS18" s="168"/>
-      <c r="AT18" s="168"/>
-      <c r="AU18" s="168"/>
-      <c r="AV18" s="168"/>
-      <c r="AW18" s="168"/>
-      <c r="AX18" s="168"/>
-      <c r="AY18" s="168"/>
-      <c r="AZ18" s="168"/>
-      <c r="BA18" s="168"/>
-      <c r="BB18" s="161"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="171"/>
+      <c r="Q18" s="171"/>
+      <c r="R18" s="171"/>
+      <c r="S18" s="171"/>
+      <c r="T18" s="171"/>
+      <c r="U18" s="171"/>
+      <c r="V18" s="171"/>
+      <c r="W18" s="171"/>
+      <c r="X18" s="171"/>
+      <c r="Y18" s="171"/>
+      <c r="Z18" s="164"/>
+      <c r="AA18" s="163"/>
+      <c r="AB18" s="171"/>
+      <c r="AC18" s="171"/>
+      <c r="AD18" s="171"/>
+      <c r="AE18" s="171"/>
+      <c r="AF18" s="171"/>
+      <c r="AG18" s="171"/>
+      <c r="AH18" s="171"/>
+      <c r="AI18" s="171"/>
+      <c r="AJ18" s="171"/>
+      <c r="AK18" s="171"/>
+      <c r="AL18" s="171"/>
+      <c r="AM18" s="171"/>
+      <c r="AN18" s="171"/>
+      <c r="AO18" s="171"/>
+      <c r="AP18" s="171"/>
+      <c r="AQ18" s="171"/>
+      <c r="AR18" s="171"/>
+      <c r="AS18" s="171"/>
+      <c r="AT18" s="171"/>
+      <c r="AU18" s="171"/>
+      <c r="AV18" s="171"/>
+      <c r="AW18" s="171"/>
+      <c r="AX18" s="171"/>
+      <c r="AY18" s="171"/>
+      <c r="AZ18" s="171"/>
+      <c r="BA18" s="171"/>
+      <c r="BB18" s="164"/>
     </row>
     <row r="19" spans="1:54">
-      <c r="A19" s="160">
+      <c r="A19" s="163">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="161"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="167"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="168"/>
-      <c r="P19" s="168"/>
-      <c r="Q19" s="168"/>
-      <c r="R19" s="168"/>
-      <c r="S19" s="168"/>
-      <c r="T19" s="168"/>
-      <c r="U19" s="168"/>
-      <c r="V19" s="168"/>
-      <c r="W19" s="168"/>
-      <c r="X19" s="168"/>
-      <c r="Y19" s="168"/>
-      <c r="Z19" s="161"/>
-      <c r="AA19" s="160"/>
-      <c r="AB19" s="168"/>
-      <c r="AC19" s="168"/>
-      <c r="AD19" s="168"/>
-      <c r="AE19" s="168"/>
-      <c r="AF19" s="168"/>
-      <c r="AG19" s="168"/>
-      <c r="AH19" s="168"/>
-      <c r="AI19" s="168"/>
-      <c r="AJ19" s="168"/>
-      <c r="AK19" s="168"/>
-      <c r="AL19" s="168"/>
-      <c r="AM19" s="168"/>
-      <c r="AN19" s="168"/>
-      <c r="AO19" s="168"/>
-      <c r="AP19" s="168"/>
-      <c r="AQ19" s="168"/>
-      <c r="AR19" s="168"/>
-      <c r="AS19" s="168"/>
-      <c r="AT19" s="168"/>
-      <c r="AU19" s="168"/>
-      <c r="AV19" s="168"/>
-      <c r="AW19" s="168"/>
-      <c r="AX19" s="168"/>
-      <c r="AY19" s="168"/>
-      <c r="AZ19" s="168"/>
-      <c r="BA19" s="168"/>
-      <c r="BB19" s="161"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="169"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="171"/>
+      <c r="P19" s="171"/>
+      <c r="Q19" s="171"/>
+      <c r="R19" s="171"/>
+      <c r="S19" s="171"/>
+      <c r="T19" s="171"/>
+      <c r="U19" s="171"/>
+      <c r="V19" s="171"/>
+      <c r="W19" s="171"/>
+      <c r="X19" s="171"/>
+      <c r="Y19" s="171"/>
+      <c r="Z19" s="164"/>
+      <c r="AA19" s="163"/>
+      <c r="AB19" s="171"/>
+      <c r="AC19" s="171"/>
+      <c r="AD19" s="171"/>
+      <c r="AE19" s="171"/>
+      <c r="AF19" s="171"/>
+      <c r="AG19" s="171"/>
+      <c r="AH19" s="171"/>
+      <c r="AI19" s="171"/>
+      <c r="AJ19" s="171"/>
+      <c r="AK19" s="171"/>
+      <c r="AL19" s="171"/>
+      <c r="AM19" s="171"/>
+      <c r="AN19" s="171"/>
+      <c r="AO19" s="171"/>
+      <c r="AP19" s="171"/>
+      <c r="AQ19" s="171"/>
+      <c r="AR19" s="171"/>
+      <c r="AS19" s="171"/>
+      <c r="AT19" s="171"/>
+      <c r="AU19" s="171"/>
+      <c r="AV19" s="171"/>
+      <c r="AW19" s="171"/>
+      <c r="AX19" s="171"/>
+      <c r="AY19" s="171"/>
+      <c r="AZ19" s="171"/>
+      <c r="BA19" s="171"/>
+      <c r="BB19" s="164"/>
     </row>
     <row r="20" spans="1:54">
-      <c r="A20" s="160">
+      <c r="A20" s="163">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="161"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="168"/>
-      <c r="P20" s="168"/>
-      <c r="Q20" s="168"/>
-      <c r="R20" s="168"/>
-      <c r="S20" s="168"/>
-      <c r="T20" s="168"/>
-      <c r="U20" s="168"/>
-      <c r="V20" s="168"/>
-      <c r="W20" s="168"/>
-      <c r="X20" s="168"/>
-      <c r="Y20" s="168"/>
-      <c r="Z20" s="161"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="168"/>
-      <c r="AC20" s="168"/>
-      <c r="AD20" s="168"/>
-      <c r="AE20" s="168"/>
-      <c r="AF20" s="168"/>
-      <c r="AG20" s="168"/>
-      <c r="AH20" s="168"/>
-      <c r="AI20" s="168"/>
-      <c r="AJ20" s="168"/>
-      <c r="AK20" s="168"/>
-      <c r="AL20" s="168"/>
-      <c r="AM20" s="168"/>
-      <c r="AN20" s="168"/>
-      <c r="AO20" s="168"/>
-      <c r="AP20" s="168"/>
-      <c r="AQ20" s="168"/>
-      <c r="AR20" s="168"/>
-      <c r="AS20" s="168"/>
-      <c r="AT20" s="168"/>
-      <c r="AU20" s="168"/>
-      <c r="AV20" s="168"/>
-      <c r="AW20" s="168"/>
-      <c r="AX20" s="168"/>
-      <c r="AY20" s="168"/>
-      <c r="AZ20" s="168"/>
-      <c r="BA20" s="168"/>
-      <c r="BB20" s="161"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="163"/>
+      <c r="O20" s="171"/>
+      <c r="P20" s="171"/>
+      <c r="Q20" s="171"/>
+      <c r="R20" s="171"/>
+      <c r="S20" s="171"/>
+      <c r="T20" s="171"/>
+      <c r="U20" s="171"/>
+      <c r="V20" s="171"/>
+      <c r="W20" s="171"/>
+      <c r="X20" s="171"/>
+      <c r="Y20" s="171"/>
+      <c r="Z20" s="164"/>
+      <c r="AA20" s="163"/>
+      <c r="AB20" s="171"/>
+      <c r="AC20" s="171"/>
+      <c r="AD20" s="171"/>
+      <c r="AE20" s="171"/>
+      <c r="AF20" s="171"/>
+      <c r="AG20" s="171"/>
+      <c r="AH20" s="171"/>
+      <c r="AI20" s="171"/>
+      <c r="AJ20" s="171"/>
+      <c r="AK20" s="171"/>
+      <c r="AL20" s="171"/>
+      <c r="AM20" s="171"/>
+      <c r="AN20" s="171"/>
+      <c r="AO20" s="171"/>
+      <c r="AP20" s="171"/>
+      <c r="AQ20" s="171"/>
+      <c r="AR20" s="171"/>
+      <c r="AS20" s="171"/>
+      <c r="AT20" s="171"/>
+      <c r="AU20" s="171"/>
+      <c r="AV20" s="171"/>
+      <c r="AW20" s="171"/>
+      <c r="AX20" s="171"/>
+      <c r="AY20" s="171"/>
+      <c r="AZ20" s="171"/>
+      <c r="BA20" s="171"/>
+      <c r="BB20" s="164"/>
     </row>
     <row r="21" spans="1:54">
-      <c r="A21" s="160">
+      <c r="A21" s="163">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="167"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="168"/>
-      <c r="P21" s="168"/>
-      <c r="Q21" s="168"/>
-      <c r="R21" s="168"/>
-      <c r="S21" s="168"/>
-      <c r="T21" s="168"/>
-      <c r="U21" s="168"/>
-      <c r="V21" s="168"/>
-      <c r="W21" s="168"/>
-      <c r="X21" s="168"/>
-      <c r="Y21" s="168"/>
-      <c r="Z21" s="161"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="168"/>
-      <c r="AC21" s="168"/>
-      <c r="AD21" s="168"/>
-      <c r="AE21" s="168"/>
-      <c r="AF21" s="168"/>
-      <c r="AG21" s="168"/>
-      <c r="AH21" s="168"/>
-      <c r="AI21" s="168"/>
-      <c r="AJ21" s="168"/>
-      <c r="AK21" s="168"/>
-      <c r="AL21" s="168"/>
-      <c r="AM21" s="168"/>
-      <c r="AN21" s="168"/>
-      <c r="AO21" s="168"/>
-      <c r="AP21" s="168"/>
-      <c r="AQ21" s="168"/>
-      <c r="AR21" s="168"/>
-      <c r="AS21" s="168"/>
-      <c r="AT21" s="168"/>
-      <c r="AU21" s="168"/>
-      <c r="AV21" s="168"/>
-      <c r="AW21" s="168"/>
-      <c r="AX21" s="168"/>
-      <c r="AY21" s="168"/>
-      <c r="AZ21" s="168"/>
-      <c r="BA21" s="168"/>
-      <c r="BB21" s="161"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="169"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="171"/>
+      <c r="Q21" s="171"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="171"/>
+      <c r="T21" s="171"/>
+      <c r="U21" s="171"/>
+      <c r="V21" s="171"/>
+      <c r="W21" s="171"/>
+      <c r="X21" s="171"/>
+      <c r="Y21" s="171"/>
+      <c r="Z21" s="164"/>
+      <c r="AA21" s="163"/>
+      <c r="AB21" s="171"/>
+      <c r="AC21" s="171"/>
+      <c r="AD21" s="171"/>
+      <c r="AE21" s="171"/>
+      <c r="AF21" s="171"/>
+      <c r="AG21" s="171"/>
+      <c r="AH21" s="171"/>
+      <c r="AI21" s="171"/>
+      <c r="AJ21" s="171"/>
+      <c r="AK21" s="171"/>
+      <c r="AL21" s="171"/>
+      <c r="AM21" s="171"/>
+      <c r="AN21" s="171"/>
+      <c r="AO21" s="171"/>
+      <c r="AP21" s="171"/>
+      <c r="AQ21" s="171"/>
+      <c r="AR21" s="171"/>
+      <c r="AS21" s="171"/>
+      <c r="AT21" s="171"/>
+      <c r="AU21" s="171"/>
+      <c r="AV21" s="171"/>
+      <c r="AW21" s="171"/>
+      <c r="AX21" s="171"/>
+      <c r="AY21" s="171"/>
+      <c r="AZ21" s="171"/>
+      <c r="BA21" s="171"/>
+      <c r="BB21" s="164"/>
     </row>
     <row r="22" spans="1:54">
-      <c r="A22" s="160">
+      <c r="A22" s="163">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="161"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="166"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="167"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="168"/>
-      <c r="P22" s="168"/>
-      <c r="Q22" s="168"/>
-      <c r="R22" s="168"/>
-      <c r="S22" s="168"/>
-      <c r="T22" s="168"/>
-      <c r="U22" s="168"/>
-      <c r="V22" s="168"/>
-      <c r="W22" s="168"/>
-      <c r="X22" s="168"/>
-      <c r="Y22" s="168"/>
-      <c r="Z22" s="161"/>
-      <c r="AA22" s="160"/>
-      <c r="AB22" s="168"/>
-      <c r="AC22" s="168"/>
-      <c r="AD22" s="168"/>
-      <c r="AE22" s="168"/>
-      <c r="AF22" s="168"/>
-      <c r="AG22" s="168"/>
-      <c r="AH22" s="168"/>
-      <c r="AI22" s="168"/>
-      <c r="AJ22" s="168"/>
-      <c r="AK22" s="168"/>
-      <c r="AL22" s="168"/>
-      <c r="AM22" s="168"/>
-      <c r="AN22" s="168"/>
-      <c r="AO22" s="168"/>
-      <c r="AP22" s="168"/>
-      <c r="AQ22" s="168"/>
-      <c r="AR22" s="168"/>
-      <c r="AS22" s="168"/>
-      <c r="AT22" s="168"/>
-      <c r="AU22" s="168"/>
-      <c r="AV22" s="168"/>
-      <c r="AW22" s="168"/>
-      <c r="AX22" s="168"/>
-      <c r="AY22" s="168"/>
-      <c r="AZ22" s="168"/>
-      <c r="BA22" s="168"/>
-      <c r="BB22" s="161"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="169"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="171"/>
+      <c r="P22" s="171"/>
+      <c r="Q22" s="171"/>
+      <c r="R22" s="171"/>
+      <c r="S22" s="171"/>
+      <c r="T22" s="171"/>
+      <c r="U22" s="171"/>
+      <c r="V22" s="171"/>
+      <c r="W22" s="171"/>
+      <c r="X22" s="171"/>
+      <c r="Y22" s="171"/>
+      <c r="Z22" s="164"/>
+      <c r="AA22" s="163"/>
+      <c r="AB22" s="171"/>
+      <c r="AC22" s="171"/>
+      <c r="AD22" s="171"/>
+      <c r="AE22" s="171"/>
+      <c r="AF22" s="171"/>
+      <c r="AG22" s="171"/>
+      <c r="AH22" s="171"/>
+      <c r="AI22" s="171"/>
+      <c r="AJ22" s="171"/>
+      <c r="AK22" s="171"/>
+      <c r="AL22" s="171"/>
+      <c r="AM22" s="171"/>
+      <c r="AN22" s="171"/>
+      <c r="AO22" s="171"/>
+      <c r="AP22" s="171"/>
+      <c r="AQ22" s="171"/>
+      <c r="AR22" s="171"/>
+      <c r="AS22" s="171"/>
+      <c r="AT22" s="171"/>
+      <c r="AU22" s="171"/>
+      <c r="AV22" s="171"/>
+      <c r="AW22" s="171"/>
+      <c r="AX22" s="171"/>
+      <c r="AY22" s="171"/>
+      <c r="AZ22" s="171"/>
+      <c r="BA22" s="171"/>
+      <c r="BB22" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -8350,96 +8462,6 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8448,14 +8470,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8654,21 +8674,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E6A24C0-8D2B-4AE7-9CD2-4CF353E7389D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10038E6-5231-406B-8CB5-8AF486817164}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
-    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8693,9 +8712,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10038E6-5231-406B-8CB5-8AF486817164}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E6A24C0-8D2B-4AE7-9CD2-4CF353E7389D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>